--- a/resources/data-imports/quests.xlsx
+++ b/resources/data-imports/quests.xlsx
@@ -1,37 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11108"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adambalan/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A9AA5B-FA9C-3940-A742-9EFEEF925A38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Quests" sheetId="1" r:id="rId1"/>
+    <sheet name="Quests" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" forceFullCalc="1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1" forceFullCalc="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>name</t>
   </si>
@@ -78,7 +62,7 @@
     <t>The Soldier</t>
   </si>
   <si>
-    <t>Artifact Crafting Masters Book</t>
+    <t>Alchemist Tools</t>
   </si>
   <si>
     <t>Master of Weapons</t>
@@ -133,14 +117,37 @@
   </si>
   <si>
     <t>Enchantresses Diary</t>
+  </si>
+  <si>
+    <t>Map the Unseen</t>
+  </si>
+  <si>
+    <t>Dungeon Master</t>
+  </si>
+  <si>
+    <t>Dungeon Ink</t>
+  </si>
+  <si>
+    <t>Dungeon Map</t>
+  </si>
+  <si>
+    <t>Light the way</t>
+  </si>
+  <si>
+    <t>Torch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -151,37 +158,28 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -471,29 +469,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="17" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="26" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="17" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="12" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="32" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="19" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="16" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="13" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="16" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="22" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -534,7 +537,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -563,7 +566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -589,7 +592,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -615,7 +618,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -641,7 +644,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -667,7 +670,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -693,7 +696,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -719,9 +722,70 @@
         <v>10</v>
       </c>
     </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9">
+        <v>1000</v>
+      </c>
+      <c r="I9">
+        <v>10</v>
+      </c>
+      <c r="J9">
+        <v>1000</v>
+      </c>
+      <c r="K9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10">
+        <v>2000</v>
+      </c>
+      <c r="I10">
+        <v>15</v>
+      </c>
+      <c r="J10">
+        <v>5000</v>
+      </c>
+      <c r="K10">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/resources/data-imports/quests.xlsx
+++ b/resources/data-imports/quests.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
     <t>name</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>Artifact Crafting Book</t>
+  </si>
+  <si>
+    <t>Artifact Crafting Masters Book</t>
   </si>
   <si>
     <t>Forge Master</t>
@@ -487,7 +490,7 @@
     <col min="4" max="4" width="17" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="12" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="32" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="36" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="19" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="16" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="13" bestFit="true" customWidth="true" style="0"/>
@@ -629,7 +632,7 @@
         <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5">
         <v>1000</v>
@@ -646,16 +649,16 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H6">
         <v>1000</v>
@@ -672,16 +675,16 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H7">
         <v>1000</v>
@@ -698,16 +701,16 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8">
         <v>1000</v>
@@ -724,16 +727,16 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H9">
         <v>1000</v>
@@ -750,16 +753,16 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
         <v>38</v>
       </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" t="s">
-        <v>37</v>
-      </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H10">
         <v>2000</v>

--- a/resources/data-imports/quests.xlsx
+++ b/resources/data-imports/quests.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>name</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>Torch</t>
+  </si>
+  <si>
+    <t>Hunting Expedition</t>
+  </si>
+  <si>
+    <t>Crystal Eye Glass</t>
   </si>
 </sst>
 </file>
@@ -476,7 +482,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -777,6 +783,32 @@
         <v>20</v>
       </c>
     </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>5000</v>
+      </c>
+      <c r="G11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11">
+        <v>1000</v>
+      </c>
+      <c r="I11">
+        <v>10</v>
+      </c>
+      <c r="J11">
+        <v>2000000</v>
+      </c>
+      <c r="K11">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>

--- a/resources/data-imports/quests.xlsx
+++ b/resources/data-imports/quests.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
   <si>
     <t>name</t>
   </si>
@@ -144,6 +144,24 @@
   </si>
   <si>
     <t>Crystal Eye Glass</t>
+  </si>
+  <si>
+    <t>Alchemists Book</t>
+  </si>
+  <si>
+    <t>Alchemist Book</t>
+  </si>
+  <si>
+    <t>The Key To Disenchanting</t>
+  </si>
+  <si>
+    <t>Disenchanters Magnifying Glass</t>
+  </si>
+  <si>
+    <t>The Creepy Doll</t>
+  </si>
+  <si>
+    <t>Creepy Baby Doll</t>
   </si>
 </sst>
 </file>
@@ -482,7 +500,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,7 +508,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="22" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="29" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="17" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="26" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="17" bestFit="true" customWidth="true" style="0"/>
@@ -809,6 +827,48 @@
         <v>100</v>
       </c>
     </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12">
+        <v>25000</v>
+      </c>
+      <c r="G12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <v>25000</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>25000</v>
+      </c>
+      <c r="G14" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>

--- a/resources/data-imports/quests.xlsx
+++ b/resources/data-imports/quests.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
   <si>
     <t>name</t>
   </si>
@@ -162,6 +162,27 @@
   </si>
   <si>
     <t>Creepy Baby Doll</t>
+  </si>
+  <si>
+    <t>That's One Creepy Doll</t>
+  </si>
+  <si>
+    <t>Wondering Merchant</t>
+  </si>
+  <si>
+    <t>Shadow Plane Grimoire</t>
+  </si>
+  <si>
+    <t>Beauty is in the eye of the beholder</t>
+  </si>
+  <si>
+    <t>Eye of the Beholder</t>
+  </si>
+  <si>
+    <t>The Return of the King's Crown</t>
+  </si>
+  <si>
+    <t>Dead Kings Crown</t>
   </si>
 </sst>
 </file>
@@ -500,7 +521,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,8 +529,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="29" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="17" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="43" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="22" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="26" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="17" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="12" bestFit="true" customWidth="true" style="0"/>
@@ -869,6 +890,57 @@
         <v>48</v>
       </c>
     </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15">
+        <v>30000</v>
+      </c>
+      <c r="G15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16">
+        <v>50000</v>
+      </c>
+      <c r="G16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17">
+        <v>75000</v>
+      </c>
+      <c r="G17" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>

--- a/resources/data-imports/quests.xlsx
+++ b/resources/data-imports/quests.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
   <si>
     <t>name</t>
   </si>
@@ -183,6 +183,18 @@
   </si>
   <si>
     <t>Dead Kings Crown</t>
+  </si>
+  <si>
+    <t>Reach for the stars</t>
+  </si>
+  <si>
+    <t>Labyrinth Weaver</t>
+  </si>
+  <si>
+    <t>Leather Sash</t>
+  </si>
+  <si>
+    <t>Sash of the Heavens</t>
   </si>
 </sst>
 </file>
@@ -521,7 +533,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,6 +953,35 @@
         <v>55</v>
       </c>
     </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18">
+        <v>50000</v>
+      </c>
+      <c r="G18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18">
+        <v>100000</v>
+      </c>
+      <c r="I18">
+        <v>1000</v>
+      </c>
+      <c r="J18">
+        <v>2000000000</v>
+      </c>
+      <c r="K18">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>

--- a/resources/data-imports/quests.xlsx
+++ b/resources/data-imports/quests.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="111">
   <si>
     <t>name</t>
   </si>
@@ -56,6 +56,18 @@
     <t>unlocks_skill_type</t>
   </si>
   <si>
+    <t>parent_quest_id</t>
+  </si>
+  <si>
+    <t>secondary_required_item</t>
+  </si>
+  <si>
+    <t>faction_game_map_id</t>
+  </si>
+  <si>
+    <t>required_faction_level</t>
+  </si>
+  <si>
     <t>I dream of Alchemy</t>
   </si>
   <si>
@@ -65,6 +77,9 @@
     <t>Alchemist Tools</t>
   </si>
   <si>
+    <t>Alchemy</t>
+  </si>
+  <si>
     <t>Master of Weapons</t>
   </si>
   <si>
@@ -134,15 +149,15 @@
     <t>Dungeon Map</t>
   </si>
   <si>
+    <t>Hunting Expedition</t>
+  </si>
+  <si>
     <t>Light the way</t>
   </si>
   <si>
     <t>Torch</t>
   </si>
   <si>
-    <t>Hunting Expedition</t>
-  </si>
-  <si>
     <t>Crystal Eye Glass</t>
   </si>
   <si>
@@ -195,6 +210,144 @@
   </si>
   <si>
     <t>Sash of the Heavens</t>
+  </si>
+  <si>
+    <t>Flaming Thoughts</t>
+  </si>
+  <si>
+    <t>Flaming Sword of Ascension</t>
+  </si>
+  <si>
+    <t>Labyrinth</t>
+  </si>
+  <si>
+    <t>The Shades Scroll</t>
+  </si>
+  <si>
+    <t>Shade Lord</t>
+  </si>
+  <si>
+    <t>Shadow Ink</t>
+  </si>
+  <si>
+    <t>Scroll of Prayer</t>
+  </si>
+  <si>
+    <t>Shadow Plane</t>
+  </si>
+  <si>
+    <t>Broken Copper</t>
+  </si>
+  <si>
+    <t>Broken Copper Coin</t>
+  </si>
+  <si>
+    <t>Bottle of Fire Demon Essence</t>
+  </si>
+  <si>
+    <t>Dungeons</t>
+  </si>
+  <si>
+    <t>Satans Calling</t>
+  </si>
+  <si>
+    <t>DrunkenAdventurer</t>
+  </si>
+  <si>
+    <t>Satans Hide</t>
+  </si>
+  <si>
+    <t>Mark of Hell</t>
+  </si>
+  <si>
+    <t>Satanic Sigil</t>
+  </si>
+  <si>
+    <t>Surface</t>
+  </si>
+  <si>
+    <t>Hells Gates</t>
+  </si>
+  <si>
+    <t>Satans Heart</t>
+  </si>
+  <si>
+    <t>Faces of Hell</t>
+  </si>
+  <si>
+    <t>Satans Mask</t>
+  </si>
+  <si>
+    <t>Prison is for the stupid</t>
+  </si>
+  <si>
+    <t>Prison Key</t>
+  </si>
+  <si>
+    <t>Hell</t>
+  </si>
+  <si>
+    <t>don't burn now</t>
+  </si>
+  <si>
+    <t>HellsGateKeeper</t>
+  </si>
+  <si>
+    <t>Demonic Leather Boots</t>
+  </si>
+  <si>
+    <t>Faithless Lies</t>
+  </si>
+  <si>
+    <t>The Unspoken Realm</t>
+  </si>
+  <si>
+    <t>Second prison key</t>
+  </si>
+  <si>
+    <t>Dead Fiends Hide</t>
+  </si>
+  <si>
+    <t>Purse of Copper Coins</t>
+  </si>
+  <si>
+    <t>Purgatories Doors</t>
+  </si>
+  <si>
+    <t>Purgatories Latern</t>
+  </si>
+  <si>
+    <t>Book of the Dead Souls</t>
+  </si>
+  <si>
+    <t>Stolen Goods</t>
+  </si>
+  <si>
+    <t>Purse of Shards and Dust</t>
+  </si>
+  <si>
+    <t>Shades Children</t>
+  </si>
+  <si>
+    <t>Bag of Child's Bones</t>
+  </si>
+  <si>
+    <t>Mirror of the Queen</t>
+  </si>
+  <si>
+    <t>Dead Animals</t>
+  </si>
+  <si>
+    <t>Bone Chalice of Animal Blood</t>
+  </si>
+  <si>
+    <t>Bag of Dice</t>
+  </si>
+  <si>
+    <t>Queens Decision</t>
+  </si>
+  <si>
+    <t>Bag of Chance</t>
   </si>
 </sst>
 </file>
@@ -533,7 +686,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,10 +696,10 @@
   <cols>
     <col min="1" max="1" width="43" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="22" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="26" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="34" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="17" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="12" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="12" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="36" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="19" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="16" bestFit="true" customWidth="true" style="0"/>
@@ -554,9 +707,13 @@
     <col min="11" max="11" width="11" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="16" bestFit="true" customWidth="true" style="0"/>
     <col min="13" max="13" width="22" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="43" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="34" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="23" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="26" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -596,16 +753,28 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H2">
         <v>10000</v>
@@ -619,25 +788,25 @@
       <c r="K2">
         <v>100</v>
       </c>
-      <c r="L2">
-        <v>1</v>
+      <c r="L2" t="s">
+        <v>20</v>
       </c>
       <c r="M2">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H3">
         <v>1000</v>
@@ -652,18 +821,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H4">
         <v>1000</v>
@@ -678,18 +847,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H5">
         <v>1000</v>
@@ -704,18 +873,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H6">
         <v>1000</v>
@@ -730,18 +899,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H7">
         <v>1000</v>
@@ -756,18 +925,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H8">
         <v>1000</v>
@@ -782,18 +951,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H9">
         <v>1000</v>
@@ -807,19 +976,22 @@
       <c r="K9">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H10">
         <v>2000</v>
@@ -833,19 +1005,22 @@
       <c r="K10">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D11">
         <v>5000</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H11">
         <v>1000</v>
@@ -860,114 +1035,129 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D12">
         <v>25000</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D13">
         <v>25000</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>51</v>
+      </c>
+      <c r="N13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D14">
         <v>25000</v>
       </c>
       <c r="G14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>53</v>
+      </c>
+      <c r="N14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D15">
         <v>30000</v>
       </c>
       <c r="G15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>56</v>
+      </c>
+      <c r="N15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D16">
         <v>50000</v>
       </c>
       <c r="G16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>58</v>
+      </c>
+      <c r="N16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D17">
         <v>75000</v>
       </c>
       <c r="G17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>60</v>
+      </c>
+      <c r="N17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D18">
         <v>50000</v>
       </c>
       <c r="G18" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="H18">
         <v>100000</v>
@@ -980,6 +1170,546 @@
       </c>
       <c r="K18">
         <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19">
+        <v>10000</v>
+      </c>
+      <c r="E19">
+        <v>200</v>
+      </c>
+      <c r="H19">
+        <v>5000</v>
+      </c>
+      <c r="I19">
+        <v>50</v>
+      </c>
+      <c r="J19">
+        <v>1000000000</v>
+      </c>
+      <c r="K19">
+        <v>100</v>
+      </c>
+      <c r="N19" t="s">
+        <v>45</v>
+      </c>
+      <c r="P19" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20">
+        <v>10000</v>
+      </c>
+      <c r="E20">
+        <v>200</v>
+      </c>
+      <c r="G20" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20">
+        <v>20000</v>
+      </c>
+      <c r="I20">
+        <v>100</v>
+      </c>
+      <c r="J20">
+        <v>1000000000</v>
+      </c>
+      <c r="K20">
+        <v>100</v>
+      </c>
+      <c r="N20" t="s">
+        <v>65</v>
+      </c>
+      <c r="P20" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21">
+        <v>1000</v>
+      </c>
+      <c r="E21">
+        <v>100</v>
+      </c>
+      <c r="G21" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21">
+        <v>500</v>
+      </c>
+      <c r="I21">
+        <v>50</v>
+      </c>
+      <c r="J21">
+        <v>500000000</v>
+      </c>
+      <c r="K21">
+        <v>100</v>
+      </c>
+      <c r="N21" t="s">
+        <v>45</v>
+      </c>
+      <c r="O21" t="s">
+        <v>71</v>
+      </c>
+      <c r="P21" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22">
+        <v>5000</v>
+      </c>
+      <c r="E22">
+        <v>150</v>
+      </c>
+      <c r="G22" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22">
+        <v>1500</v>
+      </c>
+      <c r="I22">
+        <v>200</v>
+      </c>
+      <c r="J22">
+        <v>2000000000</v>
+      </c>
+      <c r="K22">
+        <v>100</v>
+      </c>
+      <c r="N22" t="s">
+        <v>73</v>
+      </c>
+      <c r="O22" t="s">
+        <v>81</v>
+      </c>
+      <c r="P22" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23">
+        <v>20000</v>
+      </c>
+      <c r="E23">
+        <v>1000</v>
+      </c>
+      <c r="F23">
+        <v>1000000000</v>
+      </c>
+      <c r="G23" t="s">
+        <v>84</v>
+      </c>
+      <c r="H23">
+        <v>1500</v>
+      </c>
+      <c r="I23">
+        <v>300</v>
+      </c>
+      <c r="J23">
+        <v>5000000000</v>
+      </c>
+      <c r="K23">
+        <v>100</v>
+      </c>
+      <c r="N23" t="s">
+        <v>68</v>
+      </c>
+      <c r="O23" t="s">
+        <v>75</v>
+      </c>
+      <c r="P23" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" t="s">
+        <v>86</v>
+      </c>
+      <c r="H24">
+        <v>2000</v>
+      </c>
+      <c r="I24">
+        <v>200</v>
+      </c>
+      <c r="J24">
+        <v>100000000</v>
+      </c>
+      <c r="K24">
+        <v>50</v>
+      </c>
+      <c r="N24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" t="s">
+        <v>88</v>
+      </c>
+      <c r="H25">
+        <v>5000</v>
+      </c>
+      <c r="I25">
+        <v>500</v>
+      </c>
+      <c r="J25">
+        <v>2500000000</v>
+      </c>
+      <c r="K25">
+        <v>100</v>
+      </c>
+      <c r="N25" t="s">
+        <v>85</v>
+      </c>
+      <c r="P25" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26">
+        <v>10000</v>
+      </c>
+      <c r="E26">
+        <v>1000</v>
+      </c>
+      <c r="G26" t="s">
+        <v>92</v>
+      </c>
+      <c r="H26">
+        <v>20000</v>
+      </c>
+      <c r="I26">
+        <v>2000</v>
+      </c>
+      <c r="J26">
+        <v>500000000</v>
+      </c>
+      <c r="K26">
+        <v>75</v>
+      </c>
+      <c r="N26" t="s">
+        <v>83</v>
+      </c>
+      <c r="O26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27">
+        <v>1000</v>
+      </c>
+      <c r="I27">
+        <v>100</v>
+      </c>
+      <c r="J27">
+        <v>1000000000</v>
+      </c>
+      <c r="K27">
+        <v>100</v>
+      </c>
+      <c r="N27" t="s">
+        <v>83</v>
+      </c>
+      <c r="P27" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" t="s">
+        <v>95</v>
+      </c>
+      <c r="G28" t="s">
+        <v>96</v>
+      </c>
+      <c r="H28">
+        <v>1000</v>
+      </c>
+      <c r="I28">
+        <v>100</v>
+      </c>
+      <c r="J28">
+        <v>1000000000</v>
+      </c>
+      <c r="K28">
+        <v>85</v>
+      </c>
+      <c r="N28" t="s">
+        <v>87</v>
+      </c>
+      <c r="O28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29">
+        <v>20000</v>
+      </c>
+      <c r="E29">
+        <v>1000</v>
+      </c>
+      <c r="F29">
+        <v>2000000000</v>
+      </c>
+      <c r="G29" t="s">
+        <v>99</v>
+      </c>
+      <c r="H29">
+        <v>10000</v>
+      </c>
+      <c r="I29">
+        <v>500</v>
+      </c>
+      <c r="J29">
+        <v>1000000000</v>
+      </c>
+      <c r="K29">
+        <v>100</v>
+      </c>
+      <c r="N29" t="s">
+        <v>94</v>
+      </c>
+      <c r="O29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" t="s">
+        <v>102</v>
+      </c>
+      <c r="H30">
+        <v>3000</v>
+      </c>
+      <c r="I30">
+        <v>1000</v>
+      </c>
+      <c r="J30">
+        <v>5000000000</v>
+      </c>
+      <c r="K30">
+        <v>100</v>
+      </c>
+      <c r="N30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" t="s">
+        <v>104</v>
+      </c>
+      <c r="G31" t="s">
+        <v>105</v>
+      </c>
+      <c r="H31">
+        <v>20000</v>
+      </c>
+      <c r="I31">
+        <v>2000</v>
+      </c>
+      <c r="J31">
+        <v>10000000000</v>
+      </c>
+      <c r="K31">
+        <v>100</v>
+      </c>
+      <c r="N31" t="s">
+        <v>101</v>
+      </c>
+      <c r="P31" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" t="s">
+        <v>107</v>
+      </c>
+      <c r="G32" t="s">
+        <v>108</v>
+      </c>
+      <c r="H32">
+        <v>100</v>
+      </c>
+      <c r="I32">
+        <v>100</v>
+      </c>
+      <c r="J32">
+        <v>1000000000</v>
+      </c>
+      <c r="K32">
+        <v>100</v>
+      </c>
+      <c r="N32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33">
+        <v>30000</v>
+      </c>
+      <c r="E33">
+        <v>1500</v>
+      </c>
+      <c r="G33" t="s">
+        <v>110</v>
+      </c>
+      <c r="H33">
+        <v>100000</v>
+      </c>
+      <c r="I33">
+        <v>5000</v>
+      </c>
+      <c r="J33">
+        <v>25000000000</v>
+      </c>
+      <c r="K33">
+        <v>100</v>
+      </c>
+      <c r="N33" t="s">
+        <v>59</v>
+      </c>
+      <c r="O33" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data-imports/quests.xlsx
+++ b/resources/data-imports/quests.xlsx
@@ -1,21 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adambalan/Documents/flare/resources/data-imports/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC810A8A-79A7-5742-B8FA-4B82DB41AB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Quests" sheetId="1" r:id="rId4"/>
+    <sheet name="Quests" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1" forceFullCalc="1"/>
+  <calcPr calcId="191029" forceFullCalc="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="112">
   <si>
     <t>name</t>
   </si>
@@ -348,19 +364,17 @@
   </si>
   <si>
     <t>Bag of Chance</t>
+  </si>
+  <si>
+    <t>is_parent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -371,28 +385,37 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -682,38 +705,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:Q33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="22" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="34" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="17" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="12" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="12" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="36" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="19" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="13" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="22" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="43" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="34" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="23" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="26" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22" customWidth="1"/>
+    <col min="15" max="15" width="43" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="34" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -754,19 +774,22 @@
         <v>12</v>
       </c>
       <c r="N1" t="s">
+        <v>111</v>
+      </c>
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -794,8 +817,11 @@
       <c r="M2">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="N2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -820,8 +846,11 @@
       <c r="K3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="N3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -846,8 +875,11 @@
       <c r="K4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="N4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -872,8 +904,11 @@
       <c r="K5">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="N5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -898,8 +933,11 @@
       <c r="K6">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="N6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -924,45 +962,54 @@
       <c r="K7">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="N7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>63</v>
+      </c>
+      <c r="D8">
+        <v>50000</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="H8">
+        <v>100000</v>
+      </c>
+      <c r="I8">
         <v>1000</v>
       </c>
-      <c r="I8">
-        <v>5</v>
-      </c>
       <c r="J8">
-        <v>100000</v>
+        <v>2000000000</v>
       </c>
       <c r="K8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>100</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" t="s">
-        <v>42</v>
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <v>5000</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H9">
         <v>1000</v>
@@ -971,104 +1018,122 @@
         <v>10</v>
       </c>
       <c r="J9">
-        <v>1000</v>
+        <v>2000000</v>
       </c>
       <c r="K9">
-        <v>10</v>
-      </c>
-      <c r="N9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>100</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" t="s">
-        <v>43</v>
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <v>25000</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10">
-        <v>2000</v>
-      </c>
-      <c r="I10">
-        <v>15</v>
-      </c>
-      <c r="J10">
-        <v>5000</v>
-      </c>
-      <c r="K10">
-        <v>20</v>
-      </c>
-      <c r="N10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>49</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11">
-        <v>5000</v>
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H11">
         <v>1000</v>
       </c>
       <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>100000</v>
+      </c>
+      <c r="K11">
         <v>10</v>
       </c>
-      <c r="J11">
-        <v>2000000</v>
-      </c>
-      <c r="K11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="N11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12">
-        <v>25000</v>
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>43</v>
+      </c>
+      <c r="H12">
+        <v>1000</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <v>1000</v>
+      </c>
+      <c r="K12">
+        <v>10</v>
+      </c>
+      <c r="O12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13">
+        <v>2000</v>
+      </c>
+      <c r="I13">
+        <v>15</v>
+      </c>
+      <c r="J13">
+        <v>5000</v>
+      </c>
+      <c r="K13">
+        <v>20</v>
+      </c>
+      <c r="O13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>50</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13">
-        <v>25000</v>
-      </c>
-      <c r="G13" t="s">
-        <v>51</v>
-      </c>
-      <c r="N13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" t="s">
-        <v>52</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
@@ -1077,102 +1142,90 @@
         <v>25000</v>
       </c>
       <c r="G14" t="s">
+        <v>51</v>
+      </c>
+      <c r="O14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15">
+        <v>25000</v>
+      </c>
+      <c r="G15" t="s">
         <v>53</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
-      <c r="A15" t="s">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>54</v>
-      </c>
-      <c r="B15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15">
-        <v>30000</v>
-      </c>
-      <c r="G15" t="s">
-        <v>56</v>
-      </c>
-      <c r="N15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" t="s">
-        <v>57</v>
       </c>
       <c r="B16" t="s">
         <v>55</v>
       </c>
       <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16">
+        <v>30000</v>
+      </c>
+      <c r="G16" t="s">
         <v>56</v>
       </c>
-      <c r="D16">
-        <v>50000</v>
-      </c>
-      <c r="G16" t="s">
-        <v>58</v>
-      </c>
-      <c r="N16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="O16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
         <v>55</v>
       </c>
       <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17">
+        <v>50000</v>
+      </c>
+      <c r="G17" t="s">
         <v>58</v>
       </c>
-      <c r="D17">
+      <c r="O17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18">
         <v>75000</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G18" t="s">
         <v>60</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
-      <c r="A18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18">
-        <v>50000</v>
-      </c>
-      <c r="G18" t="s">
-        <v>64</v>
-      </c>
-      <c r="H18">
-        <v>100000</v>
-      </c>
-      <c r="I18">
-        <v>1000</v>
-      </c>
-      <c r="J18">
-        <v>2000000000</v>
-      </c>
-      <c r="K18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -1200,17 +1253,17 @@
       <c r="K19">
         <v>100</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>45</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>67</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>68</v>
       </c>
@@ -1241,17 +1294,17 @@
       <c r="K20">
         <v>100</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>65</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>72</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>73</v>
       </c>
@@ -1282,20 +1335,20 @@
       <c r="K21">
         <v>100</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>45</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>71</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>76</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -1326,20 +1379,20 @@
       <c r="K22">
         <v>100</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>73</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>81</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>82</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>83</v>
       </c>
@@ -1373,20 +1426,20 @@
       <c r="K23">
         <v>100</v>
       </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>68</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>75</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>67</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>85</v>
       </c>
@@ -1408,11 +1461,11 @@
       <c r="K24">
         <v>50</v>
       </c>
-      <c r="N24" t="s">
+      <c r="O24" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>87</v>
       </c>
@@ -1434,17 +1487,17 @@
       <c r="K25">
         <v>100</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>85</v>
       </c>
-      <c r="P25" t="s">
+      <c r="Q25" t="s">
         <v>89</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>90</v>
       </c>
@@ -1475,14 +1528,14 @@
       <c r="K26">
         <v>75</v>
       </c>
-      <c r="N26" t="s">
+      <c r="O26" t="s">
         <v>83</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>93</v>
       </c>
@@ -1501,17 +1554,17 @@
       <c r="K27">
         <v>100</v>
       </c>
-      <c r="N27" t="s">
+      <c r="O27" t="s">
         <v>83</v>
       </c>
-      <c r="P27" t="s">
+      <c r="Q27" t="s">
         <v>89</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>94</v>
       </c>
@@ -1536,14 +1589,14 @@
       <c r="K28">
         <v>85</v>
       </c>
-      <c r="N28" t="s">
+      <c r="O28" t="s">
         <v>87</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>98</v>
       </c>
@@ -1577,14 +1630,14 @@
       <c r="K29">
         <v>100</v>
       </c>
-      <c r="N29" t="s">
+      <c r="O29" t="s">
         <v>94</v>
       </c>
-      <c r="O29" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+      <c r="P29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>101</v>
       </c>
@@ -1606,11 +1659,11 @@
       <c r="K30">
         <v>100</v>
       </c>
-      <c r="N30" t="s">
+      <c r="O30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>103</v>
       </c>
@@ -1635,17 +1688,17 @@
       <c r="K31">
         <v>100</v>
       </c>
-      <c r="N31" t="s">
+      <c r="O31" t="s">
         <v>101</v>
       </c>
-      <c r="P31" t="s">
+      <c r="Q31" t="s">
         <v>89</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>106</v>
       </c>
@@ -1670,11 +1723,11 @@
       <c r="K32">
         <v>100</v>
       </c>
-      <c r="N32" t="s">
+      <c r="O32" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>109</v>
       </c>
@@ -1705,25 +1758,16 @@
       <c r="K33">
         <v>100</v>
       </c>
-      <c r="N33" t="s">
+      <c r="O33" t="s">
         <v>59</v>
       </c>
-      <c r="O33" t="s">
+      <c r="P33" t="s">
         <v>108</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/resources/data-imports/quests.xlsx
+++ b/resources/data-imports/quests.xlsx
@@ -1,37 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adambalan/Documents/flare/resources/data-imports/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC810A8A-79A7-5742-B8FA-4B82DB41AB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Quests" sheetId="1" r:id="rId1"/>
+    <sheet name="Quests" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" forceFullCalc="1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1" forceFullCalc="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="116">
   <si>
     <t>name</t>
   </si>
@@ -72,6 +56,9 @@
     <t>unlocks_skill_type</t>
   </si>
   <si>
+    <t>is_parent</t>
+  </si>
+  <si>
     <t>parent_quest_id</t>
   </si>
   <si>
@@ -294,15 +281,15 @@
     <t>Satans Mask</t>
   </si>
   <si>
+    <t>Hell</t>
+  </si>
+  <si>
     <t>Prison is for the stupid</t>
   </si>
   <si>
     <t>Prison Key</t>
   </si>
   <si>
-    <t>Hell</t>
-  </si>
-  <si>
     <t>don't burn now</t>
   </si>
   <si>
@@ -330,7 +317,7 @@
     <t>Purgatories Doors</t>
   </si>
   <si>
-    <t>Purgatories Latern</t>
+    <t>Purgatories Lantern</t>
   </si>
   <si>
     <t>Book of the Dead Souls</t>
@@ -366,15 +353,29 @@
     <t>Bag of Chance</t>
   </si>
   <si>
-    <t>is_parent</t>
+    <t>Goblins Lust for Gold</t>
+  </si>
+  <si>
+    <t>Helpless Goblin</t>
+  </si>
+  <si>
+    <t>Goblins Jewels</t>
+  </si>
+  <si>
+    <t>Golden Wand of Gold</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -385,37 +386,28 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -705,35 +697,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N11"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="43" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22" customWidth="1"/>
-    <col min="15" max="15" width="43" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="34" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="22" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="34" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="17" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="12" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="12" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="36" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="19" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="16" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="13" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="16" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="22" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="43" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="34" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="23" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="26" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -774,30 +770,30 @@
         <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2">
         <v>10000</v>
@@ -812,7 +808,7 @@
         <v>100</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M2">
         <v>4</v>
@@ -821,18 +817,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3">
         <v>1000</v>
@@ -850,18 +846,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H4">
         <v>1000</v>
@@ -879,18 +875,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H5">
         <v>1000</v>
@@ -908,18 +904,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H6">
         <v>1000</v>
@@ -937,18 +933,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H7">
         <v>1000</v>
@@ -966,50 +962,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8">
-        <v>50000</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="H8">
+        <v>1000</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
         <v>100000</v>
       </c>
-      <c r="I8">
-        <v>1000</v>
-      </c>
-      <c r="J8">
-        <v>2000000000</v>
-      </c>
       <c r="K8">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" t="s">
         <v>44</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9">
-        <v>5000</v>
-      </c>
-      <c r="G9" t="s">
-        <v>47</v>
       </c>
       <c r="H9">
         <v>1000</v>
@@ -1018,222 +1011,225 @@
         <v>10</v>
       </c>
       <c r="J9">
-        <v>2000000</v>
+        <v>1000</v>
       </c>
       <c r="K9">
-        <v>100</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="O9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10">
+        <v>2000</v>
+      </c>
+      <c r="I10">
+        <v>15</v>
+      </c>
+      <c r="J10">
+        <v>5000</v>
+      </c>
+      <c r="K10">
+        <v>20</v>
+      </c>
+      <c r="O10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <v>5000</v>
+      </c>
+      <c r="G11" t="s">
         <v>48</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10">
-        <v>25000</v>
-      </c>
-      <c r="G10" t="s">
-        <v>49</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" t="s">
-        <v>39</v>
       </c>
       <c r="H11">
         <v>1000</v>
       </c>
       <c r="I11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J11">
-        <v>100000</v>
+        <v>2000000</v>
       </c>
       <c r="K11">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" t="s">
-        <v>42</v>
+        <v>23</v>
+      </c>
+      <c r="D12">
+        <v>25000</v>
       </c>
       <c r="G12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12">
-        <v>1000</v>
-      </c>
-      <c r="I12">
-        <v>10</v>
-      </c>
-      <c r="J12">
-        <v>1000</v>
-      </c>
-      <c r="K12">
-        <v>10</v>
-      </c>
-      <c r="O12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13">
+        <v>25000</v>
+      </c>
+      <c r="G13" t="s">
+        <v>52</v>
+      </c>
+      <c r="O13" t="s">
         <v>45</v>
       </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13">
-        <v>2000</v>
-      </c>
-      <c r="I13">
-        <v>15</v>
-      </c>
-      <c r="J13">
-        <v>5000</v>
-      </c>
-      <c r="K13">
-        <v>20</v>
-      </c>
-      <c r="O13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D14">
         <v>25000</v>
       </c>
       <c r="G14" t="s">
+        <v>54</v>
+      </c>
+      <c r="O14" t="s">
         <v>51</v>
       </c>
-      <c r="O14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
       </c>
       <c r="D15">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="G15" t="s">
+        <v>57</v>
+      </c>
+      <c r="O15" t="s">
         <v>53</v>
       </c>
-      <c r="O15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16">
+        <v>50000</v>
+      </c>
+      <c r="G16" t="s">
+        <v>59</v>
+      </c>
+      <c r="O16" t="s">
         <v>55</v>
       </c>
-      <c r="C16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16">
-        <v>30000</v>
-      </c>
-      <c r="G16" t="s">
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
         <v>56</v>
       </c>
-      <c r="O16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" t="s">
-        <v>55</v>
-      </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D17">
+        <v>75000</v>
+      </c>
+      <c r="G17" t="s">
+        <v>61</v>
+      </c>
+      <c r="O17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18">
         <v>50000</v>
       </c>
-      <c r="G17" t="s">
-        <v>58</v>
-      </c>
-      <c r="O17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18">
-        <v>75000</v>
-      </c>
       <c r="G18" t="s">
-        <v>60</v>
-      </c>
-      <c r="O18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="H18">
+        <v>100000</v>
+      </c>
+      <c r="I18">
+        <v>1000</v>
+      </c>
+      <c r="J18">
+        <v>2000000000</v>
+      </c>
+      <c r="K18">
+        <v>100</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D19">
         <v>10000</v>
@@ -1254,24 +1250,24 @@
         <v>100</v>
       </c>
       <c r="O19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R19">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D20">
         <v>10000</v>
@@ -1280,7 +1276,7 @@
         <v>200</v>
       </c>
       <c r="G20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H20">
         <v>20000</v>
@@ -1295,24 +1291,24 @@
         <v>100</v>
       </c>
       <c r="O20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R20">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D21">
         <v>1000</v>
@@ -1321,7 +1317,7 @@
         <v>100</v>
       </c>
       <c r="G21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H21">
         <v>500</v>
@@ -1336,27 +1332,27 @@
         <v>100</v>
       </c>
       <c r="O21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R21">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18">
       <c r="A22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D22">
         <v>5000</v>
@@ -1365,7 +1361,7 @@
         <v>150</v>
       </c>
       <c r="G22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H22">
         <v>1500</v>
@@ -1380,27 +1376,27 @@
         <v>100</v>
       </c>
       <c r="O22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R22">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18">
       <c r="A23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D23">
         <v>20000</v>
@@ -1412,7 +1408,7 @@
         <v>1000000000</v>
       </c>
       <c r="G23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H23">
         <v>1500</v>
@@ -1427,27 +1423,27 @@
         <v>100</v>
       </c>
       <c r="O23" t="s">
+        <v>69</v>
+      </c>
+      <c r="P23" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q23" t="s">
         <v>68</v>
-      </c>
-      <c r="P23" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>67</v>
       </c>
       <c r="R23">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18">
       <c r="A24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H24">
         <v>2000</v>
@@ -1462,18 +1458,24 @@
         <v>50</v>
       </c>
       <c r="O24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>88</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G25" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H25">
         <v>5000</v>
@@ -1488,24 +1490,24 @@
         <v>100</v>
       </c>
       <c r="O25" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R25">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18">
       <c r="A26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D26">
         <v>10000</v>
@@ -1514,7 +1516,7 @@
         <v>1000</v>
       </c>
       <c r="G26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H26">
         <v>20000</v>
@@ -1529,18 +1531,18 @@
         <v>75</v>
       </c>
       <c r="O26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P26" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H27">
         <v>1000</v>
@@ -1555,27 +1557,27 @@
         <v>100</v>
       </c>
       <c r="O27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R27">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18">
       <c r="A28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H28">
         <v>1000</v>
@@ -1590,21 +1592,21 @@
         <v>85</v>
       </c>
       <c r="O28" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>98</v>
-      </c>
-      <c r="B29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" t="s">
-        <v>96</v>
       </c>
       <c r="D29">
         <v>20000</v>
@@ -1616,7 +1618,7 @@
         <v>2000000000</v>
       </c>
       <c r="G29" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H29">
         <v>10000</v>
@@ -1631,21 +1633,21 @@
         <v>100</v>
       </c>
       <c r="O29" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P29" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B30" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C30" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H30">
         <v>3000</v>
@@ -1660,21 +1662,27 @@
         <v>100</v>
       </c>
       <c r="O30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>88</v>
+      </c>
+      <c r="R30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C31" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G31" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H31">
         <v>20000</v>
@@ -1689,27 +1697,27 @@
         <v>100</v>
       </c>
       <c r="O31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R31">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18">
       <c r="A32" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G32" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H32">
         <v>100</v>
@@ -1724,18 +1732,18 @@
         <v>100</v>
       </c>
       <c r="O32" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C33" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D33">
         <v>30000</v>
@@ -1744,7 +1752,7 @@
         <v>1500</v>
       </c>
       <c r="G33" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H33">
         <v>100000</v>
@@ -1759,15 +1767,59 @@
         <v>100</v>
       </c>
       <c r="O33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P33" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" t="s">
+        <v>114</v>
+      </c>
+      <c r="G34" t="s">
+        <v>115</v>
+      </c>
+      <c r="H34">
+        <v>1000</v>
+      </c>
+      <c r="I34">
+        <v>10</v>
+      </c>
+      <c r="J34">
+        <v>1000000</v>
+      </c>
+      <c r="K34">
+        <v>50</v>
+      </c>
+      <c r="O34" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>83</v>
+      </c>
+      <c r="R34">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/resources/data-imports/quests.xlsx
+++ b/resources/data-imports/quests.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="141">
   <si>
     <t>name</t>
   </si>
@@ -185,7 +185,7 @@
     <t>That's One Creepy Doll</t>
   </si>
   <si>
-    <t>Wondering Merchant</t>
+    <t>WanderingMerchant</t>
   </si>
   <si>
     <t>Shadow Plane Grimoire</t>
@@ -363,6 +363,81 @@
   </si>
   <si>
     <t>Golden Wand of Gold</t>
+  </si>
+  <si>
+    <t>Light of Hope</t>
+  </si>
+  <si>
+    <t>Candle Maker</t>
+  </si>
+  <si>
+    <t>Holy Wax</t>
+  </si>
+  <si>
+    <t>Candle Stick of Hope</t>
+  </si>
+  <si>
+    <t>Into despair</t>
+  </si>
+  <si>
+    <t>Burnt Wick</t>
+  </si>
+  <si>
+    <t>In darkness we have faith</t>
+  </si>
+  <si>
+    <t>Bishops Enchanted Scroll</t>
+  </si>
+  <si>
+    <t>Enchanted Candle Stick of Light</t>
+  </si>
+  <si>
+    <t>Blesed in hope</t>
+  </si>
+  <si>
+    <t>Holy Enchanted Oil</t>
+  </si>
+  <si>
+    <t>Blessed Enchanted Candle Stick</t>
+  </si>
+  <si>
+    <t>Simple Candle Stick</t>
+  </si>
+  <si>
+    <t>Churches transformation</t>
+  </si>
+  <si>
+    <t>Pillar Candle of the Church</t>
+  </si>
+  <si>
+    <t>Faction Hunter</t>
+  </si>
+  <si>
+    <t>Essence of Rage</t>
+  </si>
+  <si>
+    <t>Tell me your story</t>
+  </si>
+  <si>
+    <t>Hells Accountant</t>
+  </si>
+  <si>
+    <t>Investigating new currencies</t>
+  </si>
+  <si>
+    <t>Book of Currencies</t>
+  </si>
+  <si>
+    <t>The Magic of Purgatory</t>
+  </si>
+  <si>
+    <t>Treaty of the Smith</t>
+  </si>
+  <si>
+    <t>The Creators Last Copper Coin</t>
+  </si>
+  <si>
+    <t>Magicians Enchanted Copper Coin</t>
   </si>
 </sst>
 </file>
@@ -386,10 +461,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -701,7 +773,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:R34"/>
+  <dimension ref="A1:R43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,12 +782,12 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="43" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="22" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="34" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="21" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="36" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="17" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="12" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="12" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="36" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="37" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="19" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="16" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="13" bestFit="true" customWidth="true" style="0"/>
@@ -724,7 +796,7 @@
     <col min="13" max="13" width="22" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="11" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="43" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="34" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="37" bestFit="true" customWidth="true" style="0"/>
     <col min="17" max="17" width="23" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="26" bestFit="true" customWidth="true" style="0"/>
   </cols>
@@ -1806,6 +1878,336 @@
       </c>
       <c r="R34">
         <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35" t="s">
+        <v>116</v>
+      </c>
+      <c r="B35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" t="s">
+        <v>118</v>
+      </c>
+      <c r="D35">
+        <v>1000</v>
+      </c>
+      <c r="E35">
+        <v>100</v>
+      </c>
+      <c r="G35" t="s">
+        <v>119</v>
+      </c>
+      <c r="H35">
+        <v>500</v>
+      </c>
+      <c r="I35">
+        <v>50</v>
+      </c>
+      <c r="J35">
+        <v>5000000</v>
+      </c>
+      <c r="K35">
+        <v>50</v>
+      </c>
+      <c r="O35" t="s">
+        <v>120</v>
+      </c>
+      <c r="P35" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" t="s">
+        <v>122</v>
+      </c>
+      <c r="B36" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36">
+        <v>1500</v>
+      </c>
+      <c r="E36">
+        <v>200</v>
+      </c>
+      <c r="G36" t="s">
+        <v>124</v>
+      </c>
+      <c r="H36">
+        <v>750</v>
+      </c>
+      <c r="I36">
+        <v>100</v>
+      </c>
+      <c r="J36">
+        <v>10000000</v>
+      </c>
+      <c r="K36">
+        <v>75</v>
+      </c>
+      <c r="O36" t="s">
+        <v>116</v>
+      </c>
+      <c r="P36" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>77</v>
+      </c>
+      <c r="R36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" t="s">
+        <v>125</v>
+      </c>
+      <c r="B37" t="s">
+        <v>117</v>
+      </c>
+      <c r="C37" t="s">
+        <v>126</v>
+      </c>
+      <c r="D37">
+        <v>3000</v>
+      </c>
+      <c r="E37">
+        <v>500</v>
+      </c>
+      <c r="G37" t="s">
+        <v>127</v>
+      </c>
+      <c r="H37">
+        <v>1500</v>
+      </c>
+      <c r="I37">
+        <v>250</v>
+      </c>
+      <c r="J37">
+        <v>15000000</v>
+      </c>
+      <c r="K37">
+        <v>100</v>
+      </c>
+      <c r="O37" t="s">
+        <v>122</v>
+      </c>
+      <c r="P37" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>68</v>
+      </c>
+      <c r="R37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38" t="s">
+        <v>120</v>
+      </c>
+      <c r="B38" t="s">
+        <v>117</v>
+      </c>
+      <c r="D38">
+        <v>500</v>
+      </c>
+      <c r="E38">
+        <v>50</v>
+      </c>
+      <c r="G38" t="s">
+        <v>128</v>
+      </c>
+      <c r="H38">
+        <v>250</v>
+      </c>
+      <c r="I38">
+        <v>25</v>
+      </c>
+      <c r="J38">
+        <v>200000</v>
+      </c>
+      <c r="K38">
+        <v>25</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39" t="s">
+        <v>129</v>
+      </c>
+      <c r="B39" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" t="s">
+        <v>127</v>
+      </c>
+      <c r="D39">
+        <v>8000</v>
+      </c>
+      <c r="E39">
+        <v>1200</v>
+      </c>
+      <c r="G39" t="s">
+        <v>130</v>
+      </c>
+      <c r="H39">
+        <v>4000</v>
+      </c>
+      <c r="I39">
+        <v>600</v>
+      </c>
+      <c r="J39">
+        <v>50000000</v>
+      </c>
+      <c r="K39">
+        <v>100</v>
+      </c>
+      <c r="O39" t="s">
+        <v>125</v>
+      </c>
+      <c r="P39" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>88</v>
+      </c>
+      <c r="R39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40" t="s">
+        <v>131</v>
+      </c>
+      <c r="B40" t="s">
+        <v>113</v>
+      </c>
+      <c r="D40">
+        <v>1000</v>
+      </c>
+      <c r="E40">
+        <v>50</v>
+      </c>
+      <c r="G40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H40">
+        <v>500</v>
+      </c>
+      <c r="I40">
+        <v>25</v>
+      </c>
+      <c r="J40">
+        <v>2000000</v>
+      </c>
+      <c r="K40">
+        <v>50</v>
+      </c>
+      <c r="O40" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41" t="s">
+        <v>133</v>
+      </c>
+      <c r="B41" t="s">
+        <v>134</v>
+      </c>
+      <c r="D41">
+        <v>5000</v>
+      </c>
+      <c r="E41">
+        <v>5000</v>
+      </c>
+      <c r="F41">
+        <v>2000000000</v>
+      </c>
+      <c r="I41">
+        <v>1000</v>
+      </c>
+      <c r="J41">
+        <v>4000000</v>
+      </c>
+      <c r="K41">
+        <v>100</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" t="s">
+        <v>134</v>
+      </c>
+      <c r="C42" t="s">
+        <v>136</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>100000000</v>
+      </c>
+      <c r="K42">
+        <v>100</v>
+      </c>
+      <c r="O42" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>88</v>
+      </c>
+      <c r="R42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43" t="s">
+        <v>137</v>
+      </c>
+      <c r="B43" t="s">
+        <v>134</v>
+      </c>
+      <c r="C43" t="s">
+        <v>138</v>
+      </c>
+      <c r="G43" t="s">
+        <v>139</v>
+      </c>
+      <c r="H43">
+        <v>10000</v>
+      </c>
+      <c r="I43">
+        <v>1000</v>
+      </c>
+      <c r="J43">
+        <v>10000000000</v>
+      </c>
+      <c r="K43">
+        <v>100</v>
+      </c>
+      <c r="O43" t="s">
+        <v>135</v>
+      </c>
+      <c r="P43" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>73</v>
+      </c>
+      <c r="R43">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data-imports/quests.xlsx
+++ b/resources/data-imports/quests.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="150">
   <si>
     <t>name</t>
   </si>
@@ -35,6 +35,9 @@
     <t>gold_cost</t>
   </si>
   <si>
+    <t>copper_coin_cost</t>
+  </si>
+  <si>
     <t>reward_item</t>
   </si>
   <si>
@@ -438,6 +441,30 @@
   </si>
   <si>
     <t>Magicians Enchanted Copper Coin</t>
+  </si>
+  <si>
+    <t>Churches Magical Alchemy Research</t>
+  </si>
+  <si>
+    <t>Musty old Church Records</t>
+  </si>
+  <si>
+    <t>Alchemically Enchanted Holy Candle</t>
+  </si>
+  <si>
+    <t>Fanatical Ink</t>
+  </si>
+  <si>
+    <t>Dried up Enchanted Holy Ink</t>
+  </si>
+  <si>
+    <t>Fanatics Candle of Despair</t>
+  </si>
+  <si>
+    <t>Corruption in Alchemy</t>
+  </si>
+  <si>
+    <t>Corrupted Candle of the Church</t>
   </si>
 </sst>
 </file>
@@ -773,7 +800,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:R43"/>
+  <dimension ref="A1:S46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -787,21 +814,22 @@
     <col min="4" max="4" width="17" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="12" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="12" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="37" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="19" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="13" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="22" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="43" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="37" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="23" bestFit="true" customWidth="true" style="0"/>
-    <col min="18" max="18" width="26" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="19" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="41" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="19" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="16" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="13" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="16" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="22" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="43" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="41" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="23" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="26" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -856,452 +884,506 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>10000</v>
+      </c>
+      <c r="J2">
+        <v>25</v>
+      </c>
+      <c r="K2">
+        <v>1000000</v>
+      </c>
+      <c r="L2">
+        <v>100</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2">
+        <v>4</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3">
+        <v>1000</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>100000</v>
+      </c>
+      <c r="L3">
+        <v>10</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4">
+        <v>1000</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>100000</v>
+      </c>
+      <c r="L4">
+        <v>10</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5">
+        <v>1000</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>100000</v>
+      </c>
+      <c r="L5">
+        <v>10</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6">
+        <v>1000</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>100000</v>
+      </c>
+      <c r="L6">
+        <v>10</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7">
+        <v>1000</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>100000</v>
+      </c>
+      <c r="L7">
+        <v>10</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8">
+        <v>1000</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>100000</v>
+      </c>
+      <c r="L8">
+        <v>10</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9">
+        <v>1000</v>
+      </c>
+      <c r="J9">
+        <v>10</v>
+      </c>
+      <c r="K9">
+        <v>1000</v>
+      </c>
+      <c r="L9">
+        <v>10</v>
+      </c>
+      <c r="P9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10">
+        <v>2000</v>
+      </c>
+      <c r="J10">
+        <v>15</v>
+      </c>
+      <c r="K10">
+        <v>5000</v>
+      </c>
+      <c r="L10">
         <v>20</v>
       </c>
-      <c r="H2">
-        <v>10000</v>
-      </c>
-      <c r="I2">
-        <v>25</v>
-      </c>
-      <c r="J2">
-        <v>1000000</v>
-      </c>
-      <c r="K2">
-        <v>100</v>
-      </c>
-      <c r="L2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2">
-        <v>4</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3">
-        <v>1000</v>
-      </c>
-      <c r="I3">
-        <v>5</v>
-      </c>
-      <c r="J3">
-        <v>100000</v>
-      </c>
-      <c r="K3">
-        <v>10</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4">
-        <v>1000</v>
-      </c>
-      <c r="I4">
-        <v>5</v>
-      </c>
-      <c r="J4">
-        <v>100000</v>
-      </c>
-      <c r="K4">
-        <v>10</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5">
-        <v>1000</v>
-      </c>
-      <c r="I5">
-        <v>5</v>
-      </c>
-      <c r="J5">
-        <v>100000</v>
-      </c>
-      <c r="K5">
-        <v>10</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6">
-        <v>1000</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-      <c r="J6">
-        <v>100000</v>
-      </c>
-      <c r="K6">
-        <v>10</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7">
-        <v>1000</v>
-      </c>
-      <c r="I7">
-        <v>5</v>
-      </c>
-      <c r="J7">
-        <v>100000</v>
-      </c>
-      <c r="K7">
-        <v>10</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8">
-        <v>1000</v>
-      </c>
-      <c r="I8">
-        <v>5</v>
-      </c>
-      <c r="J8">
-        <v>100000</v>
-      </c>
-      <c r="K8">
-        <v>10</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="P10" t="s">
         <v>42</v>
       </c>
-      <c r="C9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9">
-        <v>1000</v>
-      </c>
-      <c r="I9">
-        <v>10</v>
-      </c>
-      <c r="J9">
-        <v>1000</v>
-      </c>
-      <c r="K9">
-        <v>10</v>
-      </c>
-      <c r="O9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" t="s">
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" t="s">
         <v>46</v>
       </c>
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10">
-        <v>2000</v>
-      </c>
-      <c r="I10">
-        <v>15</v>
-      </c>
-      <c r="J10">
-        <v>5000</v>
-      </c>
-      <c r="K10">
+      <c r="B11" t="s">
         <v>20</v>
-      </c>
-      <c r="O10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
       </c>
       <c r="D11">
         <v>5000</v>
       </c>
-      <c r="G11" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11">
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11">
         <v>1000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>10</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>2000000</v>
       </c>
-      <c r="K11">
-        <v>100</v>
-      </c>
-      <c r="N11">
+      <c r="L11">
+        <v>100</v>
+      </c>
+      <c r="O11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12">
         <v>25000</v>
       </c>
-      <c r="G12" t="s">
-        <v>50</v>
-      </c>
-      <c r="N12">
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>51</v>
+      </c>
+      <c r="O12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13">
         <v>25000</v>
       </c>
-      <c r="G13" t="s">
-        <v>52</v>
-      </c>
-      <c r="O13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D14">
         <v>25000</v>
       </c>
-      <c r="G14" t="s">
-        <v>54</v>
-      </c>
-      <c r="O14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>55</v>
+      </c>
+      <c r="P14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
         <v>55</v>
-      </c>
-      <c r="B15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" t="s">
-        <v>54</v>
       </c>
       <c r="D15">
         <v>30000</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>58</v>
+      </c>
+      <c r="P15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" t="s">
         <v>57</v>
       </c>
-      <c r="O15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" t="s">
+      <c r="C16" t="s">
         <v>58</v>
-      </c>
-      <c r="B16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" t="s">
-        <v>57</v>
       </c>
       <c r="D16">
         <v>50000</v>
       </c>
-      <c r="G16" t="s">
-        <v>59</v>
-      </c>
-      <c r="O16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
         <v>60</v>
-      </c>
-      <c r="B17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" t="s">
-        <v>59</v>
       </c>
       <c r="D17">
         <v>75000</v>
       </c>
-      <c r="G17" t="s">
-        <v>61</v>
-      </c>
-      <c r="O17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>62</v>
+      </c>
+      <c r="P17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D18">
         <v>50000</v>
       </c>
-      <c r="G18" t="s">
-        <v>65</v>
-      </c>
-      <c r="H18">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18">
         <v>100000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>1000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>2000000000</v>
       </c>
-      <c r="K18">
-        <v>100</v>
-      </c>
-      <c r="N18">
+      <c r="L18">
+        <v>100</v>
+      </c>
+      <c r="O18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:19">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D19">
         <v>10000</v>
@@ -1309,37 +1391,40 @@
       <c r="E19">
         <v>200</v>
       </c>
-      <c r="H19">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="I19">
         <v>5000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>50</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>1000000000</v>
       </c>
-      <c r="K19">
-        <v>100</v>
-      </c>
-      <c r="O19" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>68</v>
-      </c>
-      <c r="R19">
+      <c r="L19">
+        <v>100</v>
+      </c>
+      <c r="P19" t="s">
+        <v>47</v>
+      </c>
+      <c r="R19" t="s">
+        <v>69</v>
+      </c>
+      <c r="S19">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:19">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D20">
         <v>10000</v>
@@ -1347,40 +1432,43 @@
       <c r="E20">
         <v>200</v>
       </c>
-      <c r="G20" t="s">
-        <v>72</v>
-      </c>
-      <c r="H20">
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>73</v>
+      </c>
+      <c r="I20">
         <v>20000</v>
       </c>
-      <c r="I20">
-        <v>100</v>
-      </c>
       <c r="J20">
+        <v>100</v>
+      </c>
+      <c r="K20">
         <v>1000000000</v>
       </c>
-      <c r="K20">
-        <v>100</v>
-      </c>
-      <c r="O20" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>73</v>
-      </c>
-      <c r="R20">
+      <c r="L20">
+        <v>100</v>
+      </c>
+      <c r="P20" t="s">
+        <v>67</v>
+      </c>
+      <c r="R20" t="s">
+        <v>74</v>
+      </c>
+      <c r="S20">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:19">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D21">
         <v>1000</v>
@@ -1388,43 +1476,46 @@
       <c r="E21">
         <v>100</v>
       </c>
-      <c r="G21" t="s">
-        <v>76</v>
-      </c>
-      <c r="H21">
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>77</v>
+      </c>
+      <c r="I21">
         <v>500</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>50</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>500000000</v>
       </c>
-      <c r="K21">
-        <v>100</v>
-      </c>
-      <c r="O21" t="s">
-        <v>46</v>
+      <c r="L21">
+        <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="Q21" t="s">
-        <v>77</v>
-      </c>
-      <c r="R21">
+        <v>73</v>
+      </c>
+      <c r="R21" t="s">
+        <v>78</v>
+      </c>
+      <c r="S21">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:19">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D22">
         <v>5000</v>
@@ -1432,43 +1523,46 @@
       <c r="E22">
         <v>150</v>
       </c>
-      <c r="G22" t="s">
-        <v>81</v>
-      </c>
-      <c r="H22">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>82</v>
+      </c>
+      <c r="I22">
         <v>1500</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>200</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>2000000000</v>
       </c>
-      <c r="K22">
-        <v>100</v>
-      </c>
-      <c r="O22" t="s">
-        <v>74</v>
+      <c r="L22">
+        <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="Q22" t="s">
         <v>83</v>
       </c>
-      <c r="R22">
+      <c r="R22" t="s">
+        <v>84</v>
+      </c>
+      <c r="S22">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:19">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D23">
         <v>20000</v>
@@ -1479,107 +1573,116 @@
       <c r="F23">
         <v>1000000000</v>
       </c>
-      <c r="G23" t="s">
-        <v>85</v>
-      </c>
-      <c r="H23">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I23">
         <v>1500</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>300</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>5000000000</v>
       </c>
-      <c r="K23">
-        <v>100</v>
-      </c>
-      <c r="O23" t="s">
+      <c r="L23">
+        <v>100</v>
+      </c>
+      <c r="P23" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>77</v>
+      </c>
+      <c r="R23" t="s">
         <v>69</v>
       </c>
-      <c r="P23" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>68</v>
-      </c>
-      <c r="R23">
+      <c r="S23">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:19">
       <c r="A24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>88</v>
+      </c>
+      <c r="I24">
+        <v>2000</v>
+      </c>
+      <c r="J24">
+        <v>200</v>
+      </c>
+      <c r="K24">
+        <v>100000000</v>
+      </c>
+      <c r="L24">
+        <v>50</v>
+      </c>
+      <c r="P24" t="s">
+        <v>46</v>
+      </c>
+      <c r="R24" t="s">
+        <v>89</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>91</v>
+      </c>
+      <c r="I25">
+        <v>5000</v>
+      </c>
+      <c r="J25">
+        <v>500</v>
+      </c>
+      <c r="K25">
+        <v>2500000000</v>
+      </c>
+      <c r="L25">
+        <v>100</v>
+      </c>
+      <c r="P25" t="s">
         <v>87</v>
       </c>
-      <c r="H24">
-        <v>2000</v>
-      </c>
-      <c r="I24">
-        <v>200</v>
-      </c>
-      <c r="J24">
-        <v>100000000</v>
-      </c>
-      <c r="K24">
-        <v>50</v>
-      </c>
-      <c r="O24" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q24" t="s">
+      <c r="R25" t="s">
+        <v>89</v>
+      </c>
+      <c r="S25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" t="s">
         <v>88</v>
-      </c>
-      <c r="R24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
-      <c r="A25" t="s">
-        <v>89</v>
-      </c>
-      <c r="B25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" t="s">
-        <v>90</v>
-      </c>
-      <c r="H25">
-        <v>5000</v>
-      </c>
-      <c r="I25">
-        <v>500</v>
-      </c>
-      <c r="J25">
-        <v>2500000000</v>
-      </c>
-      <c r="K25">
-        <v>100</v>
-      </c>
-      <c r="O25" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>88</v>
-      </c>
-      <c r="R25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18">
-      <c r="A26" t="s">
-        <v>91</v>
-      </c>
-      <c r="B26" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26" t="s">
-        <v>87</v>
       </c>
       <c r="D26">
         <v>10000</v>
@@ -1587,98 +1690,107 @@
       <c r="E26">
         <v>1000</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
+        <v>94</v>
+      </c>
+      <c r="I26">
+        <v>20000</v>
+      </c>
+      <c r="J26">
+        <v>2000</v>
+      </c>
+      <c r="K26">
+        <v>500000000</v>
+      </c>
+      <c r="L26">
+        <v>75</v>
+      </c>
+      <c r="P26" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>1000</v>
+      </c>
+      <c r="J27">
+        <v>100</v>
+      </c>
+      <c r="K27">
+        <v>1000000000</v>
+      </c>
+      <c r="L27">
+        <v>100</v>
+      </c>
+      <c r="P27" t="s">
+        <v>85</v>
+      </c>
+      <c r="R27" t="s">
+        <v>89</v>
+      </c>
+      <c r="S27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" t="s">
         <v>93</v>
       </c>
-      <c r="H26">
-        <v>20000</v>
-      </c>
-      <c r="I26">
-        <v>2000</v>
-      </c>
-      <c r="J26">
-        <v>500000000</v>
-      </c>
-      <c r="K26">
-        <v>75</v>
-      </c>
-      <c r="O26" t="s">
-        <v>84</v>
-      </c>
-      <c r="P26" t="s">
+      <c r="C28" t="s">
+        <v>97</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>98</v>
+      </c>
+      <c r="I28">
+        <v>1000</v>
+      </c>
+      <c r="J28">
+        <v>100</v>
+      </c>
+      <c r="K28">
+        <v>1000000000</v>
+      </c>
+      <c r="L28">
+        <v>85</v>
+      </c>
+      <c r="P28" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="27" spans="1:18">
-      <c r="A27" t="s">
-        <v>94</v>
-      </c>
-      <c r="B27" t="s">
-        <v>56</v>
-      </c>
-      <c r="H27">
-        <v>1000</v>
-      </c>
-      <c r="I27">
-        <v>100</v>
-      </c>
-      <c r="J27">
-        <v>1000000000</v>
-      </c>
-      <c r="K27">
-        <v>100</v>
-      </c>
-      <c r="O27" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>88</v>
-      </c>
-      <c r="R27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
-      <c r="A28" t="s">
-        <v>95</v>
-      </c>
-      <c r="B28" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" t="s">
-        <v>96</v>
-      </c>
-      <c r="G28" t="s">
-        <v>97</v>
-      </c>
-      <c r="H28">
-        <v>1000</v>
-      </c>
-      <c r="I28">
-        <v>100</v>
-      </c>
-      <c r="J28">
-        <v>1000000000</v>
-      </c>
-      <c r="K28">
-        <v>85</v>
-      </c>
-      <c r="O28" t="s">
-        <v>89</v>
-      </c>
-      <c r="P28" t="s">
+      <c r="Q28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18">
-      <c r="A29" t="s">
-        <v>99</v>
-      </c>
-      <c r="B29" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" t="s">
-        <v>97</v>
       </c>
       <c r="D29">
         <v>20000</v>
@@ -1689,133 +1801,145 @@
       <c r="F29">
         <v>2000000000</v>
       </c>
-      <c r="G29" t="s">
-        <v>100</v>
-      </c>
-      <c r="H29">
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>101</v>
+      </c>
+      <c r="I29">
         <v>10000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>500</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>1000000000</v>
       </c>
-      <c r="K29">
-        <v>100</v>
-      </c>
-      <c r="O29" t="s">
-        <v>95</v>
+      <c r="L29">
+        <v>100</v>
       </c>
       <c r="P29" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18">
+        <v>96</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C30" t="s">
+        <v>104</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>3000</v>
+      </c>
+      <c r="J30">
+        <v>1000</v>
+      </c>
+      <c r="K30">
+        <v>5000000000</v>
+      </c>
+      <c r="L30">
+        <v>100</v>
+      </c>
+      <c r="P30" t="s">
+        <v>75</v>
+      </c>
+      <c r="R30" t="s">
+        <v>89</v>
+      </c>
+      <c r="S30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" t="s">
+        <v>106</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" t="s">
+        <v>107</v>
+      </c>
+      <c r="I31">
+        <v>20000</v>
+      </c>
+      <c r="J31">
+        <v>2000</v>
+      </c>
+      <c r="K31">
+        <v>10000000000</v>
+      </c>
+      <c r="L31">
+        <v>100</v>
+      </c>
+      <c r="P31" t="s">
         <v>103</v>
       </c>
-      <c r="H30">
-        <v>3000</v>
-      </c>
-      <c r="I30">
-        <v>1000</v>
-      </c>
-      <c r="J30">
-        <v>5000000000</v>
-      </c>
-      <c r="K30">
-        <v>100</v>
-      </c>
-      <c r="O30" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>88</v>
-      </c>
-      <c r="R30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18">
-      <c r="A31" t="s">
-        <v>104</v>
-      </c>
-      <c r="B31" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" t="s">
-        <v>105</v>
-      </c>
-      <c r="G31" t="s">
-        <v>106</v>
-      </c>
-      <c r="H31">
-        <v>20000</v>
-      </c>
-      <c r="I31">
-        <v>2000</v>
-      </c>
-      <c r="J31">
-        <v>10000000000</v>
-      </c>
-      <c r="K31">
-        <v>100</v>
-      </c>
-      <c r="O31" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>88</v>
-      </c>
-      <c r="R31">
+      <c r="R31" t="s">
+        <v>89</v>
+      </c>
+      <c r="S31">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:19">
       <c r="A32" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" t="s">
+        <v>109</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32" t="s">
+        <v>110</v>
+      </c>
+      <c r="I32">
+        <v>100</v>
+      </c>
+      <c r="J32">
+        <v>100</v>
+      </c>
+      <c r="K32">
+        <v>1000000000</v>
+      </c>
+      <c r="L32">
+        <v>100</v>
+      </c>
+      <c r="P32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="A33" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" t="s">
         <v>107</v>
-      </c>
-      <c r="B32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" t="s">
-        <v>108</v>
-      </c>
-      <c r="G32" t="s">
-        <v>109</v>
-      </c>
-      <c r="H32">
-        <v>100</v>
-      </c>
-      <c r="I32">
-        <v>100</v>
-      </c>
-      <c r="J32">
-        <v>1000000000</v>
-      </c>
-      <c r="K32">
-        <v>100</v>
-      </c>
-      <c r="O32" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18">
-      <c r="A33" t="s">
-        <v>110</v>
-      </c>
-      <c r="B33" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33" t="s">
-        <v>106</v>
       </c>
       <c r="D33">
         <v>30000</v>
@@ -1823,72 +1947,78 @@
       <c r="E33">
         <v>1500</v>
       </c>
-      <c r="G33" t="s">
-        <v>111</v>
-      </c>
-      <c r="H33">
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>112</v>
+      </c>
+      <c r="I33">
         <v>100000</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>5000</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>25000000000</v>
       </c>
-      <c r="K33">
-        <v>100</v>
-      </c>
-      <c r="O33" t="s">
-        <v>60</v>
+      <c r="L33">
+        <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18">
+        <v>61</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B34" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C34" t="s">
-        <v>114</v>
-      </c>
-      <c r="G34" t="s">
         <v>115</v>
       </c>
-      <c r="H34">
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>116</v>
+      </c>
+      <c r="I34">
         <v>1000</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>10</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>1000000</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>50</v>
       </c>
-      <c r="O34" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>83</v>
-      </c>
-      <c r="R34">
+      <c r="P34" t="s">
+        <v>46</v>
+      </c>
+      <c r="R34" t="s">
+        <v>84</v>
+      </c>
+      <c r="S34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:19">
       <c r="A35" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B35" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C35" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D35">
         <v>1000</v>
@@ -1896,37 +2026,40 @@
       <c r="E35">
         <v>100</v>
       </c>
-      <c r="G35" t="s">
-        <v>119</v>
-      </c>
-      <c r="H35">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
+        <v>120</v>
+      </c>
+      <c r="I35">
         <v>500</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>50</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>5000000</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>50</v>
-      </c>
-      <c r="O35" t="s">
-        <v>120</v>
       </c>
       <c r="P35" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="36" spans="1:18">
+      <c r="Q35" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
       <c r="A36" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B36" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C36" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D36">
         <v>1500</v>
@@ -1934,43 +2067,46 @@
       <c r="E36">
         <v>200</v>
       </c>
-      <c r="G36" t="s">
-        <v>124</v>
-      </c>
-      <c r="H36">
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>125</v>
+      </c>
+      <c r="I36">
         <v>750</v>
       </c>
-      <c r="I36">
-        <v>100</v>
-      </c>
       <c r="J36">
+        <v>100</v>
+      </c>
+      <c r="K36">
         <v>10000000</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>75</v>
       </c>
-      <c r="O36" t="s">
-        <v>116</v>
-      </c>
       <c r="P36" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Q36" t="s">
-        <v>77</v>
-      </c>
-      <c r="R36">
+        <v>120</v>
+      </c>
+      <c r="R36" t="s">
+        <v>78</v>
+      </c>
+      <c r="S36">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:19">
       <c r="A37" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B37" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C37" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D37">
         <v>3000</v>
@@ -1978,40 +2114,43 @@
       <c r="E37">
         <v>500</v>
       </c>
-      <c r="G37" t="s">
-        <v>127</v>
-      </c>
-      <c r="H37">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
+        <v>128</v>
+      </c>
+      <c r="I37">
         <v>1500</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>250</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>15000000</v>
       </c>
-      <c r="K37">
-        <v>100</v>
-      </c>
-      <c r="O37" t="s">
-        <v>122</v>
+      <c r="L37">
+        <v>100</v>
       </c>
       <c r="P37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q37" t="s">
-        <v>68</v>
-      </c>
-      <c r="R37">
+        <v>125</v>
+      </c>
+      <c r="R37" t="s">
+        <v>69</v>
+      </c>
+      <c r="S37">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:19">
       <c r="A38" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B38" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38">
         <v>500</v>
@@ -2019,34 +2158,37 @@
       <c r="E38">
         <v>50</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38" t="s">
+        <v>129</v>
+      </c>
+      <c r="I38">
+        <v>250</v>
+      </c>
+      <c r="J38">
+        <v>25</v>
+      </c>
+      <c r="K38">
+        <v>200000</v>
+      </c>
+      <c r="L38">
+        <v>25</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
+      <c r="A39" t="s">
+        <v>130</v>
+      </c>
+      <c r="B39" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" t="s">
         <v>128</v>
-      </c>
-      <c r="H38">
-        <v>250</v>
-      </c>
-      <c r="I38">
-        <v>25</v>
-      </c>
-      <c r="J38">
-        <v>200000</v>
-      </c>
-      <c r="K38">
-        <v>25</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18">
-      <c r="A39" t="s">
-        <v>129</v>
-      </c>
-      <c r="B39" t="s">
-        <v>117</v>
-      </c>
-      <c r="C39" t="s">
-        <v>127</v>
       </c>
       <c r="D39">
         <v>8000</v>
@@ -2054,40 +2196,43 @@
       <c r="E39">
         <v>1200</v>
       </c>
-      <c r="G39" t="s">
-        <v>130</v>
-      </c>
-      <c r="H39">
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39" t="s">
+        <v>131</v>
+      </c>
+      <c r="I39">
         <v>4000</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>600</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>50000000</v>
       </c>
-      <c r="K39">
-        <v>100</v>
-      </c>
-      <c r="O39" t="s">
-        <v>125</v>
+      <c r="L39">
+        <v>100</v>
       </c>
       <c r="P39" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Q39" t="s">
-        <v>88</v>
-      </c>
-      <c r="R39">
+        <v>129</v>
+      </c>
+      <c r="R39" t="s">
+        <v>89</v>
+      </c>
+      <c r="S39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:19">
       <c r="A40" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B40" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D40">
         <v>1000</v>
@@ -2095,31 +2240,34 @@
       <c r="E40">
         <v>50</v>
       </c>
-      <c r="G40" t="s">
-        <v>132</v>
-      </c>
-      <c r="H40">
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40" t="s">
+        <v>133</v>
+      </c>
+      <c r="I40">
         <v>500</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>25</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>2000000</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>50</v>
       </c>
-      <c r="O40" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18">
+      <c r="P40" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
       <c r="A41" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B41" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D41">
         <v>5000</v>
@@ -2130,84 +2278,219 @@
       <c r="F41">
         <v>2000000000</v>
       </c>
-      <c r="I41">
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="J41">
         <v>1000</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>4000000</v>
       </c>
-      <c r="K41">
-        <v>100</v>
-      </c>
-      <c r="N41">
+      <c r="L41">
+        <v>100</v>
+      </c>
+      <c r="O41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:19">
       <c r="A42" t="s">
+        <v>136</v>
+      </c>
+      <c r="B42" t="s">
         <v>135</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
+        <v>137</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>100000000</v>
+      </c>
+      <c r="L42">
+        <v>100</v>
+      </c>
+      <c r="P42" t="s">
         <v>134</v>
       </c>
-      <c r="C42" t="s">
+      <c r="R42" t="s">
+        <v>89</v>
+      </c>
+      <c r="S42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
+      <c r="A43" t="s">
+        <v>138</v>
+      </c>
+      <c r="B43" t="s">
+        <v>135</v>
+      </c>
+      <c r="C43" t="s">
+        <v>139</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43" t="s">
+        <v>140</v>
+      </c>
+      <c r="I43">
+        <v>10000</v>
+      </c>
+      <c r="J43">
+        <v>1000</v>
+      </c>
+      <c r="K43">
+        <v>10000000000</v>
+      </c>
+      <c r="L43">
+        <v>100</v>
+      </c>
+      <c r="P43" t="s">
         <v>136</v>
       </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>100000000</v>
-      </c>
-      <c r="K42">
-        <v>100</v>
-      </c>
-      <c r="O42" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>88</v>
-      </c>
-      <c r="R42">
+      <c r="Q43" t="s">
+        <v>141</v>
+      </c>
+      <c r="R43" t="s">
+        <v>74</v>
+      </c>
+      <c r="S43">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
-      <c r="A43" t="s">
-        <v>137</v>
-      </c>
-      <c r="B43" t="s">
-        <v>134</v>
-      </c>
-      <c r="C43" t="s">
-        <v>138</v>
-      </c>
-      <c r="G43" t="s">
-        <v>139</v>
-      </c>
-      <c r="H43">
+    <row r="44" spans="1:19">
+      <c r="A44" t="s">
+        <v>142</v>
+      </c>
+      <c r="B44" t="s">
+        <v>118</v>
+      </c>
+      <c r="C44" t="s">
+        <v>143</v>
+      </c>
+      <c r="D44">
         <v>10000</v>
       </c>
-      <c r="I43">
-        <v>1000</v>
-      </c>
-      <c r="J43">
-        <v>10000000000</v>
-      </c>
-      <c r="K43">
-        <v>100</v>
-      </c>
-      <c r="O43" t="s">
-        <v>135</v>
-      </c>
-      <c r="P43" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>73</v>
-      </c>
-      <c r="R43">
+      <c r="E44">
+        <v>2500</v>
+      </c>
+      <c r="G44">
+        <v>75</v>
+      </c>
+      <c r="H44" t="s">
+        <v>144</v>
+      </c>
+      <c r="I44">
+        <v>5000</v>
+      </c>
+      <c r="J44">
+        <v>750</v>
+      </c>
+      <c r="K44">
+        <v>1000000000</v>
+      </c>
+      <c r="L44">
+        <v>100</v>
+      </c>
+      <c r="P44" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>131</v>
+      </c>
+      <c r="R44" t="s">
+        <v>89</v>
+      </c>
+      <c r="S44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
+      <c r="A45" t="s">
+        <v>145</v>
+      </c>
+      <c r="B45" t="s">
+        <v>118</v>
+      </c>
+      <c r="C45" t="s">
+        <v>146</v>
+      </c>
+      <c r="D45">
+        <v>15000</v>
+      </c>
+      <c r="E45">
+        <v>5000</v>
+      </c>
+      <c r="G45">
+        <v>125</v>
+      </c>
+      <c r="H45" t="s">
+        <v>147</v>
+      </c>
+      <c r="I45">
+        <v>5000</v>
+      </c>
+      <c r="J45">
+        <v>2000</v>
+      </c>
+      <c r="K45">
+        <v>2000000000</v>
+      </c>
+      <c r="L45">
+        <v>100</v>
+      </c>
+      <c r="P45" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>144</v>
+      </c>
+      <c r="R45" t="s">
+        <v>89</v>
+      </c>
+      <c r="S45">
         <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
+      <c r="A46" t="s">
+        <v>148</v>
+      </c>
+      <c r="B46" t="s">
+        <v>118</v>
+      </c>
+      <c r="D46">
+        <v>25000</v>
+      </c>
+      <c r="E46">
+        <v>2000</v>
+      </c>
+      <c r="F46">
+        <v>2000000000</v>
+      </c>
+      <c r="G46">
+        <v>500</v>
+      </c>
+      <c r="H46" t="s">
+        <v>149</v>
+      </c>
+      <c r="K46">
+        <v>200000000</v>
+      </c>
+      <c r="L46">
+        <v>100</v>
+      </c>
+      <c r="P46" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data-imports/quests.xlsx
+++ b/resources/data-imports/quests.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="164">
   <si>
     <t>name</t>
   </si>
@@ -465,6 +465,48 @@
   </si>
   <si>
     <t>Corrupted Candle of the Church</t>
+  </si>
+  <si>
+    <t>The Creator and The Smith</t>
+  </si>
+  <si>
+    <t>Smithies tools of the trade</t>
+  </si>
+  <si>
+    <t>Smithies Hammer</t>
+  </si>
+  <si>
+    <t>Smithies Iron Chunks</t>
+  </si>
+  <si>
+    <t>Candles in the dark</t>
+  </si>
+  <si>
+    <t>Broken Smithies Anvil</t>
+  </si>
+  <si>
+    <t>Candle of the Smithy</t>
+  </si>
+  <si>
+    <t>Smithies Dying Ember</t>
+  </si>
+  <si>
+    <t>The curse of the Church</t>
+  </si>
+  <si>
+    <t>Vial of Water from the well of the Smith</t>
+  </si>
+  <si>
+    <t>Purgatories Cursed Candle</t>
+  </si>
+  <si>
+    <t>Into the House</t>
+  </si>
+  <si>
+    <t>Bag of Transformation</t>
+  </si>
+  <si>
+    <t>Purgatory Smiths House Key</t>
   </si>
 </sst>
 </file>
@@ -800,7 +842,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S46"/>
+  <dimension ref="A1:S51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -810,7 +852,7 @@
   <cols>
     <col min="1" max="1" width="43" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="21" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="36" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="48" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="17" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="12" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="12" bestFit="true" customWidth="true" style="0"/>
@@ -2493,6 +2535,172 @@
         <v>145</v>
       </c>
     </row>
+    <row r="47" spans="1:19">
+      <c r="A47" t="s">
+        <v>150</v>
+      </c>
+      <c r="B47" t="s">
+        <v>80</v>
+      </c>
+      <c r="D47">
+        <v>15000</v>
+      </c>
+      <c r="E47">
+        <v>2000</v>
+      </c>
+      <c r="I47">
+        <v>1000</v>
+      </c>
+      <c r="J47">
+        <v>100</v>
+      </c>
+      <c r="K47">
+        <v>1000000</v>
+      </c>
+      <c r="L47">
+        <v>25</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
+      <c r="A48" t="s">
+        <v>151</v>
+      </c>
+      <c r="B48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" t="s">
+        <v>152</v>
+      </c>
+      <c r="D48">
+        <v>30000</v>
+      </c>
+      <c r="E48">
+        <v>3000</v>
+      </c>
+      <c r="I48">
+        <v>2000</v>
+      </c>
+      <c r="J48">
+        <v>200</v>
+      </c>
+      <c r="K48">
+        <v>2000000</v>
+      </c>
+      <c r="L48">
+        <v>25</v>
+      </c>
+      <c r="P48" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19">
+      <c r="A49" t="s">
+        <v>154</v>
+      </c>
+      <c r="B49" t="s">
+        <v>118</v>
+      </c>
+      <c r="C49" t="s">
+        <v>155</v>
+      </c>
+      <c r="H49" t="s">
+        <v>156</v>
+      </c>
+      <c r="P49" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19">
+      <c r="A50" t="s">
+        <v>158</v>
+      </c>
+      <c r="B50" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50" t="s">
+        <v>159</v>
+      </c>
+      <c r="D50">
+        <v>30000</v>
+      </c>
+      <c r="E50">
+        <v>5000</v>
+      </c>
+      <c r="F50">
+        <v>5000000</v>
+      </c>
+      <c r="G50">
+        <v>1000</v>
+      </c>
+      <c r="H50" t="s">
+        <v>160</v>
+      </c>
+      <c r="I50">
+        <v>1500</v>
+      </c>
+      <c r="J50">
+        <v>2500</v>
+      </c>
+      <c r="K50">
+        <v>2500000</v>
+      </c>
+      <c r="L50">
+        <v>100</v>
+      </c>
+      <c r="P50" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19">
+      <c r="A51" t="s">
+        <v>161</v>
+      </c>
+      <c r="B51" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" t="s">
+        <v>162</v>
+      </c>
+      <c r="D51">
+        <v>50000</v>
+      </c>
+      <c r="E51">
+        <v>5000</v>
+      </c>
+      <c r="F51">
+        <v>10000000</v>
+      </c>
+      <c r="H51" t="s">
+        <v>163</v>
+      </c>
+      <c r="I51">
+        <v>1000</v>
+      </c>
+      <c r="J51">
+        <v>1000</v>
+      </c>
+      <c r="K51">
+        <v>1000000000</v>
+      </c>
+      <c r="L51">
+        <v>100</v>
+      </c>
+      <c r="P51" t="s">
+        <v>154</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>

--- a/resources/data-imports/quests.xlsx
+++ b/resources/data-imports/quests.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="193">
   <si>
     <t>name</t>
   </si>
@@ -507,6 +507,93 @@
   </si>
   <si>
     <t>Purgatory Smiths House Key</t>
+  </si>
+  <si>
+    <t>Gobbies and Kings</t>
+  </si>
+  <si>
+    <t>Kings Book of Hope</t>
+  </si>
+  <si>
+    <t>Move with the wind</t>
+  </si>
+  <si>
+    <t>Feathers of the sky</t>
+  </si>
+  <si>
+    <t>Story of the wind</t>
+  </si>
+  <si>
+    <t>Book of speed</t>
+  </si>
+  <si>
+    <t>Sky is where the dragons live</t>
+  </si>
+  <si>
+    <t>Sky Dragons Blood Vial</t>
+  </si>
+  <si>
+    <t>The Wizards Enchantment</t>
+  </si>
+  <si>
+    <t>Lost Arrow</t>
+  </si>
+  <si>
+    <t>Heart of the Eye</t>
+  </si>
+  <si>
+    <t>Arrow of Truth</t>
+  </si>
+  <si>
+    <t>Goblins Goddess</t>
+  </si>
+  <si>
+    <t>Goddess Bow of Light</t>
+  </si>
+  <si>
+    <t>Goblins Accuracy</t>
+  </si>
+  <si>
+    <t>The Book of Guidance</t>
+  </si>
+  <si>
+    <t>Kings and Queens</t>
+  </si>
+  <si>
+    <t>Settlers Walking Stick</t>
+  </si>
+  <si>
+    <t>Take a walk</t>
+  </si>
+  <si>
+    <t>Kings Scepter</t>
+  </si>
+  <si>
+    <t>Leading Armies</t>
+  </si>
+  <si>
+    <t>Kings Ring</t>
+  </si>
+  <si>
+    <t>Alchemist Scrolls</t>
+  </si>
+  <si>
+    <t>Run forest, run!</t>
+  </si>
+  <si>
+    <t>Mages Teleport Scroll</t>
+  </si>
+  <si>
+    <t>Blink of an eye</t>
+  </si>
+  <si>
+    <t>Goblins Quickening Rune</t>
+  </si>
+  <si>
+    <t>Goblins Gift</t>
+  </si>
+  <si>
+    <t>Golden Ring of Blur</t>
   </si>
 </sst>
 </file>
@@ -842,7 +929,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S51"/>
+  <dimension ref="A1:S66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1932,7 +2019,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="R31" t="s">
         <v>89</v>
@@ -1970,7 +2057,7 @@
         <v>100</v>
       </c>
       <c r="P32" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:19">
@@ -2008,7 +2095,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="Q33" t="s">
         <v>110</v>
@@ -2699,6 +2786,441 @@
       </c>
       <c r="P51" t="s">
         <v>154</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19">
+      <c r="A52" t="s">
+        <v>164</v>
+      </c>
+      <c r="B52" t="s">
+        <v>114</v>
+      </c>
+      <c r="D52">
+        <v>1000</v>
+      </c>
+      <c r="H52" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19">
+      <c r="A53" t="s">
+        <v>166</v>
+      </c>
+      <c r="B53" t="s">
+        <v>114</v>
+      </c>
+      <c r="D53">
+        <v>1000</v>
+      </c>
+      <c r="H53" t="s">
+        <v>167</v>
+      </c>
+      <c r="K53">
+        <v>100</v>
+      </c>
+      <c r="L53">
+        <v>5</v>
+      </c>
+      <c r="P53" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19">
+      <c r="A54" t="s">
+        <v>168</v>
+      </c>
+      <c r="B54" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" t="s">
+        <v>167</v>
+      </c>
+      <c r="D54">
+        <v>1500</v>
+      </c>
+      <c r="H54" t="s">
+        <v>169</v>
+      </c>
+      <c r="K54">
+        <v>1000</v>
+      </c>
+      <c r="L54">
+        <v>10</v>
+      </c>
+      <c r="P54" t="s">
+        <v>113</v>
+      </c>
+      <c r="R54" t="s">
+        <v>84</v>
+      </c>
+      <c r="S54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19">
+      <c r="A55" t="s">
+        <v>170</v>
+      </c>
+      <c r="B55" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" t="s">
+        <v>169</v>
+      </c>
+      <c r="D55">
+        <v>3000</v>
+      </c>
+      <c r="H55" t="s">
+        <v>171</v>
+      </c>
+      <c r="K55">
+        <v>100000</v>
+      </c>
+      <c r="L55">
+        <v>50</v>
+      </c>
+      <c r="P55" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19">
+      <c r="A56" t="s">
+        <v>172</v>
+      </c>
+      <c r="B56" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" t="s">
+        <v>171</v>
+      </c>
+      <c r="D56">
+        <v>6000</v>
+      </c>
+      <c r="H56" t="s">
+        <v>172</v>
+      </c>
+      <c r="K56">
+        <v>1000000</v>
+      </c>
+      <c r="L56">
+        <v>100</v>
+      </c>
+      <c r="P56" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19">
+      <c r="A57" t="s">
+        <v>173</v>
+      </c>
+      <c r="B57" t="s">
+        <v>114</v>
+      </c>
+      <c r="C57" t="s">
+        <v>174</v>
+      </c>
+      <c r="D57">
+        <v>1000</v>
+      </c>
+      <c r="H57" t="s">
+        <v>175</v>
+      </c>
+      <c r="K57">
+        <v>1000</v>
+      </c>
+      <c r="L57">
+        <v>10</v>
+      </c>
+      <c r="P57" t="s">
+        <v>113</v>
+      </c>
+      <c r="R57" t="s">
+        <v>84</v>
+      </c>
+      <c r="S57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19">
+      <c r="A58" t="s">
+        <v>176</v>
+      </c>
+      <c r="B58" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" t="s">
+        <v>175</v>
+      </c>
+      <c r="D58">
+        <v>1500</v>
+      </c>
+      <c r="H58" t="s">
+        <v>177</v>
+      </c>
+      <c r="K58">
+        <v>10000</v>
+      </c>
+      <c r="L58">
+        <v>50</v>
+      </c>
+      <c r="P58" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19">
+      <c r="A59" t="s">
+        <v>178</v>
+      </c>
+      <c r="B59" t="s">
+        <v>114</v>
+      </c>
+      <c r="C59" t="s">
+        <v>177</v>
+      </c>
+      <c r="D59">
+        <v>3000</v>
+      </c>
+      <c r="H59" t="s">
+        <v>179</v>
+      </c>
+      <c r="K59">
+        <v>1000000</v>
+      </c>
+      <c r="L59">
+        <v>100</v>
+      </c>
+      <c r="P59" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19">
+      <c r="A60" t="s">
+        <v>180</v>
+      </c>
+      <c r="B60" t="s">
+        <v>114</v>
+      </c>
+      <c r="C60" t="s">
+        <v>165</v>
+      </c>
+      <c r="D60">
+        <v>1500</v>
+      </c>
+      <c r="H60" t="s">
+        <v>181</v>
+      </c>
+      <c r="K60">
+        <v>1000</v>
+      </c>
+      <c r="L60">
+        <v>10</v>
+      </c>
+      <c r="P60" t="s">
+        <v>113</v>
+      </c>
+      <c r="R60" t="s">
+        <v>84</v>
+      </c>
+      <c r="S60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19">
+      <c r="A61" t="s">
+        <v>182</v>
+      </c>
+      <c r="B61" t="s">
+        <v>114</v>
+      </c>
+      <c r="C61" t="s">
+        <v>181</v>
+      </c>
+      <c r="D61">
+        <v>3000</v>
+      </c>
+      <c r="H61" t="s">
+        <v>183</v>
+      </c>
+      <c r="K61">
+        <v>100000</v>
+      </c>
+      <c r="L61">
+        <v>50</v>
+      </c>
+      <c r="P61" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19">
+      <c r="A62" t="s">
+        <v>184</v>
+      </c>
+      <c r="B62" t="s">
+        <v>114</v>
+      </c>
+      <c r="C62" t="s">
+        <v>183</v>
+      </c>
+      <c r="D62">
+        <v>5000</v>
+      </c>
+      <c r="H62" t="s">
+        <v>185</v>
+      </c>
+      <c r="K62">
+        <v>1000000</v>
+      </c>
+      <c r="L62">
+        <v>100</v>
+      </c>
+      <c r="P62" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19">
+      <c r="A63" t="s">
+        <v>186</v>
+      </c>
+      <c r="B63" t="s">
+        <v>24</v>
+      </c>
+      <c r="C63" t="s">
+        <v>51</v>
+      </c>
+      <c r="D63">
+        <v>5000</v>
+      </c>
+      <c r="E63">
+        <v>5</v>
+      </c>
+      <c r="H63" t="s">
+        <v>186</v>
+      </c>
+      <c r="I63">
+        <v>10000</v>
+      </c>
+      <c r="J63">
+        <v>100</v>
+      </c>
+      <c r="K63">
+        <v>1000</v>
+      </c>
+      <c r="L63">
+        <v>50</v>
+      </c>
+      <c r="O63">
+        <v>1</v>
+      </c>
+      <c r="R63" t="s">
+        <v>69</v>
+      </c>
+      <c r="S63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19">
+      <c r="A64" t="s">
+        <v>187</v>
+      </c>
+      <c r="B64" t="s">
+        <v>114</v>
+      </c>
+      <c r="C64" t="s">
+        <v>167</v>
+      </c>
+      <c r="D64">
+        <v>1000</v>
+      </c>
+      <c r="H64" t="s">
+        <v>188</v>
+      </c>
+      <c r="K64">
+        <v>1000</v>
+      </c>
+      <c r="L64">
+        <v>10</v>
+      </c>
+      <c r="P64" t="s">
+        <v>166</v>
+      </c>
+      <c r="R64" t="s">
+        <v>69</v>
+      </c>
+      <c r="S64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19">
+      <c r="A65" t="s">
+        <v>189</v>
+      </c>
+      <c r="B65" t="s">
+        <v>114</v>
+      </c>
+      <c r="C65" t="s">
+        <v>188</v>
+      </c>
+      <c r="D65">
+        <v>2000</v>
+      </c>
+      <c r="E65">
+        <v>10</v>
+      </c>
+      <c r="H65" t="s">
+        <v>190</v>
+      </c>
+      <c r="J65">
+        <v>20</v>
+      </c>
+      <c r="K65">
+        <v>100000</v>
+      </c>
+      <c r="L65">
+        <v>50</v>
+      </c>
+      <c r="P65" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19">
+      <c r="A66" t="s">
+        <v>191</v>
+      </c>
+      <c r="B66" t="s">
+        <v>114</v>
+      </c>
+      <c r="C66" t="s">
+        <v>190</v>
+      </c>
+      <c r="D66">
+        <v>5000</v>
+      </c>
+      <c r="E66">
+        <v>10</v>
+      </c>
+      <c r="H66" t="s">
+        <v>192</v>
+      </c>
+      <c r="I66">
+        <v>10000</v>
+      </c>
+      <c r="J66">
+        <v>100</v>
+      </c>
+      <c r="K66">
+        <v>1000000</v>
+      </c>
+      <c r="L66">
+        <v>100</v>
+      </c>
+      <c r="P66" t="s">
+        <v>189</v>
+      </c>
+      <c r="R66" t="s">
+        <v>78</v>
+      </c>
+      <c r="S66">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data-imports/quests.xlsx
+++ b/resources/data-imports/quests.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="194">
   <si>
     <t>name</t>
   </si>
@@ -522,6 +522,9 @@
   </si>
   <si>
     <t>Story of the wind</t>
+  </si>
+  <si>
+    <t>Tome of the Winds</t>
   </si>
   <si>
     <t>Book of speed</t>
@@ -2833,13 +2836,13 @@
         <v>114</v>
       </c>
       <c r="C54" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D54">
         <v>1500</v>
       </c>
       <c r="H54" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K54">
         <v>1000</v>
@@ -2859,19 +2862,19 @@
     </row>
     <row r="55" spans="1:19">
       <c r="A55" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B55" t="s">
         <v>114</v>
       </c>
       <c r="C55" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D55">
         <v>3000</v>
       </c>
       <c r="H55" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K55">
         <v>100000</v>
@@ -2885,19 +2888,19 @@
     </row>
     <row r="56" spans="1:19">
       <c r="A56" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B56" t="s">
         <v>114</v>
       </c>
       <c r="C56" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D56">
         <v>6000</v>
       </c>
       <c r="H56" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K56">
         <v>1000000</v>
@@ -2906,24 +2909,24 @@
         <v>100</v>
       </c>
       <c r="P56" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="57" spans="1:19">
       <c r="A57" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B57" t="s">
         <v>114</v>
       </c>
       <c r="C57" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D57">
         <v>1000</v>
       </c>
       <c r="H57" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K57">
         <v>1000</v>
@@ -2943,19 +2946,19 @@
     </row>
     <row r="58" spans="1:19">
       <c r="A58" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B58" t="s">
         <v>114</v>
       </c>
       <c r="C58" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D58">
         <v>1500</v>
       </c>
       <c r="H58" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K58">
         <v>10000</v>
@@ -2964,24 +2967,24 @@
         <v>50</v>
       </c>
       <c r="P58" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="59" spans="1:19">
       <c r="A59" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B59" t="s">
         <v>114</v>
       </c>
       <c r="C59" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D59">
         <v>3000</v>
       </c>
       <c r="H59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K59">
         <v>1000000</v>
@@ -2990,12 +2993,12 @@
         <v>100</v>
       </c>
       <c r="P59" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="60" spans="1:19">
       <c r="A60" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B60" t="s">
         <v>114</v>
@@ -3007,7 +3010,7 @@
         <v>1500</v>
       </c>
       <c r="H60" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K60">
         <v>1000</v>
@@ -3027,19 +3030,19 @@
     </row>
     <row r="61" spans="1:19">
       <c r="A61" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B61" t="s">
         <v>114</v>
       </c>
       <c r="C61" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D61">
         <v>3000</v>
       </c>
       <c r="H61" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K61">
         <v>100000</v>
@@ -3048,24 +3051,24 @@
         <v>50</v>
       </c>
       <c r="P61" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="62" spans="1:19">
       <c r="A62" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B62" t="s">
         <v>114</v>
       </c>
       <c r="C62" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D62">
         <v>5000</v>
       </c>
       <c r="H62" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K62">
         <v>1000000</v>
@@ -3074,12 +3077,12 @@
         <v>100</v>
       </c>
       <c r="P62" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="63" spans="1:19">
       <c r="A63" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B63" t="s">
         <v>24</v>
@@ -3094,7 +3097,7 @@
         <v>5</v>
       </c>
       <c r="H63" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I63">
         <v>10000</v>
@@ -3120,7 +3123,7 @@
     </row>
     <row r="64" spans="1:19">
       <c r="A64" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B64" t="s">
         <v>114</v>
@@ -3132,7 +3135,7 @@
         <v>1000</v>
       </c>
       <c r="H64" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K64">
         <v>1000</v>
@@ -3152,13 +3155,13 @@
     </row>
     <row r="65" spans="1:19">
       <c r="A65" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B65" t="s">
         <v>114</v>
       </c>
       <c r="C65" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D65">
         <v>2000</v>
@@ -3167,7 +3170,7 @@
         <v>10</v>
       </c>
       <c r="H65" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J65">
         <v>20</v>
@@ -3179,18 +3182,18 @@
         <v>50</v>
       </c>
       <c r="P65" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="66" spans="1:19">
       <c r="A66" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B66" t="s">
         <v>114</v>
       </c>
       <c r="C66" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D66">
         <v>5000</v>
@@ -3199,7 +3202,7 @@
         <v>10</v>
       </c>
       <c r="H66" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I66">
         <v>10000</v>
@@ -3214,7 +3217,7 @@
         <v>100</v>
       </c>
       <c r="P66" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="R66" t="s">
         <v>78</v>

--- a/resources/data-imports/quests.xlsx
+++ b/resources/data-imports/quests.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="125">
   <si>
     <t>id</t>
   </si>
@@ -119,7 +119,7 @@
     <t>Hunting Expedition</t>
   </si>
   <si>
-    <t>The Soldier stares you down for a moment, assessing your gear, assessing your strengths and weaknesses, written all over your poster and face. "Child listen to me, you are not equipped to take on these beasts, alas if you have the currency I require I can give you a special tool. Have you heard of Celestial before?" A word that should sound familiar, one that creeps across your mind, creeping up from the darkest of recesses. Before you can answer The Soldier looks ate you with a grin: "Of course not. You are not of this world are you child? Where do you come from?"&lt;br /&gt; &lt;br /&gt; A good question if there ever was one, another interrupted thought,"Child, there are creatures called Celestial entities, much stronger then the critters you are use to, some time the gates swing open and they get loose for a day before The Creator manages to slam the gates shut." He pauses and looks around as if someone, some where might be listening to what he may consider a "private conversation".&lt;br /&gt; &lt;br /&gt; The Soldier composes him self and produces a flask from his waist line. After a long swig he puts the flask back on his waste, the silver glitters in the sunlight, catching your eye to the intricate designs across the small container.&lt;br /&gt; &lt;br /&gt; "Where was I?" He continued. "Oh yes, do you have my currency?"</t>
+    <t>The Soldier stares you down for a moment, assessing your gear, assessing your strengths and weaknesses, written all over your poster and face. "Child listen to me, you are not equipped to take on these beasts, alas if you have the currency I require I can give you a special tool. Have you heard of Celestial before?" A word that should sound familiar, one that creeps across your mind. Before you can answer The Soldier looks at you with a grin: "Of course not. You are not of this world are you child? Where do you come from?"&lt;br /&gt; &lt;br /&gt; A good question if there ever was one. You shake it off, as you realize his question is ridiculous in its nature, not of this world? You were born in a small village. &lt;br /&gt; &lt;br /&gt; Another interrupted thought,"Child, there are creatures called Celestial entities, much stronger then the critters you are use to, some time the gates swing open and they get loose for a day before The Creator manages to slam the gates shut." He pauses and looks around as if someone, some where might be listening to what he may consider a "private conversation".&lt;br /&gt; &lt;br /&gt; The Soldier composes him self and produces a flask from his waist line. After a long swig he puts the flask back on his waste, the silver glitters in the sunlight, catching your eye to the intricate designs across the small container.&lt;br /&gt; &lt;br /&gt; "Where was I?" He continued. "Oh yes, do you have my currency?"</t>
   </si>
   <si>
     <t>The Soldier smiles as you hand over the currency, "Thank you child. Let me tell you about this little tool. With this you can use whats called /pct. Whats that? A command that allows you to venture to the celestial where ever it spawns provided you can access the plane and the location it spawned at." He pauses for a moment before continuing, "These creatures have much higher attacks, they can kill you in one hit. Fail to kill it, and it moves. These creatures can be conjured for a cost of course, privately or publicly."&lt;br /&gt; &lt;br /&gt; He goes on like this for a while, explaining the in's and outs of the creatures, he explains that by killing them you find what are called Crystal Shards, these can be used in a special skill called Alchemy. You nod along and make mental notes of his descriptions of various creatures and how every plane, with the exception of Purgatory has a celestial entity, but that when the gates swing wide, only specific planes will spawn their entities.&lt;br /&gt; &lt;br /&gt; The conversation feels like it will never end and as you begin to drift through the endless words and descriptions, the winds pick up and The Soldier is suddenly quiet. "Thats all child."</t>
@@ -266,6 +266,12 @@
     <t>Goblins Lust for Gold</t>
   </si>
   <si>
+    <t>Out on your adventures you come across a Goblin. Unlike other goblins, this one seems to fear you. This excites you; you prepare for the kill.&lt;br /&gt; &lt;br /&gt; “Please! I beg of thee, don’t hurt me!” The goblin shrieks. “I am but a helpless gobby. I like shiny things; do you like shiny things? I have shiny things! Please don’t kill me!”&lt;br /&gt; &lt;br /&gt; You stare at the goblin for a moment. Shiny things. What kinds of shiny things you ask?&lt;br /&gt; &lt;br /&gt; “All kinds. All I require is my Jewels back! A Witches Demon stole them! Please help me.”&lt;br /&gt; &lt;br /&gt; You stare at this goblin, dressed in tatters and rags, you feel a twinge of sympathy for the poor creature. He holds a broken rusted dagger in one hand and his knees tremble in fear. No more the height of a young child.&lt;br /&gt; &lt;br /&gt; You agree not to kill him, which allows him to calm himself for a moment. “Will you help me?”</t>
+  </si>
+  <si>
+    <t>Returning with jewels the goblin is ecstatic and overjoyed.&lt;br /&gt; &lt;br /&gt; “Oh, you are a kind person! Thank you. These are very precious to me.”&lt;br /&gt; &lt;br /&gt; You ask what they are for, but he shakes his head. “Gobbies don’t share the secrets of The Creator. Gobbies not allowed that’s why most of us are feral and blood thirsty.” He stairs down at his shiny jewels and puts them into his pocket.&lt;br /&gt; &lt;br /&gt; “I have other shiny things I can give you though if you have shiny things to trade. I do like shiny things.”</t>
+  </si>
+  <si>
     <t>Light of Hope</t>
   </si>
   <si>
@@ -341,10 +347,28 @@
     <t>Lost Arrow</t>
   </si>
   <si>
+    <t>“I have a magically enchanted arrow for you, have you heard of the Heart of the Eye? If you find that I can give you this arrow!”&lt;br /&gt; &lt;br /&gt; The goblin has a large smile on his face. Is this a scam, a trick? Should you just slaughter the poor innocent creature right here and now?&lt;br /&gt; &lt;br /&gt; You shudder a bit as you let these dark thoughts wash over you. Too much killing you think. You nod and tell him you will find the item.</t>
+  </si>
+  <si>
+    <t>“Here you go!” The goblin states as he hands you the “Lost arrow.”&lt;br /&gt; &lt;br /&gt; He stares at his shiny new toy as you stare at a stick with feathers on it. You are about to ram it through his neck when you feel the energy coursing through it. You can’t quite tell what that energy is, but you know it is magical.&lt;br /&gt; &lt;br /&gt; Goblin gets to live another day.</t>
+  </si>
+  <si>
     <t>Goblins Goddess</t>
   </si>
   <si>
+    <t>“Hey! Do you still have that arrow, give it here and I’ll give you a bow!” The goblin beckons in the familiar shrieky voice.&lt;br /&gt; &lt;br /&gt; You walk over to him and ask him about this bow.&lt;br /&gt; &lt;br /&gt; “We gobbies have a goddess who guides and protects us. It is said that with this bow a king was once able to slaughter hundreds of his foes with a single arrow. Magic is what it was, and I can give you that magic if you give me the arrow.”&lt;br /&gt; &lt;br /&gt; You ask him why he would give you a bow that is apparently a spiritual and religious holy object among his people.&lt;br /&gt; &lt;br /&gt; “Because the feral beasts that call themselves goblins have forgotten what our true mission was here. To prosper and trade with the local citizens. Instead, my brothers and sisters would rather act like bandits who plunder and kill.”&lt;br /&gt; &lt;br /&gt; He looks at the bow in his hand and adds, “Because you didn’t kill me.”</t>
+  </si>
+  <si>
+    <t>Handing over the arrow the goblin gives you the bow. Immediately you feel a Prescence wash over you, through you and to the core of your being. Warm, inviting, safe.&lt;br /&gt; &lt;br /&gt; You thank the goblin for the item and head on your way. Not much use in battle, but that feeling you have is ecstatically illuminating in the depths of your deprived mind. Filled with the darkness of death.</t>
+  </si>
+  <si>
     <t>Goblins Accuracy</t>
+  </si>
+  <si>
+    <t>You see the goblin the middle of nowhere and ask him if has any new shiny objects.&lt;br /&gt; &lt;br /&gt; “I don’t but I do have a book if you want to trade the bow back?”&lt;br /&gt; &lt;br /&gt; You look at him and shake your head, there’s no use for a book when you have a magically enchanted goddess bow.&lt;br /&gt; &lt;br /&gt; “It has secrets in your tongue, secrets about ….” The goblin stops short of himself and looks at his feet. He refuses to look up, but does out stretch his arms, in a small whimper he states: “Want to trade?”</t>
+  </si>
+  <si>
+    <t>Could this be it? Could this be the answers you need? You make the trade with the goblin and bid him a good day. Walking away you start to feverishly flip through the pages.&lt;br /&gt; &lt;br /&gt; It’s been weeks you have been searching for how exactly you got here. You were born in a village somewhere. However, the adventures around your “world” seem to point to tear. That, and everyone is so obsessed with this “The Creator” person …&lt;br /&gt; &lt;br /&gt; “The Creator …” everywhere, sentences, paragraphs, you read far too fast, far too much, can’t comprehend in your thirst, trying to absorb as much as if you fear the book might fade away. Alas the words start to move:&lt;br /&gt; &lt;br /&gt; “The Creator created the world of Tlessa after his escape from Purgatory, some state that there was an elder god before him who molded the world …. “&lt;br /&gt; &lt;br /&gt; Into:&lt;br /&gt; &lt;br /&gt; “The art of the aim is to hold your weapon steady…”&lt;br /&gt; &lt;br /&gt; No! The truth was before you, now it is gone. Why? Why hides the truth? Who are you? Who is The Creator! You scream in your head in frustration!</t>
   </si>
   <si>
     <t>Kings and Queens</t>
@@ -729,7 +753,7 @@
     <col min="18" max="18" width="28" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="23" bestFit="true" customWidth="true" style="0"/>
     <col min="20" max="20" width="26" bestFit="true" customWidth="true" style="0"/>
-    <col min="21" max="21" width="1550" bestFit="true" customWidth="true" style="0"/>
+    <col min="21" max="21" width="1666" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="1591" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -1974,13 +1998,19 @@
       <c r="T33">
         <v>1</v>
       </c>
+      <c r="U33" t="s">
+        <v>83</v>
+      </c>
+      <c r="V33" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="34" spans="1:22">
       <c r="A34">
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C34">
         <v>16</v>
@@ -2021,7 +2051,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C35">
         <v>16</v>
@@ -2068,7 +2098,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C36">
         <v>16</v>
@@ -2115,7 +2145,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C37">
         <v>16</v>
@@ -2150,7 +2180,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C38">
         <v>16</v>
@@ -2197,7 +2227,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C39">
         <v>15</v>
@@ -2232,7 +2262,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C40">
         <v>17</v>
@@ -2264,7 +2294,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C41">
         <v>17</v>
@@ -2293,7 +2323,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C42">
         <v>17</v>
@@ -2334,7 +2364,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C43">
         <v>16</v>
@@ -2384,7 +2414,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C44">
         <v>16</v>
@@ -2434,7 +2464,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C45">
         <v>16</v>
@@ -2469,7 +2499,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C46">
         <v>11</v>
@@ -2501,7 +2531,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -2539,7 +2569,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C48">
         <v>16</v>
@@ -2562,7 +2592,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C49">
         <v>16</v>
@@ -2609,7 +2639,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C50">
         <v>10</v>
@@ -2650,7 +2680,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C51">
         <v>15</v>
@@ -2670,7 +2700,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C52">
         <v>15</v>
@@ -2696,7 +2726,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C53">
         <v>15</v>
@@ -2726,10 +2756,10 @@
         <v>1</v>
       </c>
       <c r="U53" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="V53" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:22">
@@ -2737,7 +2767,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C54">
         <v>15</v>
@@ -2766,7 +2796,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C55">
         <v>15</v>
@@ -2795,7 +2825,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C56">
         <v>15</v>
@@ -2823,6 +2853,12 @@
       </c>
       <c r="T56">
         <v>3</v>
+      </c>
+      <c r="U56" t="s">
+        <v>110</v>
+      </c>
+      <c r="V56" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:22">
@@ -2830,7 +2866,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C57">
         <v>15</v>
@@ -2852,6 +2888,12 @@
       </c>
       <c r="Q57">
         <v>56</v>
+      </c>
+      <c r="U57" t="s">
+        <v>113</v>
+      </c>
+      <c r="V57" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:22">
@@ -2859,7 +2901,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C58">
         <v>15</v>
@@ -2881,6 +2923,12 @@
       </c>
       <c r="Q58">
         <v>57</v>
+      </c>
+      <c r="U58" t="s">
+        <v>116</v>
+      </c>
+      <c r="V58" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="59" spans="1:22">
@@ -2888,7 +2936,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C59">
         <v>15</v>
@@ -2923,7 +2971,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C60">
         <v>15</v>
@@ -2952,7 +3000,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C61">
         <v>15</v>
@@ -2981,7 +3029,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -3025,7 +3073,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C63">
         <v>15</v>
@@ -3060,7 +3108,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C64">
         <v>15</v>
@@ -3095,7 +3143,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C65">
         <v>15</v>

--- a/resources/data-imports/quests.xlsx
+++ b/resources/data-imports/quests.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="396">
   <si>
     <t>id</t>
   </si>
@@ -26,7 +26,7 @@
     <t>npc_id</t>
   </si>
   <si>
-    <t>item_id</t>
+    <t>item_name</t>
   </si>
   <si>
     <t>gold_dust_cost</t>
@@ -41,7 +41,7 @@
     <t>copper_coin_cost</t>
   </si>
   <si>
-    <t>reward_item</t>
+    <t>reward_item_name</t>
   </si>
   <si>
     <t>reward_gold_dust</t>
@@ -68,7 +68,7 @@
     <t>parent_quest_id</t>
   </si>
   <si>
-    <t>secondary_required_item</t>
+    <t>secondary_required_item_name</t>
   </si>
   <si>
     <t>faction_game_map_id</t>
@@ -77,6 +77,12 @@
     <t>required_faction_level</t>
   </si>
   <si>
+    <t>unlocks_feature</t>
+  </si>
+  <si>
+    <t>unlocks_passive_id</t>
+  </si>
+  <si>
     <t>before_completion_description</t>
   </si>
   <si>
@@ -86,310 +92,1117 @@
     <t>I dream of Alchemy</t>
   </si>
   <si>
+    <t>Alchemist Tools</t>
+  </si>
+  <si>
     <t>Alchemy</t>
   </si>
   <si>
-    <t>There was a time, long a go when a different entity who created the world when Alchemy and those who practiced the lost are of Alchemy existed. Alas, the nameless entity had vanished from all planes of existence leaving the world with out gods and an abundance of magical energy that was being infused into the alchemists work. I could go on and on about the history, the magic, the laws of science and the balancing act that for a time, was kept in harmony. I could also go on about war and destruction, but what's really important is the story of how Alchemy vanished.&lt;br /&gt; &lt;br /&gt; When The Creator was freed fro Purgatory, a story for another time, he had banished all Arcane Alchemists, for they had the power to lock The Creator back into his Purgatory Prison. Alas he could not allow that, banished them from the Planes of existence and hid the secrets of Alchemy away from the prying and curious minds of the peoples of Tlessa.&lt;br /&gt; &lt;br /&gt; But I, the Soldier, have found a way to let you unlock the secrets of Alchemy. A world of vast opportunity waits.</t>
-  </si>
-  <si>
-    <t>Child, listen to me carefully. In order to use Alchemy, you must Disenchant the magical gear you make or find or buy off the Market board, this will get you Gold Dust, a currency needed for Alchemy, but aside from that you also need something called Shards. There are mystical beasts, they can be summoned from others. These creatures are called Celestials, see The Creator hid the last ingredient to Alchemy in the souls of these creatures he called forth from the Celestial Plane of Alicarthious. I don't know much about the place, aside from it's name.&lt;br /&gt; &lt;br /&gt; With Gold Dust and Shards, you can create one of three types of items: Usable, Holy and Kingdom Destruction. The Creator, to stop any one and every one from attempting to get too strong only allows this form of existence to apply ten of these item's to them selves. You can drop as many Kingdom Destruction ones as you want. The Holy items can only be used ..... No, I cannot tell you - He could be listening. Just keep this information to your self child.</t>
+    <t>“Child have you heard of Alchemy?”&lt;br /&gt; &lt;br /&gt; You and the soldier sit around a table in a nondescript bard, sipping your ales and for once enjoying the peace of the land.&lt;br /&gt; &lt;br /&gt; You shake your head, and he continues.&lt;br /&gt; &lt;br /&gt; “Alchemy is a form of crafting where you can create potions and tonics and other substances that allow you to become stronger for a time. You can even create powerful items that can bring a kingdom to its knees.”&lt;br /&gt; &lt;br /&gt; “It is also said that there are holy oils that you can use in the depths of Purgatory to apply to your gear, makes them stronger. Makes you stronger.”&lt;br /&gt; &lt;br /&gt; He pauses and sips his ale. You ask him what it would cost to learn this craft. How valuable it really is to you.&lt;br /&gt; &lt;br /&gt; “It costs Gold Dust. Like everything else in this world. The items are made with the Shards of Celestial beings and the Dust of enchanted items.”&lt;br /&gt; &lt;br /&gt; Sounds expensive.</t>
+  </si>
+  <si>
+    <t>You managed to slay the Banshee and found an interesting set of tools upon its body. Alchemists Tools.&lt;br /&gt; &lt;br /&gt; You head back to the pub, looking for the Soldier, but he is not there. You ask the barmaid if she has seen him, she tells you he is at the docks. Heading down there you see him chatting with a merchant.&lt;br /&gt; &lt;br /&gt; After a moment he leaves the merchant with a pouch, presumably full of coins.&lt;br /&gt; &lt;br /&gt; You show him the tools you found and ask if this is what you need.&lt;br /&gt; &lt;br /&gt; He investigates them.&lt;br /&gt; &lt;br /&gt; “This is it child. Alas these are old and broken. Come with me and I can teach you the art of Alchemy. At least the basics that is, the rest will be up to you.”</t>
   </si>
   <si>
     <t>Master of Weapons</t>
   </si>
   <si>
+    <t>Weaponsmith's Book</t>
+  </si>
+  <si>
+    <t>Weaponsmith's Master Book</t>
+  </si>
+  <si>
+    <t>You approach the hut where The Witch is said to live. Bones scatter the yard laid out in intricate designs and patterns. Almost as if she laid them out to be a series of warding shields.&lt;br /&gt; &lt;br /&gt; Upon closer inspection you find that they are a series of animal, human, beast and if you look close enough, children’s bones.&lt;br /&gt; &lt;br /&gt; The Hut itself is small, no door, just a cloth over the entrance, ripped and tattered, dirty, and stained.&lt;br /&gt; &lt;br /&gt; You can hear a voice come from within:&lt;br /&gt; &lt;br /&gt; “Child. I see you out there, investigating my bones. Come closers, let me have a proper look at you.”&lt;br /&gt; &lt;br /&gt; You enter the Hut and see an old woman sitting at a small round table. The table is covered in books, scrolls and other items. Looking around you can see more bones, smaller ones, hanging down from the ceiling which has holes scattered throughout.&lt;br /&gt; &lt;br /&gt; “Ahh, there you are” she continues in her crackly voice, worn by age. You look over at her and see she is missing her eyes, for the lids are sunken in and sewed shut.&lt;br /&gt; &lt;br /&gt; Her skin is leathered, wrinkly and her hair is white and wispy.&lt;br /&gt; &lt;br /&gt; She wears old black robes that cover her frail looking body.&lt;br /&gt; &lt;br /&gt; “You have come for my knowledge have you not?”</t>
+  </si>
+  <si>
+    <t>You explain to her that you are seeking to craft weapons, better weapons. She stares at you, or at least in your general direction for a moment before pushing some books aside.&lt;br /&gt; &lt;br /&gt; Some fall to the ground and the dust that covered them raises in the air before settling down again. The dimly lit hut makes it hard to see anything. A few candles burn here and there, the smell of incense wafts through your nose.&lt;br /&gt; &lt;br /&gt; “I have just the thing you are looking for. Here take this.”&lt;br /&gt; &lt;br /&gt; She hands you another tome that has the title of “Weapon Smiths Master Book”.&lt;br /&gt; &lt;br /&gt; “Use this child. Use it well. Be on your way unless you have other business.”</t>
+  </si>
+  <si>
     <t>Master Magician</t>
   </si>
   <si>
+    <t>Spell Weaving Book</t>
+  </si>
+  <si>
+    <t>Mage's Tome</t>
+  </si>
+  <si>
+    <t>Once again you find yourself back at the hut. The old women, this time is out front. Tending to her bones, arranging them on the ground.&lt;br /&gt; &lt;br /&gt; “Child. You are back. Are you interested in the art of spell crafting?”&lt;br /&gt; &lt;br /&gt; She does not look up from her work, instead you watch her hands move around, feeling the ground, feeling the bones.&lt;br /&gt; &lt;br /&gt; Somehow, she knows how to arrange them properly in fashion. You can feel the magic of her arrangements permeate through the air.</t>
+  </si>
+  <si>
+    <t>You explain you are seeking to learn more about the art of spell crafting. She looks up at you with her sewn shut eyes and cackles.&lt;br /&gt; &lt;br /&gt; “Child. The art of the craft is before you. Leave what I desire and be on your way.”&lt;br /&gt; &lt;br /&gt; You look down and see a book titled “The art of the mage”. A mages tome.</t>
+  </si>
+  <si>
     <t>Forge Master</t>
   </si>
   <si>
+    <t>Blacksmith's Book</t>
+  </si>
+  <si>
+    <t>Blacksmith's Master Recipes</t>
+  </si>
+  <si>
+    <t>You have been crafting armour for as long as you can remember, feels like ages. You seem to be making slow progress. Traveling through the Labyrinth plane you seek out additional knowledge on the subject.&lt;br /&gt; &lt;br /&gt; The Witch might have something you are looking for, provide you can of course make the trade.</t>
+  </si>
+  <si>
+    <t>The Witch was not at her hut, but you found the tome you needed among the dusty books and left your offering.&lt;br /&gt; &lt;br /&gt; Where could a blind old women go? How can she navigate these lands.&lt;br /&gt; &lt;br /&gt; Alas you have what you came for and that’s all that matters.</t>
+  </si>
+  <si>
     <t>Ring Lord</t>
   </si>
   <si>
+    <t>Ring Crafter's Book</t>
+  </si>
+  <si>
+    <t>Ring Crafter's Master Book</t>
+  </si>
+  <si>
+    <t>You have been taught the basics of Ring crafting and now you want to take your skills beyond what the ring crafters and their knowledge has taught you.&lt;br /&gt; &lt;br /&gt; You head to The Witch’s hut and see her sitting at her table. The bones hanging in her hut move in the wind and the magic of the place radiates throughout you.&lt;br /&gt; &lt;br /&gt; “I know what you have come for child. The price you already know. Give me what I seek, and I shall give you what you seek.”</t>
+  </si>
+  <si>
+    <t>You pay The Witch, and she hands over the new book for you to pour over.&lt;br /&gt; &lt;br /&gt; You leave the hut only to turn around and see nothing but empty and barren land. Did she hide herself from you?&lt;br /&gt; &lt;br /&gt; You begin to read through the book but a sharp pain hit you, covering you head to toe. It’s in that moment you awaken in the ruins you had recently settled down for.&lt;br /&gt; &lt;br /&gt; The wind cackles with laughter. The dream, was it real? You search your belongings only to find the book you purchased in your dream.</t>
+  </si>
+  <si>
     <t>Dark Enchantress</t>
   </si>
   <si>
+    <t>Enchanter's Book</t>
+  </si>
+  <si>
+    <t>Enchantress' Diary</t>
+  </si>
+  <si>
+    <t>Do you dare go to the hut? Maybe dreaming will take you there again. Alas you set out on your travels to her hut.&lt;br /&gt; &lt;br /&gt; Enchanting has been and interesting trade to learn, weaving the magics The Creator is said to have created, through your gear and making it more powerful.&lt;br /&gt; &lt;br /&gt; You arrive at the familiar, ramshackle hut.&lt;br /&gt; &lt;br /&gt; As you enter, The Witch is busy at her table mixing herbs and other things in a mortar.&lt;br /&gt; &lt;br /&gt; “Child, you have come to learn more about the art of enchantments. Do you have what I desire?”</t>
+  </si>
+  <si>
+    <t>After paying her, you get the Diary of an enchantress who lays out the intricacies of the art itself. It goes on and on about how The Creator created the magics you weave through your gear, the science behind the enchantments themselves, the various ways they can affect you, your enemies, and your various aptitudes.&lt;br /&gt; &lt;br /&gt; You pour over the pages ass you walk down the familiar beaten path from. The hut. Engrossed in the knowledge of the art.</t>
+  </si>
+  <si>
     <t>Map the Unseen</t>
   </si>
   <si>
+    <t>Dungeon Ink</t>
+  </si>
+  <si>
+    <t>Dungeon Map</t>
+  </si>
+  <si>
+    <t>You approach an elderly old man who wears a thick robe with a hood around his shoulders. He carries a pouch at his side. He looks over at you as your approach. Slowly he shifts his frame to greet you, a warm smile appears on his face.&lt;br /&gt; &lt;br /&gt; “Child! I have been expecting you for some time now.”&lt;br /&gt; &lt;br /&gt; He pulls the pouch from his waste and with the wave of his free hand materializes a table before you. A nondescript small round wooden table, probably made of oak.&lt;br /&gt; &lt;br /&gt; “Come closer child.”&lt;br /&gt; &lt;br /&gt; You do as he insists, and he empties the contents of the pouch, a few six-sided dice, a twenty-sided dice, and a few other dice fall out on to the table. He picks up the twenty-sided dice and studies it. “This will do.” He states before handing it to you.&lt;br /&gt; &lt;br /&gt; “Roll it.”&lt;br /&gt; &lt;br /&gt; You stare at the dice and roll it. Perfect 20.&lt;br /&gt; &lt;br /&gt; It is in this moment that his robes start to flutter in the wind and his eyes darken. A voice from nowhere and everywhere penetrates your mind, ice cold through your veins.&lt;br /&gt; &lt;br /&gt; “You are not of this world child! Alas, I shall give you the items you desire to travel into the unknown dungeons. Survival is not guaranteed.”&lt;br /&gt; &lt;br /&gt; You step back in fear, however, are entranced by the mysterious old man’s gaze as he seems to stare into your soul, your essence, your very being.&lt;br /&gt; &lt;br /&gt; You try to lose his gaze, but the intensity of his eyes wont let you look away. The world slips and for a moment in the blackness of it all you hear it.&lt;br /&gt; &lt;br /&gt; BANG.</t>
+  </si>
+  <si>
+    <t>“Child!” A voice comes from the blackness as the world starts to come back into shape.&lt;br /&gt; &lt;br /&gt; “Child! Wake up!”&lt;br /&gt; &lt;br /&gt; There is no one around as you come to your sense. Who was he? What was up with the dice? Alas, you find yourself with a map, a simple map of what appears to be a dungeon. A small dungeon. Are you to go here?&lt;br /&gt; &lt;br /&gt; So many questions. What was the bang? Where did it come from?</t>
+  </si>
+  <si>
     <t>Light the way</t>
   </si>
   <si>
+    <t>Torch</t>
+  </si>
+  <si>
+    <t>You see him again. The man dressed in robes. He turns to face you again, as you approach. Alas you stop and become apprehensive after the last time.&lt;br /&gt; &lt;br /&gt; This time he has the hood of his robes up, you cannot make out his face. He starts to walk towards you, and you attempt to back away but cannot. It’s the same transfixed feeling, the same trapped sensation that you cannot escape.&lt;br /&gt; &lt;br /&gt; He doesn’t say anything this time. He doesn’t remove his hood. No matter how close he gets you can never see beyond the shadows of his hood.&lt;br /&gt; &lt;br /&gt; He reaches out his hand. What does he want? The map?</t>
+  </si>
+  <si>
+    <t>He snatches the map from your hands and unrolls it. He looks back at you and hands you an item that seems to come from nowhere, an unlit torch. What are you supposed to do with this you ask.&lt;br /&gt; &lt;br /&gt; “Enter the unknown.”&lt;br /&gt; &lt;br /&gt; He doesn’t speak the words as such, instead you hear them echo in your bones. Every syllable rattles your soul. The words are soft, but very unsettling.&lt;br /&gt; &lt;br /&gt; With that he is gone. How you manage to keep running into him you have no idea.</t>
+  </si>
+  <si>
     <t>Hunting Expedition</t>
   </si>
   <si>
-    <t>The Soldier stares you down for a moment, assessing your gear, assessing your strengths and weaknesses, written all over your poster and face. "Child listen to me, you are not equipped to take on these beasts, alas if you have the currency I require I can give you a special tool. Have you heard of Celestial before?" A word that should sound familiar, one that creeps across your mind. Before you can answer The Soldier looks at you with a grin: "Of course not. You are not of this world are you child? Where do you come from?"&lt;br /&gt; &lt;br /&gt; A good question if there ever was one. You shake it off, as you realize his question is ridiculous in its nature, not of this world? You were born in a small village. &lt;br /&gt; &lt;br /&gt; Another interrupted thought,"Child, there are creatures called Celestial entities, much stronger then the critters you are use to, some time the gates swing open and they get loose for a day before The Creator manages to slam the gates shut." He pauses and looks around as if someone, some where might be listening to what he may consider a "private conversation".&lt;br /&gt; &lt;br /&gt; The Soldier composes him self and produces a flask from his waist line. After a long swig he puts the flask back on his waste, the silver glitters in the sunlight, catching your eye to the intricate designs across the small container.&lt;br /&gt; &lt;br /&gt; "Where was I?" He continued. "Oh yes, do you have my currency?"</t>
-  </si>
-  <si>
-    <t>The Soldier smiles as you hand over the currency, "Thank you child. Let me tell you about this little tool. With this you can use whats called /pct. Whats that? A command that allows you to venture to the celestial where ever it spawns provided you can access the plane and the location it spawned at." He pauses for a moment before continuing, "These creatures have much higher attacks, they can kill you in one hit. Fail to kill it, and it moves. These creatures can be conjured for a cost of course, privately or publicly."&lt;br /&gt; &lt;br /&gt; He goes on like this for a while, explaining the in's and outs of the creatures, he explains that by killing them you find what are called Crystal Shards, these can be used in a special skill called Alchemy. You nod along and make mental notes of his descriptions of various creatures and how every plane, with the exception of Purgatory has a celestial entity, but that when the gates swing wide, only specific planes will spawn their entities.&lt;br /&gt; &lt;br /&gt; The conversation feels like it will never end and as you begin to drift through the endless words and descriptions, the winds pick up and The Soldier is suddenly quiet. "Thats all child."</t>
+    <t>Crystal Eye Glass</t>
+  </si>
+  <si>
+    <t>You approach a man known only as “The Soldier.” Some say he was once a great warrior, slew many of his enemies in the battlefield and won Tlessa’s merchant cities their safety and security to trade freely amongst each other.&lt;br /&gt; &lt;br /&gt; The closer you get the more you see him for what he is, an older man, grizzled short beard, tired looking eyes with a sharpness and fierceness about them. He wears his leather armour over some chain and carries a long sword. Leather pants and leather boots, he can move quickly, which poses deadly for his enemies.&lt;br /&gt; &lt;br /&gt; Alas this day, his only enemies are the ones in his head and at the bottom of the shiny flask you see attached to his hip.&lt;br /&gt; &lt;br /&gt; “Child!” He beckons you closer to him. “Have you ever been hunting?” You look at him confused and shake your head. “You got any gold dust?” he asks after a moment.</t>
+  </si>
+  <si>
+    <t>Handing The Soldier, the dust, he hands you an item. “With this you can instantly teleport to any Celestial entity that might be nearby. Some of these beasts can appear in areas, such as other planes or even locations you cannot yet access without the right items.”&lt;br /&gt; &lt;br /&gt; You look at the man as if he is crazy. What are you talking about? What are these beasts? What are Celestials? What are you going on about? He starts to laugh. After a moment he composes himself, “Oh child.” He starts with a chuckle as he takes his flask from his waste, undoes the top and takes a long swig before continuing:&lt;br /&gt; &lt;br /&gt; “There are places, there are beings, there are things in this world you will come to fear, hate, envy, and love. There is a truth to it all, a truth to your own existence, a reason for your existence in this time and this space.”&lt;br /&gt; &lt;br /&gt; He pauses and chuckles a bit more before putting the flask back on his waste belt. “Child, go. Go into the world and explore the boundless depths of depth, depravity, and exhilaration. Just do me a favour, survive will ya?”</t>
   </si>
   <si>
     <t>Alchemists Book</t>
   </si>
   <si>
+    <t>Alchemist Book</t>
+  </si>
+  <si>
+    <t>You have dabbled a smidge in the art of alchemy. Alas you never seem to get far. You were told in a port back up on the Surface plane, that The Witch might have a book to explain more about it and make it easier to craft the items you seek.&lt;br /&gt; &lt;br /&gt; As per usual you make your way to her hut.&lt;br /&gt; &lt;br /&gt; “You came back my child. What can I do for you?”</t>
+  </si>
+  <si>
+    <t>You tell her you want to learn more about Alchemy.&lt;br /&gt; &lt;br /&gt; “An old art. An art of destroying your enemies’ kingdoms and their valuable treasures. Of making yourself better with potions and concoctions. An art where you can make magical oils to apply to your gear in the depths of Purgatory itself.”&lt;br /&gt; &lt;br /&gt; She pauses for a moment, ruffles through some of her books and hands you one of them.&lt;br /&gt; &lt;br /&gt; “This should do. It should help you better understand the art itself.”</t>
+  </si>
+  <si>
     <t>The Key To Disenchanting</t>
   </si>
   <si>
-    <t>“Hell is a scary place.” The Soldier states. His gaze is elsewhere, his thoughts are lost. He stares aimlessly in one direction before looking at you, or more importantly, right through you.&lt;br /&gt; &lt;br /&gt; He looks tormented, alone with the demons in his head. Haunted by some unknown and unspoken past.&lt;br /&gt; &lt;br /&gt; You watch as he takes a swig from a flask he has at his waist. A silver, shiny, small flask with carvings.&lt;br /&gt; &lt;br /&gt; “Child…” He continues, “there is a story about how one can disenchant their gear. I am sure by now with your explorations and such you have heard the tales.” He speaks of the currencies Gold Dust, which you nod in agreement. You are familiar with this currency; it is created from the remnants of magic when disenchanting. A simple dust, but valuable and needed.&lt;br /&gt; &lt;br /&gt; “I have a tool here, a Magnifying glass, that you can have for the right price of course.”</t>
-  </si>
-  <si>
-    <t>You paid The Solider, he hands over the item. “You’re going to need this at some point. The better you are at disenchanting your items, the better use you will eventually become to me and the larger plot unfolding before you.”&lt;br /&gt; &lt;br /&gt; He does not give you a moment to express confusion. He turns and walks away from you.</t>
+    <t>Disenchanter's Magnifying Glass</t>
+  </si>
+  <si>
+    <t>You come into town after a long journey on the road and find the Soldier close to the entrance of town. He seems to be staring off into the void.&lt;br /&gt; &lt;br /&gt; “I have something for you, a useful piece of knowledge that might help you. Knowledge handed down to me by a passing merchant some weeks ago.”&lt;br /&gt; &lt;br /&gt; He seems to be brimming with glee and eager excitement to share the knowledge he has gained. You inquire into what it could be, and he pulls out an object from his bag. It seems to be a magnifying glass of some kind.&lt;br /&gt; &lt;br /&gt; “Have you heard of people who call themselves disenchanters? They peddle in Gold Dust”&lt;br /&gt; &lt;br /&gt; You shake your head no but tell him you have tried your hand at disenchanting items and tend to fail often but have noticed that over time your enchanting skills are slowly moving up.&lt;br /&gt; &lt;br /&gt; “This little item will help with that! Alas I need some of your Gold Dust before I just hand it over, so you got the currency or are we just wasting air on a useless conversation?”&lt;br /&gt; &lt;br /&gt; You are a bit taken back by his words and tone, but nevertheless scrounge through your possessions for the required amount.</t>
+  </si>
+  <si>
+    <t>He Hands you the item as you hand him the currency.&lt;br /&gt; &lt;br /&gt; “Excellent, there are uses for this dust child. Uses indeed”&lt;br /&gt; &lt;br /&gt; Alas you are still confused as to what it does, you just know that people seem to want it all the time to complete any task they put before you.&lt;br /&gt; &lt;br /&gt; Taking the item in hand and staring at it you ask him what this will do for you.&lt;br /&gt; &lt;br /&gt; “Make you better at disenchanting of course child.”&lt;br /&gt; &lt;br /&gt; He walks off smiling.</t>
   </si>
   <si>
     <t>The Creepy Doll</t>
   </si>
   <si>
-    <t>“Hey!” You hear The Soldier call out. “I have something for you. For your adventures.” He comes up to you, seems in a bit of a better mood.&lt;br /&gt; &lt;br /&gt; “I was out gathering items from merchants and savaging a few dungeons here and there.”&lt;br /&gt; &lt;br /&gt; By the looks of him, he looks like he has been out wrestling with bears, goblins, and wolves. He holds up a tattered old creepy doll.&lt;br /&gt; &lt;br /&gt; “This use to be someone’s toy.” He studies it and you stare at it, broken, burnt, ripped clothes, chipped face. What’s so special about a broken, creepy looking doll?&lt;br /&gt; &lt;br /&gt; “I will let you have it for the right price.”&lt;br /&gt; &lt;br /&gt; Are you serious? This old broken thing? Could it be magical? Could it hold magical properties that could help you in your travels? Could it help you uncover more answers about The Creator?</t>
-  </si>
-  <si>
-    <t>“Hey thanks for that. I needed that. If you come back later, I might have another item for you, but we might have to trade items.”&lt;br /&gt; &lt;br /&gt; You didn’t hear a word he said as you walk off, mesmerized, and fixed o this doll. It whispers in your mind, in the darkness and shadowy recesses of your thoughts: “Child …”</t>
+    <t>Creepy Baby Doll</t>
+  </si>
+  <si>
+    <t>It’s a bright and sunny afternoon and you are enjoying the relaxing atmosphere of the rather quite INN in which you have come to lay your head these last few nights.&lt;br /&gt; &lt;br /&gt; You see The Soldier come walking in and motion for him to come over to where you are. Seeing you he comes and sits, orders a mug of ale, and puts a very ugly doll that gives you the creeps on the table.&lt;br /&gt; &lt;br /&gt; “I have something that will make your life a lot easier child!”&lt;br /&gt; &lt;br /&gt; You stare at the doll, too afraid to touch it. No matter how you look at it, even with it laying on the table its eyes seem to follow you, to penetrate your mind, soul, and every aspect of you. As if it is silently watching, judging, and planning its next move in the dead of night.&lt;br /&gt; &lt;br /&gt; “This doll has power! It can make your enchantments irresistible to the enemies of the land!”&lt;br /&gt; &lt;br /&gt; That does sound good you think to yourself as you look away from the doll.&lt;br /&gt; &lt;br /&gt; “Let me tell you something child, this doll has powers that can make the enemy crumble before you. For the right price it’s yours!”</t>
+  </si>
+  <si>
+    <t>After paying The Soldier for the doll, you take it in your hands and stare into its dirty face, its clothes tattered, its eyes are ever fixed on you.&lt;br /&gt; &lt;br /&gt; The Soldier gets up from the table and leaves the INN, always on the go, always out the door never sticks around long enough for a decent conversation. None of that matters, you stare deeply into the Dolls eyes and hear a child’s voice resonate through your bones:&lt;br /&gt; &lt;br /&gt; “Do you love me? Did you love… once before? Are you responsible? They say you are. They say you did this to yourself.”&lt;br /&gt; &lt;br /&gt; Quickly you put the doll down on the table.&lt;br /&gt; &lt;br /&gt; A chill runs through your bones as you look around, did anyone else hear the voice?</t>
   </si>
   <si>
     <t>That's One Creepy Doll</t>
   </si>
   <si>
-    <t>“You’re back! I have more work for you, well, another item. But I want that doll back if you have it.” The Soldier states as you walk up to his table in the shabby old pub.&lt;br /&gt; &lt;br /&gt; You look at him and explain that when he handed you the doll it whispered, deep in your mind, in a chilling way: “Child …”&lt;br /&gt; &lt;br /&gt; He looks at you for a moment with a serious puzzled expression before bursting out laughing. His ruckus drew the attention of other patrons who looked up from there bread and ale.&lt;br /&gt; &lt;br /&gt; “Oh, you are funny! As if these items are possessed. If anything, they are junk. Now what say you? Make the trade? Maybe this one is even more possessed.” He started laughing agian as you looked at him and the doll.&lt;br /&gt; &lt;br /&gt; “Child …”</t>
-  </si>
-  <si>
-    <t>Handing The Soldier, the doll, and the currency, he hands you a Grimoire. “This use to belong to a mystical creature called a Shade Lord.”&lt;br /&gt; &lt;br /&gt; The Soldiers tone goes hushed and quiet. “The Wondering Merchant may have something for that book.” He looks at the book, it’s a plane black book with empty pages. You flip through the pages, there’s nothing here. That’s when you hear the same voice from the doll: “ooooohooo hoo hooo, you are getting oh so close my lovely!”&lt;br /&gt; &lt;br /&gt; You slam the book closed; The Soldier looks at you for a moment “What’s your issue?”</t>
+    <t>Shadow Plane Grimoire</t>
+  </si>
+  <si>
+    <t>You come across The Wondering Merchant while out on your travels.&lt;br /&gt; &lt;br /&gt; “Hello there child how are you?”&lt;br /&gt; &lt;br /&gt; He looks older, baked by the sun, aged and tired of his journeys. He sits down on a boulder not far off the path under an old oak tree where he rests his tired legs after a long day of traveling.&lt;br /&gt; &lt;br /&gt; “I am a simple old man with wears to sell. Is there something I can help you with?”&lt;br /&gt; &lt;br /&gt; You pull out the doll The Soldier gave you and ask him if he knows anything about it. You tell him the story of how it seemed to have spoken to you.&lt;br /&gt; &lt;br /&gt; “I know not of this object. But I can sense its magic.”&lt;br /&gt; &lt;br /&gt; He studies t for a moment, closes his eyes as if he is trying to reach out to the doll, to tap into its magics. Within a moment, he opens his eyes and sighs.&lt;br /&gt; &lt;br /&gt; “It is possessed, a demon resides in it. One that grants the user the ability of their enchantments to not be resisted by the enemy they fight. Alas it does not have powers to void or devoid the enemies you face.”&lt;br /&gt; &lt;br /&gt; He stares at the doll for a moment and reaches into his bag to pull out a book, an old musty tome.&lt;br /&gt; &lt;br /&gt; “I got this from The Shadow Plane” have you heard of such a place?&lt;br /&gt; &lt;br /&gt; You shake your head no, but now that he mentions it the name does sound familiar.&lt;br /&gt; &lt;br /&gt; “I will trade you this tome for the doll. It has the same abilities as the doll, but it’s not possessed by a demonic entity. It will, however, help you to make the enemy crumble before you. Make them weak in your eyes, mind, and soul. Study the contents of the book child.”</t>
+  </si>
+  <si>
+    <t>You pay the merchant, and the trade is done. A quick breeze flows through the air and in a blink of an eye The Wondering Merchant is gone.&lt;br /&gt; &lt;br /&gt; Where did he go? Did he use magics? Was he even here? Was it all a dream?&lt;br /&gt; &lt;br /&gt; You put the questions off to one side for a moment and open the tome. You read the contents of the pages and study the diagrams, a sense of magic, electrifying energy runs through you. You can feel the power within.&lt;br /&gt; &lt;br /&gt; Least this one doesn’t come with a scary voice.</t>
   </si>
   <si>
     <t>Beauty is in the eye of the beholder</t>
   </si>
   <si>
-    <t>You managed to find this illusive “The Wondering Merchant.” All these “The” names are starting to make your head hurt. Do these people not have actual names?&lt;br /&gt; &lt;br /&gt; You see him speaking to a few other customers, rummaging through his things trying to see if he can fill their order with the inventory he has on hand. The bags and the chests seem endless, maybe they are magical. You shake your head of the thought only to have the voice return from the time you last spoke to The Soldier.&lt;br /&gt; &lt;br /&gt; “Child…. Come to me my lovely! I have the secrets you want the answers to.”&lt;br /&gt; &lt;br /&gt; That voice, it sounds familiar. It's enticing, enchanting. It has the feeling of roses, fresh roses that you smell and become lost in.&lt;br /&gt; &lt;br /&gt; The Merchant looks at you as he finishes up with his remaining customers. You already know what he wants. You see it in his aging eyes. You feel it I. the way he studies you. Do you have the currency though?</t>
-  </si>
-  <si>
-    <t>There are no words between you and The Wondering Merchant. No idle chit chat or banter. Just a silent exchange of items and currencies. He does say one thing: “The eye of the beholder.” As you look up at him from the item he handed you, both he and the customers and all his possessions are gone.&lt;br /&gt; &lt;br /&gt; You look back down at the item, staring at this gross, rock-hard eyeball that is clearly from a beholder. It’s massive and shrunken. Big enough to hold in one hand, light enough to carry.&lt;br /&gt; &lt;br /&gt; All these items you have been handing in and carrying have had an effect. You feel slightly stronger, more confidence.&lt;br /&gt; &lt;br /&gt; None of them, or the interactions with their previous owners, have given you any insight into The Creator. A voice that tries to tempt you to its location and, essentially, magical junk.</t>
+    <t>Eye of the Beholder</t>
+  </si>
+  <si>
+    <t>You're sitting at stream watching the water go by, listening to babbling of the brook when you look up to see The Wondering Merchant right in. front of you.&lt;br /&gt; &lt;br /&gt; Before you can say anything, he states:&lt;br /&gt; &lt;br /&gt; “Did you know that the beauty of this world lies in the things we dread the most? The Beholder of our dreams, of our waking existence?”&lt;br /&gt; &lt;br /&gt; Bit cryptic you think to yourself. He takes off his backpack and sets himself slowly down beside you. You both watch the river for a while.&lt;br /&gt; &lt;br /&gt; “In my youth.” He begins after a moment of silence, “I killed a Beholder. Horrible creatures they are. They have one eye. When you pluck it from their corpse it shrinks and turns into a crystal object.”&lt;br /&gt; &lt;br /&gt; He pulls it from his bag, and you stare at it. You can feel it watching you, like the doll The Soldier gave you.&lt;br /&gt; &lt;br /&gt; “If you have that grimoire, I will trade you this for it.”</t>
+  </si>
+  <si>
+    <t>It’s been a week with the Eye in your bag, you are too afraid to look at it, to touch it. You know its magical and you have seen its effects firsthand.&lt;br /&gt; &lt;br /&gt; Finally, one night you take it out of the bag and stare at it. Small, smooth, beautiful, and transfixing.&lt;br /&gt; &lt;br /&gt; A flash, a memory, a glimpse, a metal object, blackness. A scream.&lt;br /&gt; &lt;br /&gt; You drop the eye, and it rolls through the grass for a second before coming to a stop. The pupil of the eye is staring right at you. You can feel it.&lt;br /&gt; &lt;br /&gt; Are all the objects you obtain from these weirdly named people cursed? Possessed? You grab the eye and put it back in your bag quickly, trying hard to not stare at it, afraid of what else it might try and show you.&lt;br /&gt; &lt;br /&gt; You do not sleep easy that night.</t>
   </si>
   <si>
     <t>The Return of the King's Crown</t>
   </si>
   <si>
-    <t>After a month of traveling around seeking out answers to who The Creator is, you have not been pestered by the mysterious voice, however you have come across The Wondering Merchant.&lt;br /&gt; &lt;br /&gt; As you approach him you see him sitting under an old oak tree. He looks younger than before. As you get closer you can see that he is in fact younger. He looks 25.&lt;br /&gt; &lt;br /&gt; He smiles as you approach and beckons you to sit with him for a moment. As you do, he asks: “Still looking for your purpose here?” You nod, he knows what you are after.&lt;br /&gt; &lt;br /&gt; “I have no answers for you child. But she might.”&lt;br /&gt; &lt;br /&gt; She? Who is she? That’s when it hits you, the voice. “Child …” You hear it, the voice. The same sweet enticing, entrancing voice. “Come …. To …. Me ….”&lt;br /&gt; &lt;br /&gt; You ask the merchant who she is and what this voice is. “She is known as the Queen of Hearts.” He states. “She lives in Hell.” He looks out into the distance, beyond the tree and its refreshing shade to a land unknown to you.&lt;br /&gt; &lt;br /&gt; For a moment all that moves is the leaves in the wind. “Do you have what I want child? I must be on my way” He states without losing focus of whatever he is staring at.”</t>
-  </si>
-  <si>
-    <t>The Wondering Merchant hands you a crown. “This might get you some answers if you know where to look.” With that he got up, stretched, gathered his belongings, and started to walk off.&lt;br /&gt; &lt;br /&gt; You attempt to stop him with questions, but he ignores you and continues till he is gone. He just vanishes into the air itself.&lt;br /&gt; &lt;br /&gt; You awaken to a nightmarish hell, a woman stares at you. Her long read flowing hair covers her naked body. She is looking down at you as you lay on the ground, the hard broken, grey ground. The heat of the air penetrates your lungs making it hard to breathe.&lt;br /&gt; &lt;br /&gt; She kneels, never once exposing her naked flesh as her red hair seems to know where to flow as she moves. She states in a hushed, whispered tones akin to a mother speaking to her baby: “Oh child. You need to await my decision.”&lt;br /&gt; &lt;br /&gt; With that you awaken again, this time in the middle of a meadow.&lt;br /&gt; &lt;br /&gt; Was it all a dream, was any of it real? You look down to see the crown in your hand. Her decision? What was she talking about? Who was that? Was she the Queen?&lt;br /&gt; &lt;br /&gt; Your head starts to hurt. What direction do you go?</t>
+    <t>Dead King's Crown</t>
+  </si>
+  <si>
+    <t>Three weeks have passed since you got this eye. Your nightmares are vivid but cryptic. Blood, a wall, death, a tombstone. What is it trying to show you? Your impending death? You pull the eye out of the bag and scream at it. Tell me something, anything. Tell it to me clearly.&lt;br /&gt; &lt;br /&gt; For a moment nothing, even as the wind blows and the grasses and bushes around you rustle in the wind. Nothing. Silence. Deafening silence.&lt;br /&gt; &lt;br /&gt; “That’s not how it works child.”&lt;br /&gt; &lt;br /&gt; You turn around and again, The Wondering Merchant stands before you. How is he always around, where does he come from, where does he go?&lt;br /&gt; &lt;br /&gt; “Would you like to trade?”&lt;br /&gt; &lt;br /&gt; He’s holding a crown.</t>
+  </si>
+  <si>
+    <t>You take the crown from The Wondering Merchant.&lt;br /&gt; &lt;br /&gt; “I doubt it will give you nightmares child. But is from a dead king, a long-forgotten kind of this world. He ruled over 50 legions. He fought terrible wars. He could never see beyond his lust for power and riches.”&lt;br /&gt; &lt;br /&gt; You stare at the crown and thank The Wondering Merchant. He bids you good day and begins on his way.&lt;br /&gt; &lt;br /&gt; A crown. It feels more powerful than the last item you got from him. It also feels dead, dead weight, nothing of substance. No creepy voice, no eye, no words inscribed on it.</t>
   </si>
   <si>
     <t>Reach for the stars</t>
   </si>
   <si>
+    <t>Leather Sash</t>
+  </si>
+  <si>
+    <t>Sash of the Heavens</t>
+  </si>
+  <si>
+    <t>You have hit a wall. A wall you cannot seem to surpass through. You kill and you slaughter, and you hunt down the wicked and the vile all-in search for the answers you seek.&lt;br /&gt; &lt;br /&gt; Alas you feel as if you cannot go any further. You know you can but pushing yourself even harder won’t make a difference at this stage.&lt;br /&gt; &lt;br /&gt; There are tales of a sash, a magical sash, one that will elevate you beyond your wildest dreams. You seek out The Witch in her hut for the item.</t>
+  </si>
+  <si>
+    <t>“Child.” The Witch begins.&lt;br /&gt; &lt;br /&gt; “With this sash, wear it well and you can reach for the stars, beyond the wildest imagination of those who seek to undermine you.”&lt;br /&gt; &lt;br /&gt; She hands you an old sash. It looks as if it might fall apart at any time. But you do as she tells you and instantly you feel the air around d you crackle with magic.&lt;br /&gt; &lt;br /&gt; “Stronger you become, but at what cost child. What is the cost you are willing to pay to advance beyond your state? How long will it take you to gain the answers you seek?”&lt;br /&gt; &lt;br /&gt; She cackles and wheezes before finally adding.&lt;br /&gt; &lt;br /&gt; “Weighted down by the fears of your own making, lifted by the strength of others. Seek out the answers you need. But always make sure you ask the right questions child.”</t>
+  </si>
+  <si>
     <t>Flaming Thoughts</t>
   </si>
   <si>
+    <t>Flaming Sword of Ascension</t>
+  </si>
+  <si>
+    <t>You have heard the tales of a magical flaming sword that allows on to ascend to greater heights of their fame and glory. A sword that attracts the treasures. However, as the stories tell, there is a cost. There is always a cost. The sword speaks through the flames.&lt;br /&gt; &lt;br /&gt; Speaks of things of the past, of things that once were. The sword burns with the flames of truth as it seals them into your bones, your soul, your essence.&lt;br /&gt; &lt;br /&gt; You have spoken to people who tell you it is a sword The Dungeon master has lost, lost in the depths of the Shadow Caves.&lt;br /&gt; &lt;br /&gt; It is said he led an expedition of warriors, mages, and others through the depths of the caves only to lose them all to their own misfortunes, their own past. The sword spoke to them, spoke through its glowing flames, and told them of their own mortality.&lt;br /&gt; &lt;br /&gt; The Dungeon Master is said to have lost many that day, lost their souls, their minds, their words to the sands of time. Cruel mistress that she is.&lt;br /&gt; &lt;br /&gt; Alas he searches, even to this day, through the hearts of adventurers for the sword, the Flaming Sword of Ascension.</t>
+  </si>
+  <si>
+    <t>The Sword you found glows red. It’s not hot to the touch, it’s just red. As you stare at it, it erupts into flames, afraid they might burn you, you drop the sword on the ground. The flames turn blue, purple, and back to blue.&lt;br /&gt; &lt;br /&gt; Through the flames you can see something. A bedroom. Is that … you? Crying? Crying over what? The person, who looks almost identical to you is sobbing. You feel the pain, piercing your heart, your own tears start to flow. You can feel it. Heart ache. Loss, it feels like death. Mourning. It’s unbearable. You can barely contain yourself.&lt;br /&gt; &lt;br /&gt; Falling to your knees the tears stream down your face.&lt;br /&gt; &lt;br /&gt; “Child.”&lt;br /&gt; &lt;br /&gt; A familiar voice comes from out of nowhere, you look up. Your face is streaked with tears. Why is this happening, what is going on. You ask the man in robes, The Dungeon Master.&lt;br /&gt; &lt;br /&gt; “You are beginning to see.”&lt;br /&gt; &lt;br /&gt; See what? See who? Is that me?&lt;br /&gt; &lt;br /&gt; “Give me the sword child.”</t>
+  </si>
+  <si>
     <t>The Shades Scroll</t>
   </si>
   <si>
+    <t>Shadow Ink</t>
+  </si>
+  <si>
+    <t>Scroll of Prayer</t>
+  </si>
+  <si>
+    <t>You can feel the presence of death linger around you. You have seen the images in the fire of the sword, alas you have let the thoughts go, the pain is a wrenching and agonizing, paralysing fear that grips you with its hand.&lt;br /&gt; &lt;br /&gt; You shake your head of the thoughts, of the encounter with The Dungeon Master a week prior. Now you are on. Anew mission. You need a scroll and the only one that can give you the scroll is the Shade Lord, a mysterious figure cloaks in the shadows of a man’s past.&lt;br /&gt; &lt;br /&gt; These are the stories that you have read about in the libraries of the cities and port towns you have visited, the stories that you have heard whispered about in the pubs and inns, in the hushed tones of those who dare not speak too loudly.&lt;br /&gt; &lt;br /&gt; It is said that even uttering the name Shade Lord can manifest his presence before you.</t>
+  </si>
+  <si>
+    <t>With the ink in hand, you head to the barren waste land that is Shadow Planes. The shadows of the land creep ever closer and recede away, haunting you, watching you, traveling with you no matter where you go.&lt;br /&gt; &lt;br /&gt; There is no safety here, no solace, no home, no substance other than that of the dusty grey landscape that stretches miles before you.&lt;br /&gt; &lt;br /&gt; The seas are frozen in time, allowing a mortal person to walk upon them, build upon them. To one side of the story, it makes travel easier. To the other, it allows the shadows to follow you, claw at your fragile and broken mind.&lt;br /&gt; &lt;br /&gt; That’s when you feel the presence before you. A lumbering clump of shadows in the form of a man, taller, hooded, cloaks in the memories of what were, what could never be.&lt;br /&gt; &lt;br /&gt; It reaches out it’s hand in silence. You hand over the ink. As it takes the ink into its shadowy depths you hear the words like a hiss on the winds chill.&lt;br /&gt; &lt;br /&gt; “You do not belong here… You are not of this land. Where do you come from? Where will you go?”&lt;br /&gt; &lt;br /&gt; Before you, on the ground you see what looks like a simple scroll.&lt;br /&gt; &lt;br /&gt; The shadows dissipate as if dissolved in a liquid substance. Slowly and then gone into the landscape.&lt;br /&gt; &lt;br /&gt; You can still feel the shadows around you and the questions asked, haunt your dreams that night.</t>
+  </si>
+  <si>
     <t>Broken Copper</t>
   </si>
   <si>
-    <t>Satans Calling</t>
+    <t>Broken Copper Coin</t>
+  </si>
+  <si>
+    <t>Bottle of Fire Demon Essence</t>
+  </si>
+  <si>
+    <t>You have heard the tales of the land with the doors that creek as they opened. An evil they said had escaped into this world. One that was trapped in the pain and torment of ones own mind.&lt;br /&gt; &lt;br /&gt; You have heard the stories in the whispered voices that fill the darkness of pubs and Inn’s. You have heard the children’s stories of the darkness that roams the land, for ever restless and with no sight of peace to rest the weary eyes.&lt;br /&gt; &lt;br /&gt; You dream every night, the lips, the kiss, the feeling of security, but its all washed away and replaced with the pain of a thousand shards of glass piercing your mind. You can see through the eyes of another into a world that is unknown to you.&lt;br /&gt; &lt;br /&gt; The shadows of tomorrow wash over you, and you awaken to the light of today. A dream, a fevered dream that took you from one place to another. A place where love once existed but no more.&lt;br /&gt; &lt;br /&gt; You sit up and look around. The man in robes, the bag of dice, he stands before you.&lt;br /&gt; &lt;br /&gt; “Child, you dream this night of a prison, a memory, a trap.” he pauses and from behind the dark hood of the robes you can feel his eyes studying you.&lt;br /&gt; &lt;br /&gt; “There is a prayer and a broken piece of the past, a piece that tells the tale of a broken heart. Find these for me child. I shall give you something for the Witch.”&lt;br /&gt; &lt;br /&gt; He is here and then he is gone. A single die lies on the ground, a six sided die, who’s face reads two.</t>
+  </si>
+  <si>
+    <t>You touch the broken copper coins, a flash, a vivid dream like state. Another time, another world. You can feel the hair, black and brown. You can see the eyes, blue and vibrant. You can feel the lips, soft and supple.&lt;br /&gt; &lt;br /&gt; You touch the scroll, another flash, your face is wet, tears that stream down. You feel guilt, misery, sadness – a sadness like a death of loved one, a death that haunts you, mortifies you.&lt;br /&gt; &lt;br /&gt; There is only darkness, a bang.&lt;br /&gt; &lt;br /&gt; “Child.” A hand clutches your shoulder, it is The Dungeon Master. “You have seen the truth, the sadness and felt the shame of loosing it all have you not?”&lt;br /&gt; &lt;br /&gt; He doesn’t wait for you to answer, only stretches out his hand. You have over the items and with the other he presents an item.&lt;br /&gt; &lt;br /&gt; “Take this to the Witch child. Let he make use of it’s magics.”&lt;br /&gt; &lt;br /&gt; Again he is gone. No explanation, no reasoning. Just gone.</t>
+  </si>
+  <si>
+    <t>Satan's Calling</t>
+  </si>
+  <si>
+    <t>Satan's Hide</t>
+  </si>
+  <si>
+    <t>Mark of Hell</t>
+  </si>
+  <si>
+    <t>Satanic Sigil</t>
+  </si>
+  <si>
+    <t>You sit in the middle of no where, by a fire that is dying. You stare into the flames and think about where you have been, what you have done, all that you have accomplished.&lt;br /&gt; &lt;br /&gt; You're exhausted, mentally, emotionally and physically, but you know you must continue on. The glimpses of another time, the glimpses of another life have taken their own toll on you. Draining your essence, sapping you of your will, instilling its depressing thoughts deep in your bones.&lt;br /&gt; &lt;br /&gt; A familiar voice comes from the night air, emerges from the shadows.&lt;br /&gt; &lt;br /&gt; “Child. I have a story of a legendary creature from the depths of Hell it’s self. One who fell from the grace of yesteryear into the world that is now. One that preceded The Creator. An old world creature. One that does not exist, and yet does at the same time in the hearts and minds of man, women and child alike.”&lt;br /&gt; &lt;br /&gt; He pauses and emerged from the darkness, The Dungeon Master stands before you. He drops a single die on to the ground, it’s rounded body allows it to roll in your direction. An eight.&lt;br /&gt; &lt;br /&gt; “Find me the treasures of this beast, long lost relics of another time. And I shall give you something The Shade Lord has been seeking. A way into the nightmares of mortal beings.”</t>
+  </si>
+  <si>
+    <t>The stories of a legendary beast named Satan are written in the ruins of the places that were once Holy. Back when there was a cause to fight for across the lands, there was a church, a church that controlled the religious beliefs of the lands it ruled across. With the help of valiant and holy warriors, it is said that they, the church and it’s soldiers, slaughtered the beast known as Satan.&lt;br /&gt; &lt;br /&gt; Satan wasn’t some mythical legendary creature that they whisper about today, he was a man. A man who came from another place and another time. A pain, a misery, a soldier that marched against the church. A rebel.&lt;br /&gt; &lt;br /&gt; This is the information you managed to scrounge from The Shadow Caves. Caves that were once apart of a grand Cathedral, lost to time. Now filled with the shadows and creatures that stalk its halls and twisting turning pathways through the darkness.&lt;br /&gt; &lt;br /&gt; You meet The Dungeon Master in the same area as before, he stands with his back to you. He turns and you can see through the darkness a hooded man who stares at you, silence fills the void between you.&lt;br /&gt; &lt;br /&gt; “You have the relics of the past child?”&lt;br /&gt; &lt;br /&gt; You nod and hand them over.&lt;br /&gt; &lt;br /&gt; “Take this to The Shade Lord. He will know what to do.”</t>
   </si>
   <si>
     <t>Hells Gates</t>
   </si>
   <si>
+    <t>Satan's Heart</t>
+  </si>
+  <si>
+    <t>You were once told by The Soldier of a way to get into Hell. A place where the damned never sleep, where their souls cry out in agony and beg for relief from their unending torment.&lt;br /&gt; &lt;br /&gt; As you think about it now, you know that you suffer. The years that have gone by, the adventurers. The people who you have met, the objects you have found.&lt;br /&gt; &lt;br /&gt; All of them have spoken to you about one thing or another. All seeming to point to one fundamental question that lingers on your mind: If you are not from here, where are you from.&lt;br /&gt; &lt;br /&gt; It’s as if every time you get closer to the answers, fragments of another time, another life perhaps – play out in front of you like broken puzzle pieces that do not fit quite right.&lt;br /&gt; &lt;br /&gt; You know who you are, or at least you assumed you did. A simple adventurer with fame, glory, treasures of your own. Some you made, some you found, some you purchased.&lt;br /&gt; &lt;br /&gt; Who are you, if not the humble adventurer raised by parents who love you, worry for you and if were honest probably wonder where you are, assuming they themselves are still alive.&lt;br /&gt; &lt;br /&gt; It’s been a while since you have been home, seen your mothers face, heard your fathers voice. You barley remember them now.&lt;br /&gt; &lt;br /&gt; You gather your thoughts and brush off what once was. You have a quest to embark on. The Gates of Hell.</t>
+  </si>
+  <si>
+    <t>You find yourself again in the realm of the shadows. They dance as they always have, keeping their distance until they form a figure before you.&lt;br /&gt; &lt;br /&gt; The items it seeks you place on the ground, the item you seek manifests before you. The whole ordeal is cloaked in an uneasy silence.&lt;br /&gt; &lt;br /&gt; The item before you allow your entrance into a place of tormented souls and unending agony, you know this. You have heard the stories themselves from The Soldier.&lt;br /&gt; &lt;br /&gt; The Shade Lord vanishes into thin air, quicker this time, with no words, no lingering questions. Maybe it has already said all that there is to say.&lt;br /&gt; &lt;br /&gt; You study the object; it beats in your hand. It drips with blood, almost fresh. It is fresh, a fresh heart – was it ripped from the body of Satan himself?&lt;br /&gt; &lt;br /&gt; Questions you have, answers you do not.</t>
+  </si>
+  <si>
     <t>Faces of Hell</t>
   </si>
   <si>
-    <t>"Child! Listen close." The Soldier whispers. He clears his throat and stares at you for a moment, as if you don't even exist to him. He snaps out of it, takes a swig from his silver cask, before putting it back on his waste belt. "There is a place, a dark and scary place, where the rumours of The Creators escape is a scream in the air as opposed to a rumoured whisper. This place holds the creatures once thought to be long lost Celestials, alas they are not. They are wicked manifestations of a twisted and tormented soul." He paused for a moment.&lt;br /&gt; &lt;br /&gt; There was a long silence between the two of you, you could hear the wind rustle the trees and the people far off speaking, shopping and going about their business.&lt;br /&gt; &lt;br /&gt; "have you been to Hell child? No, find a way into its depths, prepare your self child, these creatures do not mess around. Once there, slay enough to increase your faction with the plane."</t>
-  </si>
-  <si>
-    <t>"Christ! Don't scare me like that" The Soldier swirls around as you tap him on the shoulder, half drunk and half haunted by the demons that course through his alcohol filled veins of depravity. "You survived. How interesting." He studies you for a moment and takes a swig from a bottle. His balance unsteady he slurs his words as he continues, "Childs, I muss sleep. But, there is more work to do to....get into pugatstory.....purg.....ATROY! yes thats right. Come back later."&lt;br /&gt; &lt;br /&gt; The Soldier slumps down and fades into blackness, maybe the demons in his mind will let him sleep, god knows he drank enough. You look around and people pass you by, one or two here or there and they all look at you, and The Soldier, with a look of disgust, worry and sympathy.</t>
+    <t>Satan's Mask</t>
+  </si>
+  <si>
+    <t>You find The Soldier drinking alone in a pub. Drunk out of his mind and attempting to charm the bar maids of the old, dilapidated pub.&lt;br /&gt; &lt;br /&gt; Sitting at his table he stares you dead in the eye and states: “Child! Listen. Have you heard it? I have heard it. The bang! It haunts me, my memories, my mind, my bones.”&lt;br /&gt; &lt;br /&gt; He takes a long drink from his cup. This man is clearly running from his demons. Running from the pain of something.&lt;br /&gt; &lt;br /&gt; You shake your head and place your hand on his arm, as if to comfort him, to silence the self-pitying hate that fills and intoxicates his liver.&lt;br /&gt; &lt;br /&gt; “I have seen the faces of Hell. I have heard Satan calling to me, through whispered dreams and with bated breath. You must gain notoriety in Hell. Only then will. Give you this mask.”&lt;br /&gt; &lt;br /&gt; He pulls out a ghoulish looking, yet beautifully artistically created mask. The horns, the teeth, the scowl on the mask, the eyes carved to allow the wearer to place it upon their face.&lt;br /&gt; &lt;br /&gt; “Ask not how I came across this item; I ask only one thing of you. Take it. But only after you have heard the voices, felt the misery.”</t>
+  </si>
+  <si>
+    <t>Long and hard you have fought. Long and hard you have slogged through the blood of your enemies. All the while, the voices of Hell taunting you, demoralizing you and tempting you to the edge of the knife. The edge of your own life.&lt;br /&gt; &lt;br /&gt; Alas, you have managed to climb out of the pits of Hell with the notoriety in question. Traveling to the dilapidated pub, The Soldier sits alone in a dark corner.&lt;br /&gt; &lt;br /&gt; A whispered voice escapes his lips as you sit down. “The bang. It rings in my head.” You know what he is talking about. The goblin, the bow, the bang. It plays again, it sounds so real, like its right behind you.&lt;br /&gt; &lt;br /&gt; A scream runs through your mind, a terrifying shriek. The Soldier jolts you by grabbing your arm. “Your heard it didn’t you?”&lt;br /&gt; &lt;br /&gt; There is a long silence between the two of you, the sounds of clatter, chatter and drunken activities fills the air, as if it’s so distant, so faded, but a small glimmer of reality keeps the sounds of the world grounded to you.&lt;br /&gt; &lt;br /&gt; You nod your head, “I thought so. Take this mask, never wear it. Take it.”&lt;br /&gt; &lt;br /&gt; You hold the mask in your hands: The kiss of a lover, the sound of scream.&lt;br /&gt; &lt;br /&gt; Tears run down your face.</t>
   </si>
   <si>
     <t>Prison is for the stupid</t>
   </si>
   <si>
-    <t>Stories are abound about a prison that once held The Creator. Where it is, or, more importantly, if it ever existed is another story for the fables of children's nightmares." The Soldier shutters at the thought of such a place. "Child, what you are embarking on s a journey that you are not prepared for. You think The Creator will just let you walk into Purgatory? Are you insane?"&lt;br /&gt; &lt;br /&gt; The Soldier shakes his head and starts to walk away, as if he is done with the conversation, with giving you a time of day in relation to the subject at hand. The winds pick up and he stops, stares up at the sky as the winds die down again, "What? What do you want from me?" The Soldier screams to the sky. It's a good thing there are no people around or he and you would look like lunatics.&lt;br /&gt; &lt;br /&gt; The Soldier comes back to you and states: "Take this key, if you can afford it." He pauses and then continues, the look on hi face becomes more serious: "Listen to me, what you unlock, is what you put in motion."</t>
-  </si>
-  <si>
-    <t>You pay The Soldier and he smiles. "Pleasure doing business." He walks away from you and disappears down the street. You sit there with this key in your hand, unsure what it unlocks. You can feel a faint and dormant power somewhere within the confines of the object it's self. The metal of the key is cold to the touch, almost icey. The designs on the key are complicated patterns of roses etched into the metal. You have no idea the purpose of such a device, but you place it in your pocket.&lt;br /&gt; &lt;br /&gt; As you set off on your next journey, you feel a dark and ominous presence watching you from the shadows of your own mind.</t>
-  </si>
-  <si>
-    <t>don't burn now</t>
+    <t>Prison Key</t>
+  </si>
+  <si>
+    <t>Traveling through the merchant stalls you spot The Soldier. Walking up to him to see if he has any further work for you, on this nice sunny day, he turns around and the look in his eyes will haunt you from this day till the end of time.&lt;br /&gt; &lt;br /&gt; “Child. Hell is calling.”&lt;br /&gt; &lt;br /&gt; He walks away from you and disappears into the crowd. However, before he does leave your sight you see a small key on his belt.&lt;br /&gt; &lt;br /&gt; You can still smell the alcohol that plagued his breath.&lt;br /&gt; &lt;br /&gt; He has been drinking heavily again. What is his obsession with Hell, with Satan, with the mask.&lt;br /&gt; &lt;br /&gt; You remember a dream you had the other night. The winged manifestations of your fears chased you into a room, a room that looked unfamiliar to you but at the same time had a sense of home.&lt;br /&gt; &lt;br /&gt; Not the home, here you grew up in, but a different place, a different time. You shake off the thoughts and head on your way.</t>
+  </si>
+  <si>
+    <t>You find The Soldier down by the docks, he is sitting there fiddling with something in his hand.&lt;br /&gt; &lt;br /&gt; You approach and he looks up at you. “Sit with me for a moment. Let me tell you about Purgatory.”&lt;br /&gt; &lt;br /&gt; Great, you think, another sad story of demons that haunt him.&lt;br /&gt; &lt;br /&gt; “Purgatory is a place where The Creator is from. A smith was said to release him, or maybe he released the smiths. I can’t remember. The stories and fables all bleed together. What’s fact or fiction anymore?”&lt;br /&gt; &lt;br /&gt; He pauses and stops fiddling with the object, instead he holds it up. A key.&lt;br /&gt; &lt;br /&gt; “I was told by The Poet, that this key is essential to getting into Purgatory. That with this, The Creator used it to escape. The he stated, ‘Prison is for the stupid.’ When he did escape. What’s truth, what’s fiction? I don’t know, it’s all handed down through stories.”&lt;br /&gt; &lt;br /&gt; He hands you the key, gets up and walks off. He likes to do that, make these nonsensical dramatic exits from a conversation. What are you to do with a key? Is there a door you can use it in? Maybe not.</t>
+  </si>
+  <si>
+    <t>Don't burn now</t>
+  </si>
+  <si>
+    <t>Demonic Leather Boots</t>
+  </si>
+  <si>
+    <t>You enter the gates and travels down into the Depths of Hell themselves. The winged beasts of the land screech out in rage, the endless lines of souls, the wondering dead.&lt;br /&gt; &lt;br /&gt; To some you do not even exist, or they do not even acknowledge your existence.&lt;br /&gt; &lt;br /&gt; The seas boil with fire and some poor souls are shoved in by demonic entities larger than life, who cackle at the pain and agony.&lt;br /&gt; &lt;br /&gt; “Are you going somewhere?”&lt;br /&gt; &lt;br /&gt; You turn and see a man clad in red armour. All but his head is covered, it glows with a purple light, the power that radiates off it is unlike anything you have felt before.&lt;br /&gt; &lt;br /&gt; At his side he carries a large sword with a red jewel in the shape of an eye in the center of the blade.&lt;br /&gt; &lt;br /&gt; You feel it watching you, judging you.&lt;br /&gt; &lt;br /&gt; “Where do you come from and where do you?”&lt;br /&gt; &lt;br /&gt; You tell him you need to cross the seas, the gates to Purgatory line on the other side. You tell him you search for the story to The Creators origins.&lt;br /&gt; &lt;br /&gt; “You won’t find them there, only the smith’s house. You find what you seek I the depths of this land child. But you do not seek The Creator, you seek answers to who you are.”&lt;br /&gt; &lt;br /&gt; He is only half right; you think to yourself.&lt;br /&gt; &lt;br /&gt; “A trade then. Find me the items I desire, and I shall give you the boots to cross the flaming seas.”</t>
+  </si>
+  <si>
+    <t>You return to the man with the armour and the sword, known as Hells Gatekeeper.&lt;br /&gt; &lt;br /&gt; “You have what I seek child. Very well, a deal is a deal after all. Alas I hope your journey provides light on the questions you see. But know this, you cannot enter the prison unless you have the lantern. Do you have it child?”</t>
   </si>
   <si>
     <t>Faithless Lies</t>
   </si>
   <si>
+    <t>He appears to you in your dreams one night. The Wondering Merchant. It feels so vivid. So real, as if it is happening.&lt;br /&gt; &lt;br /&gt; “Child, those of the damned speak their lies to you. The knowledge of The Creator lies with in the lands of his own prison. A prison he escaped from. A corruption on the Smith himself, a lie spread through the grasses of a dead land that opened the doors and allowed him to escape the unending agony of his own mortality.”&lt;br /&gt; &lt;br /&gt; Great more riddles.&lt;br /&gt; &lt;br /&gt; “Find yourself in the pits of damnation and give me the fame you seek. From there I can give you the light of your desires.”&lt;br /&gt; &lt;br /&gt; You awaken to another bang, louder, the screams, the sounds of a bell? No, a siren? A sirens call? It is unlike anything you have heard.</t>
+  </si>
+  <si>
+    <t>You slaty the beast before you. But instantly appear back on the surface world. The Wondering Merchant before you.&lt;br /&gt; &lt;br /&gt; “You have done as I have asked you to do. You have gained the fame of yet another land.”&lt;br /&gt; &lt;br /&gt; So, it wasn’t just a dream, it was real, you slept, and he spoke to you across time and space.&lt;br /&gt; &lt;br /&gt; “The truth of the matter is that you are from this world, but another is not. Another runs. Runs from their own turmoil. He runs through the Heavens and into the cosmos.”&lt;br /&gt; &lt;br /&gt; Is he speaking of The Creator?&lt;br /&gt; &lt;br /&gt; “The fact of the matter is you are not ready for the truth of it all just yet. But you can be if you keep searching. Always keep searching child. The truth is out there.”</t>
+  </si>
+  <si>
     <t>The Unspoken Realm</t>
   </si>
   <si>
-    <t>You enter the old bar where you see Hells Gate Keeper sitting there. He sees you as you enter and gives you no indication he wishes to speak. You feel something burning in your mind. "I am missing the copper coins and the second locks device." The voice washes through your mind as your vision becomes blurry, you rub your eyes only to realize it was all an illusion of magic.&lt;br /&gt; &lt;br /&gt; What could he mean by his copper coins and a secondary lock device?</t>
-  </si>
-  <si>
-    <t>You awaken in the middle of what you assume is the night. You have no perception of time, just the haunting and screaming torment of souls, both physically and mentally. It's beginning to make you second guess the existence and meaning of your own life, the knife looks rather tempting.&lt;br /&gt; &lt;br /&gt; You shake your head of the destructive thoughts and clear your mind as best you can, something awoke you from yet another nightmare of your death, your mothers death playing out over and over, the sounds of the screams, the laughter of insidious intentions.&lt;br /&gt; &lt;br /&gt; "You have what I want." The voice, it's familiar. "Child. Give me those." With out hesitation, questioning or any other objection you hand over the items as if instinctively. "Where you seek to go is the realm of the prison." His voice echoes through your bones causing you to become entranced in his darkness. it's alluring, drawing you in, wrapping you in the blanket of a mothers warmth, the deceptive love and warmth fades to ice in a moment. "You must tread carefully through your own desires to find the truth of The Creator, he is not what you have been perceived to believe. A false god in a false world. Wake up."&lt;br /&gt; &lt;br /&gt; With that, the last of his words scream through you. You awaken to the reality of your situation. Death is always a possibility, but is life?</t>
+    <t>Second prison key</t>
+  </si>
+  <si>
+    <t>Dead Fiend's Hide</t>
+  </si>
+  <si>
+    <t>Purse of Copper Coins</t>
+  </si>
+  <si>
+    <t>Traveling through the depths of Hell, you feel a dark and terrifying presence. It does not speak, but it fills your mind with images of keys and coins.&lt;br /&gt; &lt;br /&gt; As quickly as it came it is gone. A shadowy figure on the distant landscape slides into the abyss of your thoughts.&lt;br /&gt; &lt;br /&gt; What or who was that and did they send you the images? Are these items you should find? You already have a key, but what about these coins?&lt;br /&gt; &lt;br /&gt; You set out on your search for coins.</t>
+  </si>
+  <si>
+    <t>Coins and a key in hand you are not sure where you should even go to give these items. But again, you feel the presence.&lt;br /&gt; &lt;br /&gt; Not more images you think.&lt;br /&gt; &lt;br /&gt; “Child” the voice comes from behind you. A tall shadowy cloaked figure stands before you. It reaches out and touches your shoulder. The images come flooding through: Blood, lots of blood. The walls, red, the memories, scattered across time and space. The pain is beyond comprehensible. The scream, the woman, the man, the memories, the lips. The kiss, the end.&lt;br /&gt; &lt;br /&gt; You awaken hours later in this abysmal place. Was that Hells gatekeeper? A figure you have heard about in pubs and inns, whispered about, stories some say to scare little children.&lt;br /&gt; &lt;br /&gt; A thought races through your mind, a single thought. You do not belong here.&lt;br /&gt; &lt;br /&gt; Belong where? Hell? It makes less sense.&lt;br /&gt; &lt;br /&gt; The key the coins they are gone. A hide is beside you. A simple looking bloodied hide. From some fiend.</t>
   </si>
   <si>
     <t>Purgatories Doors</t>
   </si>
   <si>
-    <t>The Weaver sites alone in the shadows of the maze of questions you have. What is this Purgatory, why are people so cryptic about the answers. Why was The Creator a prisoner of such a land? &lt;br /&gt; &lt;br /&gt; "Hello child." &lt;br /&gt; &lt;br /&gt; The Weavers voice interrupts your thoughts. "I need a book of death, a hide of truth and the realization of your coins and currencies." He then looks back down at his work. You question about his request but he repeats the same line and shrugs you off. Another "errand" and no closer to any answers.</t>
-  </si>
-  <si>
-    <t>The Weaver looks up from his work. "About time." You look puzzled.&lt;br /&gt; &lt;br /&gt; "You have been running around here and there and every where. I have the ear of the one we all know and you are causing issues. Issues with the fabric of time and the timeline it's self." He pauses and let you attempt to digest his words, before you can try and puzzle out what he is referring to, he continues: "This tiresome meddling in the affairs of others is becoming an issue, how ever since The Creator gave all his subjects free will, there is no stopping you. The answers you see are beyond the doors of your imagination. Deep in the recesses of hell is a portal, a rip in the tear of fabric of time and space, with this --" He produces and item from his robes, "You can walk through the tear and into Purgatory. Seek the smith for your answers."&lt;br /&gt; &lt;br /&gt; He hands you the item and with in the blink of eye is gone. A cold and chilly wind races through your flesh. You know where to get the answers. Now to make the journey. The feeling of being watched is more intent now than it was before, you look around frantically. Nothing. No one.</t>
+    <t>Purgatory's Lantern</t>
+  </si>
+  <si>
+    <t>Book of the Dead Souls</t>
+  </si>
+  <si>
+    <t>“Oh, hello child. Lost in the labyrinth, are we?” A man in tattered clothes appears before you. “Don’t look so shocked. I am looking for an item or two. I have an item for you. Alas this will open gates in a special location to allow you tom to descend to a prison long thought lost.”&lt;br /&gt; &lt;br /&gt; You stare at this man. He looks unfamiliar, but familiar at the same time.&lt;br /&gt; &lt;br /&gt; “Do you have what I want? I have a lantern you see. Let’s you see in the darkest of places.”</t>
+  </si>
+  <si>
+    <t>You return the man in tattered rags, but he is nowhere to be seen. He was right here. “Child” a familiar voice comes from the shadows.&lt;br /&gt; &lt;br /&gt; He steps out dressed in finely woven fabrics, a long robe, a cloak. A black leather belt. He looks clean, put together. Nothing like what you saw before.&lt;br /&gt; &lt;br /&gt; “Do you have what I seek? I have the darkness and the light you need for it. Alas, I must caution you. The Creator see’s all, knows all and shreds the hopes and dreams of those seeking answers.”&lt;br /&gt; &lt;br /&gt; You hand over the items, he hands you a regular looking lantern. You begin to question. “Hush child. Take this to the faraway places in the depths of Hell. Only there can the gates open. Remember, you have been warned.”&lt;br /&gt; &lt;br /&gt; Warned? Warned about what? Cryptic messages are what you received. But could this be it. The way into Purgatory? Could you finally find out who this “The Creator” really is? Find answers to the images racing through your mind? Or will there just be more questions?&lt;br /&gt; &lt;br /&gt; Unanswered questions and cryptic images and shattered thoughts of those you interact with?</t>
   </si>
   <si>
     <t>Stolen Goods</t>
   </si>
   <si>
+    <t>Purse of Shards and Dust</t>
+  </si>
+  <si>
+    <t>The Gatekeeper stands in the middle of the lava. The burning and tormenting souls of those that were once people, once had lives. Once had purpose and meaning.&lt;br /&gt; &lt;br /&gt; He watches the people under his feet, the ability for you both to be standing here, the middle of the ocean of lava still amazes you, you don’t even feel the heat of the lava beneath you.&lt;br /&gt; &lt;br /&gt; He watches the souls a moment longer and then turns to you.&lt;br /&gt; &lt;br /&gt; “I have use of your skills. Deep in a cage where the beast who was no more then a man in a rebel army lies a purse that was once stolen from me. I want it back.”&lt;br /&gt; &lt;br /&gt; A simple errand, a simple fetch this and I’ll give you that. How many have you done, how many people have you helped and yet no answers.&lt;br /&gt; &lt;br /&gt; A cage where a beast, a man elevated to a legendary status. A place where death is around every corner. A single place of torment and hate. A place where love cannot exist.&lt;br /&gt; &lt;br /&gt; Yet, in the back of your mind a glimmer of light, a single seedling of a rose sprouts, a single image of those blue eyes lingers in your mind. The man they call Satan smiles in your thoughts and you see it, clear as day. The blue eyes.</t>
+  </si>
+  <si>
+    <t>You have entered the cage, you have felt the truth in your heart. You have seen the flashes. The blue eyes, the beautiful smile. You have heard the laughter.&lt;br /&gt; &lt;br /&gt; You can see it now, the purse upon the ground. As you get closer to it, slaughter your way through the enemies and reach the bag you see it.&lt;br /&gt; &lt;br /&gt; Two people, one love story.&lt;br /&gt; &lt;br /&gt; You snap back to reality and grab the bag only to see: One person, one heart ache.&lt;br /&gt; &lt;br /&gt; The end of love paralyses you. The crippling fear of loneliness washes over you. The guilt that you some how shattered this story, this happy ever after, this charming eloquent story of two people – shatters like a mirror before you. The pieces fall and you are outside the cage once again.&lt;br /&gt; &lt;br /&gt; The bag in hand you make your way back to The Gatekeeper, all the while the images play over and over.&lt;br /&gt; &lt;br /&gt; Could it be that one is the ruler of hell and the other is the escapee of a prison of his own making.&lt;br /&gt; &lt;br /&gt; A simple errand, a flood of possible answers.</t>
+  </si>
+  <si>
     <t>Shades Children</t>
   </si>
   <si>
-    <t>Upon your adventures you managed to find something. A bag. Inside the bag contained the bones of a small child. Why are there bones in a bag? Why are they children’s bones?&lt;br /&gt; &lt;br /&gt; A strong sense of danger washes over you, a shadow creeps through your mind. You feel your blood turn cold. It’s as if the world is fading away. You slip into the darkness.&lt;br /&gt; &lt;br /&gt; “My child!” You hear the scream. “My Child!!!” it's louder. The shades of the dead gather around you in the blackness. You do not see them, but you feel them, feel them touching your flesh, freezing you in place with fear.&lt;br /&gt; &lt;br /&gt; “Bring me my child’s bones!”&lt;br /&gt; &lt;br /&gt; The blackness subsides and the world comes back into full focus. Who or what was that? More importantly do they have answers? And if so how do I get to them?</t>
-  </si>
-  <si>
-    <t>The shades of the Shadow Plane gather around as you travel through this forgotten unwanted and unloved land. The water no longer moves, crystallized by the shadows and the creatures that lurk in them.&lt;br /&gt; &lt;br /&gt; Carrying the bag of bones, you feel the shadows of the Shadow Plane gather in, closer and closer. You feel a skeletal hand reach out from nowhere and grasp your shoulder.&lt;br /&gt; &lt;br /&gt; You turn around only to see a giant shade, a cloaked figure with darkness behind the cowl of its hood. You hand over the bag, with no hesitation. Fear is what’s propelling you.&lt;br /&gt; &lt;br /&gt; You can feel this things darkness envelop you. Wash over you and threaten to drag you down into its darkest pits of despair.&lt;br /&gt; &lt;br /&gt; He produces a mirror, a cracked mirror. You take it, a small hand mirror that maidens would use. He vanishes into the air in which he manifested out of. He has his bones, his child’s bones.&lt;br /&gt; &lt;br /&gt; You stare into the mirror in the silence and void of the Shadow Planes. Waiting for her voice, or his or anyone’s. Alas it is all silent. Are you any closer or further way from the objective? What even is the objective anymore?</t>
+    <t>Bag of Child's Bones</t>
+  </si>
+  <si>
+    <t>Mirror of the Queen</t>
+  </si>
+  <si>
+    <t>You travel the dusty, barren lifeless and grey world of the Shadow Plane in search of the next treasure. The next kill, the next hunt.&lt;br /&gt; &lt;br /&gt; You can feel the shadows of the land gather around you. You can hear their whispers n your eyes, feel their shadowy claws reach out and touch you.&lt;br /&gt; &lt;br /&gt; “The Mirror child. The Queen awaits your arrival.”&lt;br /&gt; &lt;br /&gt; You look around but the shadows of the land have receded beyond the horizon. The lifelessness of the land returns to silent grey and dusty.&lt;br /&gt; &lt;br /&gt; Even the Seas, the lakes and the rivers do not move.&lt;br /&gt; &lt;br /&gt; You have heard stories of this place, of The Shade Lord.&lt;br /&gt; &lt;br /&gt; What could the voice have meant? What is the Mirror?</t>
+  </si>
+  <si>
+    <t>While on your journeys you came across something grotesque. A bag of child’s bones. Every time you tried to bury the bones you found tour self, no matter which way you went back at its burial site.&lt;br /&gt; &lt;br /&gt; “Give me my bones!” a familiar voice comes screeching through your head.&lt;br /&gt; &lt;br /&gt; It’s so loud, so harsh that you develop a headache. You dig up the bones and take them ton the only place where they might be of any use. The Shadow Plane.&lt;br /&gt; &lt;br /&gt; You drop them on the ground and begin to walk away, but before you can, you see a glint I the dust. An old mirror.&lt;br /&gt; &lt;br /&gt; Picking it up another voice, feminine is heard: “Ooooh hooo hoo. Child! My mirror!”&lt;br /&gt; &lt;br /&gt; The voice is a shriek, but also alluring.</t>
   </si>
   <si>
     <t>Dead Animals</t>
   </si>
   <si>
-    <t>You managed to find The Dungeon Master in an old, abandoned church in Labyrinth. He sits there alone, almost like he is waiting.&lt;br /&gt; &lt;br /&gt; As you enter, he gets up from his seat in one of the empty pews. “You have what I want then child?”&lt;br /&gt; &lt;br /&gt; You nod you head. “Good, this will be handed over to The Wondering Merchant, that is what I am about to give you.”&lt;br /&gt; &lt;br /&gt; It’s all business, a transaction to these people. They often request the strangest of things. You ask about the blood, but he shakes his head, “I do not have time for your inquiries into my personal affairs. Alas all you need to know is this is a required ingredient in a …” He stops.&lt;br /&gt; &lt;br /&gt; “No, I said too much.” He knows something. Something about The Creator, or Purgatory or The Queen? He knows something but your attempts to press him for more details only makes him re-iterate his stance on the subject.</t>
-  </si>
-  <si>
-    <t>The Dungeon Master hands you a bag of dice. What are you to do with this? Roll them? “Take them to The Wondering Merchant. You may need other items for him as well…” His voice caries off. He leaves the church without looking back.&lt;br /&gt; &lt;br /&gt; “Hurry Child. Almost there!”&lt;br /&gt; &lt;br /&gt; That female voice, The Queen of Hearts. She rings in your ear. She must have some answers.</t>
+    <t>Bone Chalice of Animal Blood</t>
+  </si>
+  <si>
+    <t>Bag of Dice</t>
+  </si>
+  <si>
+    <t>Ruins scatter the land. Some are castles. Others, tombs, others maze like structures with stairs that go down and for what seems like for ever.&lt;br /&gt; &lt;br /&gt; In one such place you come across a man dressed in robes. He carries a book, he has a pouch at his side, and he speaks to you in confidence, as if he is telling you a story. It’s your story, how you got here.&lt;br /&gt; &lt;br /&gt; “The Child wonders through the catacombs, the caves, the ruins of dead men’s homes and palaces. The child knows I am waiting for them. The child is apprehensive but has something. Could obtain something, A trade is after all a trade. Does the child have something for me?”&lt;br /&gt; &lt;br /&gt; He always seems to speak as if he is narrating your life, your existence.&lt;br /&gt; &lt;br /&gt; “The child is thinking. The child has not come from here and does not belong to these lands. The child is of another time. Where does the child come from?”</t>
+  </si>
+  <si>
+    <t>You rampage through one room after the other. On the table of the last room is a chalice. A simple chalice full of blood.&lt;br /&gt; &lt;br /&gt; Is it human?&lt;br /&gt; &lt;br /&gt; “No child” The voice comes again. “It is the blood of animals. Much like a bag of bones you cannot remove the blood from the chalice.”&lt;br /&gt; &lt;br /&gt; Turning towards the door of the old musty room you see the Dungeon Master standing there. He has his hand outstretched.&lt;br /&gt; &lt;br /&gt; “A bag of dice for you? A chalice for me?”&lt;br /&gt; &lt;br /&gt; You hand him the chalice and he hands you the bag of dice.&lt;br /&gt; &lt;br /&gt; “Life is a chance. A chance to hit, a chance to kill, a chance to run!”&lt;br /&gt; &lt;br /&gt; He pauses and studies the chalice.&lt;br /&gt; &lt;br /&gt; “Life is for the Queen!”</t>
   </si>
   <si>
     <t>Queens Decision</t>
   </si>
   <si>
-    <t>You found The Wondering Merchant a week later in a small town selling his goods out of his seemingly never empty bags and chests around him. How he travels with all this stuff with no mule or horse or people to carry it all is still a mystery to you. One you will have to solve another day, alas there are answers to get.</t>
-  </si>
-  <si>
-    <t>“Here child. Use this to communicate with her, but only in Hell.” The Wondering Merchant hands you a bag. “It’s called a Bag of Chance.” He states, “It’s used to communicate with her and for her to accept your currencies for powerful enchanted items that only she can make, again only in Hell.”&lt;br /&gt; &lt;br /&gt; You ask about her wanting you to come to her, about the Animal blood and the Shade that accosted you for its child bones.&lt;br /&gt; &lt;br /&gt; “These are creatures of another time. Like me, we are not real. We are manifestations of your imagination. He is the puppet master that pulls the strings. He is the creator of the world around you. He is the darkness and the light of this world. An unbalanced mix of energy that sways in the wind like a ribbon, this way and that. He is your life and death.”&lt;br /&gt; &lt;br /&gt; Some much to take in. The Creator is neither real nor not real, but these people. The Wondering Merchant, The Queen of Hearts – how can they all be manifestations?&lt;br /&gt; &lt;br /&gt; You attempt to press him for details, attempting to glean anything more out of him. “I have said all I can on the subject. You just ask the questions of others. You must find out your own truth.”&lt;br /&gt; &lt;br /&gt; Swimming in more questions, you leave the conversation where it stands and try to muddle through his words. is any of this real?</t>
+    <t>Bag of Chance</t>
+  </si>
+  <si>
+    <t>It has been exhausting. Dolls, Eyes, Books, Crowns, Dead people, and blood.&lt;br /&gt; &lt;br /&gt; You take a moment in the sun to bask in the warmth. It feels like it has been ages since you surfaced from the depths.&lt;br /&gt; &lt;br /&gt; You feel it heavy on your mind, in your bones.&lt;br /&gt; &lt;br /&gt; “Hello again child.”&lt;br /&gt; &lt;br /&gt; You see him clear as day, you know his voice: The Wondering Merchant.&lt;br /&gt; &lt;br /&gt; You greet him and ask if there’s anything he needs, perhaps another trade.&lt;br /&gt; &lt;br /&gt; “In fact, there is a trade. The Queen would like to make a bargain with you. She has items beyond your comprehension and with this bag, a Bag of Chance, you can speak with her and make the appropriate trade for those items. Alas only in Hell.”&lt;br /&gt; &lt;br /&gt; You look at the item he holds out before him. Instantly you can hear a woman’s voice.&lt;br /&gt; &lt;br /&gt; “Oooooh Child! Take it! Come to me! Let me give you shiny objects! Oh, this will be so fun! Oooohhhh hooo hooo hoo”&lt;br /&gt; &lt;br /&gt; “You hear her voice, don’t you?” The Merchant asks after a moment. You nod. “Take it then. Go to her, do not be afraid.”</t>
+  </si>
+  <si>
+    <t>Holding the bag in your hand you know you have somewhere to be. You thank The Wondering Merchant and head on your way. What could she have for you? What new power? What new abilities? What answers might she give if any?</t>
   </si>
   <si>
     <t>Goblins Lust for Gold</t>
   </si>
   <si>
-    <t>Out on your adventures you come across a Goblin. Unlike other goblins, this one seems to fear you. This excites you; you prepare for the kill.&lt;br /&gt; &lt;br /&gt; “Please! I beg of thee, don’t hurt me!” The goblin shrieks. “I am but a helpless gobby. I like shiny things; do you like shiny things? I have shiny things! Please don’t kill me!”&lt;br /&gt; &lt;br /&gt; You stare at the goblin for a moment. Shiny things. What kinds of shiny things you ask?&lt;br /&gt; &lt;br /&gt; “All kinds. All I require is my Jewels back! A Witches Demon stole them! Please help me.”&lt;br /&gt; &lt;br /&gt; You stare at this goblin, dressed in tatters and rags, you feel a twinge of sympathy for the poor creature. He holds a broken rusted dagger in one hand and his knees tremble in fear. No more the height of a young child.&lt;br /&gt; &lt;br /&gt; You agree not to kill him, which allows him to calm himself for a moment. “Will you help me?”</t>
-  </si>
-  <si>
-    <t>Returning with jewels the goblin is ecstatic and overjoyed.&lt;br /&gt; &lt;br /&gt; “Oh, you are a kind person! Thank you. These are very precious to me.”&lt;br /&gt; &lt;br /&gt; You ask what they are for, but he shakes his head. “Gobbies don’t share the secrets of The Creator. Gobbies not allowed that’s why most of us are feral and blood thirsty.” He stairs down at his shiny jewels and puts them into his pocket.&lt;br /&gt; &lt;br /&gt; “I have other shiny things I can give you though if you have shiny things to trade. I do like shiny things.”</t>
+    <t>Goblins Jewels</t>
+  </si>
+  <si>
+    <t>Golden Wand of Gold</t>
+  </si>
+  <si>
+    <t>You come across a shabby looking creature, a goblin. It carries a broken dagger, looks smaller than other Goblins and is terrified of you.&lt;br /&gt; &lt;br /&gt; This is not the same blood thirsty savage creature you have seen on the roads, the same type you have slaughtered and plundered. You think about killing this one, but it seems so helpless.&lt;br /&gt; &lt;br /&gt; “Please, have you seen my bag of jewels? A Witches Demon stole them and now I have no possessions.”&lt;br /&gt; &lt;br /&gt; He sees the glint of death in your eyes.&lt;br /&gt; &lt;br /&gt; “I have shiny things if you help me. Please don’t kill me.”</t>
+  </si>
+  <si>
+    <t>“Oh thank you!” The Goblin exclaims as you hand him a bag of jewels. “Here have this.” He hands you a golden wand that glimmer in the sun and feels magical.&lt;br /&gt; &lt;br /&gt; “With this you can embezzle from all your kingdoms on one plane. If you want more shiny things, come see me again!”</t>
   </si>
   <si>
     <t>Light of Hope</t>
   </si>
   <si>
+    <t>Holy Wax</t>
+  </si>
+  <si>
+    <t>Candle Stick of Hope</t>
+  </si>
+  <si>
+    <t>Burnt Wick</t>
+  </si>
+  <si>
+    <t>You have been hunting yourself for some time and found some items The Candle Maker might be able to make use of.&lt;br /&gt; &lt;br /&gt; You track him down amongst the ruins of what looked to be a gate house to the Labyrinth.&lt;br /&gt; &lt;br /&gt; “Hello again. Did you find me something?”</t>
+  </si>
+  <si>
+    <t>“Ahh these will do nicely. I can create you another Candle. You know this use to be used to light the way through even the darkest of times.”&lt;br /&gt; &lt;br /&gt; The Candle Maker studies the items you gave him and sets to work over the fire he has prepared.&lt;br /&gt; &lt;br /&gt; You ask him what he meant.&lt;br /&gt; &lt;br /&gt; “When The Federation Soldiers and their Holy Warrior comrades would enter a village, they would light a single candle and state to the citizens: ‘Repent. Repent in the name the one true God. Lay down your weapons and your hate and give in to the Lord.’ Those who did not would be slaughtered, eviscerated to make a point. The women … The poor women …”&lt;br /&gt; &lt;br /&gt; He falls silent. A moment later he produces a new candle for you.&lt;br /&gt; &lt;br /&gt; “I hope this helps you to find the way even in the darkest of nights.”</t>
+  </si>
+  <si>
     <t>In darkness we have faith</t>
   </si>
   <si>
-    <t>Blesed in hope</t>
+    <t>Bishop's Enchanted Scroll</t>
+  </si>
+  <si>
+    <t>Enchanted Candlestick of Light</t>
+  </si>
+  <si>
+    <t>The Candle Maker is busy with his latest creation. “Ahh the lost art, I am glad to have it back. These bits of knowledge you bring me, the stories I trade them for. What new story shall we talk about today? The story of Darkness and how one child had the faith to navigate it?”&lt;br /&gt; &lt;br /&gt; Does he mean The Creator?&lt;br /&gt; &lt;br /&gt; “You see, a long time ago when The Church was a thing in the lands. Surface lands that is, there was a child. One who was tormented and abused in ways I shall not repeat, for even his story is darker then that of the one you seek to learn more about.”&lt;br /&gt; &lt;br /&gt; He pauses and studies his work and then continues.&lt;br /&gt; &lt;br /&gt; “This child escaped from the clutches of The Church only to find his way through the twisted and broken world of the past and encountered that which you see The Creator, or simply known at that time as The Child. It is this child, the escapee of The Church who led him to the Red Hawks.”&lt;br /&gt; &lt;br /&gt; he pauses and looks up from his work. “If you want more, you will need to find me more of the relics from that era. An era of those who fought for freedom against those who committed crimes even I cannot utter.”</t>
+  </si>
+  <si>
+    <t>An enchanted scroll that speaks of prayers to that which is true and holy, or at least to those at the time considered holy and true.&lt;br /&gt; &lt;br /&gt; A simple candle stick with the words hope etched into it. One that will not burn no matter the flame you burn.&lt;br /&gt; &lt;br /&gt; You bring these items to the maker of candles who studies them for a moment.&lt;br /&gt; &lt;br /&gt; “You bring me what I seek. I shall tell you the last part of this tale my child, before you ask me more questions that race through that mind of yours.”&lt;br /&gt; &lt;br /&gt; He puts the items to one side for a moment and states, “You see the child that escaped and the child fro another time and place became close, became friends, companions in their own pain and misery. One lifted the other up and made him strong again and the other helped the escapee walk in the light of faith, faith that one day both will be free of the demons that course through their veins.”&lt;br /&gt; &lt;br /&gt; He reaches down and picks up the scroll. He begins to unfurl it and points to the bottom part of the scroll.&lt;br /&gt; &lt;br /&gt; “In darkness we have faith.”</t>
+  </si>
+  <si>
+    <t>Blessed in hope</t>
+  </si>
+  <si>
+    <t>Holy Enchanted Oil</t>
+  </si>
+  <si>
+    <t>Blessed Enchanted Candle Stick</t>
+  </si>
+  <si>
+    <t>You found a tome among your journeys that detailed the story of the child who entered the land of no hope.&lt;br /&gt; &lt;br /&gt; “Amongst the ruins of the old world sits a child. A fight on his hands, a lost memory he cannot recover. The ruins of his imagination, the death of his parents. The Port was a guide to the child, but the soul was never bathed in the light and thus he was banished from the land.”&lt;br /&gt; &lt;br /&gt; You have been thinking about that for some time, even after you came back to The Candle Maker to ask him if the oil you found could be useful.&lt;br /&gt; &lt;br /&gt; He tells you he can bless the candle he gave you previously. You mull the words over and ask him what they might mean.</t>
+  </si>
+  <si>
+    <t>“The story you read is that of The Creator.” The Candle Maker begins.&lt;br /&gt; &lt;br /&gt; “Long ago, before these planes and others were discovered, he appeared out of nowhere, or so it is said. Maybe he was always here.”&lt;br /&gt; &lt;br /&gt; He pauses and rubs the oil on the candle.&lt;br /&gt; &lt;br /&gt; “It is said The Poet found him, covered in blood, without a scratch on him. The child was confused about where he was, how he got there. There was no indication of where he came from, and he had no memory of past events. It is said the Poet attempted to guide him somewhere, where is still a mystery.”&lt;br /&gt; &lt;br /&gt; He finishes with the candle and hands it back to you.&lt;br /&gt; &lt;br /&gt; “There this should do. Blessed in hope I say. Anyhow, that’s all I know about your story. I hope this helps you. The item that is.”</t>
   </si>
   <si>
     <t>Into despair</t>
   </si>
   <si>
+    <t>Simple Candlestick</t>
+  </si>
+  <si>
+    <t>You have heard the tales of a church that once existed on Surface. A series of churches. Led by fanatical priests who worked for an organization called “The Federation”.&lt;br /&gt; &lt;br /&gt; Both are long gone now, but the candles they would once make were carries by their Holy Warriors into battle.&lt;br /&gt; &lt;br /&gt; It is said these warriors would spread the light of the one true God.&lt;br /&gt; &lt;br /&gt; It was in those days that a rebel faction known as The Red Hawks raised up to fight back the Federation and the Church itself. It is also rumored that The Creator himself was a lost soul in these lands, joining the Red Hawks in their fight against the church and the oppressors of the land.&lt;br /&gt; &lt;br /&gt; What is fact and fiction alludes you but gives you a small glimmer into the past.&lt;br /&gt; &lt;br /&gt; Today the church, The Federation and the Red Hawks are all but gone. A few records here and there, a few stories shared over campfires of the glorious battles that supposedly took place long ago. Nothing of much substance remains.&lt;br /&gt; &lt;br /&gt; What does remain is a man called The Candle Maker. He resides in the depths of Labyrinth and for the right cost, assuming you can find him rummaging amongst the ruins, he can craft you one of those candles the Holy Warriors used.</t>
+  </si>
+  <si>
+    <t>It took a while, but you managed to find the man who they call The Candle Maker.&lt;br /&gt; &lt;br /&gt; “Oh, you found me. No one finds me. What do you want?”&lt;br /&gt; &lt;br /&gt; He is a thin man, glasses, and scholarly outfit. Dirty in appearance from searching the ruins of the area looking for something, relics of a time long lost you assume.&lt;br /&gt; &lt;br /&gt; You explain to him of the stories of the past and what you are seeking.&lt;br /&gt; &lt;br /&gt; “Yes, yes, I can make that. Give me what I seek, and it shall be yours. The experience of these candles will emanate through you. For the right price and items, if you can find them, I will upgrade them to even better versions of themselves.”&lt;br /&gt; &lt;br /&gt; You ask him what he knows of the stories.&lt;br /&gt; &lt;br /&gt; “The Federation, The Red Hawks? The Holy Warriors? All true. The Federation started in the north of the Surface plane and worked their way further south of the lands. Conquering and doing the Churches business, with those called The Holy Warriors.&lt;br /&gt; &lt;br /&gt; They were vile people, with one ambition, conquer and kill those who did not believe in the one true God. Children whose parents were killed were kept under the watchful eye of the Church. A corrupt and sinister church with vile intentions.”&lt;br /&gt; &lt;br /&gt; He falls silent for a moment and then goes back to his searching.&lt;br /&gt; &lt;br /&gt; “I have nothing more for you child.”</t>
+  </si>
+  <si>
     <t>Churches transformation</t>
   </si>
   <si>
+    <t>Pillar Candle of the Church</t>
+  </si>
+  <si>
+    <t>Sitting with The Candle Maker he tells you he can melt down both of your candles, for a cost of course.&lt;br /&gt; &lt;br /&gt; “I can make them into a Pillar candle. One the churches use to use. These would light the halls of the Holy Warriors Barracks and imbue them with a sense of purpose, direction and of course the one true God.”&lt;br /&gt; &lt;br /&gt; You ask him more about these warriors and what happened to them.&lt;br /&gt; &lt;br /&gt; “They fell to the Red Hawks. It is said that once the lost child, The Creator, joined their ranks the Red Hawks were able to take them down. How is lost to the sands of time. I believe it had something to do with the reason or how The Creator got here.”</t>
+  </si>
+  <si>
+    <t>The Candle Maker starts the process of creating the pillar candle for you and continues his story.&lt;br /&gt; &lt;br /&gt; “When the Warriors started to get picked off one by one, was around the time The Federation and The Church started to fall out. Political differences you see. The Federation didn’t agree with actions of the church. They only wanted to take control of the lesser governments and rule the lands, north, south, east, and west. Control trade, control the choices of the people and have one central government.”&lt;br /&gt; &lt;br /&gt; He pauses and stirs the melting wax, mumbling words over the mixture of the candles and continues after a moment.&lt;br /&gt; &lt;br /&gt; “The Church itself was only concerned with one thing. Bringing people under the light and the teachings of the one true God. Their fanaticism as their undoing in the end. However, before that, they were ruthless. They would create magical holy items that the Warriors would use to subjugate the people.”&lt;br /&gt; &lt;br /&gt; He starts to pour the mixture into a mold and mutters more words. A moment later he sets the mold to one side to cool and finishes:&lt;br /&gt; &lt;br /&gt; “The Red hawks, with the help the ‘child’ or The Creator in this case, were able to infiltrate the churches that were spread across the land and assassinate the archbishop of each, systematically the churches started to fall. The orphaned children, whose parents were slaughtered in previous battles for refusing to submit to the light of the one true god were already dead. It is said they were never alive to begin with.”&lt;br /&gt; &lt;br /&gt; He pauses and stares off into the distance. There is an uneasy silence that falls over the two of you.</t>
+  </si>
+  <si>
     <t>Faction Hunter</t>
   </si>
   <si>
+    <t>Essence of Rage</t>
+  </si>
+  <si>
+    <t>Walking through town, people are looking at you. They know you, your name, it resonates with them, it sits on their tongue, they have nothing but happy things to say about you. You managed to gain notoriety with these people.&lt;br /&gt; &lt;br /&gt; You see The Goblin in the shadows of an alley way, he looks to be beckoning to you such that others do not see him.&lt;br /&gt; &lt;br /&gt; He slips back into the shadows as soon as he is confident you have seen his signal.&lt;br /&gt; &lt;br /&gt; Walking over, making it seem like you intend to head in this direction, for some unknown purpose. People still stop you and congratulate you on saving their town, killing creatures and pests that stalked their farms.&lt;br /&gt; &lt;br /&gt; You manage to make your way to the alley way, where you meet The Goblin.&lt;br /&gt; &lt;br /&gt; “Would you like to speed up the process of gaining fame?” He asks in a hushed, low tone.&lt;br /&gt; &lt;br /&gt; You ask him what he means. “Keep your voice down Child, there are those that are listening. Plus, I shouldn’t be here! People do not like Goblins unless you forgot!”</t>
+  </si>
+  <si>
+    <t>You take a small vial from the Goblin.&lt;br /&gt; &lt;br /&gt; “This is called Essence of Rage.” He Begins, looking around making sure no one sees him or hears you.&lt;br /&gt; &lt;br /&gt; “With this, you will gain more Faction towards those you kill. This can help you get more notoriety quickly.”&lt;br /&gt; &lt;br /&gt; He hands you the Vial and you study it, you see it glowing, soft, reddish light. You feel the rage begin to build. It takes everything you have to contain yourself. To stop the rage from exploding out and forcing you to go on a killing spree.&lt;br /&gt; &lt;br /&gt; When you look up from your new shiny item The Goblin is gone.</t>
+  </si>
+  <si>
     <t>Tell me your story</t>
   </si>
   <si>
+    <t>You have heard the stories of an accountant, legendary in his skill of keeping the books of Hell on balance. Why Hell would need an accountant is beyond your understanding.&lt;br /&gt; &lt;br /&gt; His real name is only whispered in the shadows of the darkest pubs and bars. His sigil is used by those who practice the darkest conjuration magics.&lt;br /&gt; &lt;br /&gt; You travel through the depths of Hell, seeking him out, seeking the knowledge of ancient and lost Copper Coins that one is able to use for a variety off items.&lt;br /&gt; &lt;br /&gt; You managed to find him standing on the shores of one of the Lost Soul’s river banks. He stands there, a hunched over old man, but his form it seems to shift through time and space – as if he is not apart of the physical or spiritual plane but both.&lt;br /&gt; &lt;br /&gt; “Child.” He begins as you approach him.&lt;br /&gt; &lt;br /&gt; “You have come seeking the lost knowledge of the Copper Coins, have you not?”&lt;br /&gt; &lt;br /&gt; You tell him that you are seeking the currency of a land called Purgatory. He does not seem phased by this.&lt;br /&gt; &lt;br /&gt; “Why would you want to wonder into the depths of a broken child? Neither of you belong in this world. Tell me child, how did you really come to be? Was it the same as The Creator?”&lt;br /&gt; &lt;br /&gt; You say nothing but stare at him for a moment. He continues, “I know more then you could imagine. I know of the darkest of secrets that haunt these planes. I know the story of death. Do you know the story of death? A sad love story. One with devastating consequences that have shaped this very world and all worlds connected to it.”&lt;br /&gt; &lt;br /&gt; He turns back to the river and watches the souls carried along with invisible currents. There faces are distorted, screaming out in silent agony.&lt;br /&gt; &lt;br /&gt; “Do you know your fate child? To enter such a prison, to collect the currency of the land. To unlock it’s secrets. All things come at a cost child.”</t>
+  </si>
+  <si>
+    <t>“So you are still determined to enter this land. Do you know of the chains that once bound the child?” You shake your head and the accountant continues: “There are talks of chains The Poet created, chains that bound the child's soul, his anger, his pain, his own realization of how he ended up here. A realization you are slowly figuring out – are you not?”&lt;br /&gt; &lt;br /&gt; You take a moment and think it over, the story, the dreams, the bang, the metallic object – the blood. It’s slowly falling into place. You can see it. The lips, the kiss, you can feel the passion, the love. The twinge of heart ache, the pain, the misery, the blackness envelops you.&lt;br /&gt; &lt;br /&gt; You are interrupted in your thoughts by the accountants voice: “The story is called: The Child and The Poet. It is said to be epic tale. Told through the stories of poem, song and misplaced writings. Alas, the chains are what you are interested in. The Blacksmiths of Purgatory are said to have created the chains, but when The Creator broke free, the remnants, the pieces of those chains were forged into gear. Is that what you are after? What else could you need the currency for child?”&lt;br /&gt; &lt;br /&gt; Is this what you are after? Gear? Broken chains that were forged, melted down and created into gear? Is there more to it? Or is it just a chase for the next shiny thing?</t>
+  </si>
+  <si>
     <t>Investigating new currencies</t>
   </si>
   <si>
+    <t>Book of Currencies</t>
+  </si>
+  <si>
+    <t>“You are persistent. I will give you that.” The accountant states as you approach him again, this time by the Tower of the Fearful, somewhere in one of Hells many plains.&lt;br /&gt; &lt;br /&gt; You tell him you need to know about Copper Coins, where did they come from? Who created them? Are they like Gold Dust – created from the destruction of enchanted gear? Or shards – pieces of Celestial Entities souls that are crystallized and used like a currency.&lt;br /&gt; &lt;br /&gt; All he does is look at you and tell you, as he has before – “All things comes at a cost child.”</t>
+  </si>
+  <si>
+    <t>You managed to find a book, one that speaks of currencies, one that has little on these Copper Coins. One that tells of stories about The Creator and his imagination. You think this might help to persuade the accountant to tell you more.&lt;br /&gt; &lt;br /&gt; You find him again by the Tower, sitting, watching, waiting – for what you have no idea.&lt;br /&gt; &lt;br /&gt; “You are back.” he greets you with a smile on his leather worn face. His form this time seems to have mostly stabilized into that of an old man.&lt;br /&gt; &lt;br /&gt; You show him of the book and tell him of what contents you were able to decipher but alas a lot of you could not figure out because of the strange script it is written in. “Hells own special language. I thought I lost this book eons ago in the great wars.”&lt;br /&gt; &lt;br /&gt; The accountant takes the book and flips through its partially torn and moldy pages, reading and glancing at the contents. “This book will not tell you the history of the coins. No, they come from the Surface, from long ago – during the war of the Federation and Redhawks.”&lt;br /&gt; &lt;br /&gt; Names that sound familiar to you.&lt;br /&gt; &lt;br /&gt; “This was the currency of the southern lands, long before the fall. When The Creator was imprisoned, he had a few of these coins on him. The Smith made more – a form of currency they could use to trade and barter between them.”&lt;br /&gt; &lt;br /&gt; He pauses to read a page, the words are barley legible but he seems to have no issue.&lt;br /&gt; &lt;br /&gt; He looks up at you, “it states that ‘The child had 1 million coins that became corrupted when the beings of his mind manifested into the horrendous creatures that stalk the land. Now all the creatures, like all other creatures, carry the currency.”&lt;br /&gt; &lt;br /&gt; It seems these coins have managed to be the main currency of Purgatory.&lt;br /&gt; &lt;br /&gt; “The problem is, if I remember correctly, you cannot collect them with out a mystical tool that helps them to manifest into the physical realm of the plane it’s self.”&lt;br /&gt; &lt;br /&gt; Oh great, another errand.</t>
+  </si>
+  <si>
     <t>The Magic of Purgatory</t>
   </si>
   <si>
+    <t>Treaty of the Smith</t>
+  </si>
+  <si>
+    <t>The Creator's Last Copper Coin</t>
+  </si>
+  <si>
+    <t>Magician's Enchanted Copper Coin</t>
+  </si>
+  <si>
+    <t>“So you want the tool. The Creators last coin do you? You will need a treaty and a magician who once conjured a single coin.”&lt;br /&gt; &lt;br /&gt; A treaty, what kind of treaty you ask.&lt;br /&gt; &lt;br /&gt; “One that stipulated that in exchange for goods and services the Smith will be paid in the copper coins the child had to offer until there were no more and then no more services could be granted.”&lt;br /&gt; &lt;br /&gt; Whats so special about the coin you ask.&lt;br /&gt; &lt;br /&gt; “Like I said before, it allows the copper coins from the creatures of the plane to manifest in the physical realm, to be traded for goods and services, Surely you know this, you have used the other currencies have you not?”&lt;br /&gt; &lt;br /&gt; You head off looking for some treaty and some magicians coin. All the while in the back of your mind wondering if these will be used for more answers or just shiny gear.</t>
+  </si>
+  <si>
+    <t>You have the Treaty and the coin in hand, you go looking for the accountant. Where could he have gone. He is not by the river, not at the tower.&lt;br /&gt; &lt;br /&gt; “Child.” You turn around and see him standing there, this time young. Handsome. Well dressed and holding a ledger.&lt;br /&gt; &lt;br /&gt; “You have what I want? I have what you seek.”&lt;br /&gt; &lt;br /&gt; Are they the answers? Is it the truth? The truth of who you are, your role in all this. How The Creator became as powerful as he is?&lt;br /&gt; &lt;br /&gt; “You have many question on your mind, and I, Clauneck, do not have them. But now you will have the ways to make the means you seek to pay for the answers you seek. Or at the very least child, get the gear you need to survive in such a hospitable place such as the broken and damaged mind of the prison created to hold The Creator.”&lt;br /&gt; &lt;br /&gt; Not a very good prison, you tell him. He laughs and hands you the item you seek. One blink later and he is gone. A whisper on the wind. A wind of sulfur.</t>
+  </si>
+  <si>
     <t>Churches Magical Alchemy Research</t>
   </si>
   <si>
+    <t>Musty old Church Records</t>
+  </si>
+  <si>
+    <t>Alchemically Enchanted Holy Candle</t>
+  </si>
+  <si>
+    <t>You found these musty old records of The Church. They mention alchemy and the research The Church use to do on the subject. The practices, the magic, the “unholiness” and “heretical sciences” they delved into.&lt;br /&gt; &lt;br /&gt; For a church that was forcing people to choose between death and accepting this “God” as their one true “saviour” or “leader” these people really went all I when it came to what they deemed, according to the documents, as “heretical sciences”.&lt;br /&gt; &lt;br /&gt; The notes talk about applying enchantments to their candles, to make their warriors stronger in the face of death.&lt;br /&gt; &lt;br /&gt; Maybe The Candle Maker can make sense of these.</t>
+  </si>
+  <si>
+    <t>“Child, you are back again!”&lt;br /&gt; &lt;br /&gt; The Candle Maker looks put together, less dirt and grime from searching the ruins. He seems rested, gleeful, and excited to see you again.&lt;br /&gt; &lt;br /&gt; “What do you have there?”&lt;br /&gt; &lt;br /&gt; You hand him the records and he reads over them, devouring their contents. You ask him about these so called: “heretical sciences”.&lt;br /&gt; &lt;br /&gt; “Ahh, yes I see now.”&lt;br /&gt; &lt;br /&gt; He pauses and continues to flip through the pages and examine the contents.&lt;br /&gt; &lt;br /&gt; “Ok, I see here. Ok. There was a science some of their priests, not many as, if they were discovered, they would be burned at the stake for partaking in what the church claimed was ‘witchcraft’.”&lt;br /&gt; &lt;br /&gt; He re-examines the pages one last time.&lt;br /&gt; &lt;br /&gt; “Yes, I see now, I can take that pillar candle I created for you and create an enchanted version of it to give it more power. It is said the flame will burn with a green flame to illuminate the true intentions of the user.”</t>
+  </si>
+  <si>
     <t>Fanatical Ink</t>
   </si>
   <si>
+    <t>Dried up Enchanted Holy Ink</t>
+  </si>
+  <si>
+    <t>Fanatic's Candle of Despair</t>
+  </si>
+  <si>
+    <t>A bottle of mostly dried up only ink, a candle who’s flame burns green. The Candle Maker should know what to do with this. After all he is an expert in all things Church related.&lt;br /&gt; &lt;br /&gt; The ink glows with the rage of a hated soul, you can feel it in your mind. You can hear the whispers of the past haunting you.&lt;br /&gt; &lt;br /&gt; You can see, when you close your eyes, the child covered in blood. The confusion, the winds blow in this mysterious place. A man, an older man greets the child.&lt;br /&gt; &lt;br /&gt; The flashes come to quick, there are two people. They speak as if they have lost something, their child. Lost to what? Lost to whom?</t>
+  </si>
+  <si>
+    <t>You arrive at The Candle Maker’s camp and tell him of the flashes, the images, the whispered voices carried on the wind of a memory.&lt;br /&gt; &lt;br /&gt; “Not yours. The memory is that of The Creators.”&lt;br /&gt; &lt;br /&gt; He then precedes to ask if you found the ink. Or any ink. The Fanatical Ink that is. You tell him you only found this old mostly dried up ink that seems to glow.&lt;br /&gt; &lt;br /&gt; “That would be it child. This ink was used with the alchemical research you gave me earlier to further imbue the candles with even more power. A “memories whisper”. Which means that you will see more of the images you described, the answers you have been long seeking are coming together. It’s up to you to make sense of the scattered bits of memories to piece together the puzzle.”</t>
+  </si>
+  <si>
     <t>Corruption in Alchemy</t>
   </si>
   <si>
+    <t>Corrupted Candle of the Church</t>
+  </si>
+  <si>
+    <t>Candle of the Smith</t>
+  </si>
+  <si>
+    <t>The dreams you have are so real, so vivid, you can hear the voices:&lt;br /&gt; &lt;br /&gt; “Where are we?” A woman’s voice asks as she crawls from overturned, burned-out metal object.&lt;br /&gt; &lt;br /&gt; “I am unsure. We were driving, and the snow was coming down and now … I …” A man voice trails off. He looks around and the path before him is broken, almost like stone but with strange paint down the center of it. It seems to fade off into the earth in both directions.&lt;br /&gt; &lt;br /&gt; They stare at each other for a moment before turning to your direction.&lt;br /&gt; &lt;br /&gt; “Who are you?” They both ask s if they can see you, see who you are. You feel a tug at your arm, you look over and see a child, a child whose head is covered in blood. No wound is present, but the blood is dried on his face.&lt;br /&gt; &lt;br /&gt; “You don’t belong here sir. Get out of my thoughts.”&lt;br /&gt; &lt;br /&gt; And just before you can protest, you awaken. The flames of the fire the Candle Maker lit are long extinguished and the cold of the night sets in. You look over and he is sleeping not more then 50 yards away.&lt;br /&gt; &lt;br /&gt; What as that? The whispers of memories?</t>
+  </si>
+  <si>
+    <t>As morning approaches, you have not slept since your dream. It was real. It felt real, it seemed real. Were you in the memories of The Creator?&lt;br /&gt; &lt;br /&gt; You see the Candle Maker awaken and he looks over at you. “Still here, are we?”&lt;br /&gt; &lt;br /&gt; You tell him of the dream and ask him what it could mean.&lt;br /&gt; &lt;br /&gt; “A corruption in alchemy. It is the candle, corrupted and telling you the past.”&lt;br /&gt; &lt;br /&gt; He rises, stretches, and yawns and comes over to where the fire was, where you are sitting. He kicks the few embers left, warm to the touch but not enough to light a fire. He begins preparing the fire to ward off the morning chill.&lt;br /&gt; &lt;br /&gt; “It seems to me, that you have a glimpse of the truth.”&lt;br /&gt; &lt;br /&gt; You remember the boy, no older than maybe 17. Covered in blood. The people. The ruined metal, the strange path. You shake your head of it all and try and relax by the fire as it comes to life, slowly at first, catching over time and soon the warmth basks you in its warm embrace.</t>
+  </si>
+  <si>
     <t>The Creator and The Smith</t>
   </si>
   <si>
+    <t>You enter a dingy looking house where the floors are crumbling, the walls have holes in them, and the roof looks like it has seen better days.&lt;br /&gt; &lt;br /&gt; There are no lights, except for the fireplace at the end of a hall that illuminates a room.&lt;br /&gt; &lt;br /&gt; As you enter the room, you see two chairs, with a man sitting in one. “Come child.” You seem the man raise a bottle and take a long drink. “Let me tell you a story.”&lt;br /&gt; &lt;br /&gt; You cautiously walk over to the empty chair and sit, you see, through the light of the fire in the dark room a grizzled man. He might be somewhere in his forties. His hair is long and shaggy, his beard is unkept and he has the face of a man who has seen his own fair share of horrors.&lt;br /&gt; &lt;br /&gt; “I was once like you. An adventurer. I traveled the lands, the planes, the depths of depravity.”&lt;br /&gt; &lt;br /&gt; He lets his voice trail off into the silence of the room. The fire crackles and fills the silence as the wood begins to collapse. He leans forward and grabs an iron poker and pokes the fire to shift the log and keep the warmth.&lt;br /&gt; &lt;br /&gt; “You have heard of The Creator, no? He was once a child of these lands. A child corrupted by the memories of his own past. A child who entered these lands. Last, I am of the organization known as the Red Hawks. My father before me was one, his father and so on.”&lt;br /&gt; &lt;br /&gt; He looks over at you and looks right through you. His gaze never leaves your face.&lt;br /&gt; &lt;br /&gt; “He should have died. He was broken, he has left us all broken. The fracturing of this world is his own making. Not even the Poet could save him. Alas he was eventually locked in a nightmare of his own making, Purgatory.”&lt;br /&gt; &lt;br /&gt; He goes silent again and drinks from his bottle. He offers you some, but you shake your head.&lt;br /&gt; &lt;br /&gt; “Why have you come to me? What can I offer you?”</t>
+  </si>
+  <si>
+    <t>“So, you have come here for the story.” He looks deep into the flames as they crackle and whisper on the nights chilly air.&lt;br /&gt; &lt;br /&gt; “It is said, long ago, that when the child, as you know him now: The Creator, was supposed to ascend into the light – his own demons corrupted his mind, and he could not ascend. He could not let go of the hate, the pain, the memories were real, they haunted him. The blood, the screams, the death of his own mortality.”&lt;br /&gt; &lt;br /&gt; He looks over at you and asks: “Do you know that this is not your reality?” He does not let you answer and shakes his head. “Of course, not child, you are as lost as he was. Alas maybe you will ascend.”&lt;br /&gt; &lt;br /&gt; “It was not so for the child, for he remembered. It was all The Poet could do, was to lock him into Purgatory. A place the child created in his nightmares. How the smith came to be, I have no idea. It is said, least it is rumoured that The Smith is the child’s creation.”&lt;br /&gt; &lt;br /&gt; He looks at his bottle, mostly empty now. A few drops remain.&lt;br /&gt; &lt;br /&gt; “Child, that is all I know. Seek out others for the answers to your questions.”</t>
+  </si>
+  <si>
     <t>Smithies tools of the trade</t>
   </si>
   <si>
+    <t>Smith's Hammer</t>
+  </si>
+  <si>
+    <t>Smith's Iron Chunks</t>
+  </si>
+  <si>
+    <t>You have your mission in hand from the Drunken Adventurer. You head down to the labyrinths and seek out the one man you know who might have more answers. The master of the dungeons.&lt;br /&gt; &lt;br /&gt; Traveling and searching you find him standing in the shadows of the ruins of an old entrance to one of the many labyrinths in this world.&lt;br /&gt; &lt;br /&gt; “Child, you have come. Come seeking the answers. You need the tools of the trade for me to speak. I shall send you on a quest to find them. Only with them shall I tell you the story of the tools.”</t>
+  </si>
+  <si>
+    <t>You found the tools, rusted, broken, useless to you. But not to the one who seeks them out. As you approach the master of dungeons again you see him sitting I the same spot. His is bloody and broken. What has happened here.&lt;br /&gt; &lt;br /&gt; “You are too close to the tale, too close to the truth, too close to reality child.” He manages to get out amongst the coughing up of blood.&lt;br /&gt; &lt;br /&gt; “He knows what you seek, he sees you in his mind, feels you with every step you take, hears your thoughts.”&lt;br /&gt; &lt;br /&gt; It is in that moment that you see the visions. The blood, the child, The Poet. You hear the words spoken.&lt;br /&gt; &lt;br /&gt; “Child, you are not of this land, your blood is dried. Where do you come from child?” The child does not answer, he looks around, he sees the world, a ruin of a memory. He seeks out his own pain and torment. It haunts him.&lt;br /&gt; &lt;br /&gt; Another vision races through your mind, an older man looks at you with his faceless eyes.&lt;br /&gt; &lt;br /&gt; “You seek the smith. The smith will not help you. He is not your friend; he is my creation. His world is my own making.”&lt;br /&gt; &lt;br /&gt; Darkness engulfs you, washing over you, blackness.&lt;br /&gt; &lt;br /&gt; “Child!” A voice comes from the darkness. You snap back to reality.&lt;br /&gt; &lt;br /&gt; “You were lost in the mind of The Creator. He knows….”</t>
+  </si>
+  <si>
     <t>Candles in the dark</t>
   </si>
   <si>
+    <t>Broken Smith's Anvil</t>
+  </si>
+  <si>
+    <t>Smith's Dying Ember</t>
+  </si>
+  <si>
+    <t>You stay by the Dungeon Masters side for a moment longer, he is sleeping, his wounds are great. Where did they come from, was it The Creator?&lt;br /&gt; &lt;br /&gt; You head out and seek out the other man who might have more riddles, everyone seems to speak in riddles. There is never a sure answer, tales of old and visions of death. Death haunts you.&lt;br /&gt; &lt;br /&gt; You head over to where you think the Candle Maker would be. His scholarly thoughts on the subject are what you seek out. Alas, you know you need to arrive with something, the last thing the master of dungeons said to you was you need more tools. Where do you find these tools, more tools of the Smith. Who is the Smith? A creator, a creation, a …. Delusion of a broken child in a broken world trapped in his own nightmare.</t>
+  </si>
+  <si>
+    <t>With the tools in hand, you head to the Candle Maker.&lt;br /&gt; &lt;br /&gt; “Child, it has been ages, where have you been, where do your adventures take you?”&lt;br /&gt; &lt;br /&gt; You tell him of the Drunken Adventurer, the Dungeon Master, and his wounds. You tell him of the visions, the story you were told.&lt;br /&gt; &lt;br /&gt; “I see, you seek the answers. Who are you? Where do you come from?”&lt;br /&gt; &lt;br /&gt; You nod and pray he has answers to give you in less riddle laced words.&lt;br /&gt; &lt;br /&gt; “You spoke to the last of the Red Hawks. You saw the wrath of The Creator. He does not want you to know the truth. I shall tell you. I shall create a candle for you that will light the way through the darkness of this world.”&lt;br /&gt; &lt;br /&gt; He begins the crafting process, and you wait for his words to continue, for the truth.&lt;br /&gt; &lt;br /&gt; “It is true, The Purgatory Smith is his creation. He needed … a friend. Trapped in his own nightmare he conjured up a being to create him the chains, a mythical set of armour and weapons to fight back against the demons of his making. The very ones that haunted him. The truth is child. The Creator was once known simply as The Child. The Child and The Poet. He came to this land after he …”&lt;br /&gt; &lt;br /&gt; His voice trails off.&lt;br /&gt; &lt;br /&gt; “I cannot say it. You must seek the answers from elsewhere, I am sorry. The words are too horrific to speak.”</t>
+  </si>
+  <si>
     <t>The curse of the Church</t>
   </si>
   <si>
+    <t>Vial of Water from the well of the Smith</t>
+  </si>
+  <si>
+    <t>Purgatory's Cursed Candle</t>
+  </si>
+  <si>
+    <t>You have heard of stories of The Church, how it became corrupted, but you do not know the specifics, and it might have something to do with The Creator and how he came to be in this world. The Child and The Poet. Sounds like the title of some book, some fantastical tale.&lt;br /&gt; &lt;br /&gt; You know in your heart the truth of the matter; something brought The Creator to these lands. Something, horrific. What was it? Do the answers lie in the story of the Corrupted Church?&lt;br /&gt; &lt;br /&gt; You know you need something, something to give to the Candle Maker. What could it be? He won’t speak with you without the items. You know your task.</t>
+  </si>
+  <si>
+    <t>You arrive back at the Candle Maker with the items in hand.&lt;br /&gt; &lt;br /&gt; “I will tell, you of the curse of The Church.”&lt;br /&gt; &lt;br /&gt; He takes the items from you and begins his process.&lt;br /&gt; &lt;br /&gt; “It starts with heresy, some priests that delved into the magics of Alchemy went too far, they delved into the magics of Witchcraft. Dark and twisting magics. Magics full of hate, depravity, corruption. They sacrificed the children they defiled with their own hands.”&lt;br /&gt; &lt;br /&gt; His voice trails off. You can imagine the torment, the screams, the pain. You wash your mind of the thoughts.&lt;br /&gt; &lt;br /&gt; “It ends with terrible magic that they released into their holy candles, corrupting their own Holy Warriors. It ends with death, blood, and eviscerations. The Church tried to burn out the wicked creations, but the corruption spread across the various churches, spread across the faith. It is said their one true God looked upon them with shame, for they have corrupted their true and holy beliefs in the heresy of that dreaded magic and their sinful sacrifices and depravity.”&lt;br /&gt; &lt;br /&gt; He hands you the candle he has crafted.&lt;br /&gt; &lt;br /&gt; “This child is one such item, one such candle that uses the dark teachings. Do not ask me to create this for you again. It has taken its own toll on me.”</t>
+  </si>
+  <si>
     <t>Into the House</t>
   </si>
   <si>
+    <t>Bag of Transformation</t>
+  </si>
+  <si>
+    <t>Purgatory Smith's House Key</t>
+  </si>
+  <si>
+    <t>The shadows of the land move around you. The depths of hate, the despair of the voices, the out reaching hands in the night seek your mind, your heart.&lt;br /&gt; &lt;br /&gt; You awaken in the middle of the day, or what can pass as day here, it’s all grey, It’s too quiet.&lt;br /&gt; &lt;br /&gt; You see the figure in front of you, a figure you know. The Shade Lord. His minions make up his figure, they crawl, shimmer, wriggle and move amongst themselves. His voice penetrates your thoughts, your mind, your very being:&lt;br /&gt; &lt;br /&gt; “Child, I seek the tools to give you the key. I know you seek the house. The house holds the door.”&lt;br /&gt; &lt;br /&gt; The door, what door?&lt;br /&gt; &lt;br /&gt; Like that he is gone, the shadows have dispersed, the feeling of death escapes your breath.&lt;br /&gt; &lt;br /&gt; You awaken and look around. It is night. There are no stars, just darkness, the dying light of your fire barley illuminates the land around you.</t>
+  </si>
+  <si>
+    <t>With the bag in hand, you stalk the lands of the shadows. You seek the key; you seek the answers. You have come this far, suffered through too much flowery riddle laced speech to turn back now.&lt;br /&gt; &lt;br /&gt; The shadows gather around you, enveloping you. Creating a circle around you. A void fills your heart, the images of death, the sounds of screams, you see it, the blood covered wall. The body on the floor. A strange metal object in one hand.&lt;br /&gt; &lt;br /&gt; The images change, an old man walks with a child who is crying, a priest. A dark lit hallway, the priest leads the child to a room, stands behind him, slits his throat, the blood falls from the neck to the floor.&lt;br /&gt; &lt;br /&gt; Another image, a child is crying, he is on the ground, the sound of screaming, the voice that penetrates the darkness: “He has not ascended.”&lt;br /&gt; &lt;br /&gt; A key appears on the ground, the bag in your hand is gone. The shadows are gone. Three images, three instances of death. The key is the answer.</t>
+  </si>
+  <si>
     <t>Gobbies and Kings</t>
   </si>
   <si>
+    <t>King's Book of Hope</t>
+  </si>
+  <si>
+    <t>You just managed to kill the last of the creatures that you were stalking for over two days when you see, what you presume to be another of these creatures, stalking to permitter of your slaughter fest.&lt;br /&gt; &lt;br /&gt; Keeping your eyes sharp, focusing on your breathing, and willing the magic forth, you are about to annihilate the entity before you before you hear the familiar shrieky voice. “It’s me! Don’t shoot!”&lt;br /&gt; &lt;br /&gt; The Goblin steps closer into view, you can see clearly now that this is not yet another creature stalking you for the hunt.&lt;br /&gt; &lt;br /&gt; You ask The Goblin what he’s doing out here. “Scavenging. It’s part of what me and my people do. We scavenge the bodies of the dead, the bodies your lot leaves behind.”&lt;br /&gt; &lt;br /&gt; The Goblin stops for a moment and looks down at one of the dead. “He’s holding a book.” The Goblin grabs the book from the corpses body and starts flipping the pages. You move close to investigate as well, but The Goblin pulls the book towards his chest. “You want it, you pay me.”</t>
+  </si>
+  <si>
+    <t>You sigh and hand over the currency and he hands you the book.&lt;br /&gt; &lt;br /&gt; “It has something to do with kings.” The Goblin states looking puzzled.&lt;br /&gt; &lt;br /&gt; You begin to flip through the book itself and realize that this is a guide on settling kingdoms, it seems that by reading this book and using the knowledge with in you can become better at your kingmanship ability.&lt;br /&gt; &lt;br /&gt; “Land ownership and loyalty of the subjects. Are you going to settle somewhere child and live out your days peacefully?” The Goblin asks.</t>
+  </si>
+  <si>
     <t>Move with the wind</t>
   </si>
   <si>
+    <t>Feathers of the sky</t>
+  </si>
+  <si>
+    <t>“Can you feel that?” The Goblin asks as the two of you sit under a tree in the cool autumn evening. “The wind. It moves effortlessly through the trees. It carries the smells of cooking, the land, the people. It carries memories, stories, and lost youths.”&lt;br /&gt; &lt;br /&gt; The Goblin stared out into the distance while you just stared at him. Pondering your own existence. You join his gaze, somewhere far off into the distance, nowhere in particular.&lt;br /&gt; &lt;br /&gt; That’s when you heard the cries. Someone is crying.</t>
+  </si>
+  <si>
+    <t>You ask the Goblin if he hears anything. “Nothing.” He states after a moment of listening.&lt;br /&gt; &lt;br /&gt; “Although….” He begins. “There are stories of the wind carrying the demons of our past. The wind follows us wherever we go you see. Sometimes it pushes us forward, sometimes it pushes us backwards and we must fight tooth and nail to push through.”&lt;br /&gt; &lt;br /&gt; He paused for a moment and then laughed. “It’s the wind child, not some deep meaning philosophical existential … THING…. or whatever, that needs to be examined. Just enjoy the breeze.”&lt;br /&gt; &lt;br /&gt; You sat back and let the wind wash over you, gentle, calming, cool and refreshing. The Goblin was right, you were over thinking this, it’s the killing, all the blood, all the gore, all the death – it’s getting you.</t>
+  </si>
+  <si>
     <t>Story of the wind</t>
   </si>
   <si>
-    <t>There is a story, as old as time its self about the winds of Tlessa. Some say they are magically enchanted with The Creators blessings, others say the magic of the winds is the remnants of the Entity who first created Tlessa. Noe on can say for sure, but one thing can be said, the magic of the wind is fading. I have recored the secrets of the wind in this tome, but I won't part with it for free.&lt;br /&gt; &lt;br /&gt; I don't know the Story of the wind, even The Guide does not know the story. I tried asking him once, but he slipped into a silence and the conversation just went away, his eyes seemed lost in the context of historical musings. When he did speak, it was simple, efficient and quick: "I know not of what you speak Goblin."</t>
-  </si>
-  <si>
-    <t>Child! I found a snippit of information on this so called: Story of the wind. Listen!&lt;br /&gt; &lt;br /&gt; "Long before The Creator, before even that which remains unnamed, A woman walked, clad in red plate with the insignia of a Lion, the lands of Tlessa. She had no way of accessing the Labyrinth plane in which her lover was trapped on. How this came to be, is unknown, but what is known is that she conjured the Winds of Time and Fate to rip open a fissure to the Labyrinth to rescue her beloved. "&lt;br /&gt; &lt;br /&gt; After she walked through and the fissure closed behind her, there was a loud clap of energy that was released through the winds, granting them speed and efficiency, people seemed to move faster, be stronger, hit better. But these days, as I said before, this enchantment seems to be fading and the knowledge I do have to share is written here in this book.</t>
+    <t>Tome of the Winds</t>
+  </si>
+  <si>
+    <t>Book of speed</t>
+  </si>
+  <si>
+    <t>You come across The Goblin on your travels. “Hello Child!” he seems eager to see you.&lt;br /&gt; &lt;br /&gt; “Have you seen the sky?” He looks up, your gaze follows his. Clouds of white that dot across the blue sky. He takes his time gazing up at the clouds, some are poofy and white, others are whisps of themselves moving effortlessly through the sky, pushed by an invisible guiding hand, never letting a cloud stray too far behind.&lt;br /&gt; &lt;br /&gt; “They say The Creator” lives in the sky. Like heaven? You ask. “No. Not like that. Different.”&lt;br /&gt; &lt;br /&gt; A cold wind blows by the both of you.</t>
+  </si>
+  <si>
+    <t>“I was told a story as a small child.” The Goblin began as the two of you laid in an open field down on a shabby blanket The Goblin produced. The two of you stared up at the sky watching the clouds.&lt;br /&gt; &lt;br /&gt; “I was told that The Creator, after he left his home world Purgatory, went to The Sky, and never came down. It is said he has a majestic throne and from it he can see all the people of all the lands.”&lt;br /&gt; &lt;br /&gt; As The Goblin spoke a sharp twinge takes over you. A thought, a memory, a voice. Something that wasn’t there creeping its way back in. A bang, a loud an indescribable bang.&lt;br /&gt; &lt;br /&gt; “Are you ok?” The Goblin asks looking at you with a puzzled look on his face. “You look in pain.”</t>
   </si>
   <si>
     <t>Sky is where the dragons live</t>
   </si>
   <si>
+    <t>Sky Dragon's Blood Vial</t>
+  </si>
+  <si>
+    <t>You arrive at a camp that looks as if it was a bandit camp. Dead bodies lie by the fire, their throats slit. Who could have done this? Your thoughts try and form substance of the carnage before you. That’s when you hear the familiar voice.&lt;br /&gt; &lt;br /&gt; “Oh, hey there! Did I ever tell you about Dragons? They used to roam this land.”&lt;br /&gt; &lt;br /&gt; The Goblin comes walking over the top of the hill and settles a sack next to the bodies. He starts pillaging their corpses, looking for anything f value. He looks up at you, as if he already understands the questions you have.&lt;br /&gt; &lt;br /&gt; “No, I didn’t kill these people. However, I do have something I found if you have that Book, I gave you.”</t>
+  </si>
+  <si>
+    <t>You ask The Goblin about the Dragons and the Sky.&lt;br /&gt; &lt;br /&gt; “The Creator created guardians that guard the entrance to the Sky. They are supposed to be four great and powerful Dragons.”&lt;br /&gt; &lt;br /&gt; You ponder for a moment, the adventurer in you eager to set out in anticipation of slaughtering your foe and entering a new and forbidding land.&lt;br /&gt; &lt;br /&gt; Just as your imagination starts to form images of treasure and new creatures to test your strength against The Goblin interrupts you.&lt;br /&gt; &lt;br /&gt; “These are just stories. There is no portal to the sky. My Grandmother use to tell me these stories and she was an old hag.”&lt;br /&gt; &lt;br /&gt; Stories though, you ponder, have truth, even just a grain to them.</t>
+  </si>
+  <si>
     <t>The Wizards Enchantment</t>
   </si>
   <si>
+    <t>The Wizard's Enchantment</t>
+  </si>
+  <si>
+    <t>You see The Goblin up the road talking to a man dressed in clean red flowing robes. His bear is as white and long as any wizard you have ever imagined.&lt;br /&gt; &lt;br /&gt; The Goblin sees you and waves you down, as you approach The Goblin introduces you.&lt;br /&gt; &lt;br /&gt; “Gadal, this is my friend. Friend, this is the wise wizard Gadal.”&lt;br /&gt; &lt;br /&gt; Gadal takes a moment to assess you, he starts you up and down inspecting your gear, allowing the enchantments and magic of your gear to flow through his being. As if he is absorbing and draining the power away.&lt;br /&gt; &lt;br /&gt; “Gadal.” The Goblin begins, while looking up at you “was Selling me some shiny objects and I have a shiny new object for you.”&lt;br /&gt; &lt;br /&gt; You look over at Gadal and ask him about Guardians and Sky Portals. Almost completely ignoring the goblin while handing him the item he wants.&lt;br /&gt; &lt;br /&gt; “Those were just stories!” The Goblin states with annoyance in his voice.</t>
+  </si>
+  <si>
+    <t>Gadal looks over at you and then back to The Goblin. He ponders for a moment how much he should say or if he should say anything at all. Finally, after a moment of hesitation he speaks with a soft, yet older voice that speaks of wisdom, years of strife laced with happiness and the twinge of pain generated by sacrifice.&lt;br /&gt; &lt;br /&gt; “I know of these Gaurdians: Kalitar, Hazix, Deetix and Vassel” He pauses to cough in to a hankerchief. He pulls it away from his mouth, its spattered with blood. “Age gets us all child.” He states after a moment.&lt;br /&gt; &lt;br /&gt; “Gadal, do not tire yourself out with this fables and stories.” The Goblin states looking worried at who you presume to be is a close friend of his, or at least acquaintance The Goblin can sell his junk to. Either way The Goblin obviously cares for this haggard, yet well-dressed old man.&lt;br /&gt; &lt;br /&gt; “I know of these – Cough – because – Cough- I created the damn things …” He continues in his coughing fit for a moment more. “That vial, is their blood. The one The Goblin gave you. It does nothing for you now, but one day if you manage to find the hidden library – you might be able to get the answers you need.” He continues to cough, more violently this time.&lt;br /&gt; &lt;br /&gt; The Goblin helps him over to a nearby boulder to sit and drink from the Flask the goblin was offering.&lt;br /&gt; &lt;br /&gt; Dragon’s blood, portals and guardians. The only other confusing aspect of all of this is the bang.</t>
+  </si>
+  <si>
     <t>Lost Arrow</t>
   </si>
   <si>
-    <t>“I have a magically enchanted arrow for you, have you heard of the Heart of the Eye? If you find that I can give you this arrow!”&lt;br /&gt; &lt;br /&gt; The goblin has a large smile on his face. Is this a scam, a trick? Should you just slaughter the poor innocent creature right here and now?&lt;br /&gt; &lt;br /&gt; You shudder a bit as you let these dark thoughts wash over you. Too much killing you think. You nod and tell him you will find the item.</t>
-  </si>
-  <si>
-    <t>“Here you go!” The goblin states as he hands you the “Lost arrow.”&lt;br /&gt; &lt;br /&gt; He stares at his shiny new toy as you stare at a stick with feathers on it. You are about to ram it through his neck when you feel the energy coursing through it. You can’t quite tell what that energy is, but you know it is magical.&lt;br /&gt; &lt;br /&gt; Goblin gets to live another day.</t>
+    <t>Heart of the Eye</t>
+  </si>
+  <si>
+    <t>Arrow of Truth</t>
+  </si>
+  <si>
+    <t>“Hey there!” The Goblin waves you down on your travels. He seems less scared of you and even glad to see you. Must be because you decided to help him as opposed to eviscerate him and leave his entrails for the crows to feast on.&lt;br /&gt; &lt;br /&gt; The very thoughts that race through your mind every now and then scare you. Like the one you just had now, the vivid, graphic depictions of a dead goblin.&lt;br /&gt; &lt;br /&gt; The Goblin gets closer and asks you “Do you have a shiny object called “Heart of the Eye”?”</t>
+  </si>
+  <si>
+    <t>You hand over The Heart of the Eye and The Goblin smiles. “Here take this arrow for it” you start to protest, but something about the arrow draws you attention towards it. You reach out and take the arrow from The Goblin.&lt;br /&gt; &lt;br /&gt; There is a strange magic, a presence, a feeling. It’s like something about your life is about to get easier, over time of course, but almost quicker.</t>
   </si>
   <si>
     <t>Goblins Goddess</t>
   </si>
   <si>
-    <t>“Hey! Do you still have that arrow, give it here and I’ll give you a bow!” The goblin beckons in the familiar shrieky voice.&lt;br /&gt; &lt;br /&gt; You walk over to him and ask him about this bow.&lt;br /&gt; &lt;br /&gt; “We gobbies have a goddess who guides and protects us. It is said that with this bow a king was once able to slaughter hundreds of his foes with a single arrow. Magic is what it was, and I can give you that magic if you give me the arrow.”&lt;br /&gt; &lt;br /&gt; You ask him why he would give you a bow that is apparently a spiritual and religious holy object among his people.&lt;br /&gt; &lt;br /&gt; “Because the feral beasts that call themselves goblins have forgotten what our true mission was here. To prosper and trade with the local citizens. Instead, my brothers and sisters would rather act like bandits who plunder and kill.”&lt;br /&gt; &lt;br /&gt; He looks at the bow in his hand and adds, “Because you didn’t kill me.”</t>
-  </si>
-  <si>
-    <t>Handing over the arrow the goblin gives you the bow. Immediately you feel a Prescence wash over you, through you and to the core of your being. Warm, inviting, safe.&lt;br /&gt; &lt;br /&gt; You thank the goblin for the item and head on your way. Not much use in battle, but that feeling you have is ecstatically illuminating in the depths of your deprived mind. Filled with the darkness of death.</t>
+    <t>Goddess Bow of Light</t>
+  </si>
+  <si>
+    <t>Traveling along the road you spot a familiar shabby looking creature in the bushes. You call out to the creature and ask what they are doing. A smile on your face, less evisceration fantasies and more happy thoughts to see a familiar friendly face in this terrifying and scary world where you feel almost useless.&lt;br /&gt; &lt;br /&gt; “Oh Child!” The Goblin calls out as he jumps from the bushes on to your path. He is holding a bloody and broken mace. It’s almost taller than him. Behind him you see a trail of blood, following it leads you to the bushes where you see a dead pirate in the bushes.&lt;br /&gt; &lt;br /&gt; “He said he had a thing for …. Little people, like me.”&lt;br /&gt; &lt;br /&gt; You look again and see the pirates head bashed in, brain matter, blood. His face is unrecognizable. For a small little creature this goblin packs a punch.&lt;br /&gt; &lt;br /&gt; “Do you have that arrow I gave you? I have a bow for you.”&lt;br /&gt; &lt;br /&gt; A bow, what would you want with a bow?</t>
+  </si>
+  <si>
+    <t>You give The Goblin the arrow and he trades you the bow. It looks broken, shabby, and neglected. You ask him why you would want this when a sharp sensation washes over you.&lt;br /&gt; &lt;br /&gt; You feel a silence in your mind, the darkness replaced with the beaming and shining brilliant light of hope, dreams, aspirations and then the darkness comes. A knife in the heart, a sadness that overtakes and breathless gasp of air that never seems enough to fill the lungs of a dying man.&lt;br /&gt; &lt;br /&gt; You hear the bang as loud and clear as day.&lt;br /&gt; &lt;br /&gt; “You, ok?” Asks The Goblin after a moment.&lt;br /&gt; &lt;br /&gt; You snap back to reality. You have no idea what that was about, but you suddenly know that aiming is now becoming easier.</t>
   </si>
   <si>
     <t>Goblins Accuracy</t>
   </si>
   <si>
-    <t>You see the goblin the middle of nowhere and ask him if has any new shiny objects.&lt;br /&gt; &lt;br /&gt; “I don’t but I do have a book if you want to trade the bow back?”&lt;br /&gt; &lt;br /&gt; You look at him and shake your head, there’s no use for a book when you have a magically enchanted goddess bow.&lt;br /&gt; &lt;br /&gt; “It has secrets in your tongue, secrets about ….” The goblin stops short of himself and looks at his feet. He refuses to look up, but does out stretch his arms, in a small whimper he states: “Want to trade?”</t>
-  </si>
-  <si>
-    <t>Could this be it? Could this be the answers you need? You make the trade with the goblin and bid him a good day. Walking away you start to feverishly flip through the pages.&lt;br /&gt; &lt;br /&gt; It’s been weeks you have been searching for how exactly you got here. You were born in a village somewhere. However, the adventures around your “world” seem to point to tear. That, and everyone is so obsessed with this “The Creator” person …&lt;br /&gt; &lt;br /&gt; “The Creator …” everywhere, sentences, paragraphs, you read far too fast, far too much, can’t comprehend in your thirst, trying to absorb as much as if you fear the book might fade away. Alas the words start to move:&lt;br /&gt; &lt;br /&gt; “The Creator created the world of Tlessa after his escape from Purgatory, some state that there was an elder god before him who molded the world …. “&lt;br /&gt; &lt;br /&gt; Into:&lt;br /&gt; &lt;br /&gt; “The art of the aim is to hold your weapon steady…”&lt;br /&gt; &lt;br /&gt; No! The truth was before you, now it is gone. Why? Why hides the truth? Who are you? Who is The Creator! You scream in your head in frustration!</t>
+    <t>The Book of Guidance</t>
+  </si>
+  <si>
+    <t>Sitting by a river you are enjoying an afternoon of silence, peace and quiet. You haven’t thought about the terrifying sensations, feeling, and thoughts you had when you picked up this mysterious bow from The Goblin, but you have managed to start hitting things better.&lt;br /&gt; &lt;br /&gt; “Child!” Comes a familiar voice. You turn around and see The Goblin standing there with a book.&lt;br /&gt; &lt;br /&gt; “Can I have that old bow back in favour of this book? It will teach you more about Accuracy.”</t>
+  </si>
+  <si>
+    <t>You didn’t want to hand the bow over, alas you were sure that the strange feelings and the worrying some thoughts that plague you would dissipate over time if you handed the bow back.&lt;br /&gt; &lt;br /&gt; You agreed and now you have a book, a simple nondescript book that teaches you all about Accuracy.</t>
   </si>
   <si>
     <t>Kings and Queens</t>
   </si>
   <si>
+    <t>Settler's Walking Stick</t>
+  </si>
+  <si>
+    <t>Out on your travels, flipping through and reading the book you got from The Goblin, who in turn found it on a corpse you had killed. The gull he had to charge you for your own loot. No need to fret over it now, you think. Money is always easy to earn.&lt;br /&gt; &lt;br /&gt; “Do you like my walking stick?” A voice comes from behind you startling you. You turn around and see The Goblin standing there with a crooked, bent walking stick made of oak. Its smooth, shiny and has a grip near the top. It’s much larger than The Goblin who holds it from the middle.&lt;br /&gt; &lt;br /&gt; You tell him to never sneak up on you again and manage to also ask where he got the stick.&lt;br /&gt; &lt;br /&gt; “I got it from a dead settler. He walked into town one day, tripped on his own shoe and bashed his head open. Bled out and died right there.”&lt;br /&gt; &lt;br /&gt; Clumsy as they may be, you have read that settler’s should never be sent alone to a kingdom, for this exact reason.&lt;br /&gt; &lt;br /&gt; “Do you want the stick? I want the book!”</t>
+  </si>
+  <si>
+    <t>You hand over the book and take hold of the walking stick. You can already feel the inspiration, the knowledge, it’s as if you already know how to be a king, or even a queen or both!&lt;br /&gt; &lt;br /&gt; You study the stick for a moment before looking down at The Goblin who is flipping the pages of the book. “This will make for good reading. I never got to read it last time, you were quick with the currencies.”&lt;br /&gt; &lt;br /&gt; You stop for a moment to ponder if goblins can even read all the ones, you have met have been blood thirsty little pests best stomped off the face of this planet. He seems lost in the book. Your curiosity strikes you and you ask if he even understands the words.&lt;br /&gt; &lt;br /&gt; “Of course, I do! My grandmother taught me to read thank you very much!” He seems offended and starts to walk away mumbling to himself about ignorant people.</t>
+  </si>
+  <si>
     <t>Take a walk</t>
   </si>
   <si>
+    <t>King's Scepter</t>
+  </si>
+  <si>
+    <t>Exploring an abandoned kingdom for loot and treasure, you stumble across a room off the great hall. Its dusty, old, neglected and the walls are starting to peel and grow mold upon them. This kingdom, its people, abandoned – for no reason other than the journal entry you found I what you assume is the kings meeting room where his advisors would join to discuss the happenings of the kingdom.&lt;br /&gt; &lt;br /&gt; The journal entry only stated that the “King is tired of his subjects, and has chosen to head off into the wilderness, it’s been months and there has been no sign. The kingdom falls into ruin and neglect and the people leave.”&lt;br /&gt; &lt;br /&gt; It seems easy to settle a new kingdom, and even easier to just abandon it to nature and her ability to reclaim what man had once made theirs.&lt;br /&gt; &lt;br /&gt; You continue to investigate the old musty and dirty room. You hear movement down the hall and slowly, cautiously make your way down the long hallway. Peering into one of the rooms where the noise seems to be emanating from you see The Goblin rummaging through the boxes and garbage for anything of value.&lt;br /&gt; &lt;br /&gt; You tap on the door and startle The Goblin who turns around, dagger raised and states “My God Child! Do you always sneak up on people like that?”&lt;br /&gt; &lt;br /&gt; Before you can answer he pulls out metal rod from the garbage. “They thought they could hide this well, alas they hid it among garbage.”</t>
+  </si>
+  <si>
+    <t>You ask The Goblin what it is, and he replies “It’s a scepter. It has magic, it was used by the king of this place to command his subjects, his armies, and every aspect of the kingdom. It is said to imbue the person with the kingliness of the gods.”&lt;br /&gt; &lt;br /&gt; The Goblin pauses, pulls out his book that he originally sold you and flips a few pages. “Here it is.” He states after a moment.&lt;br /&gt; &lt;br /&gt; “Those who wield the scepter, are blessed with the knowledge of how to rule a kingdom. Over time they learn the values of listening to their subjects and learn the lesson that is often the hardest to understand. Sometimes it’s better to do nothing than to do anything.”&lt;br /&gt; &lt;br /&gt; The Goblin pauses, looks up at you and with no emotion or expression states, “Whatever that means.”</t>
+  </si>
+  <si>
     <t>Leading Armies</t>
   </si>
   <si>
+    <t>King's Ring</t>
+  </si>
+  <si>
+    <t>Walking with The Goblin through the courtyard of the abandoned kingdom you both see a body that you didn’t see before. Perhaps because you took a different route into the kingdom, or perhaps because you were not paying attention. Either way you both stop dead in your tracks. You see the robes, the clothing – it’s elegant, relatively clean. The boots on the body are glowing with magic.&lt;br /&gt; &lt;br /&gt; Was this another adventurer, killed in this kingdom?&lt;br /&gt; &lt;br /&gt; You get closer and see the body lying. On the grown, the mud is soaked with the stains of blood, most of which has dried. He has been dead for weeks. The Goblin spots something shiny and removes his dagger from his belt. He kneels and with a sawing motion removes something from the corpse.&lt;br /&gt; &lt;br /&gt; “A shiny ring!”&lt;br /&gt; &lt;br /&gt; A bit grotesque, but you are known to eviscerate your enemies, leaving their entrails exposed from the birds and other creatures that pass through.&lt;br /&gt; &lt;br /&gt; “A trade, scepter for the ring?”</t>
+  </si>
+  <si>
+    <t>You ask the goblin why there is a body here, in the middle of the courtyard. Looking around there are no other bodies.&lt;br /&gt; &lt;br /&gt; “Chances are this is the king. I have a feeling that the people revolted against him when he tried to abandon them.”&lt;br /&gt; &lt;br /&gt; You explain about the journal entry you had found which stated that the King just left.&lt;br /&gt; &lt;br /&gt; “Sometimes, in rare instances, people will track down their king and drag them back, put them on trial, kill them publicly and move on from the kingdom.”&lt;br /&gt; &lt;br /&gt; A brutal world for sure.&lt;br /&gt; &lt;br /&gt; “However.” The Goblin begins again.&lt;br /&gt; &lt;br /&gt; “In most cases the people just leave the kingdom, if there is no king or no new one comes to the throne the kingdom will fall into neglect. The Old Man will take it. He likes to collect things like I do.”&lt;br /&gt; &lt;br /&gt; The Old Man … You have heard this name before, an echo in your mind.</t>
+  </si>
+  <si>
     <t>Alchemist Scrolls</t>
   </si>
   <si>
+    <t>You have been investigating the art of Alchemy for some time now. The book The Witch gave you only goes so far, you crave more knowledge on the subject and alas find yourself back at her hut seeking more information on the subject, hoping she has something she can offer you.&lt;br /&gt; &lt;br /&gt; “Of course, child, I always have the thing you seek. Come, sit for a moment while I find the scrolls.”</t>
+  </si>
+  <si>
+    <t>She hands you s set of scrolls, musty, slightly ripped in some areas. The knowledge within will help you greatly in crafting items that destroy your enemies’ lands, apply what you have learned to be boons to yourself through the mixture reagents and even create special oils.&lt;br /&gt; &lt;br /&gt; You thank The Witch and leave the hut with your new found knowledge in hand.</t>
+  </si>
+  <si>
     <t>Run forest, run!</t>
   </si>
   <si>
+    <t>Mage's Teleport Scroll</t>
+  </si>
+  <si>
+    <t>Running, faster, further, you can’t seem to escape. Its claws reach for you, slashing, cutting deep into your flesh. The pain is unbearable, and you let out a blood curdling scream. You begin to choke on your own blood. Looking down your insides are half a foot away from your body, the thing just keeps digging. But you keep running, it keeps digging, you keep running – “Child!”&lt;br /&gt; &lt;br /&gt; You awaken to the sights of The Goblin above you holding your feathers he previously gave you. Little thief.</t>
+  </si>
+  <si>
+    <t>“Scary dream huh? I get those sometimes.” He looks down at his feet. The two of you are sitting around a campfire.&lt;br /&gt; &lt;br /&gt; You tell him this isn’t the first nightmare you have had. Something about a bang, a child crying and now this. Whatever the dream was about has you terrified enough to not want to sleep for the rest of the night.&lt;br /&gt; &lt;br /&gt; “I can tell you a story of those feathers.” The Goblin began staring into the small crackling fire.&lt;br /&gt; &lt;br /&gt; “There was a shaman who once asked me to fetch them for him from. Rare bird that only appeared on a mysterious island to the east of here. He opened a portal and through I went. It was like I was on the other side of the planet or something.”&lt;br /&gt; &lt;br /&gt; You asked why the shaman would send him through the portal in the first place. “I told him I wanted to see new and mysterious lands. Anyways, I got the feathers, but when I came back he was nowhere to be seen.”</t>
+  </si>
+  <si>
     <t>Blink of an eye</t>
   </si>
   <si>
+    <t>Goblin's Quickening Rune</t>
+  </si>
+  <si>
+    <t>Stopping by the stream to get some fresh water after a long day of killing creatures and earning much needed notoriety and fame as well as, let’s be honest, coin – you spot The Goblin in the river.&lt;br /&gt; &lt;br /&gt; “I found a rune!” He shouts as he starts to come towards you, wading through the water.&lt;br /&gt; &lt;br /&gt; The river is a slower moving, shallower river. An older child sure of their step and able to wade through the slightly deeper aspects could cross it.</t>
+  </si>
+  <si>
+    <t>You and The Goblin are sitting at the riverbank as he begins to explain the run he found. “I call it a Goblins Rune! I have no idea what it does but that’s what it is!”&lt;br /&gt; &lt;br /&gt; It feels like it has magical properties. Like you want to go somewhere and quickly. “I found it at the bottom of the riverbed while I was fishing for dinner.”&lt;br /&gt; &lt;br /&gt; He seems proud of his find and eager to give it up. Always in search of the next shiny object to sell or trade away. Never satisfied with what he has. It’s as if the endless chase of the shinnies is the passion and motivation he needs to keep living in this dark world.</t>
+  </si>
+  <si>
     <t>Goblins Gift</t>
+  </si>
+  <si>
+    <t>Golden Ring of Blur</t>
+  </si>
+  <si>
+    <t>You draw you’re a weapon and face off against the beast. This time you are prepared. This time you are ready to face these demons, these fears. Whatever it is that haunts you, you are ready to face it.&lt;br /&gt; &lt;br /&gt; “Child, I have a ring for your protection. Quickly move my child to this and that, along the road of dreams and ambitions. Live child live!”&lt;br /&gt; &lt;br /&gt; His voice is a thousand miles away and close to you ate the same time. His form is monstrous and childlike.&lt;br /&gt; &lt;br /&gt; “Quickly child take this!” What’s real and what’s not?</t>
+  </si>
+  <si>
+    <t>You take the shiny thing The Goblin gave you and stare at it, transfixed, lost, metallic and gold, it makes the world feel as if it’s a blur, a dream gone by too quickly, you see The Goblins lips move, the voice is out of sync with reality. With time and space.&lt;br /&gt; &lt;br /&gt; “Put ……It………ON…….” Each word comes through louder and louder, a ringing in your ear! You look at the ring some more, before sliding it on. The ring feels like silk. Within seconds everything snaps back to reality. No beast, no dream, no nothing.&lt;br /&gt; &lt;br /&gt; No one is around.</t>
+  </si>
+  <si>
+    <t>The fight is never over</t>
+  </si>
+  <si>
+    <t>Broken Trinket</t>
+  </si>
+  <si>
+    <t>Shades book of stories</t>
+  </si>
+  <si>
+    <t>Book of Tactics</t>
+  </si>
+  <si>
+    <t>The world around you falls into shadows, the children’s laughter rings in your ears. You remember that laugh, you know it. You feel the shadows cling to you and grasp on to your life. Slowly choking the essence out of you. You can feel the world start to slip away into the endless blackness of the void.&lt;br /&gt; &lt;br /&gt; That’s when you hear the voice.&lt;br /&gt; &lt;br /&gt; “I can feel your soul. It is heavy with ambition. You seek that which you should never fear, but that which is the truth. Where you go from here, how you get out of here is your own making. Alas there are darker places, places where the enemy will ambush your soul, counter your thoughts and destroy you with a single claw of poison.”&lt;br /&gt; &lt;br /&gt; The voice echos, rings and sways on the air as it penetrates your mind. You seem unable to escape the darkness, the voice, the shadows that cling to you.&lt;br /&gt; &lt;br /&gt; The earth seems to be swallowing you whole, the voice continues.&lt;br /&gt; &lt;br /&gt; “bring me that which I seek. I shall give you the truth. Alas there is more then nothing and nothing more then something in the shadows of where you plan to go. You have been there, in the depths of its depravity. Give me what I want.”&lt;br /&gt; &lt;br /&gt; Seconds late the voice is gone, the shadows have receded, the world is gray and dead.</t>
+  </si>
+  <si>
+    <t>You managed to find an old broken trinket and a book. You have delved into the darkness and come back with the coins. Alas the world around you does not fall away, instead a child stands before you. A simple child, a boy no older then twelve.&lt;br /&gt; &lt;br /&gt; He has brown hair, tattered clothes and shoes. His face is dirty, his eyes wide and brown. His hair is messy and falls over his eyes that he sweeps away.&lt;br /&gt; &lt;br /&gt; “Do you have the items I seek?” he asks in his small voice.&lt;br /&gt; &lt;br /&gt; You hand them over and he studies them for a moment.&lt;br /&gt; &lt;br /&gt; “There are things in this world more scary then shades and their children. Terrifying if I might say so my self. I have seen them, the nightmares that haunt my dreams, soon walk the land.”&lt;br /&gt; &lt;br /&gt; He begins to turn from you and walk away.&lt;br /&gt; &lt;br /&gt; “The book there. It has something for you.”&lt;br /&gt; &lt;br /&gt; Then he is gone.</t>
+  </si>
+  <si>
+    <t>The story of Kalix</t>
+  </si>
+  <si>
+    <t>Polished Trinket Tools</t>
+  </si>
+  <si>
+    <t>Rusted Trinket Tools</t>
+  </si>
+  <si>
+    <t>The shadows fill your mind once again, but the fog lifts as the child stands before you.&lt;br /&gt; &lt;br /&gt; “I need a rusty set of tools. Do you have my tools? I lost them long ago in the land of the places where the fowl beasts climb the walls searching for their next prey. Are you that prey?”&lt;br /&gt; &lt;br /&gt; He begins to laugh.&lt;br /&gt; &lt;br /&gt; The sound of his laughter radiates across the land, fills your mind and transports you to another time, another place.&lt;br /&gt; &lt;br /&gt; You are in a place where the halls are lit with torches, there the children cry I the night. This place seems familiar to you. You see the men in their robes, the priests. You must be in The Church, a time when the Federation, the Red hawks. Yes you remember these stories.&lt;br /&gt; &lt;br /&gt; But why are you hear?&lt;br /&gt; &lt;br /&gt; Seconds later you are in a room, a room where the children sleep. You hear the voices.&lt;br /&gt; &lt;br /&gt; “You pissed your self! You’re disgusting. Wait till the priests find …” The sounds of the door opening. The child on the bed with the soiled nightgown shrinks away in fear.&lt;br /&gt; &lt;br /&gt; “What is the noise in this room!”&lt;br /&gt; &lt;br /&gt; “Kalix pissed him self!”&lt;br /&gt; &lt;br /&gt; “Disgusting child!” As the priests marches over and strikes the child on the bed, across the face, again and again and again. He drags him from the bed, kicking and screaming the child is sobbing and trying to resist.&lt;br /&gt; &lt;br /&gt; The world fades and you stand before the Child of the Shade again. He looks at you with his eyes, his child like eyes. You know the truth, alas he only states one thing:&lt;br /&gt; &lt;br /&gt; “Well?”</t>
+  </si>
+  <si>
+    <t>“Do you have what I want or not?” The child states as he looks at you with impatience.&lt;br /&gt; &lt;br /&gt; You ask him about what you saw, you state you will hand over what he seeks after he tells you.&lt;br /&gt; &lt;br /&gt; “I don’t’ have to tell you anything. But I will tell you this. I know The Creator. I knew him back then. I met him in an old abandoned building they once called a “Gas Station”.What ever that is.”&lt;br /&gt; &lt;br /&gt; He pauses and stomps his feet.&lt;br /&gt; &lt;br /&gt; “Give me what I want!”&lt;br /&gt; &lt;br /&gt; You refuse and demands he tells you more of his story, how he know The Creator.&lt;br /&gt; Alas the shadows swarm around you, the world starts to go dark and a moment later you are left with an item and that which you had is now gone.</t>
+  </si>
+  <si>
+    <t>Tears for the pain</t>
+  </si>
+  <si>
+    <t>Lock of hair</t>
+  </si>
+  <si>
+    <t>The Beating Heart</t>
+  </si>
+  <si>
+    <t>You have been searching for the Child of Shade for weeks now. You have dreamed of what you saw, he stated plainly he knew The Creator. Did he know him back when? Did he know of his fall?&lt;br /&gt; &lt;br /&gt; Alas you search the Shadow Plane for days, looking in the darkest of places, calling out for him, even attempting to call out to the shadows, but the land is barren, quiet and empty of all life.&lt;br /&gt; &lt;br /&gt; You want to give up, you feel you will never get the answers you want.</t>
+  </si>
+  <si>
+    <t>“It was a long time ago, a land before this one. A time before this one.”&lt;br /&gt; &lt;br /&gt; The voice awakens you and you sit up. There is a fire where you sleep.&lt;br /&gt; &lt;br /&gt; “The priests, they did things. Things I cannot utter, for they still haunt me. I can tell you this though. They beat us. Beats us to accept the one true god. Beat us in to submission.”&lt;br /&gt; &lt;br /&gt; His voice trails off. The child just looks at you.&lt;br /&gt; &lt;br /&gt; You feel empathy, sympathy. You feel sorry for this child.&lt;br /&gt; &lt;br /&gt; You ask him how he became a shade.&lt;br /&gt; &lt;br /&gt; “it’s a punishment. A punishment for a crime that you cannot commit. A crime committed by others. A crime that locked others away.”&lt;br /&gt; &lt;br /&gt; You wonder if he killed someone, and if he did would it not be in the defense of his own soul, his own body? His own rights?&lt;br /&gt; &lt;br /&gt; “I see you have something. I also have something. Shall we trade?”</t>
+  </si>
+  <si>
+    <t>The final story</t>
+  </si>
+  <si>
+    <t>Locket of the Church</t>
+  </si>
+  <si>
+    <t>Soiled Night Gown</t>
+  </si>
+  <si>
+    <t>You sit in the barren waste land of the shadows. The world is silent, there is no one around for miles, not another soul. The shadows stick to the edges of your vision, far off into the distance.&lt;br /&gt; &lt;br /&gt; You think back to the child, the one you have come to know a bit more about. You remember he told you something, something about The Creator. How they found each other. How they helped each other.&lt;br /&gt; &lt;br /&gt; How they each wallowed in their own misery. It was a story you have heard before in the glimpses of the past, in the truth of what you seek.&lt;br /&gt; &lt;br /&gt; Death lurks around all corners. A piece of the past is what this child clings to, it is what keeps him in the land of the living, traveling through through the substance-less world of the shadows.&lt;br /&gt; &lt;br /&gt; The crime he committed, it rings through your ears. There is only one crime he could have committed. A crime that you suspect another has committed. The crime? Suicide.</t>
+  </si>
+  <si>
+    <t>You walk through the Shadows, the gray barren land. You stand at the shore of the frozen sea. You stare out into the void, You listen to the silence.&lt;br /&gt; &lt;br /&gt; You hold with you the past, the secrets of the past. The soiled night gown.&lt;br /&gt; &lt;br /&gt; “You found it.” Comes a voice from behind you. You turn and see the child.&lt;br /&gt; &lt;br /&gt; “Why do you look at me like that? Sad eyes? Eyes of pity?”&lt;br /&gt; &lt;br /&gt; He knows what weighs on your mind, what burdens your soul, what fills you with grief that you cannot shake.&lt;br /&gt; &lt;br /&gt; “We all make a choice. The pain is less now, the shadows of my mind give me form. The shadows of your mind tell you the truth.”&lt;br /&gt; &lt;br /&gt; He reaches out his hand and you hand over the items.&lt;br /&gt; &lt;br /&gt; “I have one last gift for you. This is not answers, but this is help. Seek out the help when your shadows over whelm you.”</t>
+  </si>
+  <si>
+    <t>Shade Lords Faith</t>
+  </si>
+  <si>
+    <t>Book of Faith</t>
+  </si>
+  <si>
+    <t>Ring of Faith</t>
+  </si>
+  <si>
+    <t>The shadows of the barren waste land cling to the very air you breathe. The days and nights all blend together as shadows of your own fears encircle you and devour the light you hold deep inside to escape the darkness of your own mind.&lt;br /&gt; &lt;br /&gt; You can feel a lumbering presence, once you have felt before. You have encountered these shadows that cling together and form a tall and menacing presence before you.&lt;br /&gt; &lt;br /&gt; “You have come searching for my faith child. For you have met the Child of Shade. A child of the past, a memory formed by the shadows. A lost and wondering soul.”&lt;br /&gt; &lt;br /&gt; His voice is soft but echoes through your being.&lt;br /&gt; &lt;br /&gt; “You have seen the stories of the others, you have heard the tales of their pain. For your own is deep inside you, buried under all the blood, death and depravity of your own explorations.”&lt;br /&gt; &lt;br /&gt; The shadows twist move about as he seems to hover closer to you. The light of the days is sucked into the swirling shadows of the Shade Lord.&lt;br /&gt; &lt;br /&gt; “What have you come seeking child? More fables and stories?”</t>
+  </si>
+  <si>
+    <t>“You know the story of the Child of Shade?” The shadows ask you as it forms the Lord of Shades before you.&lt;br /&gt; &lt;br /&gt; “A lost soul, a soul of deprave sins committed in the name of freedom, freedom from those of The Church.”&lt;br /&gt; &lt;br /&gt; You nod your head and state you know some details, but not much. You only interacted with him briefly.&lt;br /&gt; &lt;br /&gt; “I was once of that land, that time. Back when it was a war between those of oppression and those who were the oppressors.”&lt;br /&gt; &lt;br /&gt; The shadows shift and shimmer in the dull light of the land around you. The darkness seems softer and more inviting as opposed to forbidding and depressing.&lt;br /&gt; &lt;br /&gt; “I once walked the halls as a priest of The Church. I once watched over the souls, the children we stole from the homes we burned to the ground, all in the name of the one true God.”&lt;br /&gt; &lt;br /&gt; The seems to be a tinge of sorrow and remorse among his words.&lt;br /&gt; &lt;br /&gt; “I know that which you seek, the other child, the one who lost his own morale's along the way to his redemption and ended up in Purgatory.”&lt;br /&gt; &lt;br /&gt; The shadows dissipate across the land and the voice falls silent. Nothing ever seems to come free.</t>
+  </si>
+  <si>
+    <t>The Children’s Hope</t>
+  </si>
+  <si>
+    <t>You have wondered for days seeking the Shade Lord, seeking out the answers from the cryptic words he had given you. Alas you have not seen him any where. The shadows seem to keep their distance, just out of reach, you cannot grasp them through physical or spiritual means.&lt;br /&gt; &lt;br /&gt; You know there is a connection between the Shade Lord and the Child of Shade. One is the priest, the other is the victim. One is the sheep of the “One true God.” One is the victim of the persecution and the religious fanaticism of the time.&lt;br /&gt; &lt;br /&gt; Both are of another time, a time when The Creator was known only as The Child. Some how The Poet is all connected to this, a guide of sorts.&lt;br /&gt; &lt;br /&gt; It’s all coming together, a war, The Church, the Red Hawks. All of it.&lt;br /&gt; &lt;br /&gt; A friend to The Creator, a friend to the world. A sinful crime, a simple death.&lt;br /&gt; &lt;br /&gt; You earn for more answers.</t>
+  </si>
+  <si>
+    <t>“You have been seeking me for a while now child.” The shadows speak as they swirl around you and collect into a shape that seems to tower over you and block out the light.&lt;br /&gt; &lt;br /&gt; The shadows seems cold, harsh and like they will swallow you up.&lt;br /&gt; &lt;br /&gt; “You stalk me in these lands, seeking the past. Why do you live in the past?”&lt;br /&gt; &lt;br /&gt; You stand there staring, why do you live in the past? Why are you chasing these shadows, shadows of another time. You started out on this course of action, figuring out who and what The Creator is.&lt;br /&gt; &lt;br /&gt; You try and speak but your voice does not manifest from your lips, instead your mind races with more questions, and no answers.&lt;br /&gt; &lt;br /&gt; “You live in the past.” The shadows begin again in a whisper.&lt;br /&gt; &lt;br /&gt; “A past I cannot save you from, a past that will see you fall into the depths of despair.”&lt;br /&gt; &lt;br /&gt; Save you? Save you from what? How will you fall into the depths of despair if you continue seeking out the full story of The Creator?&lt;br /&gt; &lt;br /&gt; “I cannot save you …” The shadows dissolve into the earth before you.</t>
+  </si>
+  <si>
+    <t>Fear of the past</t>
+  </si>
+  <si>
+    <t>Cloth of the invisible</t>
+  </si>
+  <si>
+    <t>Cloak of Invisibility</t>
+  </si>
+  <si>
+    <t>You spent the last couple weeks mulling over the words of the Shade Lord.&lt;br /&gt; &lt;br /&gt; You seem to live in the past, the past where there is death, misery and pain. The shadows keep their distance, almost as if they are watching you, your moves, reading your mind and waiting for the next opportunity to manifest into a towering lumbering mess of shadows that create the Shade Lord.&lt;br /&gt; &lt;br /&gt; You call out to them, demand answers, alas nothing. They shimmer and move among the edges of your sight and mind.&lt;br /&gt; &lt;br /&gt; You remember the stories you heard on your travels, Child of Shade is from the same church that the Shade Lord, who use to be priest, was also from. The dark stories of rape, abuse and torment.&lt;br /&gt; &lt;br /&gt; Its enough to drive any one to the edge of life, the edge where they look over and see the darkness, the freeing, inviting darkness. A crime so unspeakable, that it’s the only way to escape the memories, even after one flees the horrid situation they are in.</t>
+  </si>
+  <si>
+    <t>You have heard of the stories of becoming invisible, slipping through the land and the buildings, past the people in the shadows.&lt;br /&gt; &lt;br /&gt; You have come no closer to any answers that might be able to point you in the right direction towards the truth of The Creator, but after all these years, you might have some inclination as to how he got here. Blood stained and broken, suicide.&lt;br /&gt; &lt;br /&gt; You cannot confirm or deny the truth, even if it is not the truth, it feels like truth. He slips around these lands invisible to the people. To those seeking him out, seeking out his truth and seeking out their own.&lt;br /&gt; &lt;br /&gt; You leave the items on the ground and the shadows form around them, clawing at the items, but they soon dissipate leaving you with no one to talk to and a single cloak on the ground.&lt;br /&gt; &lt;br /&gt; No closer to the answers, but invisible to those who hunt you now.</t>
+  </si>
+  <si>
+    <t>The story of the children</t>
+  </si>
+  <si>
+    <t>Stories of The Children</t>
+  </si>
+  <si>
+    <t>The Candle Maker keeps searching among the ruins looking for something. He looks up as you approach him, dirty and dusty he wipes his forehead leaving a streak of grime across it.&lt;br /&gt; &lt;br /&gt; “Child, you are back. I have something I need from you. A book, a tome. I cannot recall the name of it off the top of my head. It holds the stories of children of The Church. Well, actually, its more of a record of the children.”&lt;br /&gt; &lt;br /&gt; He looks around and then looks down.&lt;br /&gt; &lt;br /&gt; “I am filthy. Can you find this for me, I will explain more once you do.”&lt;br /&gt; &lt;br /&gt; You look at him with the expression: Another fetch “quest”.&lt;br /&gt; &lt;br /&gt; “Don’t worry child.” He states, seeing the look on your face. “It will be worth it.”</t>
+  </si>
+  <si>
+    <t>You hand the book over to a more clean Candle Maker. He thumbs through the pages looking for entries.&lt;br /&gt; &lt;br /&gt; “Ahh yes here they are.” He states after a moment.&lt;br /&gt; &lt;br /&gt; “Do you know the story of the four children of The Church?”&lt;br /&gt; &lt;br /&gt; You shake your head and he continues.&lt;br /&gt; &lt;br /&gt; “During the time when The Church was in power and in league with the Federation there were four children only known by their pseudo names: Gold Dust, Shards, Copper Coins and Gambler.”&lt;br /&gt; &lt;br /&gt; He pauses and reads a bit more before continuing:&lt;br /&gt; &lt;br /&gt; “Back in the days of the power The Church held, the priests would experiment on these children, imbuing them with dark alchemical magics that would grant boons to each of the priests while the child was present. Should the child fail to give the boon to the priest they were beaten, whipped and shamed.”&lt;br /&gt; &lt;br /&gt; He pauses and stares off into the distance. “Such a sad time.”&lt;br /&gt; &lt;br /&gt; There is a silence that fills the air, one that is uneasy to accept or be apart of. Your mind wonders to the words and the inflections of The Candle Maker. You ask him how the child's powers were used by the priests, but he shakes his head: “There is no mention of that here child.”&lt;br /&gt; &lt;br /&gt; You both sit in silence for a moment.</t>
+  </si>
+  <si>
+    <t>Powers of the children</t>
+  </si>
+  <si>
+    <t>Scroll of the Children</t>
+  </si>
+  <si>
+    <t>The silence between you and The Candle Maker seems to stretch on for ever.&lt;br /&gt; &lt;br /&gt; “I know where we can get more information. I need a scroll – it should drop off one of these fowl beasts. I know they once stalked the halls of The Church or one of the churches that plagued the surface world long a go. Go hunting.”&lt;br /&gt; &lt;br /&gt; Go hunting? What are you? An errand boy for this man. Alas you need answers to to the power of these children and how they're power was unlocked.&lt;br /&gt; &lt;br /&gt; Hunting we go.</t>
+  </si>
+  <si>
+    <t>With the scroll in hand, covered in blood and bruises that will heal, you head back to where The Candle Maker was.&lt;br /&gt; &lt;br /&gt; “You found it. You also smell very bad. Just thought you would like to know.”&lt;br /&gt; &lt;br /&gt; He laughs a bit but you both sit by the fire he has prepared and he begins to read the contents of the scroll.&lt;br /&gt; &lt;br /&gt; “It sais here …” He begins after a moment.&lt;br /&gt; &lt;br /&gt; “That the children, and their powers were given through, as stated, dark alchemical magics preformed by the priests. Their souls were extracted from their bodies and placed in a magical container which was stored in the church – probably lost to time now – and from that box their soul was transformed into a magical essence that was then put back into the child, from there the power could be utilized by …”&lt;br /&gt; &lt;br /&gt; He pauses. Squints and tries to figure out the rest.&lt;br /&gt; &lt;br /&gt; “The scroll is missing the last part, its been ripped away.” he states in frustration after a moment.</t>
+  </si>
+  <si>
+    <t>The Mysterious Container</t>
+  </si>
+  <si>
+    <t>Small Black Carved Box</t>
+  </si>
+  <si>
+    <t>Missing Scroll Piece</t>
+  </si>
+  <si>
+    <t>“I can’t make out the rest of the scroll, maybe we can find it and the container some where on surface.”&lt;br /&gt; &lt;br /&gt; The Candle Maker looks up from the scroll at you, his eyes are telling you what to do.&lt;br /&gt; &lt;br /&gt; You ask him how all this stuff got scattered, he starts to laugh and after a moment states:&lt;br /&gt; &lt;br /&gt; “Its what happens when one civilization collapses and another takes over. Things get moved, sold, lost, stored away and discovered eons later.”&lt;br /&gt; &lt;br /&gt; You rise and head off to Surface, looking and searching.</t>
+  </si>
+  <si>
+    <t>You hold in your hand a Container that is like a small black wooden box. It wont open, it wont do anything. The voices, the screams of pain, agony all fill your mind. You close your eyes and see it clearly:&lt;br /&gt; &lt;br /&gt; A small child, no older then 14 is dragged into a room where 4 priests stand, one clad in white, 3 clad in black. The chanting which you cannot make out, starts. The child wails, screams and begs to go back to bed. The Priest in white slaps him across the face, there is silence but the chanting.&lt;br /&gt; &lt;br /&gt; You open your eyes only to see the Candle Make standing before you.&lt;br /&gt; &lt;br /&gt; “You saw it didn’t you? The priests.”&lt;br /&gt; &lt;br /&gt; You tell him what you saw and he shakes his head. “Those poor children.”&lt;br /&gt; &lt;br /&gt; There is a long and silent pause. The voices get louder in your head:&lt;br /&gt; &lt;br /&gt; “I want my mommy!” one screams.&lt;br /&gt; &lt;br /&gt; “I want to go home!” another screams.&lt;br /&gt; &lt;br /&gt; You begin to sob uncontrollably, before The Candle Maker knocks the box out of your hands ans covers it with a burlap sack.&lt;br /&gt; &lt;br /&gt; “That's enough of that!”&lt;br /&gt; &lt;br /&gt; You compose your self and after a moment hand over the scroll piece. The Candle maker takes it and positions it at the bottom of the scroll you already gave him.&lt;br /&gt; &lt;br /&gt; “Power could be utilized by.” He states after a second, “Them standing next to the person or person’s using the magic of the child, by channeling their essence.”&lt;br /&gt; &lt;br /&gt; He pauses and look at you. “That doesn’t make sense. So the child stands there, and you channel them. If you cannot get the magic off them or out of them, through such a process you beat them? That makes no sense. You are the one that fails to “extract” the power if you cannot channel them.”&lt;br /&gt; &lt;br /&gt; He reaches down to the box and opens it. You looks puzzled because the box would not open for you.&lt;br /&gt; &lt;br /&gt; He looks up at you as the box lies empty: “What? My father was a priest.”</t>
+  </si>
+  <si>
+    <t>The truth is out there</t>
+  </si>
+  <si>
+    <t>You stare at The Candle Maker for a moment in utter shock. Before you stands a man who is a child of one of these priests, but how could that be if …&lt;br /&gt; &lt;br /&gt; “I am a lot older then you think child.”&lt;br /&gt; &lt;br /&gt; His voice echoes in your head, almost changing, becoming something else all together.&lt;br /&gt; &lt;br /&gt; A voice that is familiar to you. A voice you have heard before.&lt;br /&gt; &lt;br /&gt; “You want the power of these children child, you will do as I state!”&lt;br /&gt; &lt;br /&gt; the voice echoes louder. The box is open and the souls of the dead wash over the land. You have no idea what is happening. The sky is dark, the clouds are ominous, the shadows play tricks I your mind.&lt;br /&gt; &lt;br /&gt; “I am who you seek, I am what you want. The children are the key.”&lt;br /&gt; &lt;br /&gt; The man before is is a shell of him self, an old man, a man with long gray hair, a man who changes shape, a man who is not a man – a shadow of a darker force.&lt;br /&gt; &lt;br /&gt; “Do not be frightened! You have come seeking me and all I have to offer. Find me the bones of a priest and I shall give you the childrens souls!”&lt;br /&gt; &lt;br /&gt; The sky returns to its regular color, the man before you is shaking.&lt;br /&gt; &lt;br /&gt; “What just happened?” The Candle Maker asks.&lt;br /&gt; &lt;br /&gt; You tell him of the shadows, the voice, the energy you felt. You speak of the echoes and the darkness that enveloped you.&lt;br /&gt; &lt;br /&gt; “It was him. The Child. But he is no child of a priest. Unless it was another Child. But to seek, you seek The Creator. Could it be? No. That does not make sense.”</t>
+  </si>
+  <si>
+    <t>You have the bones and you return to The Candle Maker with them in hand.&lt;br /&gt; &lt;br /&gt; “The bones. That;’s right!” he states after a moment.&lt;br /&gt; &lt;br /&gt; He takes the bones and smashes them down into a dust. After bashing, breaking, crushing them he turns them into a dust which is then mixed with a candle wax.&lt;br /&gt; &lt;br /&gt; He studies the scroll, flips the pages of the book and chants the same chant you heard in your vision. The skies crackle with thunder and lightening for a moment, before the candle flame is blown out by the wind.&lt;br /&gt; &lt;br /&gt; There is a silence that returns to the world, a silence that is deafening and rattles your core.&lt;br /&gt; &lt;br /&gt; “It is done!”&lt;br /&gt; &lt;br /&gt; What is done? You ask.&lt;br /&gt; &lt;br /&gt; “I have given you the power of the children. Call them forth for their boons will be beneficial to you.”&lt;br /&gt; &lt;br /&gt; That’s it? What about the voice? What about The Creator or what ever possessed him.&lt;br /&gt; &lt;br /&gt; “There is more to this then meets the eye, that's for sure.” The Candle Maker begins.&lt;br /&gt; &lt;br /&gt; “There is a force at work here, be it The Creator or something else, or some one else. There is a darkness that crawls through the wood of this box, a shadow that haunts the back of even my mind. Seek it out in the skies.”&lt;br /&gt; &lt;br /&gt; he turns and walks from you, but turns back for a second: “Use this power wisely child, it can bring you great rewards.”</t>
+  </si>
+  <si>
+    <t>Story of the Red Hawks</t>
+  </si>
+  <si>
+    <t>Research Papers on Flight</t>
+  </si>
+  <si>
+    <t>The smell of sulfur fills your nose as you travel across a waste land of wondering souls, tormented spirits and tortured thoughts.&lt;br /&gt; &lt;br /&gt; Deaths hands in the air, pain and suffering drip off the flesh like sweat. The air is hot, the ground is red and covered in dust. The oceans of magma heat the surrounding land to almost unbearable levels of heat.&lt;br /&gt; &lt;br /&gt; You see a man standing in the middle of an area that looks like it was once some kind of settlement, but now is a set of ruins, scattered bones, broken weapons and blood stained earth. A blood that has never been washed out of the soil by the refreshing rains of the above world.&lt;br /&gt; &lt;br /&gt; He wears a red cloak and stands about 6 feet tall, an older man as you approach. His beard is starting to turn gray. He looks human, looks can be deceiving though.&lt;br /&gt; &lt;br /&gt; “Hello there child.” His voice rings out, filling the air with a booming, low voice.&lt;br /&gt; &lt;br /&gt; “What brings you to these parts of hell?” He asks after a second.&lt;br /&gt; &lt;br /&gt; You tell him you have been searching for more information on the Red Hawks, that they are some how connected to The Creator.&lt;br /&gt; &lt;br /&gt; “I know what you speak of, the Red hawks were a rebellion group that as you may already know, stood against the Church and the Federation back when.”&lt;br /&gt; &lt;br /&gt; He pauses and walks over to a group of bones and broken weapons piled together and starts to ruffle through them.&lt;br /&gt; &lt;br /&gt; “I was told, by another associate, that you might be seeking answers as to who The Creator is, although by now I have a feeling you know damn well how he got here. He should have come down here, to Hell, for his actions. Alas, that Poet got involved. Some people just cannot be saved fro their crimes.”&lt;br /&gt; &lt;br /&gt; He looks up from the pile of rubbish, “not here.”&lt;br /&gt; &lt;br /&gt; What could he be searching for?</t>
+  </si>
+  <si>
+    <t>“Excellent, you found the research papers I was searching for. I was told they should be in this area some where.”&lt;br /&gt; &lt;br /&gt; You hand over what looks like musty old papers with barley legible ink on them, how ever The Scholar is able to make out the archaic and ancient words written on the paper.&lt;br /&gt; &lt;br /&gt; “This was the research the Red hawks did on Air Ships, back when the war was still going on. They had the advantage on the Federation who was also experimenting with flying ships, but they could never find the right power source for those ships.”&lt;br /&gt; &lt;br /&gt; He reads over the papers a bit more as you ask him what powered these flying ships.&lt;br /&gt; &lt;br /&gt; “It seems to be here, some kind of magical ore, which you can only find in the depths of Valifore.</t>
+  </si>
+  <si>
+    <t>The Power of Flight</t>
+  </si>
+  <si>
+    <t>Kalitore Ore</t>
+  </si>
+  <si>
+    <t>You ask The Scholar about the ore and what The Dungeons of Valifore have to do with anything.&lt;br /&gt; &lt;br /&gt; “Before it was the “Dungeons of Valifore” it was an old mining system where this ore could be found, it’s called: “Kalitore Ore” and it glows a bright orange when its exposed to the air. It was used to power the air ships and let them move quickly across the skies at one point, during the war.”&lt;br /&gt; &lt;br /&gt; In the distance is a loud screech, like a beats of some kind rising from the ground. It draws both your attention in the far off east.&lt;br /&gt; &lt;br /&gt; “Something is moving about child. Something that has not awoken for a long time is awakening. Alas it is not our concern, not yet at least. Find me the ore, head deep into the depths of the dungeons and find me the ore.”</t>
+  </si>
+  <si>
+    <t>With the ore in hand you head back towards where The Scholar was standing. You hear the earth beneath you shake and rumble, another large screech that rains across the land.&lt;br /&gt; &lt;br /&gt; As you approach the man again, you ask what is happening down in Hell.&lt;br /&gt; &lt;br /&gt; “The Giant, it’s awakening.”&lt;br /&gt; &lt;br /&gt; The Giant?&lt;br /&gt; &lt;br /&gt; “There is a giant in Hell, a pet of Satan's, a giant unlike any other giant you have ever seen. One that towers across the land and causes havoc for those it encounters. It can wipe out a small village with its own hand. A terrifying creature if you ask me. One no mere mortal could encounter and survive the fight of.”&lt;br /&gt; &lt;br /&gt; He pauses for a moment and then continues after a moment. The silence in that one moment of pause is deafening, the earth is silent, the plane it’s self is as quiet as the darkest snow fell night.&lt;br /&gt; &lt;br /&gt; “Did you find the ore?” he asks.&lt;br /&gt; &lt;br /&gt; You hand it over and he studies it, looking closely at its rocky dimensions and investigating the slight orange glow it has about it.&lt;br /&gt; &lt;br /&gt; “According to the research, two of these would power an air ship, but with the right tools I might be able to create a fuel source that airships today could use.”&lt;br /&gt; &lt;br /&gt; Tools?&lt;br /&gt; &lt;br /&gt; “Yes I need a set of tools from the cage here in Hell. Tools lost to the ages. They were once known as Chemist tools.”</t>
+  </si>
+  <si>
+    <t>Red Hawk Chemists</t>
+  </si>
+  <si>
+    <t>Chemists Tools</t>
+  </si>
+  <si>
+    <t>Chemist Journal</t>
+  </si>
+  <si>
+    <t>You have heard the tales of the mysterious people, more in passing and only through snippets, who practice the art of chemistry. It was once said to be a rare and mysterious “science” from the “old world” what ever that means.&lt;br /&gt; &lt;br /&gt; You ponder on the thoughts of the old world for a moment, letting it slip across your mind, swirl around in the shadows of your thoughts.&lt;br /&gt; &lt;br /&gt; “Child!” You are snapped back to the hellish world you find your self in.&lt;br /&gt; &lt;br /&gt; You look over at the Scholar and study his face, aged, but not old. Wise but not truthful. Protective, but not antagonizing or threatening.&lt;br /&gt; &lt;br /&gt; “Have you heard of the Chemists of the old world? A mysterious group of people who worked with ancient old world science. The magic alone – that they conjured through such study – was said to be devastating enough it brought an end to the war and gave the Red Hawks the upper hand.”&lt;br /&gt; &lt;br /&gt; You ask him more about the Red Hawks and how they got entangled with these “chemists” but he brushes you off with a request:&lt;br /&gt; &lt;br /&gt; “To get to the bottom of how the war was won with airships, we must understand the old world sciences. I know there are tools here in hell and a journal some where. Maybe they will tell us the stories of the ancient sciences.”</t>
+  </si>
+  <si>
+    <t>Scouring the various planes of existence you manage to find a few things about these Chemists. Aside from the tools and a mysterious journal, there were rumors in one of the pubs you stopped in to rest. A rumor about a mysterious man who walking through town, a man who's primary tools were a mortar and pestle.&lt;br /&gt; &lt;br /&gt; You attempted to track this man down and get answers about airships from him but alas, all your searching was in vein as he was no where to be found.&lt;br /&gt; &lt;br /&gt; You make your way back to The Scholar and seem him standing there, reading a letter.&lt;br /&gt; &lt;br /&gt; “Oh your back, I received a letter from the Chemist on the surface. Hes currently traveling across the planes seeking out those who are looking to learn more about the ore and the power of airships. You might be able to find him in the land of the Dungeons.</t>
+  </si>
+  <si>
+    <t>Shadows of the past</t>
+  </si>
+  <si>
+    <t>Bullet Casings and Bullets</t>
+  </si>
+  <si>
+    <t>You enter into an old crypt where you see candle light flickering and a small fire in a small metal container burning. The crypt has a hole right through the roof, where the smoke escapes from. A young man stands at what appears to be an altar, alas it is covered in papers, glass containers, bubbling liquids and strange powders.&lt;br /&gt; &lt;br /&gt; “Hello?”&lt;br /&gt; &lt;br /&gt; The man looks up from his work and stares at you.&lt;br /&gt; &lt;br /&gt; “What do you want?”&lt;br /&gt; &lt;br /&gt; He steps out from behind the altar with what appears to be some kind of metal contraption.&lt;br /&gt; &lt;br /&gt; “You know what this is?”&lt;br /&gt; &lt;br /&gt; You shake your head no and start to tell him about the scholar. He slowly lowers his hand.&lt;br /&gt; &lt;br /&gt; You continue to tell him of the exploits, the chemists and the Red Hawks. You tell him about your research into airships. He seems more and more interested and this shiny metallic item in his hand lowers further to the ground before he interrupts you.&lt;br /&gt; &lt;br /&gt; “So you are looking into the power of airships and the history of the chemists and their role in such technology.”&lt;br /&gt; &lt;br /&gt; You nod your head in agreement of his words.&lt;br /&gt; &lt;br /&gt; “I have been studying the old world sciences and lost technologies, like this one in my hand. Did you know it was once called a …”&lt;br /&gt; &lt;br /&gt; He scours over some pages of books he has on the stone altar.&lt;br /&gt; &lt;br /&gt; “A gun! Or more precisely a pistol. Used by men of the world, and after the “fall” what ever that is, the few remaining “guns” were used by what are called gun slingers.”&lt;br /&gt; &lt;br /&gt; He looks up from his book and at you who has a strange lost expression on your face.&lt;br /&gt; &lt;br /&gt; “I need something, something to help make this weapon work a bit better. I think they are called “bullets” small metal things that shoot out of this thing and wound the target, or - according to what I am reading here – kills the target.”&lt;br /&gt; &lt;br /&gt; Where are you suppose to find those, you begin to ask.&lt;br /&gt; “Oh you won’t! The last gun slinger died out years ago. He is said to have died in Labyrinth after a fearsome battle. Maybe he dropped a few? I don’t know.”&lt;br /&gt; &lt;br /&gt; Off to Labyrinth you go.</t>
+  </si>
+  <si>
+    <t>You found some of these “bullets” but they are rusted. You bring them back to the crypt for The Chemist to investigate.&lt;br /&gt; &lt;br /&gt; “These will do fine, I can reverse engineer the components and chemical formulas inside the black dust – which according to my research is called gun powder or something.”&lt;br /&gt; &lt;br /&gt; He pauses and flips through pages of his books, “Ah yes, an explosive powder used in the making of bullets from the old world.”&lt;br /&gt; &lt;br /&gt; What is “the old world” you ask him.&lt;br /&gt; &lt;br /&gt; “The old world” he begins as he starts mixing powers and such “Was once a place where the sciences were held in high regard, where people used machines of some kind to complete tasks and apparently get from one place to another. Where the paths and roads we travel were covered in some kind of hard and smooth rock. It’s all here in these books, which I guard with my life and pour over seeking tidbits of knowledge about the past.”&lt;br /&gt; &lt;br /&gt; Thats when it hits you again:&lt;br /&gt; &lt;br /&gt; The sound, the bang, the blood, the woman screaming, a giant metal object with spinning wheels flipped upside down like a carriage attached to a horse.&lt;br /&gt; &lt;br /&gt; You can feel the snow fall, you can feel the pain, the missery. You hear the words:&lt;br /&gt; &lt;br /&gt; “He’s dead! He’s dead! Oh My god, someone please help! My baby is dead!”&lt;br /&gt; &lt;br /&gt; You hear a loud thumping, like someone running down a flight of stairs in a hurry.&lt;br /&gt; &lt;br /&gt; “Jannet! Jannet! Whats going on?”&lt;br /&gt; &lt;br /&gt; “Hello? Child? Wake up! Snap out of it!”&lt;br /&gt; &lt;br /&gt; You come back to your sense and The Chemist is slapping you. You put up your hands to block it.&lt;br /&gt; &lt;br /&gt; “Where the hell did you go?”&lt;br /&gt; &lt;br /&gt; You explain the visions, the sounds, the sights, what you are searching for. Answers to who The Creator really is and how he escaped purgatory.&lt;br /&gt; &lt;br /&gt; “I can’t help you with that child, I am locked away with my books and research to care about the goings on of other planes of existence or even of gods and monsters.”&lt;br /&gt; &lt;br /&gt; He pauses for a moment and listens to the silence of the world around him.&lt;br /&gt; &lt;br /&gt; “Come back another time child. Something seems off. Quick begone with you.”</t>
+  </si>
+  <si>
+    <t>Run Child Run</t>
+  </si>
+  <si>
+    <t>Papers of Flight</t>
+  </si>
+  <si>
+    <t>You dream of darkness, pain, misery, sorrow.&lt;br /&gt; &lt;br /&gt; A mother stands at a podium, you cannot make out what she is saying, alas she is dressed in black. A wooden box behind her with flowers – a funeral. You have seen these in your time, fellow adventurers have come and gone, leaving this world for the next, running from their own fears, pain and sorrow that haunts them.&lt;br /&gt; &lt;br /&gt; You thought of running, hiding, escaping.&lt;br /&gt; &lt;br /&gt; Something keeps you coming back, waking up, fighting on, pushing forward. What it is you cannot say, aside from the determination to learn more about The Creator.&lt;br /&gt; &lt;br /&gt; You have made your way back to the crypt with The Chemist inside.&lt;br /&gt; &lt;br /&gt; “I thought I told you to go.”&lt;br /&gt; &lt;br /&gt; You look at him with a puzzled look on your face and demand he explains what seemed off.&lt;br /&gt; &lt;br /&gt; “I told you I cannot answer any more questions for you. You need to go before you get us both killed.”</t>
+  </si>
+  <si>
+    <t>You return the crypt and tell him you have slaughtered many creatures in the area, there is nothing but blood, death and destruction around the area. He should be safe to continue the conversation from before.&lt;br /&gt; &lt;br /&gt; “If you are sure child. Then I shall continue.”&lt;br /&gt; &lt;br /&gt; He pauses, waits and continues.&lt;br /&gt; &lt;br /&gt; “There is a story, a journal you might find interesting. You have to find it in the darkest places of this world. In Purgatory. In the dungeons.” His voice becomes almost a whisper as if he doesn’t want any one else to hear – even though there is no on else except you – around.&lt;br /&gt; &lt;br /&gt; “There is a journal written by The Creator him self, lost in the Purgatory Dungeons. This journal holds the teachings of the old world and its sciences.”&lt;br /&gt; &lt;br /&gt; What does this have to do with the Red Hawks or air ships?&lt;br /&gt; &lt;br /&gt; “Cannot you not see? It’s all connected child. The sciences of the old world, which The Church called heresy.”&lt;br /&gt; The Church. That sounds like something The Candle Maker would know about.&lt;br /&gt; &lt;br /&gt; “Back during the war with The Federation and The Church – the Red Hawk soldiers would employ chemists like my self to research old world technology that could be used against the enemy. While we could not replicate all the technology, we were able to create new technology, such as airships.”&lt;br /&gt; &lt;br /&gt; He pauses and looks through his papers and pushes some books aside to better read the contents of the documents he has.&lt;br /&gt; “Yes, it’s right here.” he points on the paper, “It states: The Red Hawks, along with The Child, delved deep into the heretical sciences of alchemy and chemistry to uncover the power of flight through the skies, to drop bombs and do devastating damage to their opponents. They have termed the word: Air Ship. A flying sea vessel that can traverse the skies – hiding among the clouds.”&lt;br /&gt; &lt;br /&gt; You both stare at each other for a moment, both lost in thought at these war machines. The tides of kingdom ownership seem to be changing, but you still have questions about The Red hawks, The Visions and this mysterious journal.&lt;br /&gt; &lt;br /&gt; Should you seek out the Scholar, the Candle Maker or some one else?&lt;br /&gt; &lt;br /&gt; “I would go for the Scholar. He will have more information on how you can unlock the power of these war machines and how you can build them. But eventually I would track down that journal. It might have more information for you. Or it might be the ramblings of a mentally sick person. Who knows.”</t>
+  </si>
+  <si>
+    <t>To The Sky</t>
+  </si>
+  <si>
+    <t>Airship Blueprints</t>
+  </si>
+  <si>
+    <t>You make it back to The Scholar who seems to be reading over yet another letter. He looks up as you approach him.&lt;br /&gt; &lt;br /&gt; You ask him if he just stands here all day, waiting for you to comeback.&lt;br /&gt; &lt;br /&gt; “Please child, I have other things to do, things to research, look into and colleagues to chat with in my never ending research.”&lt;br /&gt; &lt;br /&gt; You ask him about the journal and he seems to go white.&lt;br /&gt; &lt;br /&gt; “You know about that? The chemist knows about that? How does any one aside from me know about that?”&lt;br /&gt; He seems to be getting angry over this subject so you switch it from the journal back to airships. He looks at you, as you both know one of you is deflecting from the subject – best saved for another day you suppose.&lt;br /&gt; &lt;br /&gt; “Hmm, airships require research into the concept of smelting and the research into the blueprints for the airship, which I believe were last seen on a merchant heading towards the Shadow Caves. Maybe he’s dead now and they are there.”</t>
+  </si>
+  <si>
+    <t>You managed to find the blueprints on the body of the dead merchant in the caves. You bring it back for the scholar to look over and he takes his time pouring over the contents of the blue prints.&lt;br /&gt; &lt;br /&gt; “Seems here we have everything we need, you just need some land where you can build a smelter after researching it, which I have the documents here for you. You will also need something called an airship field, but I am sure you can figure that out by also researching that particular aspect.”&lt;br /&gt; &lt;br /&gt; He smiles as he reads over the rest of the blue prints.&lt;br /&gt; &lt;br /&gt; “It might take time child, but soon you and your armies can take to the skies and land devastating attacks on your enemies kingdoms.”</t>
+  </si>
+  <si>
+    <t>The story of rebirth</t>
+  </si>
+  <si>
+    <t>Soul Gem of Galith</t>
+  </si>
+  <si>
+    <t>“Child, over here!” The Scholar flags you down on your journeys across the barren, heated, hated, waste land that is Hell.&lt;br /&gt; &lt;br /&gt; You approach him and he has a smile on his face. “I have something for you, a story of sorts that will give you new insight into something you might not have thought about before.”&lt;br /&gt; &lt;br /&gt; You look at him with a puzzled expression.&lt;br /&gt; &lt;br /&gt; “Have you ever wondered how The Creator has so much power? It’s simple alchemy – or soul alchemy that is. I have something for you, but first I must request something of you. I need a Soul Gem of Galith, a mysterious gem that only drops in the prison of the soulless children.”&lt;br /&gt; &lt;br /&gt; You know of this place. You know the place he speaks up, which still fills you with dread, fear, misery.&lt;br /&gt; &lt;br /&gt; You can still hear the bang every time you close your eyes and the scream of a woman.&lt;br /&gt; &lt;br /&gt; “My baby….”&lt;br /&gt; &lt;br /&gt; It rings in your ears.</t>
+  </si>
+  <si>
+    <t>“Ah you have the gem!”&lt;br /&gt; &lt;br /&gt; You hesitate to hand it over, explaining you want more answers. Asserting your right to the treasure as you were the one that had to risk your life to fetch it.\&lt;br /&gt; &lt;br /&gt; “A fair trade for a fair priced item.” The Scholar states.&lt;br /&gt; &lt;br /&gt; “This gem, the one you hold, holds the key to a magic unknown to most and few between.” he starts.&lt;br /&gt; &lt;br /&gt; “There is a magic unknown even to The Poet, the man who is said to have been the guide to The Creator when he was first known as The Child. A child who arrived in this world bloody and broken of mind and spirit. Lost in the demons of his own making.”&lt;br /&gt; &lt;br /&gt; He pauses and stares at the gem you hold in your hand before continuing.&lt;br /&gt; &lt;br /&gt; “The magic is known as reincarnation. It allows one to become “reborn” such that they are stronger in mind, body, soul and all the ways that matter to those such as you.”&lt;br /&gt; &lt;br /&gt; You stare down at the gem and hand it over after a moment. Your interest is piqued.</t>
+  </si>
+  <si>
+    <t>The Magic of Old</t>
+  </si>
+  <si>
+    <t>Judges Helm</t>
+  </si>
+  <si>
+    <t>Judges Cards</t>
+  </si>
+  <si>
+    <t>The Scholar takes the Soul gem and stares deep into the glittering and glistening facets of the gem. He seems transfixed by its beauty, its radiating magic that effected even you as you held it. You remember it left you feeling warm, fuzzy, safe and even … loved.&lt;br /&gt; &lt;br /&gt; The Scholar snaps out of his transfixed gaze and looks up at you.&lt;br /&gt; &lt;br /&gt; “There were once, after the fall of the old world – which I am sure by now you have heard whispering of – entities known as Judges who applied the law of the land through what were called “Law Cards”. These magical judges, dressed and clad as knights, would appear almost any where, when the law of that land was broken to arrest and detain the law breaker.”&lt;br /&gt; &lt;br /&gt; He pauses and you ask him what that has to to do with gem and reincarnation.&lt;br /&gt; &lt;br /&gt; “The Judges were banished by The Church once it rose to prominent power in the political circles of those times. They were locked behind gates, transformed over time into these beings you today called Celestials. Celestial Kings are the High Judges of that time. Their gear, A helm, a deck of their law cards, all hold a type of magic that allowed them to reincarnate on a whim. Find them and we might be closer to the magic you seek.”&lt;br /&gt; &lt;br /&gt; Judges, Churches, The Creator and even Reincarnation.&lt;br /&gt; &lt;br /&gt; Enough to make ones head spin. The old world…&lt;br /&gt; &lt;br /&gt; You can feel the snow fall. You can see the blood on his face. You can feel the fear in the air.&lt;br /&gt; &lt;br /&gt; “Child, you must ascend” You hear the voice, distant at first but closer over time.&lt;br /&gt; &lt;br /&gt; A vision of a light, a child – high above the ground, body engulfed in light. The poet stand before the light as it illuminates the land around them.&lt;br /&gt; &lt;br /&gt; “Child. Listen to me! Let go of the past! Let go of the pain!”&lt;br /&gt; &lt;br /&gt; BANG!&lt;br /&gt; &lt;br /&gt; Darkness.</t>
+  </si>
+  <si>
+    <t>You spent two weeks in your own head. All the while you searched for the relics of the past. You managed to find them and bring them back to The Scholar who senses you have more to your shoulders then the current quest, or your own quest.&lt;br /&gt; &lt;br /&gt; “Child, what is it your not telling me?”&lt;br /&gt; &lt;br /&gt; You explain the visions, The Creator, The story you have seen thus far, been told, the glimpses of the past. How its all connected.&lt;br /&gt; &lt;br /&gt; “You can ties the pieces of the puzzle together with more time child. Time is what you need, in the mean time, with these items we are even closer to unlocking the magic.”&lt;br /&gt; &lt;br /&gt; He stares at the items and then looks back up at you.&lt;br /&gt; &lt;br /&gt; “Child listen, somethings are right in front of you and you need to make your own choices and comes to your own conclusions. Some people do not belong in this world. Some people corrupted it. You know who corrupted it, you know who doesn’t belong. Why do you keep chasing circles when the ends are right there for you to tie up?”&lt;br /&gt; &lt;br /&gt; You ask him, how then did The Creator come to be?&lt;br /&gt; &lt;br /&gt; “Through this magic! Through reincarnation!”&lt;br /&gt; &lt;br /&gt; The Scholar storms off in a huff.&lt;br /&gt; &lt;br /&gt; No, you think, how did he come to this world? And why?</t>
+  </si>
+  <si>
+    <t>Unlock the secrets of reincarnation</t>
+  </si>
+  <si>
+    <t>“All I need from you child is money, a lot of money, a lot of Gold Dust, A lot of Crystal Shards and A lot of Copper Coins. Mixing these together, with the tools you have found and applying this law card I can allow you to reincarnate – when ever you want – for a price of 50,000 copper coins.”&lt;br /&gt; &lt;br /&gt; Seems like a fair price, you agree.&lt;br /&gt; &lt;br /&gt; “Excellent, pay me.”</t>
+  </si>
+  <si>
+    <t>You pay The Scholar who begins his incantations, weaving magic here and there. You can feel the magic radiate through the sky, through the earth, the bones of your being, the soul of your mind. You can feel the darkness of hell creep deeper into your soul.&lt;br /&gt; &lt;br /&gt; You can see him, The Creator, a child, a simple child who looks at you, silent – studying.&lt;br /&gt; &lt;br /&gt; He approaches you in this vision of blackness, darkness – endless.&lt;br /&gt; &lt;br /&gt; “You are a child of this world, I am not. It is obvious now that you seek answers. I give you one, your power does not compare to mine, you cannot have what you seek unless you can compare to me. Can you do that? I tell you one thing: Suicide is a tricky business. You end up in one place only to find your self in a prision of your own making. A mind broken, shattered and dislussioned with what you think love is. Yes love, this is all because of love. My entire ceation, power, rage, hate and world I have created is all based … on …”&lt;br /&gt; &lt;br /&gt; A voice from the distance, louder, right in your ear: “CHILD!”&lt;br /&gt; &lt;br /&gt; Love. All of this is based on love.&lt;br /&gt; &lt;br /&gt; “Child!”&lt;br /&gt; &lt;br /&gt; You snap back to the world, back to the hellish world that is quite literally Hell.&lt;br /&gt; &lt;br /&gt; “I don’t know where you went or what just happened, but I have done it. You can reincarnate now!”</t>
   </si>
 </sst>
 </file>
@@ -424,7 +1237,7 @@
   </cellStyleXfs>
   <cellXfs count="1">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -725,7 +1538,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:V65"/>
+  <dimension ref="A1:X85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -736,12 +1549,12 @@
     <col min="1" max="1" width="3" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="43" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="8" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="9" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="48" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="17" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="12" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="12" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="16" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="19" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="13" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="41" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="19" bestFit="true" customWidth="true" style="0"/>
     <col min="11" max="11" width="16" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="13" bestFit="true" customWidth="true" style="0"/>
@@ -750,14 +1563,16 @@
     <col min="15" max="15" width="22" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="11" bestFit="true" customWidth="true" style="0"/>
     <col min="17" max="17" width="18" bestFit="true" customWidth="true" style="0"/>
-    <col min="18" max="18" width="28" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="41" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="23" bestFit="true" customWidth="true" style="0"/>
     <col min="20" max="20" width="26" bestFit="true" customWidth="true" style="0"/>
-    <col min="21" max="21" width="1666" bestFit="true" customWidth="true" style="0"/>
-    <col min="22" max="22" width="1591" bestFit="true" customWidth="true" style="0"/>
+    <col min="21" max="21" width="18" bestFit="true" customWidth="true" style="0"/>
+    <col min="22" max="22" width="22" bestFit="true" customWidth="true" style="0"/>
+    <col min="23" max="23" width="2557" bestFit="true" customWidth="true" style="0"/>
+    <col min="24" max="24" width="2966" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -824,19 +1639,25 @@
       <c r="V1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
-      <c r="D2">
-        <v>65480</v>
+      <c r="D2" t="s">
+        <v>25</v>
       </c>
       <c r="J2">
         <v>10000</v>
@@ -851,7 +1672,7 @@
         <v>100</v>
       </c>
       <c r="N2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O2">
         <v>4</v>
@@ -859,28 +1680,28 @@
       <c r="P2">
         <v>1</v>
       </c>
-      <c r="U2" t="s">
-        <v>24</v>
-      </c>
-      <c r="V2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C3">
         <v>4</v>
       </c>
-      <c r="D3">
-        <v>182</v>
-      </c>
-      <c r="I3">
-        <v>65476</v>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
       </c>
       <c r="J3">
         <v>1000</v>
@@ -897,22 +1718,28 @@
       <c r="P3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3" t="s">
+        <v>32</v>
+      </c>
+      <c r="X3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C4">
         <v>4</v>
       </c>
-      <c r="D4">
-        <v>183</v>
-      </c>
-      <c r="I4">
-        <v>65475</v>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" t="s">
+        <v>36</v>
       </c>
       <c r="J4">
         <v>1000</v>
@@ -929,22 +1756,28 @@
       <c r="P4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4" t="s">
+        <v>37</v>
+      </c>
+      <c r="X4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5">
-        <v>186</v>
-      </c>
-      <c r="I5">
-        <v>65477</v>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
       </c>
       <c r="J5">
         <v>1000</v>
@@ -961,22 +1794,28 @@
       <c r="P5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5" t="s">
+        <v>42</v>
+      </c>
+      <c r="X5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
-      <c r="D6">
-        <v>187</v>
-      </c>
-      <c r="I6">
-        <v>65479</v>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" t="s">
+        <v>46</v>
       </c>
       <c r="J6">
         <v>1000</v>
@@ -993,22 +1832,28 @@
       <c r="P6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6" t="s">
+        <v>47</v>
+      </c>
+      <c r="X6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
-      <c r="D7">
-        <v>188</v>
-      </c>
-      <c r="I7">
-        <v>65474</v>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" t="s">
+        <v>51</v>
       </c>
       <c r="J7">
         <v>1000</v>
@@ -1025,22 +1870,28 @@
       <c r="P7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7" t="s">
+        <v>52</v>
+      </c>
+      <c r="X7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C8">
         <v>5</v>
       </c>
-      <c r="D8">
-        <v>65473</v>
-      </c>
-      <c r="I8">
-        <v>65472</v>
+      <c r="D8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" t="s">
+        <v>56</v>
       </c>
       <c r="J8">
         <v>1000</v>
@@ -1057,22 +1908,28 @@
       <c r="Q8">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8" t="s">
+        <v>57</v>
+      </c>
+      <c r="X8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="C9">
         <v>5</v>
       </c>
-      <c r="D9">
-        <v>65472</v>
-      </c>
-      <c r="I9">
-        <v>65471</v>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" t="s">
+        <v>60</v>
       </c>
       <c r="J9">
         <v>2000</v>
@@ -1089,13 +1946,19 @@
       <c r="Q9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="W9" t="s">
+        <v>61</v>
+      </c>
+      <c r="X9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10">
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -1103,8 +1966,8 @@
       <c r="E10">
         <v>5000</v>
       </c>
-      <c r="I10">
-        <v>66761</v>
+      <c r="I10" t="s">
+        <v>64</v>
       </c>
       <c r="J10">
         <v>1000</v>
@@ -1121,19 +1984,19 @@
       <c r="P10">
         <v>1</v>
       </c>
-      <c r="U10" t="s">
-        <v>34</v>
-      </c>
-      <c r="V10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="W10" t="s">
+        <v>65</v>
+      </c>
+      <c r="X10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11">
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -1141,19 +2004,25 @@
       <c r="E11">
         <v>25000</v>
       </c>
-      <c r="I11">
-        <v>69006</v>
+      <c r="I11" t="s">
+        <v>68</v>
       </c>
       <c r="P11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="W11" t="s">
+        <v>69</v>
+      </c>
+      <c r="X11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12">
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -1161,25 +2030,25 @@
       <c r="E12">
         <v>25000</v>
       </c>
-      <c r="I12">
-        <v>69007</v>
+      <c r="I12" t="s">
+        <v>72</v>
       </c>
       <c r="Q12">
         <v>10</v>
       </c>
-      <c r="U12" t="s">
-        <v>38</v>
-      </c>
-      <c r="V12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12" t="s">
+        <v>73</v>
+      </c>
+      <c r="X12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13">
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -1187,124 +2056,124 @@
       <c r="E13">
         <v>25000</v>
       </c>
-      <c r="I13">
-        <v>69008</v>
+      <c r="I13" t="s">
+        <v>76</v>
       </c>
       <c r="Q13">
         <v>12</v>
       </c>
-      <c r="U13" t="s">
-        <v>41</v>
-      </c>
-      <c r="V13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13" t="s">
+        <v>77</v>
+      </c>
+      <c r="X13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14">
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="C14">
         <v>8</v>
       </c>
-      <c r="D14">
-        <v>69008</v>
+      <c r="D14" t="s">
+        <v>76</v>
       </c>
       <c r="E14">
         <v>30000</v>
       </c>
-      <c r="I14">
-        <v>81870</v>
+      <c r="I14" t="s">
+        <v>80</v>
       </c>
       <c r="Q14">
         <v>13</v>
       </c>
-      <c r="U14" t="s">
-        <v>44</v>
-      </c>
-      <c r="V14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W14" t="s">
+        <v>81</v>
+      </c>
+      <c r="X14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15">
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="C15">
         <v>8</v>
       </c>
-      <c r="D15">
-        <v>81870</v>
+      <c r="D15" t="s">
+        <v>80</v>
       </c>
       <c r="E15">
         <v>50000</v>
       </c>
-      <c r="I15">
-        <v>81871</v>
+      <c r="I15" t="s">
+        <v>84</v>
       </c>
       <c r="Q15">
         <v>14</v>
       </c>
-      <c r="U15" t="s">
-        <v>47</v>
-      </c>
-      <c r="V15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15" t="s">
+        <v>85</v>
+      </c>
+      <c r="X15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16">
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="C16">
         <v>8</v>
       </c>
-      <c r="D16">
-        <v>81871</v>
+      <c r="D16" t="s">
+        <v>84</v>
       </c>
       <c r="E16">
         <v>75000</v>
       </c>
-      <c r="I16">
-        <v>81872</v>
+      <c r="I16" t="s">
+        <v>88</v>
       </c>
       <c r="Q16">
         <v>15</v>
       </c>
-      <c r="U16" t="s">
-        <v>50</v>
-      </c>
-      <c r="V16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="W16" t="s">
+        <v>89</v>
+      </c>
+      <c r="X16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17">
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="C17">
         <v>9</v>
       </c>
-      <c r="D17">
-        <v>81873</v>
+      <c r="D17" t="s">
+        <v>92</v>
       </c>
       <c r="E17">
         <v>50000</v>
       </c>
-      <c r="I17">
-        <v>81874</v>
+      <c r="I17" t="s">
+        <v>93</v>
       </c>
       <c r="J17">
         <v>100000</v>
@@ -1321,19 +2190,25 @@
       <c r="P17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17" t="s">
+        <v>94</v>
+      </c>
+      <c r="X17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18">
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="C18">
         <v>5</v>
       </c>
-      <c r="D18">
-        <v>296291</v>
+      <c r="D18" t="s">
+        <v>97</v>
       </c>
       <c r="E18">
         <v>10000</v>
@@ -1362,19 +2237,25 @@
       <c r="T18">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="W18" t="s">
+        <v>98</v>
+      </c>
+      <c r="X18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19">
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="C19">
         <v>10</v>
       </c>
-      <c r="D19">
-        <v>296290</v>
+      <c r="D19" t="s">
+        <v>101</v>
       </c>
       <c r="E19">
         <v>10000</v>
@@ -1382,8 +2263,8 @@
       <c r="F19">
         <v>200</v>
       </c>
-      <c r="I19">
-        <v>296285</v>
+      <c r="I19" t="s">
+        <v>102</v>
       </c>
       <c r="J19">
         <v>20000</v>
@@ -1406,19 +2287,25 @@
       <c r="T19">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="W19" t="s">
+        <v>103</v>
+      </c>
+      <c r="X19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20">
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="C20">
         <v>5</v>
       </c>
-      <c r="D20">
-        <v>296284</v>
+      <c r="D20" t="s">
+        <v>106</v>
       </c>
       <c r="E20">
         <v>1000</v>
@@ -1426,8 +2313,8 @@
       <c r="F20">
         <v>100</v>
       </c>
-      <c r="I20">
-        <v>296288</v>
+      <c r="I20" t="s">
+        <v>107</v>
       </c>
       <c r="J20">
         <v>500</v>
@@ -1444,8 +2331,8 @@
       <c r="Q20">
         <v>9</v>
       </c>
-      <c r="R20">
-        <v>296285</v>
+      <c r="R20" t="s">
+        <v>102</v>
       </c>
       <c r="S20">
         <v>3</v>
@@ -1453,19 +2340,25 @@
       <c r="T20">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="W20" t="s">
+        <v>108</v>
+      </c>
+      <c r="X20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21">
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="C21">
         <v>11</v>
       </c>
-      <c r="D21">
-        <v>296286</v>
+      <c r="D21" t="s">
+        <v>111</v>
       </c>
       <c r="E21">
         <v>5000</v>
@@ -1473,8 +2366,8 @@
       <c r="F21">
         <v>150</v>
       </c>
-      <c r="I21">
-        <v>296283</v>
+      <c r="I21" t="s">
+        <v>112</v>
       </c>
       <c r="J21">
         <v>1500</v>
@@ -1491,8 +2384,8 @@
       <c r="Q21">
         <v>20</v>
       </c>
-      <c r="R21">
-        <v>296287</v>
+      <c r="R21" t="s">
+        <v>113</v>
       </c>
       <c r="S21">
         <v>1</v>
@@ -1500,19 +2393,25 @@
       <c r="T21">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:22">
+      <c r="W21" t="s">
+        <v>114</v>
+      </c>
+      <c r="X21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22">
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="C22">
         <v>10</v>
       </c>
-      <c r="D22">
-        <v>296283</v>
+      <c r="D22" t="s">
+        <v>112</v>
       </c>
       <c r="E22">
         <v>20000</v>
@@ -1523,8 +2422,8 @@
       <c r="G22">
         <v>1000000000</v>
       </c>
-      <c r="I22">
-        <v>296282</v>
+      <c r="I22" t="s">
+        <v>117</v>
       </c>
       <c r="J22">
         <v>1500</v>
@@ -1541,8 +2440,8 @@
       <c r="Q22">
         <v>19</v>
       </c>
-      <c r="R22">
-        <v>296288</v>
+      <c r="R22" t="s">
+        <v>107</v>
       </c>
       <c r="S22">
         <v>2</v>
@@ -1550,19 +2449,25 @@
       <c r="T22">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:22">
+      <c r="W22" t="s">
+        <v>118</v>
+      </c>
+      <c r="X22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23">
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
-      <c r="I23">
-        <v>296268</v>
+      <c r="I23" t="s">
+        <v>121</v>
       </c>
       <c r="J23">
         <v>2000</v>
@@ -1585,25 +2490,25 @@
       <c r="T23">
         <v>1</v>
       </c>
-      <c r="U23" t="s">
-        <v>59</v>
-      </c>
-      <c r="V23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22">
+      <c r="W23" t="s">
+        <v>122</v>
+      </c>
+      <c r="X23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24">
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
-      <c r="I24">
-        <v>296269</v>
+      <c r="I24" t="s">
+        <v>125</v>
       </c>
       <c r="J24">
         <v>5000</v>
@@ -1626,25 +2531,25 @@
       <c r="T24">
         <v>2</v>
       </c>
-      <c r="U24" t="s">
-        <v>62</v>
-      </c>
-      <c r="V24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22">
+      <c r="W24" t="s">
+        <v>126</v>
+      </c>
+      <c r="X24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
       <c r="A25">
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="C25">
         <v>13</v>
       </c>
-      <c r="D25">
-        <v>296268</v>
+      <c r="D25" t="s">
+        <v>121</v>
       </c>
       <c r="E25">
         <v>10000</v>
@@ -1652,8 +2557,8 @@
       <c r="F25">
         <v>1000</v>
       </c>
-      <c r="I25">
-        <v>296270</v>
+      <c r="I25" t="s">
+        <v>129</v>
       </c>
       <c r="J25">
         <v>20000</v>
@@ -1670,16 +2575,22 @@
       <c r="Q25">
         <v>22</v>
       </c>
-      <c r="R25">
-        <v>296269</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22">
+      <c r="R25" t="s">
+        <v>125</v>
+      </c>
+      <c r="W25" t="s">
+        <v>130</v>
+      </c>
+      <c r="X25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
       <c r="A26">
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="C26">
         <v>8</v>
@@ -1705,22 +2616,28 @@
       <c r="T26">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:22">
+      <c r="W26" t="s">
+        <v>133</v>
+      </c>
+      <c r="X26" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
       <c r="A27">
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>135</v>
       </c>
       <c r="C27">
         <v>13</v>
       </c>
-      <c r="D27">
-        <v>296271</v>
-      </c>
-      <c r="I27">
-        <v>296273</v>
+      <c r="D27" t="s">
+        <v>136</v>
+      </c>
+      <c r="I27" t="s">
+        <v>137</v>
       </c>
       <c r="J27">
         <v>1000</v>
@@ -1737,28 +2654,28 @@
       <c r="Q27">
         <v>24</v>
       </c>
-      <c r="R27">
-        <v>296272</v>
-      </c>
-      <c r="U27" t="s">
-        <v>67</v>
-      </c>
-      <c r="V27" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22">
+      <c r="R27" t="s">
+        <v>138</v>
+      </c>
+      <c r="W27" t="s">
+        <v>139</v>
+      </c>
+      <c r="X27" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
       <c r="A28">
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>141</v>
       </c>
       <c r="C28">
         <v>9</v>
       </c>
-      <c r="D28">
-        <v>296273</v>
+      <c r="D28" t="s">
+        <v>137</v>
       </c>
       <c r="E28">
         <v>20000</v>
@@ -1769,8 +2686,8 @@
       <c r="G28">
         <v>2000000000</v>
       </c>
-      <c r="I28">
-        <v>296275</v>
+      <c r="I28" t="s">
+        <v>142</v>
       </c>
       <c r="J28">
         <v>10000</v>
@@ -1787,28 +2704,28 @@
       <c r="Q28">
         <v>27</v>
       </c>
-      <c r="R28">
-        <v>296274</v>
-      </c>
-      <c r="U28" t="s">
-        <v>70</v>
-      </c>
-      <c r="V28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22">
+      <c r="R28" t="s">
+        <v>143</v>
+      </c>
+      <c r="W28" t="s">
+        <v>144</v>
+      </c>
+      <c r="X28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
       <c r="A29">
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>146</v>
       </c>
       <c r="C29">
         <v>13</v>
       </c>
-      <c r="D29">
-        <v>296276</v>
+      <c r="D29" t="s">
+        <v>147</v>
       </c>
       <c r="J29">
         <v>3000</v>
@@ -1831,22 +2748,28 @@
       <c r="T29">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:22">
+      <c r="W29" t="s">
+        <v>148</v>
+      </c>
+      <c r="X29" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
       <c r="A30">
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>150</v>
       </c>
       <c r="C30">
         <v>10</v>
       </c>
-      <c r="D30">
-        <v>296277</v>
-      </c>
-      <c r="I30">
-        <v>296279</v>
+      <c r="D30" t="s">
+        <v>151</v>
+      </c>
+      <c r="I30" t="s">
+        <v>152</v>
       </c>
       <c r="J30">
         <v>20000</v>
@@ -1869,28 +2792,28 @@
       <c r="T30">
         <v>5</v>
       </c>
-      <c r="U30" t="s">
-        <v>74</v>
-      </c>
-      <c r="V30" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22">
+      <c r="W30" t="s">
+        <v>153</v>
+      </c>
+      <c r="X30" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
       <c r="A31">
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="C31">
         <v>5</v>
       </c>
-      <c r="D31">
-        <v>296278</v>
-      </c>
-      <c r="I31">
-        <v>296280</v>
+      <c r="D31" t="s">
+        <v>156</v>
+      </c>
+      <c r="I31" t="s">
+        <v>157</v>
       </c>
       <c r="J31">
         <v>100</v>
@@ -1907,25 +2830,25 @@
       <c r="Q31">
         <v>16</v>
       </c>
-      <c r="U31" t="s">
-        <v>77</v>
-      </c>
-      <c r="V31" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22">
+      <c r="W31" t="s">
+        <v>158</v>
+      </c>
+      <c r="X31" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
       <c r="A32">
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="C32">
         <v>8</v>
       </c>
-      <c r="D32">
-        <v>296279</v>
+      <c r="D32" t="s">
+        <v>152</v>
       </c>
       <c r="E32">
         <v>30000</v>
@@ -1933,8 +2856,8 @@
       <c r="F32">
         <v>1500</v>
       </c>
-      <c r="I32">
-        <v>296281</v>
+      <c r="I32" t="s">
+        <v>161</v>
       </c>
       <c r="J32">
         <v>100000</v>
@@ -1951,31 +2874,31 @@
       <c r="Q32">
         <v>31</v>
       </c>
-      <c r="R32">
-        <v>296280</v>
-      </c>
-      <c r="U32" t="s">
-        <v>80</v>
-      </c>
-      <c r="V32" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22">
+      <c r="R32" t="s">
+        <v>157</v>
+      </c>
+      <c r="W32" t="s">
+        <v>162</v>
+      </c>
+      <c r="X32" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24">
       <c r="A33">
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="C33">
         <v>15</v>
       </c>
-      <c r="D33">
-        <v>296267</v>
-      </c>
-      <c r="I33">
-        <v>296266</v>
+      <c r="D33" t="s">
+        <v>165</v>
+      </c>
+      <c r="I33" t="s">
+        <v>166</v>
       </c>
       <c r="J33">
         <v>1000</v>
@@ -1998,25 +2921,25 @@
       <c r="T33">
         <v>1</v>
       </c>
-      <c r="U33" t="s">
-        <v>83</v>
-      </c>
-      <c r="V33" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22">
+      <c r="W33" t="s">
+        <v>167</v>
+      </c>
+      <c r="X33" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24">
       <c r="A34">
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>85</v>
+        <v>169</v>
       </c>
       <c r="C34">
         <v>16</v>
       </c>
-      <c r="D34">
-        <v>308671</v>
+      <c r="D34" t="s">
+        <v>170</v>
       </c>
       <c r="E34">
         <v>1000</v>
@@ -2024,8 +2947,8 @@
       <c r="F34">
         <v>100</v>
       </c>
-      <c r="I34">
-        <v>308670</v>
+      <c r="I34" t="s">
+        <v>171</v>
       </c>
       <c r="J34">
         <v>500</v>
@@ -2042,22 +2965,28 @@
       <c r="Q34">
         <v>37</v>
       </c>
-      <c r="R34">
-        <v>308672</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22">
+      <c r="R34" t="s">
+        <v>172</v>
+      </c>
+      <c r="W34" t="s">
+        <v>173</v>
+      </c>
+      <c r="X34" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24">
       <c r="A35">
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
+        <v>175</v>
       </c>
       <c r="C35">
         <v>16</v>
       </c>
-      <c r="D35">
-        <v>308673</v>
+      <c r="D35" t="s">
+        <v>176</v>
       </c>
       <c r="E35">
         <v>1500</v>
@@ -2065,8 +2994,8 @@
       <c r="F35">
         <v>200</v>
       </c>
-      <c r="I35">
-        <v>308674</v>
+      <c r="I35" t="s">
+        <v>177</v>
       </c>
       <c r="J35">
         <v>750</v>
@@ -2083,8 +3012,8 @@
       <c r="Q35">
         <v>34</v>
       </c>
-      <c r="R35">
-        <v>308670</v>
+      <c r="R35" t="s">
+        <v>171</v>
       </c>
       <c r="S35">
         <v>3</v>
@@ -2092,19 +3021,25 @@
       <c r="T35">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:22">
+      <c r="W35" t="s">
+        <v>178</v>
+      </c>
+      <c r="X35" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24">
       <c r="A36">
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="C36">
         <v>16</v>
       </c>
-      <c r="D36">
-        <v>308675</v>
+      <c r="D36" t="s">
+        <v>181</v>
       </c>
       <c r="E36">
         <v>3000</v>
@@ -2112,8 +3047,8 @@
       <c r="F36">
         <v>500</v>
       </c>
-      <c r="I36">
-        <v>308676</v>
+      <c r="I36" t="s">
+        <v>182</v>
       </c>
       <c r="J36">
         <v>1500</v>
@@ -2130,8 +3065,8 @@
       <c r="Q36">
         <v>35</v>
       </c>
-      <c r="R36">
-        <v>308674</v>
+      <c r="R36" t="s">
+        <v>177</v>
       </c>
       <c r="S36">
         <v>2</v>
@@ -2139,13 +3074,19 @@
       <c r="T36">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:22">
+      <c r="W36" t="s">
+        <v>183</v>
+      </c>
+      <c r="X36" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24">
       <c r="A37">
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>88</v>
+        <v>185</v>
       </c>
       <c r="C37">
         <v>16</v>
@@ -2156,8 +3097,8 @@
       <c r="F37">
         <v>50</v>
       </c>
-      <c r="I37">
-        <v>308677</v>
+      <c r="I37" t="s">
+        <v>186</v>
       </c>
       <c r="J37">
         <v>250</v>
@@ -2174,19 +3115,25 @@
       <c r="P37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:22">
+      <c r="W37" t="s">
+        <v>187</v>
+      </c>
+      <c r="X37" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24">
       <c r="A38">
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>89</v>
+        <v>189</v>
       </c>
       <c r="C38">
         <v>16</v>
       </c>
-      <c r="D38">
-        <v>308676</v>
+      <c r="D38" t="s">
+        <v>182</v>
       </c>
       <c r="E38">
         <v>8000</v>
@@ -2194,8 +3141,8 @@
       <c r="F38">
         <v>1200</v>
       </c>
-      <c r="I38">
-        <v>308678</v>
+      <c r="I38" t="s">
+        <v>190</v>
       </c>
       <c r="J38">
         <v>4000</v>
@@ -2212,8 +3159,8 @@
       <c r="Q38">
         <v>36</v>
       </c>
-      <c r="R38">
-        <v>308677</v>
+      <c r="R38" t="s">
+        <v>186</v>
       </c>
       <c r="S38">
         <v>5</v>
@@ -2221,13 +3168,19 @@
       <c r="T38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:22">
+      <c r="W38" t="s">
+        <v>191</v>
+      </c>
+      <c r="X38" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24">
       <c r="A39">
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>90</v>
+        <v>193</v>
       </c>
       <c r="C39">
         <v>15</v>
@@ -2238,8 +3191,8 @@
       <c r="F39">
         <v>50</v>
       </c>
-      <c r="I39">
-        <v>308679</v>
+      <c r="I39" t="s">
+        <v>194</v>
       </c>
       <c r="J39">
         <v>500</v>
@@ -2256,13 +3209,19 @@
       <c r="Q39">
         <v>33</v>
       </c>
-    </row>
-    <row r="40" spans="1:22">
+      <c r="W39" t="s">
+        <v>195</v>
+      </c>
+      <c r="X39" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24">
       <c r="A40">
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>91</v>
+        <v>197</v>
       </c>
       <c r="C40">
         <v>17</v>
@@ -2288,19 +3247,25 @@
       <c r="P40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:22">
+      <c r="W40" t="s">
+        <v>198</v>
+      </c>
+      <c r="X40" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24">
       <c r="A41">
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>92</v>
+        <v>200</v>
       </c>
       <c r="C41">
         <v>17</v>
       </c>
-      <c r="D41">
-        <v>308680</v>
+      <c r="D41" t="s">
+        <v>201</v>
       </c>
       <c r="L41">
         <v>100000000</v>
@@ -2317,22 +3282,28 @@
       <c r="T41">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:22">
+      <c r="W41" t="s">
+        <v>202</v>
+      </c>
+      <c r="X41" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24">
       <c r="A42">
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>93</v>
+        <v>204</v>
       </c>
       <c r="C42">
         <v>17</v>
       </c>
-      <c r="D42">
-        <v>308681</v>
-      </c>
-      <c r="I42">
-        <v>308683</v>
+      <c r="D42" t="s">
+        <v>205</v>
+      </c>
+      <c r="I42" t="s">
+        <v>206</v>
       </c>
       <c r="J42">
         <v>10000</v>
@@ -2349,8 +3320,8 @@
       <c r="Q42">
         <v>41</v>
       </c>
-      <c r="R42">
-        <v>308682</v>
+      <c r="R42" t="s">
+        <v>207</v>
       </c>
       <c r="S42">
         <v>4</v>
@@ -2358,19 +3329,25 @@
       <c r="T42">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:22">
+      <c r="W42" t="s">
+        <v>208</v>
+      </c>
+      <c r="X42" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24">
       <c r="A43">
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>94</v>
+        <v>210</v>
       </c>
       <c r="C43">
         <v>16</v>
       </c>
-      <c r="D43">
-        <v>308684</v>
+      <c r="D43" t="s">
+        <v>211</v>
       </c>
       <c r="E43">
         <v>10000</v>
@@ -2381,8 +3358,8 @@
       <c r="H43">
         <v>75</v>
       </c>
-      <c r="I43">
-        <v>308685</v>
+      <c r="I43" t="s">
+        <v>212</v>
       </c>
       <c r="J43">
         <v>5000</v>
@@ -2399,8 +3376,8 @@
       <c r="Q43">
         <v>37</v>
       </c>
-      <c r="R43">
-        <v>308678</v>
+      <c r="R43" t="s">
+        <v>190</v>
       </c>
       <c r="S43">
         <v>5</v>
@@ -2408,19 +3385,25 @@
       <c r="T43">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:22">
+      <c r="W43" t="s">
+        <v>213</v>
+      </c>
+      <c r="X43" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24">
       <c r="A44">
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>95</v>
+        <v>215</v>
       </c>
       <c r="C44">
         <v>16</v>
       </c>
-      <c r="D44">
-        <v>308686</v>
+      <c r="D44" t="s">
+        <v>216</v>
       </c>
       <c r="E44">
         <v>15000</v>
@@ -2431,8 +3414,8 @@
       <c r="H44">
         <v>125</v>
       </c>
-      <c r="I44">
-        <v>308687</v>
+      <c r="I44" t="s">
+        <v>217</v>
       </c>
       <c r="J44">
         <v>5000</v>
@@ -2449,8 +3432,8 @@
       <c r="Q44">
         <v>43</v>
       </c>
-      <c r="R44">
-        <v>308685</v>
+      <c r="R44" t="s">
+        <v>212</v>
       </c>
       <c r="S44">
         <v>5</v>
@@ -2458,17 +3441,26 @@
       <c r="T44">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="1:22">
+      <c r="W44" t="s">
+        <v>218</v>
+      </c>
+      <c r="X44" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24">
       <c r="A45">
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>96</v>
+        <v>220</v>
       </c>
       <c r="C45">
         <v>16</v>
       </c>
+      <c r="D45" t="s">
+        <v>217</v>
+      </c>
       <c r="E45">
         <v>25000</v>
       </c>
@@ -2481,8 +3473,8 @@
       <c r="H45">
         <v>500</v>
       </c>
-      <c r="I45">
-        <v>308688</v>
+      <c r="I45" t="s">
+        <v>221</v>
       </c>
       <c r="L45">
         <v>200000000</v>
@@ -2493,13 +3485,22 @@
       <c r="Q45">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:22">
+      <c r="R45" t="s">
+        <v>222</v>
+      </c>
+      <c r="W45" t="s">
+        <v>223</v>
+      </c>
+      <c r="X45" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24">
       <c r="A46">
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>97</v>
+        <v>225</v>
       </c>
       <c r="C46">
         <v>11</v>
@@ -2525,19 +3526,25 @@
       <c r="P46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:22">
+      <c r="W46" t="s">
+        <v>226</v>
+      </c>
+      <c r="X46" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24">
       <c r="A47">
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>98</v>
+        <v>228</v>
       </c>
       <c r="C47">
         <v>5</v>
       </c>
-      <c r="D47">
-        <v>308808</v>
+      <c r="D47" t="s">
+        <v>229</v>
       </c>
       <c r="E47">
         <v>30000</v>
@@ -2560,45 +3567,57 @@
       <c r="Q47">
         <v>46</v>
       </c>
-      <c r="R47">
-        <v>308809</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22">
+      <c r="R47" t="s">
+        <v>230</v>
+      </c>
+      <c r="W47" t="s">
+        <v>231</v>
+      </c>
+      <c r="X47" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24">
       <c r="A48">
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>99</v>
+        <v>233</v>
       </c>
       <c r="C48">
         <v>16</v>
       </c>
-      <c r="D48">
-        <v>308810</v>
-      </c>
-      <c r="I48">
-        <v>308812</v>
+      <c r="D48" t="s">
+        <v>234</v>
+      </c>
+      <c r="I48" t="s">
+        <v>222</v>
       </c>
       <c r="Q48">
         <v>47</v>
       </c>
-      <c r="R48">
-        <v>308811</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22">
+      <c r="R48" t="s">
+        <v>235</v>
+      </c>
+      <c r="W48" t="s">
+        <v>236</v>
+      </c>
+      <c r="X48" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24">
       <c r="A49">
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>100</v>
+        <v>238</v>
       </c>
       <c r="C49">
         <v>16</v>
       </c>
-      <c r="D49">
-        <v>308813</v>
+      <c r="D49" t="s">
+        <v>239</v>
       </c>
       <c r="E49">
         <v>30000</v>
@@ -2612,8 +3631,8 @@
       <c r="H49">
         <v>1000</v>
       </c>
-      <c r="I49">
-        <v>308814</v>
+      <c r="I49" t="s">
+        <v>240</v>
       </c>
       <c r="J49">
         <v>1500</v>
@@ -2630,22 +3649,28 @@
       <c r="Q49">
         <v>48</v>
       </c>
-      <c r="R49">
-        <v>308688</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22">
+      <c r="R49" t="s">
+        <v>221</v>
+      </c>
+      <c r="W49" t="s">
+        <v>241</v>
+      </c>
+      <c r="X49" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24">
       <c r="A50">
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>101</v>
+        <v>243</v>
       </c>
       <c r="C50">
         <v>10</v>
       </c>
-      <c r="D50">
-        <v>308815</v>
+      <c r="D50" t="s">
+        <v>244</v>
       </c>
       <c r="E50">
         <v>50000</v>
@@ -2656,8 +3681,8 @@
       <c r="G50">
         <v>10000000</v>
       </c>
-      <c r="I50">
-        <v>308807</v>
+      <c r="I50" t="s">
+        <v>245</v>
       </c>
       <c r="J50">
         <v>1000</v>
@@ -2674,13 +3699,19 @@
       <c r="Q50">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:22">
+      <c r="W50" t="s">
+        <v>246</v>
+      </c>
+      <c r="X50" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24">
       <c r="A51">
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="C51">
         <v>15</v>
@@ -2688,19 +3719,25 @@
       <c r="E51">
         <v>1000</v>
       </c>
-      <c r="I51">
-        <v>310028</v>
+      <c r="I51" t="s">
+        <v>249</v>
       </c>
       <c r="Q51">
         <v>33</v>
       </c>
-    </row>
-    <row r="52" spans="1:22">
+      <c r="W51" t="s">
+        <v>250</v>
+      </c>
+      <c r="X51" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24">
       <c r="A52">
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>103</v>
+        <v>252</v>
       </c>
       <c r="C52">
         <v>15</v>
@@ -2708,8 +3745,8 @@
       <c r="E52">
         <v>1000</v>
       </c>
-      <c r="I52">
-        <v>310029</v>
+      <c r="I52" t="s">
+        <v>253</v>
       </c>
       <c r="L52">
         <v>100</v>
@@ -2720,25 +3757,31 @@
       <c r="Q52">
         <v>33</v>
       </c>
-    </row>
-    <row r="53" spans="1:22">
+      <c r="W52" t="s">
+        <v>254</v>
+      </c>
+      <c r="X52" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24">
       <c r="A53">
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>104</v>
+        <v>256</v>
       </c>
       <c r="C53">
         <v>15</v>
       </c>
-      <c r="D53">
-        <v>310027</v>
+      <c r="D53" t="s">
+        <v>257</v>
       </c>
       <c r="E53">
         <v>1500</v>
       </c>
-      <c r="I53">
-        <v>310030</v>
+      <c r="I53" t="s">
+        <v>258</v>
       </c>
       <c r="L53">
         <v>1000</v>
@@ -2755,31 +3798,31 @@
       <c r="T53">
         <v>1</v>
       </c>
-      <c r="U53" t="s">
-        <v>105</v>
-      </c>
-      <c r="V53" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22">
+      <c r="W53" t="s">
+        <v>259</v>
+      </c>
+      <c r="X53" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24">
       <c r="A54">
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>107</v>
+        <v>261</v>
       </c>
       <c r="C54">
         <v>15</v>
       </c>
-      <c r="D54">
-        <v>310030</v>
+      <c r="D54" t="s">
+        <v>258</v>
       </c>
       <c r="E54">
         <v>3000</v>
       </c>
-      <c r="I54">
-        <v>310031</v>
+      <c r="I54" t="s">
+        <v>262</v>
       </c>
       <c r="L54">
         <v>100000</v>
@@ -2790,25 +3833,31 @@
       <c r="Q54">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:22">
+      <c r="W54" t="s">
+        <v>263</v>
+      </c>
+      <c r="X54" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24">
       <c r="A55">
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>108</v>
+        <v>265</v>
       </c>
       <c r="C55">
         <v>15</v>
       </c>
-      <c r="D55">
-        <v>310031</v>
+      <c r="D55" t="s">
+        <v>262</v>
       </c>
       <c r="E55">
         <v>6000</v>
       </c>
-      <c r="I55">
-        <v>310032</v>
+      <c r="I55" t="s">
+        <v>266</v>
       </c>
       <c r="L55">
         <v>1000000</v>
@@ -2819,25 +3868,31 @@
       <c r="Q55">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:22">
+      <c r="W55" t="s">
+        <v>267</v>
+      </c>
+      <c r="X55" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24">
       <c r="A56">
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>109</v>
+        <v>269</v>
       </c>
       <c r="C56">
         <v>15</v>
       </c>
-      <c r="D56">
-        <v>310026</v>
+      <c r="D56" t="s">
+        <v>270</v>
       </c>
       <c r="E56">
         <v>1000</v>
       </c>
-      <c r="I56">
-        <v>310033</v>
+      <c r="I56" t="s">
+        <v>271</v>
       </c>
       <c r="L56">
         <v>1000</v>
@@ -2854,31 +3909,31 @@
       <c r="T56">
         <v>3</v>
       </c>
-      <c r="U56" t="s">
-        <v>110</v>
-      </c>
-      <c r="V56" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22">
+      <c r="W56" t="s">
+        <v>272</v>
+      </c>
+      <c r="X56" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24">
       <c r="A57">
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>112</v>
+        <v>274</v>
       </c>
       <c r="C57">
         <v>15</v>
       </c>
-      <c r="D57">
-        <v>310033</v>
+      <c r="D57" t="s">
+        <v>271</v>
       </c>
       <c r="E57">
         <v>1500</v>
       </c>
-      <c r="I57">
-        <v>310034</v>
+      <c r="I57" t="s">
+        <v>275</v>
       </c>
       <c r="L57">
         <v>10000</v>
@@ -2889,31 +3944,31 @@
       <c r="Q57">
         <v>56</v>
       </c>
-      <c r="U57" t="s">
-        <v>113</v>
-      </c>
-      <c r="V57" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22">
+      <c r="W57" t="s">
+        <v>276</v>
+      </c>
+      <c r="X57" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24">
       <c r="A58">
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>115</v>
+        <v>278</v>
       </c>
       <c r="C58">
         <v>15</v>
       </c>
-      <c r="D58">
-        <v>310034</v>
+      <c r="D58" t="s">
+        <v>275</v>
       </c>
       <c r="E58">
         <v>3000</v>
       </c>
-      <c r="I58">
-        <v>310035</v>
+      <c r="I58" t="s">
+        <v>279</v>
       </c>
       <c r="L58">
         <v>1000000</v>
@@ -2924,31 +3979,31 @@
       <c r="Q58">
         <v>57</v>
       </c>
-      <c r="U58" t="s">
-        <v>116</v>
-      </c>
-      <c r="V58" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22">
+      <c r="W58" t="s">
+        <v>280</v>
+      </c>
+      <c r="X58" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24">
       <c r="A59">
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>118</v>
+        <v>282</v>
       </c>
       <c r="C59">
         <v>15</v>
       </c>
-      <c r="D59">
-        <v>310028</v>
+      <c r="D59" t="s">
+        <v>249</v>
       </c>
       <c r="E59">
         <v>1500</v>
       </c>
-      <c r="I59">
-        <v>310036</v>
+      <c r="I59" t="s">
+        <v>283</v>
       </c>
       <c r="L59">
         <v>1000</v>
@@ -2965,25 +4020,31 @@
       <c r="T59">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="1:22">
+      <c r="W59" t="s">
+        <v>284</v>
+      </c>
+      <c r="X59" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24">
       <c r="A60">
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>119</v>
+        <v>286</v>
       </c>
       <c r="C60">
         <v>15</v>
       </c>
-      <c r="D60">
-        <v>310036</v>
+      <c r="D60" t="s">
+        <v>283</v>
       </c>
       <c r="E60">
         <v>3000</v>
       </c>
-      <c r="I60">
-        <v>310037</v>
+      <c r="I60" t="s">
+        <v>287</v>
       </c>
       <c r="L60">
         <v>100000</v>
@@ -2994,25 +4055,31 @@
       <c r="Q60">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:22">
+      <c r="W60" t="s">
+        <v>288</v>
+      </c>
+      <c r="X60" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24">
       <c r="A61">
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>120</v>
+        <v>290</v>
       </c>
       <c r="C61">
         <v>15</v>
       </c>
-      <c r="D61">
-        <v>310037</v>
+      <c r="D61" t="s">
+        <v>287</v>
       </c>
       <c r="E61">
         <v>5000</v>
       </c>
-      <c r="I61">
-        <v>310038</v>
+      <c r="I61" t="s">
+        <v>291</v>
       </c>
       <c r="L61">
         <v>1000000</v>
@@ -3023,19 +4090,25 @@
       <c r="Q61">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:22">
+      <c r="W61" t="s">
+        <v>292</v>
+      </c>
+      <c r="X61" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24">
       <c r="A62">
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>121</v>
+        <v>294</v>
       </c>
       <c r="C62">
         <v>4</v>
       </c>
-      <c r="D62">
-        <v>69006</v>
+      <c r="D62" t="s">
+        <v>68</v>
       </c>
       <c r="E62">
         <v>5000</v>
@@ -3043,8 +4116,8 @@
       <c r="F62">
         <v>5</v>
       </c>
-      <c r="I62">
-        <v>310039</v>
+      <c r="I62" t="s">
+        <v>294</v>
       </c>
       <c r="J62">
         <v>10000</v>
@@ -3067,25 +4140,31 @@
       <c r="T62">
         <v>2</v>
       </c>
-    </row>
-    <row r="63" spans="1:22">
+      <c r="W62" t="s">
+        <v>295</v>
+      </c>
+      <c r="X62" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24">
       <c r="A63">
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>122</v>
+        <v>297</v>
       </c>
       <c r="C63">
         <v>15</v>
       </c>
-      <c r="D63">
-        <v>310029</v>
+      <c r="D63" t="s">
+        <v>253</v>
       </c>
       <c r="E63">
         <v>1000</v>
       </c>
-      <c r="I63">
-        <v>310040</v>
+      <c r="I63" t="s">
+        <v>298</v>
       </c>
       <c r="L63">
         <v>1000</v>
@@ -3102,19 +4181,25 @@
       <c r="T63">
         <v>3</v>
       </c>
-    </row>
-    <row r="64" spans="1:22">
+      <c r="W63" t="s">
+        <v>299</v>
+      </c>
+      <c r="X63" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24">
       <c r="A64">
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>123</v>
+        <v>301</v>
       </c>
       <c r="C64">
         <v>15</v>
       </c>
-      <c r="D64">
-        <v>310040</v>
+      <c r="D64" t="s">
+        <v>298</v>
       </c>
       <c r="E64">
         <v>2000</v>
@@ -3122,8 +4207,8 @@
       <c r="F64">
         <v>10</v>
       </c>
-      <c r="I64">
-        <v>310041</v>
+      <c r="I64" t="s">
+        <v>302</v>
       </c>
       <c r="K64">
         <v>20</v>
@@ -3137,19 +4222,25 @@
       <c r="Q64">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:22">
+      <c r="W64" t="s">
+        <v>303</v>
+      </c>
+      <c r="X64" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24">
       <c r="A65">
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>124</v>
+        <v>305</v>
       </c>
       <c r="C65">
         <v>15</v>
       </c>
-      <c r="D65">
-        <v>310041</v>
+      <c r="D65" t="s">
+        <v>302</v>
       </c>
       <c r="E65">
         <v>5000</v>
@@ -3157,8 +4248,8 @@
       <c r="F65">
         <v>10</v>
       </c>
-      <c r="I65">
-        <v>310042</v>
+      <c r="I65" t="s">
+        <v>306</v>
       </c>
       <c r="J65">
         <v>10000</v>
@@ -3181,9 +4272,816 @@
       <c r="T65">
         <v>1</v>
       </c>
+      <c r="W65" t="s">
+        <v>307</v>
+      </c>
+      <c r="X65" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24">
+      <c r="A66">
+        <v>66</v>
+      </c>
+      <c r="B66" t="s">
+        <v>309</v>
+      </c>
+      <c r="C66">
+        <v>12</v>
+      </c>
+      <c r="D66" t="s">
+        <v>310</v>
+      </c>
+      <c r="H66">
+        <v>500</v>
+      </c>
+      <c r="I66" t="s">
+        <v>311</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>75000000</v>
+      </c>
+      <c r="M66">
+        <v>100</v>
+      </c>
+      <c r="P66">
+        <v>1</v>
+      </c>
+      <c r="R66" t="s">
+        <v>312</v>
+      </c>
+      <c r="S66">
+        <v>4</v>
+      </c>
+      <c r="T66">
+        <v>5</v>
+      </c>
+      <c r="W66" t="s">
+        <v>313</v>
+      </c>
+      <c r="X66" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24">
+      <c r="A67">
+        <v>67</v>
+      </c>
+      <c r="B67" t="s">
+        <v>315</v>
+      </c>
+      <c r="C67">
+        <v>12</v>
+      </c>
+      <c r="D67" t="s">
+        <v>311</v>
+      </c>
+      <c r="H67">
+        <v>1000</v>
+      </c>
+      <c r="I67" t="s">
+        <v>316</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>150000000</v>
+      </c>
+      <c r="M67">
+        <v>150</v>
+      </c>
+      <c r="Q67">
+        <v>66</v>
+      </c>
+      <c r="R67" t="s">
+        <v>317</v>
+      </c>
+      <c r="W67" t="s">
+        <v>318</v>
+      </c>
+      <c r="X67" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24">
+      <c r="A68">
+        <v>68</v>
+      </c>
+      <c r="B68" t="s">
+        <v>320</v>
+      </c>
+      <c r="C68">
+        <v>12</v>
+      </c>
+      <c r="D68" t="s">
+        <v>316</v>
+      </c>
+      <c r="H68">
+        <v>1500</v>
+      </c>
+      <c r="I68" t="s">
+        <v>321</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>225000000</v>
+      </c>
+      <c r="M68">
+        <v>200</v>
+      </c>
+      <c r="Q68">
+        <v>67</v>
+      </c>
+      <c r="R68" t="s">
+        <v>322</v>
+      </c>
+      <c r="W68" t="s">
+        <v>323</v>
+      </c>
+      <c r="X68" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24">
+      <c r="A69">
+        <v>69</v>
+      </c>
+      <c r="B69" t="s">
+        <v>325</v>
+      </c>
+      <c r="C69">
+        <v>12</v>
+      </c>
+      <c r="D69" t="s">
+        <v>321</v>
+      </c>
+      <c r="H69">
+        <v>3000</v>
+      </c>
+      <c r="I69" t="s">
+        <v>326</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>300000000</v>
+      </c>
+      <c r="M69">
+        <v>300</v>
+      </c>
+      <c r="Q69">
+        <v>68</v>
+      </c>
+      <c r="R69" t="s">
+        <v>327</v>
+      </c>
+      <c r="W69" t="s">
+        <v>328</v>
+      </c>
+      <c r="X69" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24">
+      <c r="A70">
+        <v>70</v>
+      </c>
+      <c r="B70" t="s">
+        <v>330</v>
+      </c>
+      <c r="C70">
+        <v>10</v>
+      </c>
+      <c r="D70" t="s">
+        <v>331</v>
+      </c>
+      <c r="E70">
+        <v>10000</v>
+      </c>
+      <c r="F70">
+        <v>5000</v>
+      </c>
+      <c r="H70">
+        <v>5000</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>150000000</v>
+      </c>
+      <c r="M70">
+        <v>250</v>
+      </c>
+      <c r="Q70">
+        <v>66</v>
+      </c>
+      <c r="R70" t="s">
+        <v>332</v>
+      </c>
+      <c r="W70" t="s">
+        <v>333</v>
+      </c>
+      <c r="X70" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24">
+      <c r="A71">
+        <v>71</v>
+      </c>
+      <c r="B71" t="s">
+        <v>335</v>
+      </c>
+      <c r="C71">
+        <v>10</v>
+      </c>
+      <c r="E71">
+        <v>15000</v>
+      </c>
+      <c r="F71">
+        <v>7000</v>
+      </c>
+      <c r="G71">
+        <v>1000000000</v>
+      </c>
+      <c r="H71">
+        <v>3000</v>
+      </c>
+      <c r="L71">
+        <v>2000000000</v>
+      </c>
+      <c r="M71">
+        <v>250</v>
+      </c>
+      <c r="Q71">
+        <v>70</v>
+      </c>
+      <c r="W71" t="s">
+        <v>336</v>
+      </c>
+      <c r="X71" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24">
+      <c r="A72">
+        <v>72</v>
+      </c>
+      <c r="B72" t="s">
+        <v>338</v>
+      </c>
+      <c r="C72">
+        <v>10</v>
+      </c>
+      <c r="D72" t="s">
+        <v>339</v>
+      </c>
+      <c r="E72">
+        <v>25000</v>
+      </c>
+      <c r="F72">
+        <v>7500</v>
+      </c>
+      <c r="H72">
+        <v>10000</v>
+      </c>
+      <c r="I72" t="s">
+        <v>340</v>
+      </c>
+      <c r="L72">
+        <v>2000000000</v>
+      </c>
+      <c r="M72">
+        <v>300</v>
+      </c>
+      <c r="Q72">
+        <v>71</v>
+      </c>
+      <c r="W72" t="s">
+        <v>341</v>
+      </c>
+      <c r="X72" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24">
+      <c r="A73">
+        <v>73</v>
+      </c>
+      <c r="B73" t="s">
+        <v>343</v>
+      </c>
+      <c r="C73">
+        <v>16</v>
+      </c>
+      <c r="D73" t="s">
+        <v>344</v>
+      </c>
+      <c r="J73">
+        <v>10000</v>
+      </c>
+      <c r="K73">
+        <v>500</v>
+      </c>
+      <c r="L73">
+        <v>1000000</v>
+      </c>
+      <c r="M73">
+        <v>100</v>
+      </c>
+      <c r="Q73">
+        <v>37</v>
+      </c>
+      <c r="W73" t="s">
+        <v>345</v>
+      </c>
+      <c r="X73" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24">
+      <c r="A74">
+        <v>74</v>
+      </c>
+      <c r="B74" t="s">
+        <v>347</v>
+      </c>
+      <c r="C74">
+        <v>16</v>
+      </c>
+      <c r="D74" t="s">
+        <v>348</v>
+      </c>
+      <c r="J74">
+        <v>15000</v>
+      </c>
+      <c r="K74">
+        <v>750</v>
+      </c>
+      <c r="L74">
+        <v>2000000</v>
+      </c>
+      <c r="M74">
+        <v>250</v>
+      </c>
+      <c r="Q74">
+        <v>73</v>
+      </c>
+      <c r="W74" t="s">
+        <v>349</v>
+      </c>
+      <c r="X74" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24">
+      <c r="A75">
+        <v>75</v>
+      </c>
+      <c r="B75" t="s">
+        <v>351</v>
+      </c>
+      <c r="C75">
+        <v>16</v>
+      </c>
+      <c r="D75" t="s">
+        <v>352</v>
+      </c>
+      <c r="J75">
+        <v>20000</v>
+      </c>
+      <c r="K75">
+        <v>1000</v>
+      </c>
+      <c r="L75">
+        <v>5000000</v>
+      </c>
+      <c r="M75">
+        <v>500</v>
+      </c>
+      <c r="Q75">
+        <v>74</v>
+      </c>
+      <c r="R75" t="s">
+        <v>353</v>
+      </c>
+      <c r="W75" t="s">
+        <v>354</v>
+      </c>
+      <c r="X75" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24">
+      <c r="A76">
+        <v>76</v>
+      </c>
+      <c r="B76" t="s">
+        <v>356</v>
+      </c>
+      <c r="C76">
+        <v>16</v>
+      </c>
+      <c r="M76">
+        <v>500</v>
+      </c>
+      <c r="Q76">
+        <v>75</v>
+      </c>
+      <c r="S76">
+        <v>2</v>
+      </c>
+      <c r="T76">
+        <v>2</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>357</v>
+      </c>
+      <c r="X76" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24">
+      <c r="A77">
+        <v>77</v>
+      </c>
+      <c r="B77" t="s">
+        <v>359</v>
+      </c>
+      <c r="C77">
+        <v>18</v>
+      </c>
+      <c r="D77" t="s">
+        <v>360</v>
+      </c>
+      <c r="J77">
+        <v>1000</v>
+      </c>
+      <c r="K77">
+        <v>1000</v>
+      </c>
+      <c r="L77">
+        <v>2000000</v>
+      </c>
+      <c r="M77">
+        <v>100</v>
+      </c>
+      <c r="Q77">
+        <v>40</v>
+      </c>
+      <c r="W77" t="s">
+        <v>361</v>
+      </c>
+      <c r="X77" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24">
+      <c r="A78">
+        <v>78</v>
+      </c>
+      <c r="B78" t="s">
+        <v>363</v>
+      </c>
+      <c r="C78">
+        <v>18</v>
+      </c>
+      <c r="D78" t="s">
+        <v>364</v>
+      </c>
+      <c r="J78">
+        <v>1000</v>
+      </c>
+      <c r="K78">
+        <v>1000</v>
+      </c>
+      <c r="L78">
+        <v>10000000</v>
+      </c>
+      <c r="M78">
+        <v>150</v>
+      </c>
+      <c r="Q78">
+        <v>77</v>
+      </c>
+      <c r="W78" t="s">
+        <v>365</v>
+      </c>
+      <c r="X78" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24">
+      <c r="A79">
+        <v>79</v>
+      </c>
+      <c r="B79" t="s">
+        <v>367</v>
+      </c>
+      <c r="C79">
+        <v>18</v>
+      </c>
+      <c r="D79" t="s">
+        <v>368</v>
+      </c>
+      <c r="J79">
+        <v>1000</v>
+      </c>
+      <c r="K79">
+        <v>1000</v>
+      </c>
+      <c r="L79">
+        <v>15000000</v>
+      </c>
+      <c r="M79">
+        <v>200</v>
+      </c>
+      <c r="Q79">
+        <v>78</v>
+      </c>
+      <c r="R79" t="s">
+        <v>369</v>
+      </c>
+      <c r="W79" t="s">
+        <v>370</v>
+      </c>
+      <c r="X79" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24">
+      <c r="A80">
+        <v>80</v>
+      </c>
+      <c r="B80" t="s">
+        <v>372</v>
+      </c>
+      <c r="C80">
+        <v>19</v>
+      </c>
+      <c r="D80" t="s">
+        <v>373</v>
+      </c>
+      <c r="J80">
+        <v>1000</v>
+      </c>
+      <c r="K80">
+        <v>100</v>
+      </c>
+      <c r="L80">
+        <v>10000000</v>
+      </c>
+      <c r="M80">
+        <v>200</v>
+      </c>
+      <c r="Q80">
+        <v>48</v>
+      </c>
+      <c r="W80" t="s">
+        <v>374</v>
+      </c>
+      <c r="X80" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24">
+      <c r="A81">
+        <v>81</v>
+      </c>
+      <c r="B81" t="s">
+        <v>376</v>
+      </c>
+      <c r="C81">
+        <v>19</v>
+      </c>
+      <c r="I81" t="s">
+        <v>377</v>
+      </c>
+      <c r="J81">
+        <v>1000</v>
+      </c>
+      <c r="K81">
+        <v>500</v>
+      </c>
+      <c r="L81">
+        <v>10000000</v>
+      </c>
+      <c r="M81">
+        <v>200</v>
+      </c>
+      <c r="Q81">
+        <v>80</v>
+      </c>
+      <c r="S81">
+        <v>2</v>
+      </c>
+      <c r="T81">
+        <v>5</v>
+      </c>
+      <c r="W81" t="s">
+        <v>378</v>
+      </c>
+      <c r="X81" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24">
+      <c r="A82">
+        <v>82</v>
+      </c>
+      <c r="B82" t="s">
+        <v>380</v>
+      </c>
+      <c r="C82">
+        <v>18</v>
+      </c>
+      <c r="D82" t="s">
+        <v>377</v>
+      </c>
+      <c r="J82">
+        <v>10000</v>
+      </c>
+      <c r="K82">
+        <v>1000</v>
+      </c>
+      <c r="L82">
+        <v>10000000</v>
+      </c>
+      <c r="M82">
+        <v>500</v>
+      </c>
+      <c r="Q82">
+        <v>79</v>
+      </c>
+      <c r="R82" t="s">
+        <v>381</v>
+      </c>
+      <c r="V82">
+        <v>10</v>
+      </c>
+      <c r="W82" t="s">
+        <v>382</v>
+      </c>
+      <c r="X82" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24">
+      <c r="A83">
+        <v>83</v>
+      </c>
+      <c r="B83" t="s">
+        <v>384</v>
+      </c>
+      <c r="C83">
+        <v>18</v>
+      </c>
+      <c r="D83" t="s">
+        <v>385</v>
+      </c>
+      <c r="E83">
+        <v>10000</v>
+      </c>
+      <c r="F83">
+        <v>200</v>
+      </c>
+      <c r="H83">
+        <v>1000</v>
+      </c>
+      <c r="J83">
+        <v>5000</v>
+      </c>
+      <c r="K83">
+        <v>500</v>
+      </c>
+      <c r="L83">
+        <v>1000000</v>
+      </c>
+      <c r="M83">
+        <v>250</v>
+      </c>
+      <c r="Q83">
+        <v>40</v>
+      </c>
+      <c r="W83" t="s">
+        <v>386</v>
+      </c>
+      <c r="X83" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24">
+      <c r="A84">
+        <v>84</v>
+      </c>
+      <c r="B84" t="s">
+        <v>388</v>
+      </c>
+      <c r="C84">
+        <v>18</v>
+      </c>
+      <c r="D84" t="s">
+        <v>389</v>
+      </c>
+      <c r="J84">
+        <v>5000</v>
+      </c>
+      <c r="K84">
+        <v>500</v>
+      </c>
+      <c r="L84">
+        <v>10000000</v>
+      </c>
+      <c r="M84">
+        <v>250</v>
+      </c>
+      <c r="Q84">
+        <v>83</v>
+      </c>
+      <c r="R84" t="s">
+        <v>390</v>
+      </c>
+      <c r="W84" t="s">
+        <v>391</v>
+      </c>
+      <c r="X84" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24">
+      <c r="A85">
+        <v>85</v>
+      </c>
+      <c r="B85" t="s">
+        <v>393</v>
+      </c>
+      <c r="C85">
+        <v>18</v>
+      </c>
+      <c r="E85">
+        <v>100000</v>
+      </c>
+      <c r="F85">
+        <v>10000</v>
+      </c>
+      <c r="G85">
+        <v>1000000000000</v>
+      </c>
+      <c r="H85">
+        <v>50000</v>
+      </c>
+      <c r="J85">
+        <v>10000</v>
+      </c>
+      <c r="K85">
+        <v>1000</v>
+      </c>
+      <c r="L85">
+        <v>1000000000</v>
+      </c>
+      <c r="M85">
+        <v>500</v>
+      </c>
+      <c r="Q85">
+        <v>84</v>
+      </c>
+      <c r="U85">
+        <v>1</v>
+      </c>
+      <c r="W85" t="s">
+        <v>394</v>
+      </c>
+      <c r="X85" t="s">
+        <v>395</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/resources/data-imports/quests.xlsx
+++ b/resources/data-imports/quests.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="430">
   <si>
     <t>id</t>
   </si>
@@ -26,6 +26,15 @@
     <t>npc_id</t>
   </si>
   <si>
+    <t>raid_id</t>
+  </si>
+  <si>
+    <t>required_quest_id</t>
+  </si>
+  <si>
+    <t>reincarnated_times</t>
+  </si>
+  <si>
     <t>item_name</t>
   </si>
   <si>
@@ -1203,6 +1212,99 @@
   </si>
   <si>
     <t>You pay The Scholar who begins his incantations, weaving magic here and there. You can feel the magic radiate through the sky, through the earth, the bones of your being, the soul of your mind. You can feel the darkness of hell creep deeper into your soul.&lt;br /&gt; &lt;br /&gt; You can see him, The Creator, a child, a simple child who looks at you, silent – studying.&lt;br /&gt; &lt;br /&gt; He approaches you in this vision of blackness, darkness – endless.&lt;br /&gt; &lt;br /&gt; “You are a child of this world, I am not. It is obvious now that you seek answers. I give you one, your power does not compare to mine, you cannot have what you seek unless you can compare to me. Can you do that? I tell you one thing: Suicide is a tricky business. You end up in one place only to find your self in a prision of your own making. A mind broken, shattered and dislussioned with what you think love is. Yes love, this is all because of love. My entire ceation, power, rage, hate and world I have created is all based … on …”&lt;br /&gt; &lt;br /&gt; A voice from the distance, louder, right in your ear: “CHILD!”&lt;br /&gt; &lt;br /&gt; Love. All of this is based on love.&lt;br /&gt; &lt;br /&gt; “Child!”&lt;br /&gt; &lt;br /&gt; You snap back to the world, back to the hellish world that is quite literally Hell.&lt;br /&gt; &lt;br /&gt; “I don’t know where you went or what just happened, but I have done it. You can reincarnate now!”</t>
+  </si>
+  <si>
+    <t>The Merchants and The Smugglers</t>
+  </si>
+  <si>
+    <t>Stolen Coin</t>
+  </si>
+  <si>
+    <t>Smugglers Coin</t>
+  </si>
+  <si>
+    <t>“Have you heard child?”&lt;br /&gt; &lt;br /&gt; You and the soldier are sitting in the old pub. He is drinking and chewing on old and stale bread while you pick at the cheese in the dingy old and depressing inn.&lt;br /&gt; &lt;br /&gt; You look up at him, the grizzled face, the bags under the eyes, the stress in his posture.&lt;br /&gt; &lt;br /&gt; “They have come back.” His voice goes silent and the whisper is on the air.&lt;br /&gt; &lt;br /&gt; “The smugglers, they use to live here in Smugglers port. The pirates. This was a place, before my time, of undesirable, deplorable and the lowest of the low that called this port town home.”&lt;br /&gt; &lt;br /&gt; You remember the tales of pirates and the illegal trade routes. The merchants, it is said, came through and waged a bloody war. But the details of what started the war are unknown to you. So you ask the soldier who looks you dead in the eyes.&lt;br /&gt; &lt;br /&gt; “A coin. A single coin …”</t>
+  </si>
+  <si>
+    <t>You managed to find a single coin, you have no idea if this is the coin The Soldier was speaking about. He didn’t say much other then a single coin. What about a coin could start a war? Surely merchants and smugglers go hand in hand. How else would you get the goods you stole down the trade routes?&lt;br /&gt; &lt;br /&gt; You walk back up to the inn and sit at the table by the fire place while you wait for the soldier. You study the coin in your hand and see a face on one side and a diamond on the other. There are small words under the diamond: “Merchants Guild”.&lt;br /&gt; &lt;br /&gt; What is this coin?</t>
+  </si>
+  <si>
+    <t>The Smugglers Are Back!</t>
+  </si>
+  <si>
+    <t>The Coin and The Key</t>
+  </si>
+  <si>
+    <t>Pirates Lost Key</t>
+  </si>
+  <si>
+    <t>Corrupted Bracelet</t>
+  </si>
+  <si>
+    <t>You take the coin to the only person who knows anything about mysterious objects, The Poet. Alas even he doesn’t know too much about it, telling you:&lt;br /&gt; &lt;br /&gt; “Child, I have seen a coin similar to this in the past, when The Soldier first arrived here, many years ago. He had one of these coins by him, when he woke up. I studied it for ages, I poured over the texts, I even asked The River Man, the oldest of the …”&lt;br /&gt; &lt;br /&gt; He trails off, before clearing his throat and continuing:&lt;br /&gt; &lt;br /&gt; “Regardless child, I have no idea what this coin means. I do know it has something to do with the pirates attacking smugglers port.”&lt;br /&gt; &lt;br /&gt; He holds the coin before passing it back. Another dead end.</t>
+  </si>
+  <si>
+    <t>The Coin the Soldier gave you is still in your hand. You try and tap into any lost magical abilities within it, alas there is nothing. What are you suppose to do with it? The key you handed in to The Poet is nothing more then a relic of the past. Even asking the Poet what the coin means, he shrugs and tells you the same thing The Soldier told you, he doesn’t know.&lt;br /&gt; &lt;br /&gt; You put the coin back into your pocket and carry it around, like a weight. It must mean something?</t>
+  </si>
+  <si>
+    <t>The Witches Story</t>
+  </si>
+  <si>
+    <t>Shade Dust</t>
+  </si>
+  <si>
+    <t>You spend sometime in Smugglers Port in a chapel staring up at the altar. The Chapel is empty, the silence fills you with a sense of peace, if only for a moment.&lt;br /&gt; &lt;br /&gt; The sounds of war, the sounds of Pirates raiding through the town distract you fro the silence and peace of the chapel.&lt;br /&gt; &lt;br /&gt; You leave the church only to see people running through the streets, screaming, begging. They are cut down one by one, by the pirates who laugh, pillage, rape, burn. You stand and watch for a moment as a pirate grabs a woman by the back of her head, she screams and you run towards her, you ready your weapon and plunge it deep into the pirates neck and rip it out, taking half his neck with your blade.&lt;br /&gt; &lt;br /&gt; The woman screams and runs down the street.&lt;br /&gt; &lt;br /&gt; Its then that an old woman, wrapped in a brown cloak moves towards you. She states in a raspy voice:&lt;br /&gt; &lt;br /&gt; “I see you have questions about a coin child. The shadow of pain might have your answers.”&lt;br /&gt; &lt;br /&gt; She continues to walk past you, you call after her, asking her what she means, but she is gone, fading into the crowd of people trying to hide, run, escape the pirates.</t>
+  </si>
+  <si>
+    <t>The Old Woman turned out to be the Witch. You handed her the copper, you handed her the shade dust, she tells you what she knows of the coin you hold.&lt;br /&gt; &lt;br /&gt; “Long ago, the pirates controlled Smugglers Port, bringing in riches they stole, bringing in spices, alcohol and various goods. There was a time that the Merchants Guild would trade with Smugglers Port, turning a blind eye to the fact that mostly all the items were stolen or counterfeit. “&lt;br /&gt; &lt;br /&gt; She pauses and walks over to a small table covered in books, she flips the top one open, flips a few pages and studies the contents.&lt;br /&gt; &lt;br /&gt; “A caravan of Merchants was once ambushed by the pirates outside of Smugglers Port. The women were brutalized, the children slaughtered or taken into slavery, the men were killed or taken into slavery. This caused the merchants to wage a war on Smugglers Port.”&lt;br /&gt; &lt;br /&gt; You ask her what the coin was, she tells you it was once used for a currency between the merchants and the pirates. She tells you the Scholar of Hell might have a few more answers for you.</t>
+  </si>
+  <si>
+    <t>The Coin and The Necklace</t>
+  </si>
+  <si>
+    <t>Scholars Necklace</t>
+  </si>
+  <si>
+    <t>You spend sometime thinking about what the Witch said. You head on down to Hell, only to be told that The Scholar is seeking a necklace a cultist has stolen from him. He is quite pissed off about the situation. He states he was in Smugglers Port a week ago, when the pirates started attacking.&lt;br /&gt; &lt;br /&gt; You agree to get the necklace for him, but ask about what the Witch told you.&lt;br /&gt; &lt;br /&gt; “She is correct. The coin was once a part of the currency used to trade with the Merchants, she is also correct on the war and how it started. I might have something for you, for that coin and my necklace. Of course, nothing come cheap.”</t>
+  </si>
+  <si>
+    <t>You managed to get the necklace back from the cultist, you handed the necklace and the coin to the Scholar who studies both. He is grateful for his necklace back.&lt;br /&gt; &lt;br /&gt; “This necklace was my mothers. It was lifted off me, I wasn’t wearing it. She gave it to me before I left home, I haven't been back in years, I received a letter from my father some years back that she had passed. I couldn’t go home, the pain of loosing her was too much, so I stay here and research Hell, the various ruins and the history of how this plane came to be.”&lt;br /&gt; &lt;br /&gt; He looks off into the distance and watches the landscape, red, dusty and hot.&lt;br /&gt; &lt;br /&gt; He turns back to you and while holding the coin he states:&lt;br /&gt; &lt;br /&gt; “This coin, its a piece of history. Its a symbol of war, its a symbol of trade and cooperation.”&lt;br /&gt; &lt;br /&gt; He tells you that the war is not over yet and its important that you keep investigating the history of this war. The Witch might have told you a bit about the war, but now is the time to dig deep. Maybe The Merchant has something for you.</t>
+  </si>
+  <si>
+    <t>The Severed Head</t>
+  </si>
+  <si>
+    <t>The Quartermasters Severed Head</t>
+  </si>
+  <si>
+    <t>You have been traveling around Smugglers Port as there have been rumors of The Merchant hiding out some where near Smugglers Port while the Pirates and their various fiendish friends have been raiding, pillaging and brutalizing people.&lt;br /&gt; &lt;br /&gt; You are far enough from Smugglers port that the screams of the innocent are a distant memory, but in the skies behind you rises the smoke and you can see the town burning behind you.&lt;br /&gt; &lt;br /&gt; The Poet appears from no where and startles you.&lt;br /&gt; &lt;br /&gt; “Calm my child! I know you are seeking The Merchant.”&lt;br /&gt; &lt;br /&gt; You tell The Poet what the Witch told you. He listens as you recant the details of how the war started and how the coin was a piece of the currency of the time.&lt;br /&gt; &lt;br /&gt; “Interesting.” He states after a moment of pondering the news.&lt;br /&gt; &lt;br /&gt; “Speaking of interesting things, The Merchant is being hunted by the pirates. You see, he is one of the last of The Merchants who took over Smugglers port all those years ago. He is the only one of his kind who still travels the world. He wont make him self known until he knows the bounty the pirates placed on his head has been removed.”&lt;br /&gt; &lt;br /&gt; You ask him who you have to kill point blank, no expression or emotion to the inflection of your voice.&lt;br /&gt; &lt;br /&gt; “The Quartermaster.”</t>
+  </si>
+  <si>
+    <t>The bloody head of The Quartermaster in hand, you find The Poet outside of smugglers port.&lt;br /&gt; &lt;br /&gt; You hand over the sack with the head, the blood still fresh, the eyes blank with a deathly expression. The skin of the severed head is pale as the blood drains.&lt;br /&gt; &lt;br /&gt; “This is good news child.” He states as he closes the sack you handed him.&lt;br /&gt; &lt;br /&gt; “The Merchant is waiting for you. You know where to find him.”&lt;br /&gt; &lt;br /&gt; The Poet walks off with the head of The Quartermaster. Do you dare to think what his plans are with it. Or is it just a trophy to him.</t>
+  </si>
+  <si>
+    <t>The Walking Stick</t>
+  </si>
+  <si>
+    <t>Merchants Walking Stick</t>
+  </si>
+  <si>
+    <t>You have been searching for The Merchant. He isn’t where he usually is, and he hasn't been seen by anyone. You head back to Smugglers Port, sneaking back into town, being careful to not be seen.&lt;br /&gt; &lt;br /&gt; You manage to enter a shop, the keeper comes running from the shadows, screaming for you to get out. You dodge his flaying attacks, and manage to subdue him.&lt;br /&gt; &lt;br /&gt; “What do you want! You stole everything! You killed my wife! What do you want from me!”&lt;br /&gt; &lt;br /&gt; You tell him you are not interested in harming him, that you are looking for the Wandering Merchant and wonder if he has been through here.&lt;br /&gt; &lt;br /&gt; “Are you joking? The Quartermaster is looking for him! He is the last of the Wandering Merchants – least of the old guard. Sure there are a few merchants that wonder the roads, but he is the last one from the old days.”&lt;br /&gt; &lt;br /&gt; You tell him you already killed The Quartermaster. The Wandering Merchant is the only one that might have some answers as to why The Pirates are invading so many years after the initial war.&lt;br /&gt; &lt;br /&gt; “I don’t know where he is, honest.” He states.&lt;br /&gt; &lt;br /&gt; “But I do know someone who might know --”&lt;br /&gt; &lt;br /&gt; You tell him you already spoke to The Poet and The Soldier.&lt;br /&gt; &lt;br /&gt; “That's not who.” He pauses and looks around before continuing&lt;br /&gt; &lt;br /&gt; “There is a price for the info, but it is not I that wants the price. No, no. I am just a simple shop keeper. A lady, in the depths of the labyrinth, would need to be paid. You know her …. “</t>
+  </si>
+  <si>
+    <t>The Oracle takes the payment. “You have met my requirements quite nicely child!” She smiles and starts to walk away, but remembers something she forgot.&lt;br /&gt; &lt;br /&gt; “Here, take this.” She hands you a walking stick, it seems like a simple stick you would find in the woods.&lt;br /&gt; &lt;br /&gt; “This is the walking stick of the Wandering Merchant. He dropped it when he fled. I think you know where he might be, the stick will guide you.”&lt;br /&gt; &lt;br /&gt; The stick will guide you?</t>
+  </si>
+  <si>
+    <t>The Merchants Necklace</t>
+  </si>
+  <si>
+    <t>Simple Gem Necklace</t>
+  </si>
+  <si>
+    <t>After all the searching, the running around and walking for days, with the stupid stick you come to a small clearing in the wooded area where you see an old man sitting, his bags around him, his head lowered.&lt;br /&gt; &lt;br /&gt; You approach with caution, the stick is getting warmer, not from holding it or the sun, but a magical warmth that flows through the stick, through you. You know instantly who this man is.&lt;br /&gt; &lt;br /&gt; He lifts his head, not looking at you, but straight ahead.&lt;br /&gt; &lt;br /&gt; “You brought me my stick.” He states.&lt;br /&gt; &lt;br /&gt; You walk closer and sit beside him on the ground, holding the stick that is now radiating with warmth, not an uncomfortable warmth, a warmth that makes you feel safe, wanted and for once – in control.&lt;br /&gt; &lt;br /&gt; “I know why you are here, why you have been searching for me.” He states.&lt;br /&gt; &lt;br /&gt; “I remember the war, I remember the deaths – the pain, the loss.” He goes silent for a moment and then looks at you.&lt;br /&gt; &lt;br /&gt; “You have my stick, but I need one other thing from you.”&lt;br /&gt; &lt;br /&gt; He tells you that there is a amulet, owned by a Shadow Merchant, one who betrayed the Merchants guild and sided with the pirates for his own greed. Kill the merchant, get the amulet – sounds easy right?</t>
+  </si>
+  <si>
+    <t>After the battle you searched the body, alas no amulet was found. You searched the corpse, even ripped open its guts and sifted around through the intestines. A few moments later you step away from the eviscerated and bloody corpse, only to hurl.&lt;br /&gt; &lt;br /&gt; Where is the damn Amulet. You see something shiny in the grass, you walk over and find a small gem attached to a necklace, could this be what the Merchant is looking for?&lt;br /&gt; &lt;br /&gt; You head back to where he is. He sits alone I the same spot you found him.&lt;br /&gt; &lt;br /&gt; “Did you find it child?” he asks.&lt;br /&gt; &lt;br /&gt; You hand over the stick, the necklace and he smiles. “This amulet, small as it might be, was my mothers.” He pauses and studies it and holds it close to him.&lt;br /&gt; &lt;br /&gt; After a moment, you ask him about the war, relaying the stories you have been told, the information you have gathered and the fact that The Quartermaster is dead.&lt;br /&gt; &lt;br /&gt; “Of course he’s dead child. The Poet proved it. What you have been told is all true. We once traded with these pirates. Alas the death of a caravan put a stop to that. The Son of the Pirate Lords is exactly what he is, an orphaned boy raided by the Pirates of the high seas. He seeks retribution for the war, he pillages, raids and kills those who get in his way.”&lt;br /&gt; &lt;br /&gt; The Wandering Merchants stands and stretches his old bones, but before you there is a wind, a gust of magic in the air. And as your eyes blink, one moment he is old, the next he is young.&lt;br /&gt; &lt;br /&gt; “You have done a great service for me today. I ask that you kill this “Son”. Kill him and set us all free. Do this for me child. I beg of you.”&lt;br /&gt; &lt;br /&gt; He walks away from you and vanishes before your eyes.&lt;br /&gt; &lt;br /&gt; Is that it? You think, is that all there is? You know what you have to do now. Kill the Son of the Pirate Lords.</t>
   </si>
 </sst>
 </file>
@@ -1230,15 +1332,19 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1538,7 +1644,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:X85"/>
+  <dimension ref="A1:AA92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1546,33 +1652,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="43" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="48" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="17" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="12" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="19" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="41" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="19" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="13" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="22" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="18" bestFit="true" customWidth="true" style="0"/>
-    <col min="18" max="18" width="41" bestFit="true" customWidth="true" style="0"/>
-    <col min="19" max="19" width="23" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="26" bestFit="true" customWidth="true" style="0"/>
-    <col min="21" max="21" width="18" bestFit="true" customWidth="true" style="0"/>
-    <col min="22" max="22" width="22" bestFit="true" customWidth="true" style="0"/>
-    <col min="23" max="23" width="2557" bestFit="true" customWidth="true" style="0"/>
-    <col min="24" max="24" width="2966" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="3.428" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="43.561" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="48.274" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="21.138" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="22.28" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="16.425" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="41.133" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="19.995" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="19.995" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="19.995" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="16.425" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="13.997" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="16.425" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="41.133" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="18.71" bestFit="true" customWidth="true" style="0"/>
+    <col min="21" max="21" width="34.135" bestFit="true" customWidth="true" style="0"/>
+    <col min="22" max="22" width="23.423" bestFit="true" customWidth="true" style="0"/>
+    <col min="23" max="23" width="2557.518" bestFit="true" customWidth="true" style="0"/>
+    <col min="24" max="24" width="2966.847" bestFit="true" customWidth="true" style="0"/>
+    <col min="25" max="25" width="28.136" bestFit="true" customWidth="true" style="0"/>
+    <col min="26" max="26" width="35.277" bestFit="true" customWidth="true" style="0"/>
+    <col min="27" max="27" width="34.135" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:27">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1645,19 +1754,28 @@
       <c r="X1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J2">
         <v>10000</v>
@@ -1672,7 +1790,7 @@
         <v>100</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O2">
         <v>4</v>
@@ -1681,27 +1799,27 @@
         <v>1</v>
       </c>
       <c r="W2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="X2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C3">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J3">
         <v>1000</v>
@@ -1719,27 +1837,27 @@
         <v>1</v>
       </c>
       <c r="W3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C4">
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J4">
         <v>1000</v>
@@ -1757,27 +1875,27 @@
         <v>1</v>
       </c>
       <c r="W4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="X4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J5">
         <v>1000</v>
@@ -1795,27 +1913,27 @@
         <v>1</v>
       </c>
       <c r="W5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="X5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J6">
         <v>1000</v>
@@ -1833,27 +1951,27 @@
         <v>1</v>
       </c>
       <c r="W6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="X6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J7">
         <v>1000</v>
@@ -1871,27 +1989,27 @@
         <v>1</v>
       </c>
       <c r="W7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="X7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C8">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="J8">
         <v>1000</v>
@@ -1909,27 +2027,27 @@
         <v>10</v>
       </c>
       <c r="W8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="X8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C9">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J9">
         <v>2000</v>
@@ -1947,18 +2065,18 @@
         <v>8</v>
       </c>
       <c r="W9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="X9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10">
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -1967,7 +2085,7 @@
         <v>5000</v>
       </c>
       <c r="I10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J10">
         <v>1000</v>
@@ -1985,18 +2103,18 @@
         <v>1</v>
       </c>
       <c r="W10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="X10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11">
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -2005,24 +2123,24 @@
         <v>25000</v>
       </c>
       <c r="I11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P11">
         <v>1</v>
       </c>
       <c r="W11" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="X11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12">
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -2031,24 +2149,24 @@
         <v>25000</v>
       </c>
       <c r="I12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q12">
         <v>10</v>
       </c>
       <c r="W12" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13">
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -2057,123 +2175,123 @@
         <v>25000</v>
       </c>
       <c r="I13" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q13">
         <v>12</v>
       </c>
       <c r="W13" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="X13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14">
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C14">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E14">
         <v>30000</v>
       </c>
       <c r="I14" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="Q14">
         <v>13</v>
       </c>
       <c r="W14" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="X14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15">
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C15">
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E15">
         <v>50000</v>
       </c>
       <c r="I15" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Q15">
         <v>14</v>
       </c>
       <c r="W15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="X15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16">
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C16">
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E16">
         <v>75000</v>
       </c>
       <c r="I16" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q16">
         <v>15</v>
       </c>
       <c r="W16" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="X16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
       <c r="A17">
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C17">
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E17">
         <v>50000</v>
       </c>
       <c r="I17" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J17">
         <v>100000</v>
@@ -2191,24 +2309,24 @@
         <v>1</v>
       </c>
       <c r="W17" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="X17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
       <c r="A18">
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C18">
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E18">
         <v>10000</v>
@@ -2238,24 +2356,24 @@
         <v>3</v>
       </c>
       <c r="W18" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="X18" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
       <c r="A19">
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C19">
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E19">
         <v>10000</v>
@@ -2264,7 +2382,7 @@
         <v>200</v>
       </c>
       <c r="I19" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J19">
         <v>20000</v>
@@ -2288,24 +2406,24 @@
         <v>5</v>
       </c>
       <c r="W19" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="X19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
       <c r="A20">
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C20">
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E20">
         <v>1000</v>
@@ -2314,7 +2432,7 @@
         <v>100</v>
       </c>
       <c r="I20" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="J20">
         <v>500</v>
@@ -2332,7 +2450,7 @@
         <v>9</v>
       </c>
       <c r="R20" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="S20">
         <v>3</v>
@@ -2341,24 +2459,24 @@
         <v>5</v>
       </c>
       <c r="W20" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="X20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
       <c r="A21">
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C21">
         <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E21">
         <v>5000</v>
@@ -2367,7 +2485,7 @@
         <v>150</v>
       </c>
       <c r="I21" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J21">
         <v>1500</v>
@@ -2385,7 +2503,7 @@
         <v>20</v>
       </c>
       <c r="R21" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="S21">
         <v>1</v>
@@ -2394,24 +2512,24 @@
         <v>5</v>
       </c>
       <c r="W21" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="X21" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
       <c r="A22">
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C22">
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E22">
         <v>20000</v>
@@ -2423,7 +2541,7 @@
         <v>1000000000</v>
       </c>
       <c r="I22" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J22">
         <v>1500</v>
@@ -2441,7 +2559,7 @@
         <v>19</v>
       </c>
       <c r="R22" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="S22">
         <v>2</v>
@@ -2450,24 +2568,24 @@
         <v>5</v>
       </c>
       <c r="W22" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="X22" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
       <c r="A23">
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="J23">
         <v>2000</v>
@@ -2491,24 +2609,24 @@
         <v>1</v>
       </c>
       <c r="W23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="X23" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
       <c r="A24">
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J24">
         <v>5000</v>
@@ -2532,24 +2650,24 @@
         <v>2</v>
       </c>
       <c r="W24" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="X24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
       <c r="A25">
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C25">
         <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E25">
         <v>10000</v>
@@ -2558,7 +2676,7 @@
         <v>1000</v>
       </c>
       <c r="I25" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="J25">
         <v>20000</v>
@@ -2576,21 +2694,21 @@
         <v>22</v>
       </c>
       <c r="R25" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="W25" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="X25" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
       <c r="A26">
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C26">
         <v>8</v>
@@ -2617,27 +2735,27 @@
         <v>5</v>
       </c>
       <c r="W26" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="X26" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
       <c r="A27">
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C27">
         <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I27" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J27">
         <v>1000</v>
@@ -2655,27 +2773,27 @@
         <v>24</v>
       </c>
       <c r="R27" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="W27" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="X27" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
       <c r="A28">
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C28">
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E28">
         <v>20000</v>
@@ -2687,7 +2805,7 @@
         <v>2000000000</v>
       </c>
       <c r="I28" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="J28">
         <v>10000</v>
@@ -2705,27 +2823,27 @@
         <v>27</v>
       </c>
       <c r="R28" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="W28" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="X28" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
       <c r="A29">
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C29">
         <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="J29">
         <v>3000</v>
@@ -2749,27 +2867,27 @@
         <v>3</v>
       </c>
       <c r="W29" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="X29" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
       <c r="A30">
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C30">
         <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I30" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="J30">
         <v>20000</v>
@@ -2793,27 +2911,27 @@
         <v>5</v>
       </c>
       <c r="W30" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="X30" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
       <c r="A31">
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C31">
         <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="I31" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="J31">
         <v>100</v>
@@ -2831,24 +2949,24 @@
         <v>16</v>
       </c>
       <c r="W31" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="X31" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27">
       <c r="A32">
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C32">
         <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E32">
         <v>30000</v>
@@ -2857,7 +2975,7 @@
         <v>1500</v>
       </c>
       <c r="I32" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="J32">
         <v>100000</v>
@@ -2875,30 +2993,30 @@
         <v>31</v>
       </c>
       <c r="R32" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="W32" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="X32" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27">
       <c r="A33">
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C33">
         <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="I33" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="J33">
         <v>1000</v>
@@ -2922,24 +3040,24 @@
         <v>1</v>
       </c>
       <c r="W33" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="X33" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27">
       <c r="A34">
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C34">
         <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E34">
         <v>1000</v>
@@ -2948,7 +3066,7 @@
         <v>100</v>
       </c>
       <c r="I34" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="J34">
         <v>500</v>
@@ -2966,27 +3084,27 @@
         <v>37</v>
       </c>
       <c r="R34" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="W34" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="X34" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27">
       <c r="A35">
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C35">
         <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E35">
         <v>1500</v>
@@ -2995,7 +3113,7 @@
         <v>200</v>
       </c>
       <c r="I35" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="J35">
         <v>750</v>
@@ -3013,7 +3131,7 @@
         <v>34</v>
       </c>
       <c r="R35" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="S35">
         <v>3</v>
@@ -3022,24 +3140,24 @@
         <v>3</v>
       </c>
       <c r="W35" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="X35" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27">
       <c r="A36">
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C36">
         <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E36">
         <v>3000</v>
@@ -3048,7 +3166,7 @@
         <v>500</v>
       </c>
       <c r="I36" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J36">
         <v>1500</v>
@@ -3066,7 +3184,7 @@
         <v>35</v>
       </c>
       <c r="R36" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="S36">
         <v>2</v>
@@ -3075,18 +3193,18 @@
         <v>5</v>
       </c>
       <c r="W36" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="X36" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27">
       <c r="A37">
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C37">
         <v>16</v>
@@ -3098,7 +3216,7 @@
         <v>50</v>
       </c>
       <c r="I37" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="J37">
         <v>250</v>
@@ -3116,24 +3234,24 @@
         <v>1</v>
       </c>
       <c r="W37" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="X37" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27">
       <c r="A38">
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C38">
         <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E38">
         <v>8000</v>
@@ -3142,7 +3260,7 @@
         <v>1200</v>
       </c>
       <c r="I38" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="J38">
         <v>4000</v>
@@ -3160,7 +3278,7 @@
         <v>36</v>
       </c>
       <c r="R38" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="S38">
         <v>5</v>
@@ -3169,18 +3287,18 @@
         <v>1</v>
       </c>
       <c r="W38" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="X38" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27">
       <c r="A39">
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C39">
         <v>15</v>
@@ -3192,7 +3310,7 @@
         <v>50</v>
       </c>
       <c r="I39" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="J39">
         <v>500</v>
@@ -3210,18 +3328,18 @@
         <v>33</v>
       </c>
       <c r="W39" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="X39" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27">
       <c r="A40">
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C40">
         <v>17</v>
@@ -3248,24 +3366,24 @@
         <v>1</v>
       </c>
       <c r="W40" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="X40" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27">
       <c r="A41">
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C41">
         <v>17</v>
       </c>
       <c r="D41" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="L41">
         <v>100000000</v>
@@ -3283,27 +3401,27 @@
         <v>5</v>
       </c>
       <c r="W41" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="X41" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27">
       <c r="A42">
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C42">
         <v>17</v>
       </c>
       <c r="D42" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="I42" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="J42">
         <v>10000</v>
@@ -3321,7 +3439,7 @@
         <v>41</v>
       </c>
       <c r="R42" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="S42">
         <v>4</v>
@@ -3330,24 +3448,24 @@
         <v>5</v>
       </c>
       <c r="W42" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="X42" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27">
       <c r="A43">
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C43">
         <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E43">
         <v>10000</v>
@@ -3359,7 +3477,7 @@
         <v>75</v>
       </c>
       <c r="I43" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="J43">
         <v>5000</v>
@@ -3377,7 +3495,7 @@
         <v>37</v>
       </c>
       <c r="R43" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="S43">
         <v>5</v>
@@ -3386,24 +3504,24 @@
         <v>3</v>
       </c>
       <c r="W43" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="X43" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27">
       <c r="A44">
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C44">
         <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E44">
         <v>15000</v>
@@ -3415,7 +3533,7 @@
         <v>125</v>
       </c>
       <c r="I44" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J44">
         <v>5000</v>
@@ -3433,7 +3551,7 @@
         <v>43</v>
       </c>
       <c r="R44" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="S44">
         <v>5</v>
@@ -3442,24 +3560,24 @@
         <v>5</v>
       </c>
       <c r="W44" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="X44" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27">
       <c r="A45">
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C45">
         <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E45">
         <v>25000</v>
@@ -3474,7 +3592,7 @@
         <v>500</v>
       </c>
       <c r="I45" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L45">
         <v>200000000</v>
@@ -3486,21 +3604,21 @@
         <v>44</v>
       </c>
       <c r="R45" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="W45" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="X45" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27">
       <c r="A46">
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C46">
         <v>11</v>
@@ -3527,24 +3645,24 @@
         <v>1</v>
       </c>
       <c r="W46" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="X46" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27">
       <c r="A47">
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C47">
         <v>5</v>
       </c>
       <c r="D47" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E47">
         <v>30000</v>
@@ -3568,56 +3686,56 @@
         <v>46</v>
       </c>
       <c r="R47" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="W47" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="X47" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27">
       <c r="A48">
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C48">
         <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="I48" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q48">
         <v>47</v>
       </c>
       <c r="R48" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="W48" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="X48" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27">
       <c r="A49">
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C49">
         <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E49">
         <v>30000</v>
@@ -3632,7 +3750,7 @@
         <v>1000</v>
       </c>
       <c r="I49" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="J49">
         <v>1500</v>
@@ -3650,27 +3768,27 @@
         <v>48</v>
       </c>
       <c r="R49" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="W49" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="X49" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27">
       <c r="A50">
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C50">
         <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E50">
         <v>50000</v>
@@ -3682,7 +3800,7 @@
         <v>10000000</v>
       </c>
       <c r="I50" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="J50">
         <v>1000</v>
@@ -3700,18 +3818,18 @@
         <v>48</v>
       </c>
       <c r="W50" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="X50" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27">
       <c r="A51">
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C51">
         <v>15</v>
@@ -3720,24 +3838,24 @@
         <v>1000</v>
       </c>
       <c r="I51" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q51">
         <v>33</v>
       </c>
       <c r="W51" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="X51" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27">
       <c r="A52">
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C52">
         <v>15</v>
@@ -3746,7 +3864,7 @@
         <v>1000</v>
       </c>
       <c r="I52" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="L52">
         <v>100</v>
@@ -3758,30 +3876,30 @@
         <v>33</v>
       </c>
       <c r="W52" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="X52" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="53" spans="1:24">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27">
       <c r="A53">
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C53">
         <v>15</v>
       </c>
       <c r="D53" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E53">
         <v>1500</v>
       </c>
       <c r="I53" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L53">
         <v>1000</v>
@@ -3799,30 +3917,30 @@
         <v>1</v>
       </c>
       <c r="W53" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="X53" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="54" spans="1:24">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27">
       <c r="A54">
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C54">
         <v>15</v>
       </c>
       <c r="D54" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E54">
         <v>3000</v>
       </c>
       <c r="I54" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L54">
         <v>100000</v>
@@ -3834,30 +3952,30 @@
         <v>53</v>
       </c>
       <c r="W54" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="X54" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="55" spans="1:24">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27">
       <c r="A55">
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C55">
         <v>15</v>
       </c>
       <c r="D55" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E55">
         <v>6000</v>
       </c>
       <c r="I55" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="L55">
         <v>1000000</v>
@@ -3869,30 +3987,30 @@
         <v>54</v>
       </c>
       <c r="W55" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="X55" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="56" spans="1:24">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27">
       <c r="A56">
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C56">
         <v>15</v>
       </c>
       <c r="D56" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E56">
         <v>1000</v>
       </c>
       <c r="I56" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="L56">
         <v>1000</v>
@@ -3910,30 +4028,30 @@
         <v>3</v>
       </c>
       <c r="W56" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="X56" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27">
       <c r="A57">
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C57">
         <v>15</v>
       </c>
       <c r="D57" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E57">
         <v>1500</v>
       </c>
       <c r="I57" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L57">
         <v>10000</v>
@@ -3945,30 +4063,30 @@
         <v>56</v>
       </c>
       <c r="W57" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="X57" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27">
       <c r="A58">
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C58">
         <v>15</v>
       </c>
       <c r="D58" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E58">
         <v>3000</v>
       </c>
       <c r="I58" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="L58">
         <v>1000000</v>
@@ -3980,30 +4098,30 @@
         <v>57</v>
       </c>
       <c r="W58" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="X58" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="59" spans="1:24">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27">
       <c r="A59">
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C59">
         <v>15</v>
       </c>
       <c r="D59" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E59">
         <v>1500</v>
       </c>
       <c r="I59" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="L59">
         <v>1000</v>
@@ -4021,30 +4139,30 @@
         <v>5</v>
       </c>
       <c r="W59" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="X59" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27">
       <c r="A60">
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C60">
         <v>15</v>
       </c>
       <c r="D60" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E60">
         <v>3000</v>
       </c>
       <c r="I60" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="L60">
         <v>100000</v>
@@ -4056,30 +4174,30 @@
         <v>59</v>
       </c>
       <c r="W60" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="X60" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27">
       <c r="A61">
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C61">
         <v>15</v>
       </c>
       <c r="D61" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E61">
         <v>5000</v>
       </c>
       <c r="I61" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="L61">
         <v>1000000</v>
@@ -4091,24 +4209,24 @@
         <v>60</v>
       </c>
       <c r="W61" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="X61" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="62" spans="1:24">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27">
       <c r="A62">
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C62">
         <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E62">
         <v>5000</v>
@@ -4117,7 +4235,7 @@
         <v>5</v>
       </c>
       <c r="I62" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="J62">
         <v>10000</v>
@@ -4141,30 +4259,30 @@
         <v>2</v>
       </c>
       <c r="W62" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="X62" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="63" spans="1:24">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27">
       <c r="A63">
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C63">
         <v>15</v>
       </c>
       <c r="D63" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E63">
         <v>1000</v>
       </c>
       <c r="I63" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="L63">
         <v>1000</v>
@@ -4182,24 +4300,24 @@
         <v>3</v>
       </c>
       <c r="W63" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="X63" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="64" spans="1:24">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27">
       <c r="A64">
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C64">
         <v>15</v>
       </c>
       <c r="D64" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E64">
         <v>2000</v>
@@ -4208,7 +4326,7 @@
         <v>10</v>
       </c>
       <c r="I64" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K64">
         <v>20</v>
@@ -4223,24 +4341,24 @@
         <v>63</v>
       </c>
       <c r="W64" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="X64" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="65" spans="1:24">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27">
       <c r="A65">
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C65">
         <v>15</v>
       </c>
       <c r="D65" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E65">
         <v>5000</v>
@@ -4249,7 +4367,7 @@
         <v>10</v>
       </c>
       <c r="I65" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="J65">
         <v>10000</v>
@@ -4273,30 +4391,30 @@
         <v>1</v>
       </c>
       <c r="W65" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="X65" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="66" spans="1:24">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27">
       <c r="A66">
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C66">
         <v>12</v>
       </c>
       <c r="D66" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="H66">
         <v>500</v>
       </c>
       <c r="I66" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -4314,7 +4432,7 @@
         <v>1</v>
       </c>
       <c r="R66" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="S66">
         <v>4</v>
@@ -4323,30 +4441,30 @@
         <v>5</v>
       </c>
       <c r="W66" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="X66" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="67" spans="1:24">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27">
       <c r="A67">
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C67">
         <v>12</v>
       </c>
       <c r="D67" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="H67">
         <v>1000</v>
       </c>
       <c r="I67" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -4364,33 +4482,33 @@
         <v>66</v>
       </c>
       <c r="R67" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="W67" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="X67" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="68" spans="1:24">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27">
       <c r="A68">
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C68">
         <v>12</v>
       </c>
       <c r="D68" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="H68">
         <v>1500</v>
       </c>
       <c r="I68" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -4408,33 +4526,33 @@
         <v>67</v>
       </c>
       <c r="R68" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="W68" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="X68" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="69" spans="1:24">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27">
       <c r="A69">
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C69">
         <v>12</v>
       </c>
       <c r="D69" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="H69">
         <v>3000</v>
       </c>
       <c r="I69" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -4452,27 +4570,27 @@
         <v>68</v>
       </c>
       <c r="R69" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="W69" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="X69" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="70" spans="1:24">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27">
       <c r="A70">
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C70">
         <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E70">
         <v>10000</v>
@@ -4499,21 +4617,21 @@
         <v>66</v>
       </c>
       <c r="R70" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="W70" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="X70" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="71" spans="1:24">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27">
       <c r="A71">
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C71">
         <v>10</v>
@@ -4540,24 +4658,24 @@
         <v>70</v>
       </c>
       <c r="W71" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="X71" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="72" spans="1:24">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27">
       <c r="A72">
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C72">
         <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="E72">
         <v>25000</v>
@@ -4569,7 +4687,7 @@
         <v>10000</v>
       </c>
       <c r="I72" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="L72">
         <v>2000000000</v>
@@ -4581,24 +4699,24 @@
         <v>71</v>
       </c>
       <c r="W72" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="X72" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="73" spans="1:24">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27">
       <c r="A73">
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C73">
         <v>16</v>
       </c>
       <c r="D73" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="J73">
         <v>10000</v>
@@ -4616,24 +4734,24 @@
         <v>37</v>
       </c>
       <c r="W73" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="X73" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="74" spans="1:24">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27">
       <c r="A74">
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C74">
         <v>16</v>
       </c>
       <c r="D74" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="J74">
         <v>15000</v>
@@ -4651,24 +4769,24 @@
         <v>73</v>
       </c>
       <c r="W74" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="X74" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="75" spans="1:24">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27">
       <c r="A75">
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C75">
         <v>16</v>
       </c>
       <c r="D75" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="J75">
         <v>20000</v>
@@ -4686,21 +4804,21 @@
         <v>74</v>
       </c>
       <c r="R75" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="W75" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="X75" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="76" spans="1:24">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27">
       <c r="A76">
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C76">
         <v>16</v>
@@ -4721,24 +4839,24 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="X76" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="77" spans="1:24">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27">
       <c r="A77">
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C77">
         <v>18</v>
       </c>
       <c r="D77" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="J77">
         <v>1000</v>
@@ -4756,24 +4874,24 @@
         <v>40</v>
       </c>
       <c r="W77" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="X77" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="78" spans="1:24">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27">
       <c r="A78">
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C78">
         <v>18</v>
       </c>
       <c r="D78" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="J78">
         <v>1000</v>
@@ -4791,24 +4909,24 @@
         <v>77</v>
       </c>
       <c r="W78" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="X78" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="79" spans="1:24">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27">
       <c r="A79">
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C79">
         <v>18</v>
       </c>
       <c r="D79" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="J79">
         <v>1000</v>
@@ -4826,27 +4944,27 @@
         <v>78</v>
       </c>
       <c r="R79" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="W79" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="X79" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="80" spans="1:24">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27">
       <c r="A80">
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C80">
         <v>19</v>
       </c>
       <c r="D80" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="J80">
         <v>1000</v>
@@ -4864,24 +4982,24 @@
         <v>48</v>
       </c>
       <c r="W80" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="X80" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="81" spans="1:24">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27">
       <c r="A81">
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C81">
         <v>19</v>
       </c>
       <c r="I81" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="J81">
         <v>1000</v>
@@ -4905,24 +5023,24 @@
         <v>5</v>
       </c>
       <c r="W81" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="X81" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="82" spans="1:24">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27">
       <c r="A82">
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C82">
         <v>18</v>
       </c>
       <c r="D82" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="J82">
         <v>10000</v>
@@ -4940,30 +5058,30 @@
         <v>79</v>
       </c>
       <c r="R82" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="V82">
         <v>10</v>
       </c>
       <c r="W82" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="X82" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="83" spans="1:24">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="83" spans="1:27">
       <c r="A83">
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C83">
         <v>18</v>
       </c>
       <c r="D83" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E83">
         <v>10000</v>
@@ -4990,24 +5108,24 @@
         <v>40</v>
       </c>
       <c r="W83" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="X83" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="84" spans="1:24">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="84" spans="1:27">
       <c r="A84">
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C84">
         <v>18</v>
       </c>
       <c r="D84" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="J84">
         <v>5000</v>
@@ -5025,21 +5143,21 @@
         <v>83</v>
       </c>
       <c r="R84" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="W84" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="X84" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="85" spans="1:24">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="85" spans="1:27">
       <c r="A85">
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C85">
         <v>18</v>
@@ -5075,10 +5193,294 @@
         <v>1</v>
       </c>
       <c r="W85" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="X85" t="s">
-        <v>395</v>
+        <v>398</v>
+      </c>
+    </row>
+    <row r="86" spans="1:27">
+      <c r="A86">
+        <v>86</v>
+      </c>
+      <c r="B86" t="s">
+        <v>399</v>
+      </c>
+      <c r="C86">
+        <v>2</v>
+      </c>
+      <c r="D86" t="s">
+        <v>400</v>
+      </c>
+      <c r="I86" t="s">
+        <v>401</v>
+      </c>
+      <c r="J86">
+        <v>10000</v>
+      </c>
+      <c r="K86">
+        <v>1000</v>
+      </c>
+      <c r="L86">
+        <v>150000000</v>
+      </c>
+      <c r="M86">
+        <v>1000</v>
+      </c>
+      <c r="P86">
+        <v>1</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>402</v>
+      </c>
+      <c r="X86" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27">
+      <c r="A87">
+        <v>87</v>
+      </c>
+      <c r="B87" t="s">
+        <v>405</v>
+      </c>
+      <c r="C87">
+        <v>3</v>
+      </c>
+      <c r="D87" t="s">
+        <v>406</v>
+      </c>
+      <c r="I87" t="s">
+        <v>407</v>
+      </c>
+      <c r="M87">
+        <v>1000</v>
+      </c>
+      <c r="Q87">
+        <v>86</v>
+      </c>
+      <c r="W87" t="s">
+        <v>408</v>
+      </c>
+      <c r="X87" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27">
+      <c r="A88">
+        <v>88</v>
+      </c>
+      <c r="B88" t="s">
+        <v>410</v>
+      </c>
+      <c r="C88">
+        <v>4</v>
+      </c>
+      <c r="D88" t="s">
+        <v>407</v>
+      </c>
+      <c r="H88">
+        <v>5000</v>
+      </c>
+      <c r="L88">
+        <v>10000</v>
+      </c>
+      <c r="M88">
+        <v>5000</v>
+      </c>
+      <c r="Q88">
+        <v>86</v>
+      </c>
+      <c r="R88" t="s">
+        <v>411</v>
+      </c>
+      <c r="W88" t="s">
+        <v>412</v>
+      </c>
+      <c r="X88" t="s">
+        <v>413</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="89" spans="1:27">
+      <c r="A89">
+        <v>89</v>
+      </c>
+      <c r="B89" t="s">
+        <v>414</v>
+      </c>
+      <c r="C89">
+        <v>18</v>
+      </c>
+      <c r="D89" t="s">
+        <v>415</v>
+      </c>
+      <c r="E89">
+        <v>25000</v>
+      </c>
+      <c r="F89">
+        <v>1000</v>
+      </c>
+      <c r="H89">
+        <v>5000</v>
+      </c>
+      <c r="L89">
+        <v>2000000000</v>
+      </c>
+      <c r="M89">
+        <v>5000</v>
+      </c>
+      <c r="Q89">
+        <v>88</v>
+      </c>
+      <c r="R89" t="s">
+        <v>400</v>
+      </c>
+      <c r="W89" t="s">
+        <v>416</v>
+      </c>
+      <c r="X89" t="s">
+        <v>417</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="90" spans="1:27">
+      <c r="A90">
+        <v>90</v>
+      </c>
+      <c r="B90" t="s">
+        <v>418</v>
+      </c>
+      <c r="C90">
+        <v>3</v>
+      </c>
+      <c r="D90" t="s">
+        <v>419</v>
+      </c>
+      <c r="J90">
+        <v>1000</v>
+      </c>
+      <c r="K90">
+        <v>1000</v>
+      </c>
+      <c r="L90">
+        <v>20000</v>
+      </c>
+      <c r="M90">
+        <v>2000</v>
+      </c>
+      <c r="Q90">
+        <v>87</v>
+      </c>
+      <c r="W90" t="s">
+        <v>420</v>
+      </c>
+      <c r="X90" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>404</v>
+      </c>
+      <c r="Z90" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="91" spans="1:27">
+      <c r="A91">
+        <v>91</v>
+      </c>
+      <c r="B91" t="s">
+        <v>422</v>
+      </c>
+      <c r="C91">
+        <v>6</v>
+      </c>
+      <c r="E91">
+        <v>250000</v>
+      </c>
+      <c r="F91">
+        <v>20000</v>
+      </c>
+      <c r="G91">
+        <v>1000000000</v>
+      </c>
+      <c r="H91">
+        <v>1000</v>
+      </c>
+      <c r="I91" t="s">
+        <v>423</v>
+      </c>
+      <c r="L91">
+        <v>10000</v>
+      </c>
+      <c r="M91">
+        <v>2000</v>
+      </c>
+      <c r="Q91">
+        <v>90</v>
+      </c>
+      <c r="W91" t="s">
+        <v>424</v>
+      </c>
+      <c r="X91" t="s">
+        <v>425</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>404</v>
+      </c>
+      <c r="AA91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:27">
+      <c r="A92">
+        <v>92</v>
+      </c>
+      <c r="B92" t="s">
+        <v>426</v>
+      </c>
+      <c r="C92">
+        <v>8</v>
+      </c>
+      <c r="D92" t="s">
+        <v>423</v>
+      </c>
+      <c r="L92">
+        <v>2000000000</v>
+      </c>
+      <c r="M92">
+        <v>20000</v>
+      </c>
+      <c r="Q92">
+        <v>86</v>
+      </c>
+      <c r="R92" t="s">
+        <v>427</v>
+      </c>
+      <c r="W92" t="s">
+        <v>428</v>
+      </c>
+      <c r="X92" t="s">
+        <v>429</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>404</v>
+      </c>
+      <c r="Z92" t="s">
+        <v>422</v>
       </c>
     </row>
   </sheetData>
